--- a/afar_project/csv_path/excel_files/depreciation.xlsx
+++ b/afar_project/csv_path/excel_files/depreciation.xlsx
@@ -603,7 +603,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-17-0000</t>
+          <t>FRC-SLM-7.0-O-17-0001</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -719,7 +719,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-17-0000</t>
+          <t>FRC-SLM-7.0-O-17-0002</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-17-0000</t>
+          <t>FRC-SLM-7.0-O-17-0003</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -943,7 +943,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-17-0000</t>
+          <t>FRC-SLM-7.0-O-17-0004</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -1055,7 +1055,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-17-0000</t>
+          <t>FRC-SLM-7.0-O-17-0005</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -1167,7 +1167,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-17-0000</t>
+          <t>FRC-SLM-7.0-O-17-0006</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -1279,7 +1279,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-17-0000</t>
+          <t>FRC-SLM-7.0-O-17-0007</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -1391,7 +1391,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-17-0000</t>
+          <t>FRC-SLM-7.0-O-17-0008</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -1501,7 +1501,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-17-0000</t>
+          <t>FRC-SLM-7.0-O-17-0009</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -1613,7 +1613,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-17-0000</t>
+          <t>FRC-SLM-7.0-C-17-0010</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -1725,7 +1725,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-17-0000</t>
+          <t>FRC-SLM-7.0-C-17-0011</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -1837,7 +1837,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-17-0000</t>
+          <t>FRC-SLM-7.0-O-17-0012</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -1947,7 +1947,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-17-0000</t>
+          <t>FRC-SLM-7.0-O-17-0013</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -2059,7 +2059,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-17-0000</t>
+          <t>FRC-SLM-7.0-F-17-0014</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -2175,7 +2175,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-17-0000</t>
+          <t>FRC-SLM-7.0-O-17-0015</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -2287,7 +2287,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-17-0000</t>
+          <t>FRC-SLM-7.0-O-17-0016</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -2399,7 +2399,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-17-0000</t>
+          <t>FRC-SLM-7.0-F-17-0017</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -2515,7 +2515,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-17-0000</t>
+          <t>FRC-SLM-7.0-O-17-0018</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -2631,7 +2631,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-17-0000</t>
+          <t>FRC-SLM-7.0-F-17-0019</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -2747,7 +2747,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-17-0000</t>
+          <t>FRC-SLM-7.0-F-17-0020</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -2859,7 +2859,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-17-0000</t>
+          <t>FRC-SLM-7.0-O-17-0021</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -2969,7 +2969,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-17-0000</t>
+          <t>FRC-SLM-7.0-O-17-0022</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -3081,7 +3081,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-17-0000</t>
+          <t>FRC-SLM-7.0-O-17-0023</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -3193,7 +3193,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-17-0000</t>
+          <t>FRC-SLM-7.0-F-17-0024</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -3305,7 +3305,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-17-0000</t>
+          <t>FRC-SLM-7.0-F-17-0025</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -3417,7 +3417,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-17-0000</t>
+          <t>FRC-SLM-7.0-F-17-0026</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -3529,7 +3529,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-17-0000</t>
+          <t>FRC-SLM-7.0-F-17-0027</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -3641,7 +3641,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-17-0000</t>
+          <t>FRC-SLM-7.0-O-17-0028</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -3757,7 +3757,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-17-0000</t>
+          <t>FRC-SLM-7.0-F-17-0029</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -3869,7 +3869,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-17-0000</t>
+          <t>FRC-SLM-7.0-F-17-0030</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -3981,7 +3981,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-17-0000</t>
+          <t>FRC-SLM-7.0-F-17-0031</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -4093,7 +4093,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-17-0000</t>
+          <t>FRC-SLM-7.0-O-17-0032</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -4203,7 +4203,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-17-0000</t>
+          <t>FRC-SLM-7.0-F-17-0033</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -4313,7 +4313,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-17-0000</t>
+          <t>FRC-SLM-7.0-O-17-0034</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -4425,7 +4425,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-17-0000</t>
+          <t>FRC-SLM-7.0-F-17-0035</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -4537,7 +4537,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-17-0000</t>
+          <t>FRC-SLM-7.0-O-17-0036</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -4649,7 +4649,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-17-0000</t>
+          <t>FRC-SLM-7.0-O-17-0037</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -4765,7 +4765,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-17-0000</t>
+          <t>FRC-SLM-7.0-O-17-0038</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -4877,7 +4877,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-17-0000</t>
+          <t>FRC-SLM-7.0-F-17-0039</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -4989,7 +4989,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-17-0000</t>
+          <t>FRC-SLM-7.0-F-17-0040</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -5101,7 +5101,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-17-0000</t>
+          <t>FRC-SLM-7.0-O-17-0041</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -5213,7 +5213,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-17-0000</t>
+          <t>FRC-SLM-7.0-F-17-0042</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -5329,7 +5329,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-17-0000</t>
+          <t>FRC-SLM-7.0-F-17-0043</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -5441,7 +5441,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-17-0000</t>
+          <t>FRC-SLM-7.0-F-17-0044</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -5553,7 +5553,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-T-17-0000</t>
+          <t>FRC-SLM-7.0-T-17-0045</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -5665,7 +5665,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-T-17-0000</t>
+          <t>FRC-SLM-7.0-T-17-0046</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -5775,7 +5775,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-17-0000</t>
+          <t>FRC-SLM-7.0-F-17-0047</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -5891,7 +5891,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-17-0000</t>
+          <t>FRC-SLM-7.0-O-17-0048</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -6007,7 +6007,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-17-0000</t>
+          <t>FRC-SLM-7.0-F-17-0049</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -6123,7 +6123,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-17-0000</t>
+          <t>FRC-SLM-7.0-O-17-0050</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -6239,7 +6239,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-17-0000</t>
+          <t>FRC-SLM-7.0-O-17-0051</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -6355,7 +6355,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-17-0000</t>
+          <t>FRC-SLM-7.0-F-17-0052</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -6471,7 +6471,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-17-0000</t>
+          <t>FRC-SLM-7.0-F-17-0053</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -6587,7 +6587,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-18-0000</t>
+          <t>FRC-SLM-7.0-F-18-0054</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -6703,7 +6703,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-18-0000</t>
+          <t>FRC-SLM-7.0-F-18-0055</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -6819,7 +6819,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-18-0000</t>
+          <t>FRC-SLM-7.0-F-18-0056</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -6935,7 +6935,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-18-0000</t>
+          <t>FRC-SLM-7.0-F-18-0057</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -7051,7 +7051,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-18-0000</t>
+          <t>FRC-SLM-7.0-F-18-0058</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -7167,7 +7167,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-18-0000</t>
+          <t>FRC-SLM-7.0-F-18-0059</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -7283,7 +7283,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-18-0000</t>
+          <t>FRC-SLM-7.0-C-18-0060</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -7395,7 +7395,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-18-0000</t>
+          <t>FRC-SLM-7.0-C-18-0061</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -7507,7 +7507,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-18-0000</t>
+          <t>FRC-SLM-7.0-O-18-0062</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -7619,7 +7619,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-18-0000</t>
+          <t>FRC-SLM-7.0-F-18-0063</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -7731,7 +7731,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-18-0000</t>
+          <t>FRC-SLM-7.0-F-18-0064</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -7847,7 +7847,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-18-0000</t>
+          <t>FRC-SLM-7.0-C-18-0065</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -7959,7 +7959,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-18-0000</t>
+          <t>FRC-SLM-7.0-C-18-0066</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -8071,7 +8071,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-18-0000</t>
+          <t>FRC-SLM-7.0-F-18-0067</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -8183,7 +8183,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-18-0000</t>
+          <t>FRC-SLM-7.0-F-18-0068</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -8295,7 +8295,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-18-0000</t>
+          <t>FRC-SLM-7.0-F-18-0069</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -8411,7 +8411,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-18-0000</t>
+          <t>FRC-SLM-7.0-F-18-0070</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -8523,7 +8523,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-18-0000</t>
+          <t>FRC-SLM-7.0-C-18-0071</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -8635,7 +8635,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-18-0000</t>
+          <t>FRC-SLM-7.0-F-18-0072</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -8747,7 +8747,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-18-0000</t>
+          <t>FRC-SLM-7.0-F-18-0073</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -8859,7 +8859,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-18-0000</t>
+          <t>FRC-SLM-7.0-F-18-0074</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -8971,7 +8971,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-18-0000</t>
+          <t>FRC-SLM-7.0-F-18-0075</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -9083,7 +9083,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-T-18-0000</t>
+          <t>FRC-SLM-7.0-T-18-0076</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -9193,7 +9193,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-18-0000</t>
+          <t>FRC-SLM-7.0-F-18-0077</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -9305,7 +9305,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-18-0000</t>
+          <t>FRC-SLM-7.0-F-18-0078</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -9417,7 +9417,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-18-0000</t>
+          <t>FRC-SLM-7.0-F-18-0079</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -9529,7 +9529,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-18-0000</t>
+          <t>FRC-SLM-7.0-C-18-0080</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -9641,7 +9641,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-18-0000</t>
+          <t>FRC-SLM-7.0-C-18-0081</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -9753,7 +9753,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-18-0000</t>
+          <t>FRC-SLM-7.0-C-18-0082</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -9865,7 +9865,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-18-0000</t>
+          <t>FRC-SLM-7.0-C-18-0083</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -9977,7 +9977,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-18-0000</t>
+          <t>FRC-SLM-7.0-O-18-0084</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -10089,7 +10089,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-18-0000</t>
+          <t>FRC-SLM-7.0-C-18-0085</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -10201,7 +10201,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-18-0000</t>
+          <t>FRC-SLM-7.0-C-18-0086</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -10313,7 +10313,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-18-0000</t>
+          <t>FRC-SLM-7.0-O-18-0087</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -10425,7 +10425,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-18-0000</t>
+          <t>FRC-SLM-7.0-C-18-0088</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -10537,7 +10537,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-18-0000</t>
+          <t>FRC-SLM-7.0-C-18-0089</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -10649,7 +10649,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-18-0000</t>
+          <t>FRC-SLM-7.0-C-18-0090</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -10761,7 +10761,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-18-0000</t>
+          <t>FRC-SLM-7.0-F-18-0091</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -10877,7 +10877,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-18-0000</t>
+          <t>FRC-SLM-7.0-F-18-0092</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -10993,7 +10993,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-18-0000</t>
+          <t>FRC-SLM-7.0-F-18-0093</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -11109,7 +11109,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-18-0000</t>
+          <t>FRC-SLM-7.0-O-18-0094</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -11225,7 +11225,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-18-0000</t>
+          <t>FRC-SLM-7.0-F-18-0095</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -11335,7 +11335,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-18-0000</t>
+          <t>FRC-SLM-7.0-O-18-0096</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -11447,7 +11447,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-T-18-0000</t>
+          <t>FRC-SLM-7.0-T-18-0097</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -11557,7 +11557,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-M-18-0000</t>
+          <t>FRC-SLM-7.0-M-18-0098</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -11669,7 +11669,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-M-18-0000</t>
+          <t>FRC-SLM-7.0-M-18-0099</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -11781,7 +11781,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-18-0001</t>
+          <t>FRC-SLM-7.0-O-18-0100</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -11893,7 +11893,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-18-0001</t>
+          <t>FRC-SLM-7.0-O-18-0101</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -12005,7 +12005,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-18-0001</t>
+          <t>FRC-SLM-7.0-O-18-0102</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -12117,7 +12117,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-18-0001</t>
+          <t>FRC-SLM-7.0-O-18-0103</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -12233,7 +12233,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-18-0001</t>
+          <t>FRC-SLM-7.0-O-18-0104</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -12343,7 +12343,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-18-0001</t>
+          <t>FRC-SLM-7.0-O-18-0105</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -12455,7 +12455,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-18-0001</t>
+          <t>FRC-SLM-7.0-O-18-0106</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -12571,7 +12571,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-18-0001</t>
+          <t>FRC-SLM-7.0-O-18-0107</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -12683,7 +12683,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-18-0001</t>
+          <t>FRC-SLM-7.0-O-18-0108</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -12795,7 +12795,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-18-0001</t>
+          <t>FRC-SLM-7.0-O-18-0109</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -12907,7 +12907,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-18-0001</t>
+          <t>FRC-SLM-7.0-F-18-0110</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -13023,7 +13023,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-19-0001</t>
+          <t>FRC-SLM-7.0-F-19-0111</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -13139,7 +13139,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-19-0001</t>
+          <t>FRC-SLM-7.0-F-19-0112</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -13255,7 +13255,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-19-0001</t>
+          <t>FRC-SLM-7.0-F-19-0113</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -13371,7 +13371,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-19-0001</t>
+          <t>FRC-SLM-7.0-F-19-0114</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -13483,7 +13483,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-19-0001</t>
+          <t>FRC-SLM-7.0-F-19-0115</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -13595,7 +13595,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-19-0001</t>
+          <t>FRC-SLM-7.0-O-19-0116</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -13707,7 +13707,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-19-0001</t>
+          <t>FRC-SLM-7.0-F-19-0117</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -13823,7 +13823,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-19-0001</t>
+          <t>FRC-SLM-7.0-F-19-0118</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -13935,7 +13935,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-19-0001</t>
+          <t>FRC-SLM-7.0-O-19-0119</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -14047,7 +14047,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-19-0001</t>
+          <t>FRC-SLM-7.0-O-19-0120</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -14159,7 +14159,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-19-0001</t>
+          <t>FRC-SLM-7.0-F-19-0121</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -14271,7 +14271,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-19-0001</t>
+          <t>FRC-SLM-7.0-C-19-0122</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -14383,7 +14383,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-19-0001</t>
+          <t>FRC-SLM-7.0-C-19-0123</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -14495,7 +14495,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-19-0001</t>
+          <t>FRC-SLM-7.0-C-19-0124</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -14607,7 +14607,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-19-0001</t>
+          <t>FRC-SLM-7.0-C-19-0125</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -14719,7 +14719,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-19-0001</t>
+          <t>FRC-SLM-7.0-F-19-0126</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -14831,7 +14831,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-19-0001</t>
+          <t>FRC-SLM-7.0-F-19-0127</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -14943,7 +14943,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-19-0001</t>
+          <t>FRC-SLM-7.0-F-19-0128</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -15055,7 +15055,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-20-0001</t>
+          <t>FRC-SLM-7.0-C-20-0129</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -15167,7 +15167,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-20-0001</t>
+          <t>FRC-SLM-7.0-C-20-0130</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -15279,7 +15279,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-20-0001</t>
+          <t>FRC-SLM-7.0-C-20-0131</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -15391,7 +15391,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-20-0001</t>
+          <t>FRC-SLM-7.0-C-20-0132</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -15503,7 +15503,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-T-20-0001</t>
+          <t>FRC-SLM-7.0-T-20-0133</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -15615,7 +15615,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-20-0001</t>
+          <t>FRC-SLM-7.0-C-20-0134</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -15727,7 +15727,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-20-0001</t>
+          <t>FRC-SLM-7.0-C-20-0135</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -15839,7 +15839,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-20-0001</t>
+          <t>FRC-SLM-7.0-C-20-0136</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -15951,7 +15951,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-20-0001</t>
+          <t>FRC-SLM-7.0-C-20-0137</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -16063,7 +16063,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-20-0001</t>
+          <t>FRC-SLM-7.0-F-20-0138</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -16175,7 +16175,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-20-0001</t>
+          <t>FRC-SLM-7.0-C-20-0139</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -16287,7 +16287,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-20-0001</t>
+          <t>FRC-SLM-7.0-F-20-0140</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -16399,7 +16399,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-20-0001</t>
+          <t>FRC-SLM-7.0-C-20-0141</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -16511,7 +16511,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-20-0001</t>
+          <t>FRC-SLM-7.0-C-20-0142</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -16623,7 +16623,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-M-21-0001</t>
+          <t>FRC-SLM-7.0-M-21-0143</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
@@ -16735,7 +16735,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-M-21-0001</t>
+          <t>FRC-SLM-7.0-M-21-0144</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
@@ -16845,7 +16845,7 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-21-0001</t>
+          <t>FRC-SLM-7.0-O-21-0145</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
@@ -16957,7 +16957,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-21-0001</t>
+          <t>FRC-SLM-7.0-C-21-0146</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
@@ -17069,7 +17069,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-21-0001</t>
+          <t>FRC-SLM-7.0-C-21-0147</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
@@ -17181,7 +17181,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-M-21-0001</t>
+          <t>FRC-SLM-7.0-M-21-0148</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
@@ -17291,7 +17291,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-21-0001</t>
+          <t>FRC-SLM-7.0-F-21-0149</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
@@ -17403,7 +17403,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-21-0001</t>
+          <t>FRC-SLM-7.0-O-21-0150</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
@@ -17515,7 +17515,7 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-21-0001</t>
+          <t>FRC-SLM-7.0-C-21-0152</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
@@ -17629,7 +17629,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-21-0001</t>
+          <t>FRC-SLM-7.0-C-21-0153</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
@@ -17743,7 +17743,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-21-0001</t>
+          <t>FRC-SLM-7.0-C-21-0154</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
@@ -17857,7 +17857,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-21-0001</t>
+          <t>FRC-SLM-7.0-C-21-0155</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
@@ -17971,7 +17971,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-21-0001</t>
+          <t>FRC-SLM-7.0-C-21-0156</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
@@ -18085,7 +18085,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-21-0001</t>
+          <t>FRC-SLM-7.0-C-21-0157</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
@@ -18199,7 +18199,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-21-0001</t>
+          <t>FRC-SLM-7.0-C-21-0158</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
@@ -18313,7 +18313,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-21-0001</t>
+          <t>FRC-SLM-7.0-C-21-0159</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
@@ -18427,7 +18427,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-21-0001</t>
+          <t>FRC-SLM-7.0-C-21-0160</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
@@ -18541,7 +18541,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-21-0001</t>
+          <t>FRC-SLM-7.0-C-21-0161</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
@@ -18655,7 +18655,7 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-I-21-0001</t>
+          <t>FRC-SLM-7.0-I-21-0162</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
@@ -18769,7 +18769,7 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-I-21-0001</t>
+          <t>FRC-SLM-7.0-I-21-0163</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
@@ -18883,7 +18883,7 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-I-21-0001</t>
+          <t>FRC-SLM-7.0-I-21-0164</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
@@ -18997,7 +18997,7 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-I-21-0001</t>
+          <t>FRC-SLM-7.0-I-21-0165</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
@@ -19111,7 +19111,7 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-I-21-0001</t>
+          <t>FRC-SLM-7.0-I-21-0166</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
@@ -19225,7 +19225,7 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-I-21-0001</t>
+          <t>FRC-SLM-7.0-I-21-0167</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
@@ -19339,7 +19339,7 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-I-21-0001</t>
+          <t>FRC-SLM-7.0-I-21-0168</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
@@ -19453,7 +19453,7 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-I-21-0001</t>
+          <t>FRC-SLM-7.0-I-21-0169</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
@@ -19568,7 +19568,7 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-I-21-0001</t>
+          <t>FRC-SLM-7.0-I-21-0170</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
@@ -19682,7 +19682,7 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-I-21-0001</t>
+          <t>FRC-SLM-7.0-I-21-0171</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
@@ -19796,7 +19796,7 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-I-21-0001</t>
+          <t>FRC-SLM-7.0-I-21-0172</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
@@ -19910,7 +19910,7 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-S-21-0001</t>
+          <t>FRC-SLM-7.0-S-21-0173</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
@@ -20024,7 +20024,7 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-S-21-0001</t>
+          <t>FRC-SLM-7.0-S-21-0174</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
@@ -20138,7 +20138,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-S-21-0001</t>
+          <t>FRC-SLM-7.0-S-21-0175</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
@@ -20252,7 +20252,7 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-S-21-0001</t>
+          <t>FRC-SLM-7.0-S-21-0176</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
@@ -20366,7 +20366,7 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-S-21-0001</t>
+          <t>FRC-SLM-7.0-S-21-0177</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
@@ -20480,7 +20480,7 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-S-21-0001</t>
+          <t>FRC-SLM-7.0-S-21-0178</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
@@ -20594,7 +20594,7 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-S-21-0001</t>
+          <t>FRC-SLM-7.0-S-21-0179</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
@@ -20708,7 +20708,7 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-S-21-0001</t>
+          <t>FRC-SLM-7.0-S-21-0180</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
@@ -20822,7 +20822,7 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-S-21-0001</t>
+          <t>FRC-SLM-7.0-S-21-0181</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
@@ -20936,7 +20936,7 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-S-21-0001</t>
+          <t>FRC-SLM-7.0-S-21-0182</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
@@ -21050,7 +21050,7 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-S-21-0001</t>
+          <t>FRC-SLM-7.0-S-21-0183</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
@@ -21164,7 +21164,7 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-S-21-0001</t>
+          <t>FRC-SLM-7.0-S-21-0184</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
@@ -21279,7 +21279,7 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-S-21-0001</t>
+          <t>FRC-SLM-7.0-S-21-0185</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
@@ -21393,7 +21393,7 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-S-21-0001</t>
+          <t>FRC-SLM-7.0-S-21-0186</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
@@ -21507,7 +21507,7 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-S-21-0001</t>
+          <t>FRC-SLM-7.0-S-21-0187</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
@@ -21621,7 +21621,7 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-S-21-0001</t>
+          <t>FRC-SLM-7.0-S-21-0188</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
@@ -21735,7 +21735,7 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-S-21-0001</t>
+          <t>FRC-SLM-7.0-S-21-0189</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
@@ -21849,7 +21849,7 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-S-21-0001</t>
+          <t>FRC-SLM-7.0-S-21-0190</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
@@ -21963,7 +21963,7 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-S-21-0001</t>
+          <t>FRC-SLM-7.0-S-21-0191</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
@@ -22077,7 +22077,7 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-S-21-0001</t>
+          <t>FRC-SLM-7.0-S-21-0192</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
@@ -22191,7 +22191,7 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-S-21-0001</t>
+          <t>FRC-SLM-7.0-S-21-0193</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
@@ -22305,7 +22305,7 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-S-21-0001</t>
+          <t>FRC-SLM-7.0-S-21-0194</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
@@ -22419,7 +22419,7 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-S-21-0001</t>
+          <t>FRC-SLM-7.0-S-21-0195</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
@@ -22533,7 +22533,7 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-S-21-0001</t>
+          <t>FRC-SLM-7.0-S-21-0196</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
@@ -22647,7 +22647,7 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-S-21-0001</t>
+          <t>FRC-SLM-7.0-S-21-0197</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
@@ -22761,7 +22761,7 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-E-21-0001</t>
+          <t>FRC-SLM-7.0-E-21-0198</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
@@ -22875,7 +22875,7 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-E-21-0001</t>
+          <t>FRC-SLM-7.0-E-21-0199</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
@@ -22989,7 +22989,7 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-E-21-0002</t>
+          <t>FRC-SLM-7.0-E-21-0200</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
@@ -23103,7 +23103,7 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-E-21-0002</t>
+          <t>FRC-SLM-7.0-E-21-0201</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
@@ -23217,7 +23217,7 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-E-21-0002</t>
+          <t>FRC-SLM-7.0-E-21-0202</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
@@ -23331,7 +23331,7 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-E-21-0002</t>
+          <t>FRC-SLM-7.0-E-21-0203</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
@@ -23445,7 +23445,7 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-E-21-0002</t>
+          <t>FRC-SLM-7.0-E-21-0204</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
@@ -23559,7 +23559,7 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-E-21-0002</t>
+          <t>FRC-SLM-7.0-E-21-0205</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
@@ -23673,7 +23673,7 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-E-21-0002</t>
+          <t>FRC-SLM-7.0-E-21-0206</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
@@ -23787,7 +23787,7 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-E-21-0002</t>
+          <t>FRC-SLM-7.0-E-21-0207</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
@@ -23901,7 +23901,7 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-E-21-0002</t>
+          <t>FRC-SLM-7.0-E-21-0208</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
@@ -24015,7 +24015,7 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-E-21-0002</t>
+          <t>FRC-SLM-7.0-E-21-0209</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
@@ -24129,7 +24129,7 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-E-21-0002</t>
+          <t>FRC-SLM-7.0-E-21-0210</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
@@ -24243,7 +24243,7 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-E-21-0002</t>
+          <t>FRC-SLM-7.0-E-21-0211</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
@@ -24357,7 +24357,7 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-E-21-0002</t>
+          <t>FRC-SLM-7.0-E-21-0212</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
@@ -24471,7 +24471,7 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-E-21-0002</t>
+          <t>FRC-SLM-7.0-E-21-0213</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
@@ -24585,7 +24585,7 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-E-21-0002</t>
+          <t>FRC-SLM-7.0-E-21-0214</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
@@ -24699,7 +24699,7 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-E-21-0002</t>
+          <t>FRC-SLM-7.0-E-21-0215</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
@@ -24813,7 +24813,7 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-E-21-0002</t>
+          <t>FRC-SLM-7.0-E-21-0216</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
@@ -24927,7 +24927,7 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-E-21-0002</t>
+          <t>FRC-SLM-7.0-E-21-0217</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
@@ -25041,7 +25041,7 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-E-21-0002</t>
+          <t>FRC-SLM-7.0-E-21-0218</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
@@ -25155,7 +25155,7 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-E-21-0002</t>
+          <t>FRC-SLM-7.0-E-21-0219</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
@@ -25269,7 +25269,7 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-E-21-0002</t>
+          <t>FRC-SLM-7.0-E-21-0220</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
@@ -25383,7 +25383,7 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-E-21-0002</t>
+          <t>FRC-SLM-7.0-E-21-0221</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
@@ -25497,7 +25497,7 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-E-21-0002</t>
+          <t>FRC-SLM-7.0-E-21-0222</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
@@ -25611,7 +25611,7 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-E-21-0002</t>
+          <t>FRC-SLM-7.0-E-21-0223</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
@@ -25725,7 +25725,7 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-E-21-0002</t>
+          <t>FRC-SLM-7.0-E-21-0224</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
@@ -25839,7 +25839,7 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-E-21-0002</t>
+          <t>FRC-SLM-7.0-E-21-0225</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
@@ -25953,7 +25953,7 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-E-21-0002</t>
+          <t>FRC-SLM-7.0-E-21-0226</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
@@ -26067,7 +26067,7 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-E-21-0002</t>
+          <t>FRC-SLM-7.0-E-21-0227</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
@@ -26181,7 +26181,7 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-E-21-0002</t>
+          <t>FRC-SLM-7.0-E-21-0228</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
@@ -26295,7 +26295,7 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-E-21-0002</t>
+          <t>FRC-SLM-7.0-E-21-0229</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
@@ -26409,7 +26409,7 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-E-21-0002</t>
+          <t>FRC-SLM-7.0-E-21-0230</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
@@ -26523,7 +26523,7 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-E-21-0002</t>
+          <t>FRC-SLM-7.0-E-21-0231</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
@@ -26637,7 +26637,7 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-E-21-0002</t>
+          <t>FRC-SLM-7.0-E-21-0232</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
@@ -26751,7 +26751,7 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-E-21-0002</t>
+          <t>FRC-SLM-7.0-E-21-0233</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
@@ -26865,7 +26865,7 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-E-21-0002</t>
+          <t>FRC-SLM-7.0-E-21-0234</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
@@ -26979,7 +26979,7 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-E-21-0002</t>
+          <t>FRC-SLM-7.0-E-21-0235</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
@@ -27093,7 +27093,7 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-E-21-0002</t>
+          <t>FRC-SLM-7.0-E-21-0236</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
@@ -27207,7 +27207,7 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-P-21-0002</t>
+          <t>FRC-SLM-7.0-P-21-0237</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
@@ -27321,7 +27321,7 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-P-21-0002</t>
+          <t>FRC-SLM-7.0-P-21-0238</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
@@ -27435,7 +27435,7 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-P-21-0002</t>
+          <t>FRC-SLM-7.0-P-21-0239</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
@@ -27549,7 +27549,7 @@
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-P-21-0002</t>
+          <t>FRC-SLM-7.0-P-21-0240</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
@@ -27663,7 +27663,7 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-P-21-0002</t>
+          <t>FRC-SLM-7.0-P-21-0241</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
@@ -27777,7 +27777,7 @@
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-I-21-0002</t>
+          <t>FRC-SLM-7.0-I-21-0242</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
@@ -27891,7 +27891,7 @@
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-I-21-0002</t>
+          <t>FRC-SLM-7.0-I-21-0243</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
@@ -28005,7 +28005,7 @@
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-I-21-0002</t>
+          <t>FRC-SLM-7.0-I-21-0244</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
@@ -28119,7 +28119,7 @@
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-I-21-0002</t>
+          <t>FRC-SLM-7.0-I-21-0245</t>
         </is>
       </c>
       <c r="C245" t="inlineStr">
@@ -28233,7 +28233,7 @@
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-I-21-0002</t>
+          <t>FRC-SLM-7.0-I-21-0246</t>
         </is>
       </c>
       <c r="C246" t="inlineStr">
@@ -28347,7 +28347,7 @@
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-I-21-0002</t>
+          <t>FRC-SLM-7.0-I-21-0247</t>
         </is>
       </c>
       <c r="C247" t="inlineStr">
@@ -28461,7 +28461,7 @@
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-I-21-0002</t>
+          <t>FRC-SLM-7.0-I-21-0248</t>
         </is>
       </c>
       <c r="C248" t="inlineStr">
@@ -28575,7 +28575,7 @@
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-I-21-0002</t>
+          <t>FRC-SLM-7.0-I-21-0249</t>
         </is>
       </c>
       <c r="C249" t="inlineStr">
@@ -28689,7 +28689,7 @@
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-I-21-0002</t>
+          <t>FRC-SLM-7.0-I-21-0250</t>
         </is>
       </c>
       <c r="C250" t="inlineStr">
@@ -28803,7 +28803,7 @@
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-I-21-0002</t>
+          <t>FRC-SLM-7.0-I-21-0251</t>
         </is>
       </c>
       <c r="C251" t="inlineStr">
@@ -28917,7 +28917,7 @@
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-I-21-0002</t>
+          <t>FRC-SLM-7.0-I-21-0252</t>
         </is>
       </c>
       <c r="C252" t="inlineStr">
@@ -29031,7 +29031,7 @@
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-I-21-0002</t>
+          <t>FRC-SLM-7.0-I-21-0253</t>
         </is>
       </c>
       <c r="C253" t="inlineStr">
@@ -29145,7 +29145,7 @@
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-I-21-0002</t>
+          <t>FRC-SLM-7.0-I-21-0254</t>
         </is>
       </c>
       <c r="C254" t="inlineStr">
@@ -29259,7 +29259,7 @@
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-I-21-0002</t>
+          <t>FRC-SLM-7.0-I-21-0255</t>
         </is>
       </c>
       <c r="C255" t="inlineStr">
@@ -29373,7 +29373,7 @@
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-I-21-0002</t>
+          <t>FRC-SLM-7.0-I-21-0256</t>
         </is>
       </c>
       <c r="C256" t="inlineStr">
@@ -29487,7 +29487,7 @@
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-I-21-0002</t>
+          <t>FRC-SLM-7.0-I-21-0257</t>
         </is>
       </c>
       <c r="C257" t="inlineStr">
@@ -29601,7 +29601,7 @@
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-I-21-0002</t>
+          <t>FRC-SLM-7.0-I-21-0258</t>
         </is>
       </c>
       <c r="C258" t="inlineStr">
@@ -29715,7 +29715,7 @@
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-I-21-0002</t>
+          <t>FRC-SLM-7.0-I-21-0259</t>
         </is>
       </c>
       <c r="C259" t="inlineStr">
@@ -29829,7 +29829,7 @@
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-I-21-0002</t>
+          <t>FRC-SLM-7.0-I-21-0260</t>
         </is>
       </c>
       <c r="C260" t="inlineStr">
@@ -29943,7 +29943,7 @@
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-I-21-0002</t>
+          <t>FRC-SLM-7.0-I-21-0261</t>
         </is>
       </c>
       <c r="C261" t="inlineStr">
@@ -30057,7 +30057,7 @@
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-I-21-0002</t>
+          <t>FRC-SLM-7.0-I-21-0262</t>
         </is>
       </c>
       <c r="C262" t="inlineStr">
@@ -30171,7 +30171,7 @@
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-I-21-0002</t>
+          <t>FRC-SLM-7.0-I-21-0263</t>
         </is>
       </c>
       <c r="C263" t="inlineStr">
@@ -30285,7 +30285,7 @@
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-I-21-0002</t>
+          <t>FRC-SLM-7.0-I-21-0264</t>
         </is>
       </c>
       <c r="C264" t="inlineStr">
@@ -30399,7 +30399,7 @@
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-I-21-0002</t>
+          <t>FRC-SLM-7.0-I-21-0265</t>
         </is>
       </c>
       <c r="C265" t="inlineStr">
@@ -30513,7 +30513,7 @@
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-I-21-0002</t>
+          <t>FRC-SLM-7.0-I-21-0266</t>
         </is>
       </c>
       <c r="C266" t="inlineStr">
@@ -30627,7 +30627,7 @@
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-I-21-0002</t>
+          <t>FRC-SLM-7.0-I-21-0267</t>
         </is>
       </c>
       <c r="C267" t="inlineStr">
@@ -30741,7 +30741,7 @@
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-I-21-0002</t>
+          <t>FRC-SLM-7.0-I-21-0268</t>
         </is>
       </c>
       <c r="C268" t="inlineStr">
@@ -30855,7 +30855,7 @@
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-I-21-0002</t>
+          <t>FRC-SLM-7.0-I-21-0269</t>
         </is>
       </c>
       <c r="C269" t="inlineStr">
@@ -30969,7 +30969,7 @@
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-I-21-0002</t>
+          <t>FRC-SLM-7.0-I-21-0270</t>
         </is>
       </c>
       <c r="C270" t="inlineStr">
@@ -31083,7 +31083,7 @@
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-I-21-0002</t>
+          <t>FRC-SLM-7.0-I-21-0271</t>
         </is>
       </c>
       <c r="C271" t="inlineStr">
@@ -31197,7 +31197,7 @@
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-I-21-0002</t>
+          <t>FRC-SLM-7.0-I-21-0272</t>
         </is>
       </c>
       <c r="C272" t="inlineStr">
@@ -31311,7 +31311,7 @@
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-I-21-0002</t>
+          <t>FRC-SLM-7.0-I-21-0273</t>
         </is>
       </c>
       <c r="C273" t="inlineStr">
@@ -31425,7 +31425,7 @@
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-I-21-0002</t>
+          <t>FRC-SLM-7.0-I-21-0274</t>
         </is>
       </c>
       <c r="C274" t="inlineStr">
@@ -31539,7 +31539,7 @@
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-21-0002</t>
+          <t>FRC-SLM-7.0-F-21-0275</t>
         </is>
       </c>
       <c r="C275" t="inlineStr">
@@ -31653,7 +31653,7 @@
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-21-0002</t>
+          <t>FRC-SLM-7.0-F-21-0276</t>
         </is>
       </c>
       <c r="C276" t="inlineStr">
@@ -31767,7 +31767,7 @@
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-21-0002</t>
+          <t>FRC-SLM-7.0-F-21-0277</t>
         </is>
       </c>
       <c r="C277" t="inlineStr">
@@ -31881,7 +31881,7 @@
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-21-0002</t>
+          <t>FRC-SLM-7.0-F-21-0278</t>
         </is>
       </c>
       <c r="C278" t="inlineStr">
@@ -31995,7 +31995,7 @@
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-21-0002</t>
+          <t>FRC-SLM-7.0-F-21-0279</t>
         </is>
       </c>
       <c r="C279" t="inlineStr">
@@ -32109,7 +32109,7 @@
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-21-0002</t>
+          <t>FRC-SLM-7.0-F-21-0280</t>
         </is>
       </c>
       <c r="C280" t="inlineStr">
@@ -32223,7 +32223,7 @@
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-21-0002</t>
+          <t>FRC-SLM-7.0-F-21-0281</t>
         </is>
       </c>
       <c r="C281" t="inlineStr">
@@ -32337,7 +32337,7 @@
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-21-0002</t>
+          <t>FRC-SLM-7.0-F-21-0282</t>
         </is>
       </c>
       <c r="C282" t="inlineStr">
@@ -32451,7 +32451,7 @@
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-21-0002</t>
+          <t>FRC-SLM-7.0-F-21-0283</t>
         </is>
       </c>
       <c r="C283" t="inlineStr">
@@ -32565,7 +32565,7 @@
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-21-0002</t>
+          <t>FRC-SLM-7.0-F-21-0284</t>
         </is>
       </c>
       <c r="C284" t="inlineStr">
@@ -32679,7 +32679,7 @@
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-21-0002</t>
+          <t>FRC-SLM-7.0-F-21-0285</t>
         </is>
       </c>
       <c r="C285" t="inlineStr">
@@ -32793,7 +32793,7 @@
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-21-0002</t>
+          <t>FRC-SLM-7.0-F-21-0286</t>
         </is>
       </c>
       <c r="C286" t="inlineStr">
@@ -32907,7 +32907,7 @@
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-21-0002</t>
+          <t>FRC-SLM-7.0-F-21-0287</t>
         </is>
       </c>
       <c r="C287" t="inlineStr">
@@ -33021,7 +33021,7 @@
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-21-0002</t>
+          <t>FRC-SLM-7.0-F-21-0288</t>
         </is>
       </c>
       <c r="C288" t="inlineStr">
@@ -33135,7 +33135,7 @@
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-21-0002</t>
+          <t>FRC-SLM-7.0-F-21-0289</t>
         </is>
       </c>
       <c r="C289" t="inlineStr">
@@ -33249,7 +33249,7 @@
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-21-0002</t>
+          <t>FRC-SLM-7.0-F-21-0290</t>
         </is>
       </c>
       <c r="C290" t="inlineStr">
@@ -33363,7 +33363,7 @@
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-21-0002</t>
+          <t>FRC-SLM-7.0-F-21-0291</t>
         </is>
       </c>
       <c r="C291" t="inlineStr">
@@ -33477,7 +33477,7 @@
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-21-0002</t>
+          <t>FRC-SLM-7.0-F-21-0292</t>
         </is>
       </c>
       <c r="C292" t="inlineStr">
@@ -33591,7 +33591,7 @@
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-21-0002</t>
+          <t>FRC-SLM-7.0-F-21-0293</t>
         </is>
       </c>
       <c r="C293" t="inlineStr">
@@ -33705,7 +33705,7 @@
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-21-0002</t>
+          <t>FRC-SLM-7.0-F-21-0294</t>
         </is>
       </c>
       <c r="C294" t="inlineStr">
@@ -33819,7 +33819,7 @@
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-21-0002</t>
+          <t>FRC-SLM-7.0-F-21-0295</t>
         </is>
       </c>
       <c r="C295" t="inlineStr">
@@ -33933,7 +33933,7 @@
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-21-0002</t>
+          <t>FRC-SLM-7.0-F-21-0296</t>
         </is>
       </c>
       <c r="C296" t="inlineStr">
@@ -34047,7 +34047,7 @@
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-21-0002</t>
+          <t>FRC-SLM-7.0-F-21-0297</t>
         </is>
       </c>
       <c r="C297" t="inlineStr">
@@ -34161,7 +34161,7 @@
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-21-0002</t>
+          <t>FRC-SLM-7.0-F-21-0298</t>
         </is>
       </c>
       <c r="C298" t="inlineStr">
@@ -34275,7 +34275,7 @@
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-21-0002</t>
+          <t>FRC-SLM-7.0-F-21-0299</t>
         </is>
       </c>
       <c r="C299" t="inlineStr">
@@ -34389,7 +34389,7 @@
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-21-0003</t>
+          <t>FRC-SLM-7.0-F-21-0300</t>
         </is>
       </c>
       <c r="C300" t="inlineStr">
@@ -34503,7 +34503,7 @@
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-21-0003</t>
+          <t>FRC-SLM-7.0-F-21-0301</t>
         </is>
       </c>
       <c r="C301" t="inlineStr">

--- a/afar_project/csv_path/excel_files/depreciation.xlsx
+++ b/afar_project/csv_path/excel_files/depreciation.xlsx
@@ -594,7 +594,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-17-0001</t>
+          <t>FRC-HQ-SLM-O-17-0000</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -711,7 +711,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-17-0002</t>
+          <t>FRC-HQ-SLM-O-17-0000</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -824,7 +824,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-17-0003</t>
+          <t>FRC-HQ-SLM-O-17-0000</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -937,7 +937,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-17-0004</t>
+          <t>FRC-HQ-SLM-O-17-0000</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -1050,7 +1050,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-17-0005</t>
+          <t>FRC-HQ-SLM-O-17-0000</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -1163,7 +1163,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-17-0006</t>
+          <t>FRC-HQ-SLM-O-17-0000</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -1276,7 +1276,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-17-0007</t>
+          <t>FRC-HQ-SLM-O-17-0000</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -1389,7 +1389,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-17-0008</t>
+          <t>FRC-HQ-SLM-O-17-0000</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -1500,7 +1500,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-17-0009</t>
+          <t>FRC-HQ-SLM-O-17-0000</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -1613,7 +1613,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-17-0010</t>
+          <t>FRC-HQ-SLM-C-17-0000</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -1726,7 +1726,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-17-0011</t>
+          <t>FRC-HQ-SLM-C-17-0000</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -1839,7 +1839,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-17-0012</t>
+          <t>FRC-HQ-SLM-O-17-0000</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -1950,7 +1950,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-17-0013</t>
+          <t>FRC-HQ-SLM-O-17-0000</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -2063,7 +2063,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-17-0014</t>
+          <t>FRC-HQ-SLM-F-17-0000</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -2180,7 +2180,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-17-0015</t>
+          <t>FRC-HQ-SLM-O-17-0000</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -2293,7 +2293,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-17-0016</t>
+          <t>FRC-HQ-SLM-O-17-0000</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -2406,7 +2406,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-17-0017</t>
+          <t>FRC-HQ-SLM-F-17-0000</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -2523,7 +2523,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-17-0018</t>
+          <t>FRC-HQ-SLM-O-17-0000</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -2640,7 +2640,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-17-0019</t>
+          <t>FRC-HQ-SLM-F-17-0000</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -2757,7 +2757,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-17-0020</t>
+          <t>FRC-HQ-SLM-F-17-0000</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -2870,7 +2870,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-17-0021</t>
+          <t>FRC-HQ-SLM-O-17-0000</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -2981,7 +2981,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-17-0022</t>
+          <t>FRC-HQ-SLM-O-17-0000</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -3094,7 +3094,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-17-0023</t>
+          <t>FRC-HQ-SLM-O-17-0000</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -3207,7 +3207,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-17-0024</t>
+          <t>FRC-HQ-SLM-F-17-0000</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -3320,7 +3320,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-17-0025</t>
+          <t>FRC-HQ-SLM-F-17-0000</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -3433,7 +3433,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-17-0026</t>
+          <t>FRC-HQ-SLM-F-17-0000</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -3546,7 +3546,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-17-0027</t>
+          <t>FRC-HQ-SLM-F-17-0000</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -3659,7 +3659,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-17-0028</t>
+          <t>FRC-HQ-SLM-O-17-0000</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -3776,7 +3776,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-17-0029</t>
+          <t>FRC-HQ-SLM-F-17-0000</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -3889,7 +3889,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-17-0030</t>
+          <t>FRC-HQ-SLM-F-17-0000</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -4002,7 +4002,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-17-0031</t>
+          <t>FRC-HQ-SLM-F-17-0000</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -4115,7 +4115,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-17-0032</t>
+          <t>FRC-HQ-SLM-O-17-0000</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -4226,7 +4226,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-17-0033</t>
+          <t>FRC-HQ-SLM-F-17-0000</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -4337,7 +4337,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-17-0034</t>
+          <t>FRC-HQ-SLM-O-17-0000</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -4450,7 +4450,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-17-0035</t>
+          <t>FRC-HQ-SLM-F-17-0000</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -4563,7 +4563,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-17-0036</t>
+          <t>FRC-HQ-SLM-O-17-0000</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -4676,7 +4676,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-17-0037</t>
+          <t>FRC-HQ-SLM-O-17-0000</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -4793,7 +4793,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-17-0038</t>
+          <t>FRC-HQ-SLM-O-17-0000</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -4906,7 +4906,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-17-0039</t>
+          <t>FRC-HQ-SLM-F-17-0000</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -5019,7 +5019,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-17-0040</t>
+          <t>FRC-HQ-SLM-F-17-0000</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -5132,7 +5132,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-17-0041</t>
+          <t>FRC-HQ-SLM-O-17-0000</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -5245,7 +5245,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-17-0042</t>
+          <t>FRC-HQ-SLM-F-17-0000</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -5362,7 +5362,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-17-0043</t>
+          <t>FRC-HQ-SLM-F-17-0000</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -5475,7 +5475,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-17-0044</t>
+          <t>FRC-HQ-SLM-F-17-0000</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -5588,7 +5588,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-T-17-0045</t>
+          <t>FRC-HQ-SLM-T-17-0000</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -5701,7 +5701,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-T-17-0046</t>
+          <t>FRC-HQ-SLM-T-17-0000</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -5812,7 +5812,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-17-0047</t>
+          <t>FRC-HQ-SLM-F-17-0000</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -5929,7 +5929,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-17-0048</t>
+          <t>FRC-HQ-SLM-O-17-0000</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -6046,7 +6046,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-17-0049</t>
+          <t>FRC-HQ-SLM-F-17-0000</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -6163,7 +6163,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-17-0050</t>
+          <t>FRC-HQ-SLM-O-17-0000</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -6280,7 +6280,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-17-0051</t>
+          <t>FRC-HQ-SLM-O-17-0000</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -6397,7 +6397,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-17-0052</t>
+          <t>FRC-HQ-SLM-F-17-0000</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -6514,7 +6514,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-17-0053</t>
+          <t>FRC-HQ-SLM-F-17-0000</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -6631,7 +6631,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-18-0054</t>
+          <t>FRC-HQ-SLM-F-18-0000</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -6748,7 +6748,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-18-0055</t>
+          <t>FRC-HQ-SLM-F-18-0000</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -6865,7 +6865,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-18-0056</t>
+          <t>FRC-HQ-SLM-F-18-0000</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -6982,7 +6982,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-18-0057</t>
+          <t>FRC-HQ-SLM-F-18-0000</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -7099,7 +7099,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-18-0058</t>
+          <t>FRC-HQ-SLM-F-18-0000</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -7216,7 +7216,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-18-0059</t>
+          <t>FRC-HQ-SLM-F-18-0000</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -7333,7 +7333,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-18-0060</t>
+          <t>FRC-HQ-SLM-C-18-0000</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -7446,7 +7446,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-18-0061</t>
+          <t>FRC-HQ-SLM-C-18-0000</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -7559,7 +7559,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-18-0062</t>
+          <t>FRC-HQ-SLM-O-18-0000</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -7672,7 +7672,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-18-0063</t>
+          <t>FRC-HQ-SLM-F-18-0000</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -7785,7 +7785,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-18-0064</t>
+          <t>FRC-HQ-SLM-F-18-0000</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -7902,7 +7902,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-18-0065</t>
+          <t>FRC-HQ-SLM-C-18-0000</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -8015,7 +8015,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-18-0066</t>
+          <t>FRC-HQ-SLM-C-18-0000</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -8128,7 +8128,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-18-0067</t>
+          <t>FRC-HQ-SLM-F-18-0000</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -8241,7 +8241,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-18-0068</t>
+          <t>FRC-HQ-SLM-F-18-0000</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -8354,7 +8354,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-18-0069</t>
+          <t>FRC-HQ-SLM-F-18-0000</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -8471,7 +8471,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-18-0070</t>
+          <t>FRC-HQ-SLM-F-18-0000</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -8584,7 +8584,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-18-0071</t>
+          <t>FRC-HQ-SLM-C-18-0000</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -8697,7 +8697,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-18-0072</t>
+          <t>FRC-HQ-SLM-F-18-0000</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -8810,7 +8810,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-18-0073</t>
+          <t>FRC-HQ-SLM-F-18-0000</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -8923,7 +8923,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-18-0074</t>
+          <t>FRC-HQ-SLM-F-18-0000</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -9036,7 +9036,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-18-0075</t>
+          <t>FRC-HQ-SLM-F-18-0000</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -9149,7 +9149,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-T-18-0076</t>
+          <t>FRC-HQ-SLM-T-18-0000</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -9260,7 +9260,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-18-0077</t>
+          <t>FRC-HQ-SLM-F-18-0000</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -9373,7 +9373,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-18-0078</t>
+          <t>FRC-HQ-SLM-F-18-0000</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -9486,7 +9486,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-18-0079</t>
+          <t>FRC-HQ-SLM-F-18-0000</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -9599,7 +9599,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-18-0080</t>
+          <t>FRC-HQ-SLM-C-18-0000</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -9712,7 +9712,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-18-0081</t>
+          <t>FRC-HQ-SLM-C-18-0000</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -9825,7 +9825,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-18-0082</t>
+          <t>FRC-HQ-SLM-C-18-0000</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -9938,7 +9938,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-18-0083</t>
+          <t>FRC-HQ-SLM-C-18-0000</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -10051,7 +10051,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-18-0084</t>
+          <t>FRC-HQ-SLM-O-18-0000</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -10164,7 +10164,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-18-0085</t>
+          <t>FRC-HQ-SLM-C-18-0000</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -10277,7 +10277,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-18-0086</t>
+          <t>FRC-HQ-SLM-C-18-0000</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -10390,7 +10390,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-18-0087</t>
+          <t>FRC-HQ-SLM-O-18-0000</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -10503,7 +10503,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-18-0088</t>
+          <t>FRC-HQ-SLM-C-18-0000</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -10616,7 +10616,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-18-0089</t>
+          <t>FRC-HQ-SLM-C-18-0000</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -10729,7 +10729,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-18-0090</t>
+          <t>FRC-HQ-SLM-C-18-0000</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -10842,7 +10842,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-18-0091</t>
+          <t>FRC-HQ-SLM-F-18-0000</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -10959,7 +10959,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-18-0092</t>
+          <t>FRC-HQ-SLM-F-18-0000</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -11076,7 +11076,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-18-0093</t>
+          <t>FRC-HQ-SLM-F-18-0000</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -11193,7 +11193,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-18-0094</t>
+          <t>FRC-HQ-SLM-O-18-0000</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -11310,7 +11310,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-18-0095</t>
+          <t>FRC-HQ-SLM-F-18-0000</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -11421,7 +11421,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-18-0096</t>
+          <t>FRC-HQ-SLM-O-18-0000</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -11534,7 +11534,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-T-18-0097</t>
+          <t>FRC-HQ-SLM-T-18-0000</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -11645,7 +11645,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-M-18-0098</t>
+          <t>FRC-HQ-SLM-M-18-0000</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -11758,7 +11758,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-M-18-0099</t>
+          <t>FRC-HQ-SLM-M-18-0000</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -11871,7 +11871,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-18-0100</t>
+          <t>FRC-HQ-SLM-O-18-0001</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -11984,7 +11984,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-18-0101</t>
+          <t>FRC-HQ-SLM-O-18-0001</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -12097,7 +12097,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-18-0102</t>
+          <t>FRC-HQ-SLM-O-18-0001</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -12210,7 +12210,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-18-0103</t>
+          <t>FRC-HQ-SLM-O-18-0001</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -12327,7 +12327,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-18-0104</t>
+          <t>FRC-HQ-SLM-O-18-0001</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -12438,7 +12438,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-18-0105</t>
+          <t>FRC-HQ-SLM-O-18-0001</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -12551,7 +12551,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-18-0106</t>
+          <t>FRC-HQ-SLM-O-18-0001</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -12668,7 +12668,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-18-0107</t>
+          <t>FRC-HQ-SLM-O-18-0001</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -12781,7 +12781,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-18-0108</t>
+          <t>FRC-HQ-SLM-O-18-0001</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -12894,7 +12894,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-18-0109</t>
+          <t>FRC-HQ-SLM-O-18-0001</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -13007,7 +13007,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-18-0110</t>
+          <t>FRC-HQ-SLM-F-18-0001</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -13124,7 +13124,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-19-0111</t>
+          <t>FRC-HQ-SLM-F-19-0001</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -13241,7 +13241,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-19-0112</t>
+          <t>FRC-HQ-SLM-F-19-0001</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -13358,7 +13358,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-19-0113</t>
+          <t>FRC-HQ-SLM-F-19-0001</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -13475,7 +13475,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-19-0114</t>
+          <t>FRC-HQ-SLM-F-19-0001</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -13588,7 +13588,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-19-0115</t>
+          <t>FRC-HQ-SLM-F-19-0001</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -13701,7 +13701,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-19-0116</t>
+          <t>FRC-HQ-SLM-O-19-0001</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -13814,7 +13814,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-19-0117</t>
+          <t>FRC-HQ-SLM-F-19-0001</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -13931,7 +13931,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-19-0118</t>
+          <t>FRC-HQ-SLM-F-19-0001</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -14044,7 +14044,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-19-0119</t>
+          <t>FRC-HQ-SLM-O-19-0001</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -14157,7 +14157,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-19-0120</t>
+          <t>FRC-HQ-SLM-O-19-0001</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -14270,7 +14270,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-19-0121</t>
+          <t>FRC-HQ-SLM-F-19-0001</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -14383,7 +14383,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-19-0122</t>
+          <t>FRC-HQ-SLM-C-19-0001</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -14496,7 +14496,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-19-0123</t>
+          <t>FRC-HQ-SLM-C-19-0001</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -14609,7 +14609,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-19-0124</t>
+          <t>FRC-HQ-SLM-C-19-0001</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -14722,7 +14722,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-19-0125</t>
+          <t>FRC-HQ-SLM-C-19-0001</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -14835,7 +14835,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-19-0126</t>
+          <t>FRC-HQ-SLM-F-19-0001</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -14948,7 +14948,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-19-0127</t>
+          <t>FRC-HQ-SLM-F-19-0001</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -15061,7 +15061,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-19-0128</t>
+          <t>FRC-HQ-SLM-F-19-0001</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -15174,7 +15174,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-20-0129</t>
+          <t>FRC-HQ-SLM-C-20-0001</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -15287,7 +15287,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-20-0130</t>
+          <t>FRC-HQ-SLM-C-20-0001</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -15400,7 +15400,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-20-0131</t>
+          <t>FRC-HQ-SLM-C-20-0001</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -15513,7 +15513,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-20-0132</t>
+          <t>FRC-HQ-SLM-C-20-0001</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -15626,7 +15626,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-T-20-0133</t>
+          <t>FRC-HQ-SLM-T-20-0001</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -15739,7 +15739,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-20-0134</t>
+          <t>FRC-HQ-SLM-C-20-0001</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -15852,7 +15852,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-20-0135</t>
+          <t>FRC-HQ-SLM-C-20-0001</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -15965,7 +15965,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-20-0136</t>
+          <t>FRC-HQ-SLM-C-20-0001</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -16078,7 +16078,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-20-0137</t>
+          <t>FRC-HQ-SLM-C-20-0001</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -16191,7 +16191,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-20-0138</t>
+          <t>FRC-HQ-SLM-F-20-0001</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -16304,7 +16304,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-20-0139</t>
+          <t>FRC-HQ-SLM-C-20-0001</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -16417,7 +16417,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-20-0140</t>
+          <t>FRC-HQ-SLM-F-20-0001</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -16530,7 +16530,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-20-0141</t>
+          <t>FRC-HQ-SLM-C-20-0001</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -16643,7 +16643,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-20-0142</t>
+          <t>FRC-HQ-SLM-C-20-0001</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -16756,7 +16756,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-M-21-0143</t>
+          <t>FRC-HQ-SLM-M-21-0001</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
@@ -16869,7 +16869,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-M-21-0144</t>
+          <t>FRC-HQ-SLM-M-21-0001</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
@@ -16980,7 +16980,7 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-21-0145</t>
+          <t>FRC-HQ-SLM-O-21-0001</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
@@ -17093,7 +17093,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-21-0146</t>
+          <t>FRC-HQ-SLM-C-21-0001</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
@@ -17206,7 +17206,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-21-0147</t>
+          <t>FRC-HQ-SLM-C-21-0001</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
@@ -17319,7 +17319,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-M-21-0148</t>
+          <t>FRC-HQ-SLM-M-21-0001</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
@@ -17430,7 +17430,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-21-0149</t>
+          <t>FRC-HQ-SLM-F-21-0001</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
@@ -17543,7 +17543,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-21-0150</t>
+          <t>FRC-HQ-SLM-O-21-0001</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
@@ -17656,7 +17656,7 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-21-0152</t>
+          <t>FRC-HQ-SLM-C-21-0001</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
@@ -17771,7 +17771,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-21-0153</t>
+          <t>FRC-HQ-SLM-C-21-0001</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
@@ -17886,7 +17886,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-21-0154</t>
+          <t>FRC-HQ-SLM-C-21-0001</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
@@ -18001,7 +18001,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-21-0155</t>
+          <t>FRC-HQ-SLM-C-21-0001</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
@@ -18116,7 +18116,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-21-0156</t>
+          <t>FRC-HQ-SLM-C-21-0001</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
@@ -18231,7 +18231,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-21-0157</t>
+          <t>FRC-HQ-SLM-C-21-0001</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
@@ -18346,7 +18346,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-21-0158</t>
+          <t>FRC-HQ-SLM-C-21-0001</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
@@ -18461,7 +18461,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-21-0159</t>
+          <t>FRC-HQ-SLM-C-21-0001</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
@@ -18576,7 +18576,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-21-0160</t>
+          <t>FRC-HQ-SLM-C-21-0001</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
@@ -18691,7 +18691,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-21-0161</t>
+          <t>FRC-HQ-SLM-C-21-0001</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
@@ -18806,7 +18806,7 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-I-21-0162</t>
+          <t>FRC-HQ-SLM-I-21-0001</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
@@ -18921,7 +18921,7 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-I-21-0163</t>
+          <t>FRC-HQ-SLM-I-21-0001</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
@@ -19036,7 +19036,7 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-I-21-0164</t>
+          <t>FRC-HQ-SLM-I-21-0001</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
@@ -19151,7 +19151,7 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-I-21-0165</t>
+          <t>FRC-HQ-SLM-I-21-0001</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
@@ -19266,7 +19266,7 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-I-21-0166</t>
+          <t>FRC-HQ-SLM-I-21-0001</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
@@ -19381,7 +19381,7 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-I-21-0167</t>
+          <t>FRC-HQ-SLM-I-21-0001</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
@@ -19496,7 +19496,7 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-I-21-0168</t>
+          <t>FRC-HQ-SLM-I-21-0001</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
@@ -19611,7 +19611,7 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-I-21-0169</t>
+          <t>FRC-HQ-SLM-I-21-0001</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
@@ -19727,7 +19727,7 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-I-21-0170</t>
+          <t>FRC-HQ-SLM-I-21-0001</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
@@ -19842,7 +19842,7 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-I-21-0171</t>
+          <t>FRC-HQ-SLM-I-21-0001</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
@@ -19957,7 +19957,7 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-I-21-0172</t>
+          <t>FRC-HQ-SLM-I-21-0001</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
@@ -20072,7 +20072,7 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-S-21-0173</t>
+          <t>FRC-HQ-SLM-S-21-0001</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
@@ -20187,7 +20187,7 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-S-21-0174</t>
+          <t>FRC-HQ-SLM-S-21-0001</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
@@ -20302,7 +20302,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-S-21-0175</t>
+          <t>FRC-HQ-SLM-S-21-0001</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
@@ -20417,7 +20417,7 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-S-21-0176</t>
+          <t>FRC-HQ-SLM-S-21-0001</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
@@ -20532,7 +20532,7 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-S-21-0177</t>
+          <t>FRC-HQ-SLM-S-21-0001</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
@@ -20647,7 +20647,7 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-S-21-0178</t>
+          <t>FRC-HQ-SLM-S-21-0001</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
@@ -20762,7 +20762,7 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-S-21-0179</t>
+          <t>FRC-HQ-SLM-S-21-0001</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
@@ -20877,7 +20877,7 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-S-21-0180</t>
+          <t>FRC-HQ-SLM-S-21-0001</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
@@ -20992,7 +20992,7 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-S-21-0181</t>
+          <t>FRC-HQ-SLM-S-21-0001</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
@@ -21107,7 +21107,7 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-S-21-0182</t>
+          <t>FRC-HQ-SLM-S-21-0001</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
@@ -21222,7 +21222,7 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-S-21-0183</t>
+          <t>FRC-HQ-SLM-S-21-0001</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
@@ -21337,7 +21337,7 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-S-21-0184</t>
+          <t>FRC-HQ-SLM-S-21-0001</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
@@ -21453,7 +21453,7 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-S-21-0185</t>
+          <t>FRC-HQ-SLM-S-21-0001</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
@@ -21568,7 +21568,7 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-S-21-0186</t>
+          <t>FRC-HQ-SLM-S-21-0001</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
@@ -21683,7 +21683,7 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-S-21-0187</t>
+          <t>FRC-HQ-SLM-S-21-0001</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
@@ -21798,7 +21798,7 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-S-21-0188</t>
+          <t>FRC-HQ-SLM-S-21-0001</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
@@ -21913,7 +21913,7 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-S-21-0189</t>
+          <t>FRC-HQ-SLM-S-21-0001</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
@@ -22028,7 +22028,7 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-S-21-0190</t>
+          <t>FRC-HQ-SLM-S-21-0001</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
@@ -22143,7 +22143,7 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-S-21-0191</t>
+          <t>FRC-HQ-SLM-S-21-0001</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
@@ -22258,7 +22258,7 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-S-21-0192</t>
+          <t>FRC-HQ-SLM-S-21-0001</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
@@ -22373,7 +22373,7 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-S-21-0193</t>
+          <t>FRC-HQ-SLM-S-21-0001</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
@@ -22488,7 +22488,7 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-S-21-0194</t>
+          <t>FRC-HQ-SLM-S-21-0001</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
@@ -22603,7 +22603,7 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-S-21-0195</t>
+          <t>FRC-HQ-SLM-S-21-0001</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
@@ -22718,7 +22718,7 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-S-21-0196</t>
+          <t>FRC-HQ-SLM-S-21-0001</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
@@ -22833,7 +22833,7 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-S-21-0197</t>
+          <t>FRC-HQ-SLM-S-21-0001</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
@@ -22948,7 +22948,7 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-E-21-0198</t>
+          <t>FRC-HQ-SLM-E-21-0001</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
@@ -23063,7 +23063,7 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-E-21-0199</t>
+          <t>FRC-HQ-SLM-E-21-0001</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
@@ -23178,7 +23178,7 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-E-21-0200</t>
+          <t>FRC-HQ-SLM-E-21-0002</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
@@ -23293,7 +23293,7 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-E-21-0201</t>
+          <t>FRC-HQ-SLM-E-21-0002</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
@@ -23408,7 +23408,7 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-E-21-0202</t>
+          <t>FRC-HQ-SLM-E-21-0002</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
@@ -23523,7 +23523,7 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-E-21-0203</t>
+          <t>FRC-HQ-SLM-E-21-0002</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
@@ -23638,7 +23638,7 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-E-21-0204</t>
+          <t>FRC-HQ-SLM-E-21-0002</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
@@ -23753,7 +23753,7 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-E-21-0205</t>
+          <t>FRC-HQ-SLM-E-21-0002</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
@@ -23868,7 +23868,7 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-E-21-0206</t>
+          <t>FRC-HQ-SLM-E-21-0002</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
@@ -23983,7 +23983,7 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-E-21-0207</t>
+          <t>FRC-HQ-SLM-E-21-0002</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
@@ -24098,7 +24098,7 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-E-21-0208</t>
+          <t>FRC-HQ-SLM-E-21-0002</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
@@ -24213,7 +24213,7 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-E-21-0209</t>
+          <t>FRC-HQ-SLM-E-21-0002</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
@@ -24328,7 +24328,7 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-E-21-0210</t>
+          <t>FRC-HQ-SLM-E-21-0002</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
@@ -24443,7 +24443,7 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-E-21-0211</t>
+          <t>FRC-HQ-SLM-E-21-0002</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
@@ -24558,7 +24558,7 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-E-21-0212</t>
+          <t>FRC-HQ-SLM-E-21-0002</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
@@ -24673,7 +24673,7 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-E-21-0213</t>
+          <t>FRC-HQ-SLM-E-21-0002</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
@@ -24788,7 +24788,7 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-E-21-0214</t>
+          <t>FRC-HQ-SLM-E-21-0002</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
@@ -24903,7 +24903,7 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-E-21-0215</t>
+          <t>FRC-HQ-SLM-E-21-0002</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
@@ -25018,7 +25018,7 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-E-21-0216</t>
+          <t>FRC-HQ-SLM-E-21-0002</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
@@ -25133,7 +25133,7 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-E-21-0217</t>
+          <t>FRC-HQ-SLM-E-21-0002</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
@@ -25248,7 +25248,7 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-E-21-0218</t>
+          <t>FRC-HQ-SLM-E-21-0002</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
@@ -25363,7 +25363,7 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-E-21-0219</t>
+          <t>FRC-HQ-SLM-E-21-0002</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
@@ -25478,7 +25478,7 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-E-21-0220</t>
+          <t>FRC-HQ-SLM-E-21-0002</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
@@ -25593,7 +25593,7 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-E-21-0221</t>
+          <t>FRC-HQ-SLM-E-21-0002</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
@@ -25708,7 +25708,7 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-E-21-0222</t>
+          <t>FRC-HQ-SLM-E-21-0002</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
@@ -25823,7 +25823,7 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-E-21-0223</t>
+          <t>FRC-HQ-SLM-E-21-0002</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
@@ -25938,7 +25938,7 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-E-21-0224</t>
+          <t>FRC-HQ-SLM-E-21-0002</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
@@ -26053,7 +26053,7 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-E-21-0225</t>
+          <t>FRC-HQ-SLM-E-21-0002</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
@@ -26168,7 +26168,7 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-E-21-0226</t>
+          <t>FRC-HQ-SLM-E-21-0002</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
@@ -26283,7 +26283,7 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-E-21-0227</t>
+          <t>FRC-HQ-SLM-E-21-0002</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
@@ -26398,7 +26398,7 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-E-21-0228</t>
+          <t>FRC-HQ-SLM-E-21-0002</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
@@ -26513,7 +26513,7 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-E-21-0229</t>
+          <t>FRC-HQ-SLM-E-21-0002</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
@@ -26628,7 +26628,7 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-E-21-0230</t>
+          <t>FRC-HQ-SLM-E-21-0002</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
@@ -26743,7 +26743,7 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-E-21-0231</t>
+          <t>FRC-HQ-SLM-E-21-0002</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
@@ -26858,7 +26858,7 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-E-21-0232</t>
+          <t>FRC-HQ-SLM-E-21-0002</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
@@ -26973,7 +26973,7 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-E-21-0233</t>
+          <t>FRC-HQ-SLM-E-21-0002</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
@@ -27088,7 +27088,7 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-E-21-0234</t>
+          <t>FRC-HQ-SLM-E-21-0002</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
@@ -27203,7 +27203,7 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-E-21-0235</t>
+          <t>FRC-HQ-SLM-E-21-0002</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
@@ -27318,7 +27318,7 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-E-21-0236</t>
+          <t>FRC-HQ-SLM-E-21-0002</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
@@ -27433,7 +27433,7 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-P-21-0237</t>
+          <t>FRC-HQ-SLM-P-21-0002</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
@@ -27548,7 +27548,7 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-P-21-0238</t>
+          <t>FRC-HQ-SLM-P-21-0002</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
@@ -27663,7 +27663,7 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-P-21-0239</t>
+          <t>FRC-HQ-SLM-P-21-0002</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
@@ -27778,7 +27778,7 @@
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-P-21-0240</t>
+          <t>FRC-HQ-SLM-P-21-0002</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
@@ -27893,7 +27893,7 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-P-21-0241</t>
+          <t>FRC-HQ-SLM-P-21-0002</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
@@ -28008,7 +28008,7 @@
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-I-21-0242</t>
+          <t>FRC-HQ-SLM-I-21-0002</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
@@ -28123,7 +28123,7 @@
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-I-21-0243</t>
+          <t>FRC-HQ-SLM-I-21-0002</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
@@ -28238,7 +28238,7 @@
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-I-21-0244</t>
+          <t>FRC-HQ-SLM-I-21-0002</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
@@ -28353,7 +28353,7 @@
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-I-21-0245</t>
+          <t>FRC-HQ-SLM-I-21-0002</t>
         </is>
       </c>
       <c r="C245" t="inlineStr">
@@ -28468,7 +28468,7 @@
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-I-21-0246</t>
+          <t>FRC-HQ-SLM-I-21-0002</t>
         </is>
       </c>
       <c r="C246" t="inlineStr">
@@ -28583,7 +28583,7 @@
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-I-21-0247</t>
+          <t>FRC-HQ-SLM-I-21-0002</t>
         </is>
       </c>
       <c r="C247" t="inlineStr">
@@ -28698,7 +28698,7 @@
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-I-21-0248</t>
+          <t>FRC-HQ-SLM-I-21-0002</t>
         </is>
       </c>
       <c r="C248" t="inlineStr">
@@ -28813,7 +28813,7 @@
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-I-21-0249</t>
+          <t>FRC-HQ-SLM-I-21-0002</t>
         </is>
       </c>
       <c r="C249" t="inlineStr">
@@ -28928,7 +28928,7 @@
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-I-21-0250</t>
+          <t>FRC-HQ-SLM-I-21-0002</t>
         </is>
       </c>
       <c r="C250" t="inlineStr">
@@ -29043,7 +29043,7 @@
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-I-21-0251</t>
+          <t>FRC-HQ-SLM-I-21-0002</t>
         </is>
       </c>
       <c r="C251" t="inlineStr">
@@ -29158,7 +29158,7 @@
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-I-21-0252</t>
+          <t>FRC-HQ-SLM-I-21-0002</t>
         </is>
       </c>
       <c r="C252" t="inlineStr">
@@ -29273,7 +29273,7 @@
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-I-21-0253</t>
+          <t>FRC-HQ-SLM-I-21-0002</t>
         </is>
       </c>
       <c r="C253" t="inlineStr">
@@ -29388,7 +29388,7 @@
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-I-21-0254</t>
+          <t>FRC-HQ-SLM-I-21-0002</t>
         </is>
       </c>
       <c r="C254" t="inlineStr">
@@ -29503,7 +29503,7 @@
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-I-21-0255</t>
+          <t>FRC-HQ-SLM-I-21-0002</t>
         </is>
       </c>
       <c r="C255" t="inlineStr">
@@ -29618,7 +29618,7 @@
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-I-21-0256</t>
+          <t>FRC-HQ-SLM-I-21-0002</t>
         </is>
       </c>
       <c r="C256" t="inlineStr">
@@ -29733,7 +29733,7 @@
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-I-21-0257</t>
+          <t>FRC-HQ-SLM-I-21-0002</t>
         </is>
       </c>
       <c r="C257" t="inlineStr">
@@ -29848,7 +29848,7 @@
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-I-21-0258</t>
+          <t>FRC-HQ-SLM-I-21-0002</t>
         </is>
       </c>
       <c r="C258" t="inlineStr">
@@ -29963,7 +29963,7 @@
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-I-21-0259</t>
+          <t>FRC-HQ-SLM-I-21-0002</t>
         </is>
       </c>
       <c r="C259" t="inlineStr">
@@ -30078,7 +30078,7 @@
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-I-21-0260</t>
+          <t>FRC-HQ-SLM-I-21-0002</t>
         </is>
       </c>
       <c r="C260" t="inlineStr">
@@ -30193,7 +30193,7 @@
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-I-21-0261</t>
+          <t>FRC-HQ-SLM-I-21-0002</t>
         </is>
       </c>
       <c r="C261" t="inlineStr">
@@ -30308,7 +30308,7 @@
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-I-21-0262</t>
+          <t>FRC-HQ-SLM-I-21-0002</t>
         </is>
       </c>
       <c r="C262" t="inlineStr">
@@ -30423,7 +30423,7 @@
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-I-21-0263</t>
+          <t>FRC-HQ-SLM-I-21-0002</t>
         </is>
       </c>
       <c r="C263" t="inlineStr">
@@ -30538,7 +30538,7 @@
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-I-21-0264</t>
+          <t>FRC-HQ-SLM-I-21-0002</t>
         </is>
       </c>
       <c r="C264" t="inlineStr">
@@ -30653,7 +30653,7 @@
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-I-21-0265</t>
+          <t>FRC-HQ-SLM-I-21-0002</t>
         </is>
       </c>
       <c r="C265" t="inlineStr">
@@ -30768,7 +30768,7 @@
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-I-21-0266</t>
+          <t>FRC-HQ-SLM-I-21-0002</t>
         </is>
       </c>
       <c r="C266" t="inlineStr">
@@ -30883,7 +30883,7 @@
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-I-21-0267</t>
+          <t>FRC-HQ-SLM-I-21-0002</t>
         </is>
       </c>
       <c r="C267" t="inlineStr">
@@ -30998,7 +30998,7 @@
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-I-21-0268</t>
+          <t>FRC-HQ-SLM-I-21-0002</t>
         </is>
       </c>
       <c r="C268" t="inlineStr">
@@ -31113,7 +31113,7 @@
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-I-21-0269</t>
+          <t>FRC-HQ-SLM-I-21-0002</t>
         </is>
       </c>
       <c r="C269" t="inlineStr">
@@ -31228,7 +31228,7 @@
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-I-21-0270</t>
+          <t>FRC-HQ-SLM-I-21-0002</t>
         </is>
       </c>
       <c r="C270" t="inlineStr">
@@ -31343,7 +31343,7 @@
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-I-21-0271</t>
+          <t>FRC-HQ-SLM-I-21-0002</t>
         </is>
       </c>
       <c r="C271" t="inlineStr">
@@ -31458,7 +31458,7 @@
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-I-21-0272</t>
+          <t>FRC-HQ-SLM-I-21-0002</t>
         </is>
       </c>
       <c r="C272" t="inlineStr">
@@ -31573,7 +31573,7 @@
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-I-21-0273</t>
+          <t>FRC-HQ-SLM-I-21-0002</t>
         </is>
       </c>
       <c r="C273" t="inlineStr">
@@ -31688,7 +31688,7 @@
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-I-21-0274</t>
+          <t>FRC-HQ-SLM-I-21-0002</t>
         </is>
       </c>
       <c r="C274" t="inlineStr">
@@ -31803,7 +31803,7 @@
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-21-0275</t>
+          <t>FRC-HQ-SLM-F-21-0002</t>
         </is>
       </c>
       <c r="C275" t="inlineStr">
@@ -31918,7 +31918,7 @@
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-21-0276</t>
+          <t>FRC-HQ-SLM-F-21-0002</t>
         </is>
       </c>
       <c r="C276" t="inlineStr">
@@ -32033,7 +32033,7 @@
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-21-0277</t>
+          <t>FRC-HQ-SLM-F-21-0002</t>
         </is>
       </c>
       <c r="C277" t="inlineStr">
@@ -32148,7 +32148,7 @@
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-21-0278</t>
+          <t>FRC-HQ-SLM-F-21-0002</t>
         </is>
       </c>
       <c r="C278" t="inlineStr">
@@ -32263,7 +32263,7 @@
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-21-0279</t>
+          <t>FRC-HQ-SLM-F-21-0002</t>
         </is>
       </c>
       <c r="C279" t="inlineStr">
@@ -32378,7 +32378,7 @@
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-21-0280</t>
+          <t>FRC-HQ-SLM-F-21-0002</t>
         </is>
       </c>
       <c r="C280" t="inlineStr">
@@ -32493,7 +32493,7 @@
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-21-0281</t>
+          <t>FRC-HQ-SLM-F-21-0002</t>
         </is>
       </c>
       <c r="C281" t="inlineStr">
@@ -32608,7 +32608,7 @@
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-21-0282</t>
+          <t>FRC-HQ-SLM-F-21-0002</t>
         </is>
       </c>
       <c r="C282" t="inlineStr">
@@ -32723,7 +32723,7 @@
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-21-0283</t>
+          <t>FRC-HQ-SLM-F-21-0002</t>
         </is>
       </c>
       <c r="C283" t="inlineStr">
@@ -32838,7 +32838,7 @@
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-21-0284</t>
+          <t>FRC-HQ-SLM-F-21-0002</t>
         </is>
       </c>
       <c r="C284" t="inlineStr">
@@ -32953,7 +32953,7 @@
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-21-0285</t>
+          <t>FRC-HQ-SLM-F-21-0002</t>
         </is>
       </c>
       <c r="C285" t="inlineStr">
@@ -33068,7 +33068,7 @@
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-21-0286</t>
+          <t>FRC-HQ-SLM-F-21-0002</t>
         </is>
       </c>
       <c r="C286" t="inlineStr">
@@ -33183,7 +33183,7 @@
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-21-0287</t>
+          <t>FRC-HQ-SLM-F-21-0002</t>
         </is>
       </c>
       <c r="C287" t="inlineStr">
@@ -33298,7 +33298,7 @@
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-21-0288</t>
+          <t>FRC-HQ-SLM-F-21-0002</t>
         </is>
       </c>
       <c r="C288" t="inlineStr">
@@ -33413,7 +33413,7 @@
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-21-0289</t>
+          <t>FRC-HQ-SLM-F-21-0002</t>
         </is>
       </c>
       <c r="C289" t="inlineStr">
@@ -33528,7 +33528,7 @@
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-21-0290</t>
+          <t>FRC-HQ-SLM-F-21-0002</t>
         </is>
       </c>
       <c r="C290" t="inlineStr">
@@ -33643,7 +33643,7 @@
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-21-0291</t>
+          <t>FRC-HQ-SLM-F-21-0002</t>
         </is>
       </c>
       <c r="C291" t="inlineStr">
@@ -33758,7 +33758,7 @@
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-21-0292</t>
+          <t>FRC-HQ-SLM-F-21-0002</t>
         </is>
       </c>
       <c r="C292" t="inlineStr">
@@ -33873,7 +33873,7 @@
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-21-0293</t>
+          <t>FRC-HQ-SLM-F-21-0002</t>
         </is>
       </c>
       <c r="C293" t="inlineStr">
@@ -33988,7 +33988,7 @@
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-21-0294</t>
+          <t>FRC-HQ-SLM-F-21-0002</t>
         </is>
       </c>
       <c r="C294" t="inlineStr">
@@ -34103,7 +34103,7 @@
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-21-0295</t>
+          <t>FRC-HQ-SLM-F-21-0002</t>
         </is>
       </c>
       <c r="C295" t="inlineStr">
@@ -34218,7 +34218,7 @@
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-21-0296</t>
+          <t>FRC-HQ-SLM-F-21-0002</t>
         </is>
       </c>
       <c r="C296" t="inlineStr">
@@ -34333,7 +34333,7 @@
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-21-0297</t>
+          <t>FRC-HQ-SLM-F-21-0002</t>
         </is>
       </c>
       <c r="C297" t="inlineStr">
@@ -34448,7 +34448,7 @@
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-21-0298</t>
+          <t>FRC-HQ-SLM-F-21-0002</t>
         </is>
       </c>
       <c r="C298" t="inlineStr">
@@ -34563,7 +34563,7 @@
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-21-0299</t>
+          <t>FRC-HQ-SLM-F-21-0002</t>
         </is>
       </c>
       <c r="C299" t="inlineStr">
@@ -34678,7 +34678,7 @@
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-21-0300</t>
+          <t>FRC-HQ-SLM-F-21-0003</t>
         </is>
       </c>
       <c r="C300" t="inlineStr">
@@ -34793,7 +34793,7 @@
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-21-0301</t>
+          <t>FRC-HQ-SLM-F-21-0003</t>
         </is>
       </c>
       <c r="C301" t="inlineStr">
@@ -34908,7 +34908,7 @@
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-23-0001</t>
+          <t>FRC-HQ-SLM-F-23-0000</t>
         </is>
       </c>
       <c r="C302" t="inlineStr">
@@ -35021,7 +35021,7 @@
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-23-0001</t>
+          <t>FRC-HQ-SLM-F-23-0000</t>
         </is>
       </c>
       <c r="C303" t="inlineStr">
@@ -35134,7 +35134,7 @@
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-M-23-0002</t>
+          <t>FRC-HQ-SLM-M-23-0000</t>
         </is>
       </c>
       <c r="C304" t="inlineStr">
@@ -35247,7 +35247,7 @@
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-M-23-0002</t>
+          <t>FRC-HQ-SLM-M-23-0000</t>
         </is>
       </c>
       <c r="C305" t="inlineStr">
@@ -35360,7 +35360,7 @@
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-M-23-0002</t>
+          <t>FRC-HQ-SLM-M-23-0000</t>
         </is>
       </c>
       <c r="C306" t="inlineStr">
@@ -35473,7 +35473,7 @@
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-M-23-0002</t>
+          <t>FRC-HQ-SLM-M-23-0000</t>
         </is>
       </c>
       <c r="C307" t="inlineStr">
@@ -35586,7 +35586,7 @@
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-21-0003</t>
+          <t>FRC-HQ-SLM-F-21-0000</t>
         </is>
       </c>
       <c r="C308" t="inlineStr">
@@ -35699,7 +35699,7 @@
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-21-0003</t>
+          <t>FRC-HQ-SLM-F-21-0000</t>
         </is>
       </c>
       <c r="C309" t="inlineStr">
@@ -35812,7 +35812,7 @@
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-19-0006</t>
+          <t>FRC-HQ-SLM-O-19-0000</t>
         </is>
       </c>
       <c r="C310" t="inlineStr">
@@ -35925,7 +35925,7 @@
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-19-0006</t>
+          <t>FRC-HQ-SLM-O-19-0000</t>
         </is>
       </c>
       <c r="C311" t="inlineStr">
@@ -36038,7 +36038,7 @@
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-23-0006</t>
+          <t>FRC-HQ-SLM-F-23-0000</t>
         </is>
       </c>
       <c r="C312" t="inlineStr">
@@ -36151,7 +36151,7 @@
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-23-0006</t>
+          <t>FRC-HQ-SLM-F-23-0000</t>
         </is>
       </c>
       <c r="C313" t="inlineStr">
@@ -36264,7 +36264,7 @@
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-T-23-0006</t>
+          <t>FRC-HQ-SLM-T-23-0000</t>
         </is>
       </c>
       <c r="C314" t="inlineStr">
@@ -36377,7 +36377,7 @@
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-T-23-0006</t>
+          <t>FRC-HQ-SLM-T-23-0000</t>
         </is>
       </c>
       <c r="C315" t="inlineStr">
@@ -36490,7 +36490,7 @@
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-E-23-0006</t>
+          <t>FRC-HQ-SLM-E-23-0000</t>
         </is>
       </c>
       <c r="C316" t="inlineStr">
@@ -36603,7 +36603,7 @@
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-E-23-0006</t>
+          <t>FRC-HQ-SLM-E-23-0000</t>
         </is>
       </c>
       <c r="C317" t="inlineStr">
@@ -36716,7 +36716,7 @@
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-E-23-0006</t>
+          <t>FRC-HQ-SLM-E-23-0000</t>
         </is>
       </c>
       <c r="C318" t="inlineStr">
@@ -36829,7 +36829,7 @@
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-22-0006</t>
+          <t>FRC-HQ-SLM-C-22-0000</t>
         </is>
       </c>
       <c r="C319" t="inlineStr">
@@ -36942,7 +36942,7 @@
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-22-0006</t>
+          <t>FRC-HQ-SLM-C-22-0000</t>
         </is>
       </c>
       <c r="C320" t="inlineStr">
@@ -37055,7 +37055,7 @@
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-23-0001</t>
+          <t>FRC-HQ-SLM-C-23-0000</t>
         </is>
       </c>
       <c r="C321" t="inlineStr">
@@ -37168,7 +37168,7 @@
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-23-0001</t>
+          <t>FRC-HQ-SLM-C-23-0000</t>
         </is>
       </c>
       <c r="C322" t="inlineStr">
@@ -37281,7 +37281,7 @@
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-23-0001</t>
+          <t>FRC-HQ-SLM-C-23-0000</t>
         </is>
       </c>
       <c r="C323" t="inlineStr">
@@ -37394,7 +37394,7 @@
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-23-0001</t>
+          <t>FRC-HQ-SLM-C-23-0000</t>
         </is>
       </c>
       <c r="C324" t="inlineStr">
@@ -37507,7 +37507,7 @@
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-23-0001</t>
+          <t>FRC-HQ-SLM-C-23-0000</t>
         </is>
       </c>
       <c r="C325" t="inlineStr">
@@ -37620,7 +37620,7 @@
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-23-0001</t>
+          <t>FRC-HQ-SLM-C-23-0000</t>
         </is>
       </c>
       <c r="C326" t="inlineStr">
@@ -37733,7 +37733,7 @@
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-23-0001</t>
+          <t>FRC-HQ-SLM-C-23-0000</t>
         </is>
       </c>
       <c r="C327" t="inlineStr">
@@ -37846,7 +37846,7 @@
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-23-0001</t>
+          <t>FRC-HQ-SLM-C-23-0000</t>
         </is>
       </c>
       <c r="C328" t="inlineStr">
@@ -37959,7 +37959,7 @@
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-23-0001</t>
+          <t>FRC-HQ-SLM-C-23-0000</t>
         </is>
       </c>
       <c r="C329" t="inlineStr">
@@ -38072,7 +38072,7 @@
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-23-0001</t>
+          <t>FRC-HQ-SLM-C-23-0000</t>
         </is>
       </c>
       <c r="C330" t="inlineStr">
@@ -38185,7 +38185,7 @@
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-23-0001</t>
+          <t>FRC-HQ-SLM-C-23-0000</t>
         </is>
       </c>
       <c r="C331" t="inlineStr">
@@ -38298,7 +38298,7 @@
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-23-0001</t>
+          <t>FRC-HQ-SLM-C-23-0000</t>
         </is>
       </c>
       <c r="C332" t="inlineStr">
@@ -38411,7 +38411,7 @@
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-T-20-0001</t>
+          <t>FRC-HQ-SLM-T-20-0000</t>
         </is>
       </c>
       <c r="C333" t="inlineStr">
@@ -38524,7 +38524,7 @@
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-21-0001</t>
+          <t>FRC-HQ-SLM-O-21-0000</t>
         </is>
       </c>
       <c r="C334" t="inlineStr">
@@ -38591,11 +38591,7 @@
       <c r="T334" t="n">
         <v>20</v>
       </c>
-      <c r="U334" t="inlineStr">
-        <is>
-          <t>lipo</t>
-        </is>
-      </c>
+      <c r="U334" t="inlineStr"/>
       <c r="V334" t="n">
         <v>0.1428571428571428</v>
       </c>

--- a/afar_project/csv_path/excel_files/depreciation.xlsx
+++ b/afar_project/csv_path/excel_files/depreciation.xlsx
@@ -589,7 +589,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-17-0001</t>
+          <t>FRC-HQ-SLM-O-17-0000</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -705,7 +705,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-17-0002</t>
+          <t>FRC-HQ-SLM-O-17-0000</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -817,7 +817,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-17-0003</t>
+          <t>FRC-HQ-SLM-O-17-0000</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -929,7 +929,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-17-0004</t>
+          <t>FRC-HQ-SLM-O-17-0000</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -1041,7 +1041,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-17-0005</t>
+          <t>FRC-HQ-SLM-O-17-0000</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -1153,7 +1153,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-17-0006</t>
+          <t>FRC-HQ-SLM-O-17-0000</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -1265,7 +1265,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-17-0007</t>
+          <t>FRC-HQ-SLM-O-17-0000</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -1377,7 +1377,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-17-0008</t>
+          <t>FRC-HQ-SLM-O-17-0000</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -1487,7 +1487,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-17-0009</t>
+          <t>FRC-HQ-SLM-O-17-0000</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -1599,7 +1599,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-17-0010</t>
+          <t>FRC-HQ-SLM-C-17-0000</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -1711,7 +1711,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-17-0011</t>
+          <t>FRC-HQ-SLM-C-17-0000</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -1823,7 +1823,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-17-0012</t>
+          <t>FRC-HQ-SLM-O-17-0000</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -1933,7 +1933,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-17-0013</t>
+          <t>FRC-HQ-SLM-O-17-0000</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -2045,7 +2045,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-17-0014</t>
+          <t>FRC-HQ-SLM-F-17-0000</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -2161,7 +2161,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-17-0015</t>
+          <t>FRC-HQ-SLM-O-17-0000</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -2273,7 +2273,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-17-0016</t>
+          <t>FRC-HQ-SLM-O-17-0000</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -2385,7 +2385,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-17-0017</t>
+          <t>FRC-HQ-SLM-F-17-0000</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -2501,7 +2501,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-17-0018</t>
+          <t>FRC-HQ-SLM-O-17-0000</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -2617,7 +2617,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-17-0019</t>
+          <t>FRC-HQ-SLM-F-17-0000</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -2733,7 +2733,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-17-0020</t>
+          <t>FRC-HQ-SLM-F-17-0000</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -2845,7 +2845,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-17-0021</t>
+          <t>FRC-HQ-SLM-O-17-0000</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -2955,7 +2955,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-17-0022</t>
+          <t>FRC-HQ-SLM-O-17-0000</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -3067,7 +3067,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-17-0023</t>
+          <t>FRC-HQ-SLM-O-17-0000</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -3179,7 +3179,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-17-0024</t>
+          <t>FRC-HQ-SLM-F-17-0000</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -3291,7 +3291,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-17-0025</t>
+          <t>FRC-HQ-SLM-F-17-0000</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -3403,7 +3403,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-17-0026</t>
+          <t>FRC-HQ-SLM-F-17-0000</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -3515,7 +3515,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-17-0027</t>
+          <t>FRC-HQ-SLM-F-17-0000</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -3627,7 +3627,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-17-0028</t>
+          <t>FRC-HQ-SLM-O-17-0000</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -3743,7 +3743,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-17-0029</t>
+          <t>FRC-HQ-SLM-F-17-0000</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -3855,7 +3855,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-17-0030</t>
+          <t>FRC-HQ-SLM-F-17-0000</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -3967,7 +3967,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-17-0031</t>
+          <t>FRC-HQ-SLM-F-17-0000</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -4079,7 +4079,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-17-0032</t>
+          <t>FRC-HQ-SLM-O-17-0000</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -4189,7 +4189,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-17-0033</t>
+          <t>FRC-HQ-SLM-F-17-0000</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -4299,7 +4299,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-17-0034</t>
+          <t>FRC-HQ-SLM-O-17-0000</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -4411,7 +4411,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-17-0035</t>
+          <t>FRC-HQ-SLM-F-17-0000</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -4523,7 +4523,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-17-0036</t>
+          <t>FRC-HQ-SLM-O-17-0000</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -4635,7 +4635,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-17-0037</t>
+          <t>FRC-HQ-SLM-O-17-0000</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -4751,7 +4751,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-17-0038</t>
+          <t>FRC-HQ-SLM-O-17-0000</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -4863,7 +4863,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-17-0039</t>
+          <t>FRC-HQ-SLM-F-17-0000</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -4975,7 +4975,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-17-0040</t>
+          <t>FRC-HQ-SLM-F-17-0000</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -5087,7 +5087,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-17-0041</t>
+          <t>FRC-HQ-SLM-O-17-0000</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -5199,7 +5199,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-17-0042</t>
+          <t>FRC-HQ-SLM-F-17-0000</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -5315,7 +5315,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-17-0043</t>
+          <t>FRC-HQ-SLM-F-17-0000</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -5427,7 +5427,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-17-0044</t>
+          <t>FRC-HQ-SLM-F-17-0000</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -5539,7 +5539,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-T-17-0045</t>
+          <t>FRC-HQ-SLM-T-17-0000</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -5651,7 +5651,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-T-17-0046</t>
+          <t>FRC-HQ-SLM-T-17-0000</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -5761,7 +5761,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-17-0047</t>
+          <t>FRC-HQ-SLM-F-17-0000</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -5877,7 +5877,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-17-0048</t>
+          <t>FRC-HQ-SLM-O-17-0000</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -5993,7 +5993,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-17-0049</t>
+          <t>FRC-HQ-SLM-F-17-0000</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -6109,7 +6109,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-17-0050</t>
+          <t>FRC-HQ-SLM-O-17-0000</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -6225,7 +6225,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-17-0051</t>
+          <t>FRC-HQ-SLM-O-17-0000</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -6341,7 +6341,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-17-0052</t>
+          <t>FRC-HQ-SLM-F-17-0000</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -6457,7 +6457,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-17-0053</t>
+          <t>FRC-HQ-SLM-F-17-0000</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -6573,7 +6573,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-18-0054</t>
+          <t>FRC-HQ-SLM-F-18-0000</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -6689,7 +6689,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-18-0055</t>
+          <t>FRC-HQ-SLM-F-18-0000</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -6805,7 +6805,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-18-0056</t>
+          <t>FRC-HQ-SLM-F-18-0000</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -6921,7 +6921,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-18-0057</t>
+          <t>FRC-HQ-SLM-F-18-0000</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -7037,7 +7037,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-18-0058</t>
+          <t>FRC-HQ-SLM-F-18-0000</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -7153,7 +7153,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-18-0059</t>
+          <t>FRC-HQ-SLM-F-18-0000</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -7269,7 +7269,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-18-0060</t>
+          <t>FRC-HQ-SLM-C-18-0000</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -7381,7 +7381,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-18-0061</t>
+          <t>FRC-HQ-SLM-C-18-0000</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -7493,7 +7493,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-18-0062</t>
+          <t>FRC-HQ-SLM-O-18-0000</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -7605,7 +7605,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-18-0063</t>
+          <t>FRC-HQ-SLM-F-18-0000</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -7717,7 +7717,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-18-0064</t>
+          <t>FRC-HQ-SLM-F-18-0000</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -7833,7 +7833,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-18-0065</t>
+          <t>FRC-HQ-SLM-C-18-0000</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -7945,7 +7945,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-18-0066</t>
+          <t>FRC-HQ-SLM-C-18-0000</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -8057,7 +8057,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-18-0067</t>
+          <t>FRC-HQ-SLM-F-18-0000</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -8169,7 +8169,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-18-0068</t>
+          <t>FRC-HQ-SLM-F-18-0000</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -8281,7 +8281,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-18-0069</t>
+          <t>FRC-HQ-SLM-F-18-0000</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -8397,7 +8397,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-18-0070</t>
+          <t>FRC-HQ-SLM-F-18-0000</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -8509,7 +8509,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-18-0071</t>
+          <t>FRC-HQ-SLM-C-18-0000</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -8621,7 +8621,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-18-0072</t>
+          <t>FRC-HQ-SLM-F-18-0000</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -8733,7 +8733,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-18-0073</t>
+          <t>FRC-HQ-SLM-F-18-0000</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -8845,7 +8845,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-18-0074</t>
+          <t>FRC-HQ-SLM-F-18-0000</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -8957,7 +8957,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-18-0075</t>
+          <t>FRC-HQ-SLM-F-18-0000</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -9069,7 +9069,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-T-18-0076</t>
+          <t>FRC-HQ-SLM-T-18-0000</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -9179,7 +9179,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-18-0077</t>
+          <t>FRC-HQ-SLM-F-18-0000</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -9291,7 +9291,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-18-0078</t>
+          <t>FRC-HQ-SLM-F-18-0000</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -9403,7 +9403,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-18-0079</t>
+          <t>FRC-HQ-SLM-F-18-0000</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -9515,7 +9515,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-18-0080</t>
+          <t>FRC-HQ-SLM-C-18-0000</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -9627,7 +9627,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-18-0081</t>
+          <t>FRC-HQ-SLM-C-18-0000</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -9739,7 +9739,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-18-0082</t>
+          <t>FRC-HQ-SLM-C-18-0000</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -9851,7 +9851,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-18-0083</t>
+          <t>FRC-HQ-SLM-C-18-0000</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -9963,7 +9963,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-18-0084</t>
+          <t>FRC-HQ-SLM-O-18-0000</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -10075,7 +10075,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-18-0085</t>
+          <t>FRC-HQ-SLM-C-18-0000</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -10187,7 +10187,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-18-0086</t>
+          <t>FRC-HQ-SLM-C-18-0000</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -10299,7 +10299,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-18-0087</t>
+          <t>FRC-HQ-SLM-O-18-0000</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -10411,7 +10411,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-18-0088</t>
+          <t>FRC-HQ-SLM-C-18-0000</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -10523,7 +10523,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-18-0089</t>
+          <t>FRC-HQ-SLM-C-18-0000</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -10635,7 +10635,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-18-0090</t>
+          <t>FRC-HQ-SLM-C-18-0000</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -10747,7 +10747,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-18-0091</t>
+          <t>FRC-HQ-SLM-F-18-0000</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -10863,7 +10863,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-18-0092</t>
+          <t>FRC-HQ-SLM-F-18-0000</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -10979,7 +10979,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-18-0093</t>
+          <t>FRC-HQ-SLM-F-18-0000</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -11095,7 +11095,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-18-0094</t>
+          <t>FRC-HQ-SLM-O-18-0000</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -11211,7 +11211,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-18-0095</t>
+          <t>FRC-HQ-SLM-F-18-0000</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -11321,7 +11321,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-18-0096</t>
+          <t>FRC-HQ-SLM-O-18-0000</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -11433,7 +11433,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-T-18-0097</t>
+          <t>FRC-HQ-SLM-T-18-0000</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -11543,7 +11543,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-M-18-0098</t>
+          <t>FRC-HQ-SLM-M-18-0000</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -11655,7 +11655,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-M-18-0099</t>
+          <t>FRC-HQ-SLM-M-18-0000</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -11767,7 +11767,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-18-0100</t>
+          <t>FRC-HQ-SLM-O-18-0001</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -11879,7 +11879,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-18-0101</t>
+          <t>FRC-HQ-SLM-O-18-0001</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -11991,7 +11991,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-18-0102</t>
+          <t>FRC-HQ-SLM-O-18-0001</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -12103,7 +12103,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-18-0103</t>
+          <t>FRC-HQ-SLM-O-18-0001</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -12219,7 +12219,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-18-0104</t>
+          <t>FRC-HQ-SLM-O-18-0001</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -12329,7 +12329,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-18-0105</t>
+          <t>FRC-HQ-SLM-O-18-0001</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -12441,7 +12441,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-18-0106</t>
+          <t>FRC-HQ-SLM-O-18-0001</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -12557,7 +12557,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-18-0107</t>
+          <t>FRC-HQ-SLM-O-18-0001</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -12669,7 +12669,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-18-0108</t>
+          <t>FRC-HQ-SLM-O-18-0001</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -12781,7 +12781,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-18-0109</t>
+          <t>FRC-HQ-SLM-O-18-0001</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -12893,7 +12893,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-18-0110</t>
+          <t>FRC-HQ-SLM-F-18-0001</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -13009,7 +13009,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-19-0111</t>
+          <t>FRC-HQ-SLM-F-19-0001</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -13125,7 +13125,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-19-0112</t>
+          <t>FRC-HQ-SLM-F-19-0001</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -13241,7 +13241,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-19-0113</t>
+          <t>FRC-HQ-SLM-F-19-0001</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -13357,7 +13357,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-19-0114</t>
+          <t>FRC-HQ-SLM-F-19-0001</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -13469,7 +13469,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-19-0115</t>
+          <t>FRC-HQ-SLM-F-19-0001</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -13581,7 +13581,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-19-0116</t>
+          <t>FRC-HQ-SLM-O-19-0001</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -13693,7 +13693,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-19-0117</t>
+          <t>FRC-HQ-SLM-F-19-0001</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -13809,7 +13809,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-19-0118</t>
+          <t>FRC-HQ-SLM-F-19-0001</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -13921,7 +13921,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-19-0119</t>
+          <t>FRC-HQ-SLM-O-19-0001</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -14033,7 +14033,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-19-0120</t>
+          <t>FRC-HQ-SLM-O-19-0001</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -14145,7 +14145,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-19-0121</t>
+          <t>FRC-HQ-SLM-F-19-0001</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -14257,7 +14257,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-19-0122</t>
+          <t>FRC-HQ-SLM-C-19-0001</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -14369,7 +14369,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-19-0123</t>
+          <t>FRC-HQ-SLM-C-19-0001</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -14481,7 +14481,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-19-0124</t>
+          <t>FRC-HQ-SLM-C-19-0001</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -14593,7 +14593,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-19-0125</t>
+          <t>FRC-HQ-SLM-C-19-0001</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -14705,7 +14705,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-19-0126</t>
+          <t>FRC-HQ-SLM-F-19-0001</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -14817,7 +14817,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-19-0127</t>
+          <t>FRC-HQ-SLM-F-19-0001</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -14929,7 +14929,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-19-0128</t>
+          <t>FRC-HQ-SLM-F-19-0001</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -15041,7 +15041,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-20-0129</t>
+          <t>FRC-HQ-SLM-C-20-0001</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -15153,7 +15153,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-20-0130</t>
+          <t>FRC-HQ-SLM-C-20-0001</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -15265,7 +15265,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-20-0131</t>
+          <t>FRC-HQ-SLM-C-20-0001</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -15377,7 +15377,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-20-0132</t>
+          <t>FRC-HQ-SLM-C-20-0001</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -15489,7 +15489,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-T-20-0133</t>
+          <t>FRC-HQ-SLM-T-20-0001</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -15601,7 +15601,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-20-0134</t>
+          <t>FRC-HQ-SLM-C-20-0001</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -15713,7 +15713,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-20-0135</t>
+          <t>FRC-HQ-SLM-C-20-0001</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -15825,7 +15825,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-20-0136</t>
+          <t>FRC-HQ-SLM-C-20-0001</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -15937,7 +15937,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-20-0137</t>
+          <t>FRC-HQ-SLM-C-20-0001</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -16049,7 +16049,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-20-0138</t>
+          <t>FRC-HQ-SLM-F-20-0001</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -16161,7 +16161,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-20-0139</t>
+          <t>FRC-HQ-SLM-C-20-0001</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -16273,7 +16273,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-20-0140</t>
+          <t>FRC-HQ-SLM-F-20-0001</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -16385,7 +16385,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-20-0141</t>
+          <t>FRC-HQ-SLM-C-20-0001</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -16497,7 +16497,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-20-0142</t>
+          <t>FRC-HQ-SLM-C-20-0001</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -16609,7 +16609,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-M-21-0143</t>
+          <t>FRC-HQ-SLM-M-21-0001</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
@@ -16721,7 +16721,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-M-21-0144</t>
+          <t>FRC-HQ-SLM-M-21-0001</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
@@ -16831,7 +16831,7 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-21-0145</t>
+          <t>FRC-HQ-SLM-O-21-0001</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
@@ -16943,7 +16943,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-21-0146</t>
+          <t>FRC-HQ-SLM-C-21-0001</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
@@ -17055,7 +17055,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-21-0147</t>
+          <t>FRC-HQ-SLM-C-21-0001</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
@@ -17167,7 +17167,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-M-21-0148</t>
+          <t>FRC-HQ-SLM-M-21-0001</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
@@ -17277,7 +17277,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-21-0149</t>
+          <t>FRC-HQ-SLM-F-21-0001</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
@@ -17389,7 +17389,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-21-0150</t>
+          <t>FRC-HQ-SLM-O-21-0001</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
@@ -17501,7 +17501,7 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-21-0152</t>
+          <t>FRC-HQ-SLM-C-21-0001</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
@@ -17615,7 +17615,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-21-0153</t>
+          <t>FRC-HQ-SLM-C-21-0001</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
@@ -17729,7 +17729,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-21-0154</t>
+          <t>FRC-HQ-SLM-C-21-0001</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
@@ -17843,7 +17843,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-21-0155</t>
+          <t>FRC-HQ-SLM-C-21-0001</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
@@ -17957,7 +17957,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-21-0156</t>
+          <t>FRC-HQ-SLM-C-21-0001</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
@@ -18071,7 +18071,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-21-0157</t>
+          <t>FRC-HQ-SLM-C-21-0001</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
@@ -18185,7 +18185,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-21-0158</t>
+          <t>FRC-HQ-SLM-C-21-0001</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
@@ -18299,7 +18299,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-21-0159</t>
+          <t>FRC-HQ-SLM-C-21-0001</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
@@ -18413,7 +18413,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-21-0160</t>
+          <t>FRC-HQ-SLM-C-21-0001</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
@@ -18527,7 +18527,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-21-0161</t>
+          <t>FRC-HQ-SLM-C-21-0001</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
@@ -18641,7 +18641,7 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-I-21-0162</t>
+          <t>FRC-HQ-SLM-I-21-0001</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
@@ -18755,7 +18755,7 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-I-21-0163</t>
+          <t>FRC-HQ-SLM-I-21-0001</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
@@ -18869,7 +18869,7 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-I-21-0164</t>
+          <t>FRC-HQ-SLM-I-21-0001</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
@@ -18983,7 +18983,7 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-I-21-0165</t>
+          <t>FRC-HQ-SLM-I-21-0001</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
@@ -19097,7 +19097,7 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-I-21-0166</t>
+          <t>FRC-HQ-SLM-I-21-0001</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
@@ -19211,7 +19211,7 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-I-21-0167</t>
+          <t>FRC-HQ-SLM-I-21-0001</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
@@ -19325,7 +19325,7 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-I-21-0168</t>
+          <t>FRC-HQ-SLM-I-21-0001</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
@@ -19439,7 +19439,7 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-I-21-0169</t>
+          <t>FRC-HQ-SLM-I-21-0001</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
@@ -19554,7 +19554,7 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-I-21-0170</t>
+          <t>FRC-HQ-SLM-I-21-0001</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
@@ -19668,7 +19668,7 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-I-21-0171</t>
+          <t>FRC-HQ-SLM-I-21-0001</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
@@ -19782,7 +19782,7 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-I-21-0172</t>
+          <t>FRC-HQ-SLM-I-21-0001</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
@@ -19896,7 +19896,7 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-S-21-0173</t>
+          <t>FRC-HQ-SLM-S-21-0001</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
@@ -20010,7 +20010,7 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-S-21-0174</t>
+          <t>FRC-HQ-SLM-S-21-0001</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
@@ -20124,7 +20124,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-S-21-0175</t>
+          <t>FRC-HQ-SLM-S-21-0001</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
@@ -20238,7 +20238,7 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-S-21-0176</t>
+          <t>FRC-HQ-SLM-S-21-0001</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
@@ -20352,7 +20352,7 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-S-21-0177</t>
+          <t>FRC-HQ-SLM-S-21-0001</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
@@ -20466,7 +20466,7 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-S-21-0178</t>
+          <t>FRC-HQ-SLM-S-21-0001</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
@@ -20580,7 +20580,7 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-S-21-0179</t>
+          <t>FRC-HQ-SLM-S-21-0001</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
@@ -20694,7 +20694,7 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-S-21-0180</t>
+          <t>FRC-HQ-SLM-S-21-0001</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
@@ -20808,7 +20808,7 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-S-21-0181</t>
+          <t>FRC-HQ-SLM-S-21-0001</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
@@ -20922,7 +20922,7 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-S-21-0182</t>
+          <t>FRC-HQ-SLM-S-21-0001</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
@@ -21036,7 +21036,7 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-S-21-0183</t>
+          <t>FRC-HQ-SLM-S-21-0001</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
@@ -21150,7 +21150,7 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-S-21-0184</t>
+          <t>FRC-HQ-SLM-S-21-0001</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
@@ -21265,7 +21265,7 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-S-21-0185</t>
+          <t>FRC-HQ-SLM-S-21-0001</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
@@ -21379,7 +21379,7 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-S-21-0186</t>
+          <t>FRC-HQ-SLM-S-21-0001</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
@@ -21493,7 +21493,7 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-S-21-0187</t>
+          <t>FRC-HQ-SLM-S-21-0001</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
@@ -21607,7 +21607,7 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-S-21-0188</t>
+          <t>FRC-HQ-SLM-S-21-0001</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
@@ -21721,7 +21721,7 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-S-21-0189</t>
+          <t>FRC-HQ-SLM-S-21-0001</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
@@ -21835,7 +21835,7 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-S-21-0190</t>
+          <t>FRC-HQ-SLM-S-21-0001</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
@@ -21949,7 +21949,7 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-S-21-0191</t>
+          <t>FRC-HQ-SLM-S-21-0001</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
@@ -22063,7 +22063,7 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-S-21-0192</t>
+          <t>FRC-HQ-SLM-S-21-0001</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
@@ -22177,7 +22177,7 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-S-21-0193</t>
+          <t>FRC-HQ-SLM-S-21-0001</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
@@ -22291,7 +22291,7 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-S-21-0194</t>
+          <t>FRC-HQ-SLM-S-21-0001</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
@@ -22405,7 +22405,7 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-S-21-0195</t>
+          <t>FRC-HQ-SLM-S-21-0001</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
@@ -22519,7 +22519,7 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-S-21-0196</t>
+          <t>FRC-HQ-SLM-S-21-0001</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
@@ -22633,7 +22633,7 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-S-21-0197</t>
+          <t>FRC-HQ-SLM-S-21-0001</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
@@ -22747,7 +22747,7 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-E-21-0198</t>
+          <t>FRC-HQ-SLM-E-21-0001</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
@@ -22861,7 +22861,7 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-E-21-0199</t>
+          <t>FRC-HQ-SLM-E-21-0001</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
@@ -22975,7 +22975,7 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-E-21-0200</t>
+          <t>FRC-HQ-SLM-E-21-0002</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
@@ -23089,7 +23089,7 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-E-21-0201</t>
+          <t>FRC-HQ-SLM-E-21-0002</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
@@ -23203,7 +23203,7 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-E-21-0202</t>
+          <t>FRC-HQ-SLM-E-21-0002</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
@@ -23317,7 +23317,7 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-E-21-0203</t>
+          <t>FRC-HQ-SLM-E-21-0002</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
@@ -23431,7 +23431,7 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-E-21-0204</t>
+          <t>FRC-HQ-SLM-E-21-0002</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
@@ -23545,7 +23545,7 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-E-21-0205</t>
+          <t>FRC-HQ-SLM-E-21-0002</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
@@ -23659,7 +23659,7 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-E-21-0206</t>
+          <t>FRC-HQ-SLM-E-21-0002</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
@@ -23773,7 +23773,7 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-E-21-0207</t>
+          <t>FRC-HQ-SLM-E-21-0002</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
@@ -23887,7 +23887,7 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-E-21-0208</t>
+          <t>FRC-HQ-SLM-E-21-0002</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
@@ -24001,7 +24001,7 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-E-21-0209</t>
+          <t>FRC-HQ-SLM-E-21-0002</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
@@ -24115,7 +24115,7 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-E-21-0210</t>
+          <t>FRC-HQ-SLM-E-21-0002</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
@@ -24229,7 +24229,7 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-E-21-0211</t>
+          <t>FRC-HQ-SLM-E-21-0002</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
@@ -24343,7 +24343,7 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-E-21-0212</t>
+          <t>FRC-HQ-SLM-E-21-0002</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
@@ -24457,7 +24457,7 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-E-21-0213</t>
+          <t>FRC-HQ-SLM-E-21-0002</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
@@ -24571,7 +24571,7 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-E-21-0214</t>
+          <t>FRC-HQ-SLM-E-21-0002</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
@@ -24685,7 +24685,7 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-E-21-0215</t>
+          <t>FRC-HQ-SLM-E-21-0002</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
@@ -24799,7 +24799,7 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-E-21-0216</t>
+          <t>FRC-HQ-SLM-E-21-0002</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
@@ -24913,7 +24913,7 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-E-21-0217</t>
+          <t>FRC-HQ-SLM-E-21-0002</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
@@ -25027,7 +25027,7 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-E-21-0218</t>
+          <t>FRC-HQ-SLM-E-21-0002</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
@@ -25141,7 +25141,7 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-E-21-0219</t>
+          <t>FRC-HQ-SLM-E-21-0002</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
@@ -25255,7 +25255,7 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-E-21-0220</t>
+          <t>FRC-HQ-SLM-E-21-0002</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
@@ -25369,7 +25369,7 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-E-21-0221</t>
+          <t>FRC-HQ-SLM-E-21-0002</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
@@ -25483,7 +25483,7 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-E-21-0222</t>
+          <t>FRC-HQ-SLM-E-21-0002</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
@@ -25597,7 +25597,7 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-E-21-0223</t>
+          <t>FRC-HQ-SLM-E-21-0002</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
@@ -25711,7 +25711,7 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-E-21-0224</t>
+          <t>FRC-HQ-SLM-E-21-0002</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
@@ -25825,7 +25825,7 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-E-21-0225</t>
+          <t>FRC-HQ-SLM-E-21-0002</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
@@ -25939,7 +25939,7 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-E-21-0226</t>
+          <t>FRC-HQ-SLM-E-21-0002</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
@@ -26053,7 +26053,7 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-E-21-0227</t>
+          <t>FRC-HQ-SLM-E-21-0002</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
@@ -26167,7 +26167,7 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-E-21-0228</t>
+          <t>FRC-HQ-SLM-E-21-0002</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
@@ -26281,7 +26281,7 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-E-21-0229</t>
+          <t>FRC-HQ-SLM-E-21-0002</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
@@ -26395,7 +26395,7 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-E-21-0230</t>
+          <t>FRC-HQ-SLM-E-21-0002</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
@@ -26509,7 +26509,7 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-E-21-0231</t>
+          <t>FRC-HQ-SLM-E-21-0002</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
@@ -26623,7 +26623,7 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-E-21-0232</t>
+          <t>FRC-HQ-SLM-E-21-0002</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
@@ -26737,7 +26737,7 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-E-21-0233</t>
+          <t>FRC-HQ-SLM-E-21-0002</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
@@ -26851,7 +26851,7 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-E-21-0234</t>
+          <t>FRC-HQ-SLM-E-21-0002</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
@@ -26965,7 +26965,7 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-E-21-0235</t>
+          <t>FRC-HQ-SLM-E-21-0002</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
@@ -27079,7 +27079,7 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-E-21-0236</t>
+          <t>FRC-HQ-SLM-E-21-0002</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
@@ -27193,7 +27193,7 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-P-21-0237</t>
+          <t>FRC-HQ-SLM-P-21-0002</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
@@ -27307,7 +27307,7 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-P-21-0238</t>
+          <t>FRC-HQ-SLM-P-21-0002</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
@@ -27421,7 +27421,7 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-P-21-0239</t>
+          <t>FRC-HQ-SLM-P-21-0002</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
@@ -27535,7 +27535,7 @@
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-P-21-0240</t>
+          <t>FRC-HQ-SLM-P-21-0002</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
@@ -27649,7 +27649,7 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-P-21-0241</t>
+          <t>FRC-HQ-SLM-P-21-0002</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
@@ -27763,7 +27763,7 @@
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-I-21-0242</t>
+          <t>FRC-HQ-SLM-I-21-0002</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
@@ -27877,7 +27877,7 @@
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-I-21-0243</t>
+          <t>FRC-HQ-SLM-I-21-0002</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
@@ -27991,7 +27991,7 @@
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-I-21-0244</t>
+          <t>FRC-HQ-SLM-I-21-0002</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
@@ -28105,7 +28105,7 @@
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-I-21-0245</t>
+          <t>FRC-HQ-SLM-I-21-0002</t>
         </is>
       </c>
       <c r="C245" t="inlineStr">
@@ -28219,7 +28219,7 @@
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-I-21-0246</t>
+          <t>FRC-HQ-SLM-I-21-0002</t>
         </is>
       </c>
       <c r="C246" t="inlineStr">
@@ -28333,7 +28333,7 @@
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-I-21-0247</t>
+          <t>FRC-HQ-SLM-I-21-0002</t>
         </is>
       </c>
       <c r="C247" t="inlineStr">
@@ -28447,7 +28447,7 @@
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-I-21-0248</t>
+          <t>FRC-HQ-SLM-I-21-0002</t>
         </is>
       </c>
       <c r="C248" t="inlineStr">
@@ -28561,7 +28561,7 @@
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-I-21-0249</t>
+          <t>FRC-HQ-SLM-I-21-0002</t>
         </is>
       </c>
       <c r="C249" t="inlineStr">
@@ -28675,7 +28675,7 @@
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-I-21-0250</t>
+          <t>FRC-HQ-SLM-I-21-0002</t>
         </is>
       </c>
       <c r="C250" t="inlineStr">
@@ -28789,7 +28789,7 @@
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-I-21-0251</t>
+          <t>FRC-HQ-SLM-I-21-0002</t>
         </is>
       </c>
       <c r="C251" t="inlineStr">
@@ -28903,7 +28903,7 @@
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-I-21-0252</t>
+          <t>FRC-HQ-SLM-I-21-0002</t>
         </is>
       </c>
       <c r="C252" t="inlineStr">
@@ -29017,7 +29017,7 @@
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-I-21-0253</t>
+          <t>FRC-HQ-SLM-I-21-0002</t>
         </is>
       </c>
       <c r="C253" t="inlineStr">
@@ -29131,7 +29131,7 @@
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-I-21-0254</t>
+          <t>FRC-HQ-SLM-I-21-0002</t>
         </is>
       </c>
       <c r="C254" t="inlineStr">
@@ -29245,7 +29245,7 @@
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-I-21-0255</t>
+          <t>FRC-HQ-SLM-I-21-0002</t>
         </is>
       </c>
       <c r="C255" t="inlineStr">
@@ -29359,7 +29359,7 @@
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-I-21-0256</t>
+          <t>FRC-HQ-SLM-I-21-0002</t>
         </is>
       </c>
       <c r="C256" t="inlineStr">
@@ -29473,7 +29473,7 @@
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-I-21-0257</t>
+          <t>FRC-HQ-SLM-I-21-0002</t>
         </is>
       </c>
       <c r="C257" t="inlineStr">
@@ -29587,7 +29587,7 @@
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-I-21-0258</t>
+          <t>FRC-HQ-SLM-I-21-0002</t>
         </is>
       </c>
       <c r="C258" t="inlineStr">
@@ -29701,7 +29701,7 @@
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-I-21-0259</t>
+          <t>FRC-HQ-SLM-I-21-0002</t>
         </is>
       </c>
       <c r="C259" t="inlineStr">
@@ -29815,7 +29815,7 @@
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-I-21-0260</t>
+          <t>FRC-HQ-SLM-I-21-0002</t>
         </is>
       </c>
       <c r="C260" t="inlineStr">
@@ -29929,7 +29929,7 @@
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-I-21-0261</t>
+          <t>FRC-HQ-SLM-I-21-0002</t>
         </is>
       </c>
       <c r="C261" t="inlineStr">
@@ -30043,7 +30043,7 @@
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-I-21-0262</t>
+          <t>FRC-HQ-SLM-I-21-0002</t>
         </is>
       </c>
       <c r="C262" t="inlineStr">
@@ -30157,7 +30157,7 @@
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-I-21-0263</t>
+          <t>FRC-HQ-SLM-I-21-0002</t>
         </is>
       </c>
       <c r="C263" t="inlineStr">
@@ -30271,7 +30271,7 @@
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-I-21-0264</t>
+          <t>FRC-HQ-SLM-I-21-0002</t>
         </is>
       </c>
       <c r="C264" t="inlineStr">
@@ -30385,7 +30385,7 @@
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-I-21-0265</t>
+          <t>FRC-HQ-SLM-I-21-0002</t>
         </is>
       </c>
       <c r="C265" t="inlineStr">
@@ -30499,7 +30499,7 @@
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-I-21-0266</t>
+          <t>FRC-HQ-SLM-I-21-0002</t>
         </is>
       </c>
       <c r="C266" t="inlineStr">
@@ -30613,7 +30613,7 @@
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-I-21-0267</t>
+          <t>FRC-HQ-SLM-I-21-0002</t>
         </is>
       </c>
       <c r="C267" t="inlineStr">
@@ -30727,7 +30727,7 @@
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-I-21-0268</t>
+          <t>FRC-HQ-SLM-I-21-0002</t>
         </is>
       </c>
       <c r="C268" t="inlineStr">
@@ -30841,7 +30841,7 @@
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-I-21-0269</t>
+          <t>FRC-HQ-SLM-I-21-0002</t>
         </is>
       </c>
       <c r="C269" t="inlineStr">
@@ -30955,7 +30955,7 @@
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-I-21-0270</t>
+          <t>FRC-HQ-SLM-I-21-0002</t>
         </is>
       </c>
       <c r="C270" t="inlineStr">
@@ -31069,7 +31069,7 @@
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-I-21-0271</t>
+          <t>FRC-HQ-SLM-I-21-0002</t>
         </is>
       </c>
       <c r="C271" t="inlineStr">
@@ -31183,7 +31183,7 @@
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-I-21-0272</t>
+          <t>FRC-HQ-SLM-I-21-0002</t>
         </is>
       </c>
       <c r="C272" t="inlineStr">
@@ -31297,7 +31297,7 @@
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-I-21-0273</t>
+          <t>FRC-HQ-SLM-I-21-0002</t>
         </is>
       </c>
       <c r="C273" t="inlineStr">
@@ -31411,7 +31411,7 @@
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-I-21-0274</t>
+          <t>FRC-HQ-SLM-I-21-0002</t>
         </is>
       </c>
       <c r="C274" t="inlineStr">
@@ -31525,7 +31525,7 @@
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-21-0275</t>
+          <t>FRC-HQ-SLM-F-21-0002</t>
         </is>
       </c>
       <c r="C275" t="inlineStr">
@@ -31639,7 +31639,7 @@
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-21-0276</t>
+          <t>FRC-HQ-SLM-F-21-0002</t>
         </is>
       </c>
       <c r="C276" t="inlineStr">
@@ -31753,7 +31753,7 @@
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-21-0277</t>
+          <t>FRC-HQ-SLM-F-21-0002</t>
         </is>
       </c>
       <c r="C277" t="inlineStr">
@@ -31867,7 +31867,7 @@
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-21-0278</t>
+          <t>FRC-HQ-SLM-F-21-0002</t>
         </is>
       </c>
       <c r="C278" t="inlineStr">
@@ -31981,7 +31981,7 @@
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-21-0279</t>
+          <t>FRC-HQ-SLM-F-21-0002</t>
         </is>
       </c>
       <c r="C279" t="inlineStr">
@@ -32095,7 +32095,7 @@
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-21-0280</t>
+          <t>FRC-HQ-SLM-F-21-0002</t>
         </is>
       </c>
       <c r="C280" t="inlineStr">
@@ -32209,7 +32209,7 @@
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-21-0281</t>
+          <t>FRC-HQ-SLM-F-21-0002</t>
         </is>
       </c>
       <c r="C281" t="inlineStr">
@@ -32323,7 +32323,7 @@
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-21-0282</t>
+          <t>FRC-HQ-SLM-F-21-0002</t>
         </is>
       </c>
       <c r="C282" t="inlineStr">
@@ -32437,7 +32437,7 @@
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-21-0283</t>
+          <t>FRC-HQ-SLM-F-21-0002</t>
         </is>
       </c>
       <c r="C283" t="inlineStr">
@@ -32551,7 +32551,7 @@
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-21-0284</t>
+          <t>FRC-HQ-SLM-F-21-0002</t>
         </is>
       </c>
       <c r="C284" t="inlineStr">
@@ -32665,7 +32665,7 @@
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-21-0285</t>
+          <t>FRC-HQ-SLM-F-21-0002</t>
         </is>
       </c>
       <c r="C285" t="inlineStr">
@@ -32779,7 +32779,7 @@
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-21-0286</t>
+          <t>FRC-HQ-SLM-F-21-0002</t>
         </is>
       </c>
       <c r="C286" t="inlineStr">
@@ -32893,7 +32893,7 @@
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-21-0287</t>
+          <t>FRC-HQ-SLM-F-21-0002</t>
         </is>
       </c>
       <c r="C287" t="inlineStr">
@@ -33007,7 +33007,7 @@
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-21-0288</t>
+          <t>FRC-HQ-SLM-F-21-0002</t>
         </is>
       </c>
       <c r="C288" t="inlineStr">
@@ -33121,7 +33121,7 @@
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-21-0289</t>
+          <t>FRC-HQ-SLM-F-21-0002</t>
         </is>
       </c>
       <c r="C289" t="inlineStr">
@@ -33235,7 +33235,7 @@
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-21-0290</t>
+          <t>FRC-HQ-SLM-F-21-0002</t>
         </is>
       </c>
       <c r="C290" t="inlineStr">
@@ -33349,7 +33349,7 @@
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-21-0291</t>
+          <t>FRC-HQ-SLM-F-21-0002</t>
         </is>
       </c>
       <c r="C291" t="inlineStr">
@@ -33463,7 +33463,7 @@
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-21-0292</t>
+          <t>FRC-HQ-SLM-F-21-0002</t>
         </is>
       </c>
       <c r="C292" t="inlineStr">
@@ -33577,7 +33577,7 @@
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-21-0293</t>
+          <t>FRC-HQ-SLM-F-21-0002</t>
         </is>
       </c>
       <c r="C293" t="inlineStr">
@@ -33691,7 +33691,7 @@
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-21-0294</t>
+          <t>FRC-HQ-SLM-F-21-0002</t>
         </is>
       </c>
       <c r="C294" t="inlineStr">
@@ -33805,7 +33805,7 @@
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-21-0295</t>
+          <t>FRC-HQ-SLM-F-21-0002</t>
         </is>
       </c>
       <c r="C295" t="inlineStr">
@@ -33919,7 +33919,7 @@
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-21-0296</t>
+          <t>FRC-HQ-SLM-F-21-0002</t>
         </is>
       </c>
       <c r="C296" t="inlineStr">
@@ -34033,7 +34033,7 @@
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-21-0297</t>
+          <t>FRC-HQ-SLM-F-21-0002</t>
         </is>
       </c>
       <c r="C297" t="inlineStr">
@@ -34147,7 +34147,7 @@
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-21-0298</t>
+          <t>FRC-HQ-SLM-F-21-0002</t>
         </is>
       </c>
       <c r="C298" t="inlineStr">
@@ -34261,7 +34261,7 @@
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-21-0299</t>
+          <t>FRC-HQ-SLM-F-21-0002</t>
         </is>
       </c>
       <c r="C299" t="inlineStr">
@@ -34375,7 +34375,7 @@
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-21-0300</t>
+          <t>FRC-HQ-SLM-F-21-0003</t>
         </is>
       </c>
       <c r="C300" t="inlineStr">
@@ -34489,7 +34489,7 @@
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-21-0301</t>
+          <t>FRC-HQ-SLM-F-21-0003</t>
         </is>
       </c>
       <c r="C301" t="inlineStr">
@@ -34603,7 +34603,7 @@
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-23-0001</t>
+          <t>FRC-HQ-SLM-F-23-0000</t>
         </is>
       </c>
       <c r="C302" t="inlineStr">
@@ -34715,7 +34715,7 @@
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-23-0001</t>
+          <t>FRC-HQ-SLM-F-23-0000</t>
         </is>
       </c>
       <c r="C303" t="inlineStr">
@@ -34827,7 +34827,7 @@
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-M-23-0002</t>
+          <t>FRC-HQ-SLM-M-23-0000</t>
         </is>
       </c>
       <c r="C304" t="inlineStr">
@@ -34939,7 +34939,7 @@
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-M-23-0002</t>
+          <t>FRC-HQ-SLM-M-23-0000</t>
         </is>
       </c>
       <c r="C305" t="inlineStr">
@@ -35051,7 +35051,7 @@
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-M-23-0002</t>
+          <t>FRC-HQ-SLM-M-23-0000</t>
         </is>
       </c>
       <c r="C306" t="inlineStr">
@@ -35163,7 +35163,7 @@
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-M-23-0002</t>
+          <t>FRC-HQ-SLM-M-23-0000</t>
         </is>
       </c>
       <c r="C307" t="inlineStr">
@@ -35275,7 +35275,7 @@
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-21-0003</t>
+          <t>FRC-HQ-SLM-F-21-0000</t>
         </is>
       </c>
       <c r="C308" t="inlineStr">
@@ -35387,7 +35387,7 @@
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-21-0003</t>
+          <t>FRC-HQ-SLM-F-21-0000</t>
         </is>
       </c>
       <c r="C309" t="inlineStr">
@@ -35499,7 +35499,7 @@
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-19-0006</t>
+          <t>FRC-HQ-SLM-O-19-0000</t>
         </is>
       </c>
       <c r="C310" t="inlineStr">
@@ -35611,7 +35611,7 @@
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-19-0006</t>
+          <t>FRC-HQ-SLM-O-19-0000</t>
         </is>
       </c>
       <c r="C311" t="inlineStr">
@@ -35723,7 +35723,7 @@
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-23-0006</t>
+          <t>FRC-HQ-SLM-F-23-0000</t>
         </is>
       </c>
       <c r="C312" t="inlineStr">
@@ -35835,7 +35835,7 @@
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-F-23-0006</t>
+          <t>FRC-HQ-SLM-F-23-0000</t>
         </is>
       </c>
       <c r="C313" t="inlineStr">
@@ -35947,7 +35947,7 @@
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-T-23-0006</t>
+          <t>FRC-HQ-SLM-T-23-0000</t>
         </is>
       </c>
       <c r="C314" t="inlineStr">
@@ -36059,7 +36059,7 @@
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-T-23-0006</t>
+          <t>FRC-HQ-SLM-T-23-0000</t>
         </is>
       </c>
       <c r="C315" t="inlineStr">
@@ -36171,7 +36171,7 @@
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-E-23-0006</t>
+          <t>FRC-HQ-SLM-E-23-0000</t>
         </is>
       </c>
       <c r="C316" t="inlineStr">
@@ -36283,7 +36283,7 @@
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-E-23-0006</t>
+          <t>FRC-HQ-SLM-E-23-0000</t>
         </is>
       </c>
       <c r="C317" t="inlineStr">
@@ -36395,7 +36395,7 @@
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-E-23-0006</t>
+          <t>FRC-HQ-SLM-E-23-0000</t>
         </is>
       </c>
       <c r="C318" t="inlineStr">
@@ -36507,7 +36507,7 @@
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-22-0006</t>
+          <t>FRC-HQ-SLM-C-22-0000</t>
         </is>
       </c>
       <c r="C319" t="inlineStr">
@@ -36619,7 +36619,7 @@
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-22-0006</t>
+          <t>FRC-HQ-SLM-C-22-0000</t>
         </is>
       </c>
       <c r="C320" t="inlineStr">
@@ -36731,7 +36731,7 @@
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-23-0001</t>
+          <t>FRC-HQ-SLM-C-23-0000</t>
         </is>
       </c>
       <c r="C321" t="inlineStr">
@@ -36843,7 +36843,7 @@
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-23-0001</t>
+          <t>FRC-HQ-SLM-C-23-0000</t>
         </is>
       </c>
       <c r="C322" t="inlineStr">
@@ -36955,7 +36955,7 @@
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-23-0001</t>
+          <t>FRC-HQ-SLM-C-23-0000</t>
         </is>
       </c>
       <c r="C323" t="inlineStr">
@@ -37067,7 +37067,7 @@
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-23-0001</t>
+          <t>FRC-HQ-SLM-C-23-0000</t>
         </is>
       </c>
       <c r="C324" t="inlineStr">
@@ -37179,7 +37179,7 @@
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-23-0001</t>
+          <t>FRC-HQ-SLM-C-23-0000</t>
         </is>
       </c>
       <c r="C325" t="inlineStr">
@@ -37291,7 +37291,7 @@
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-23-0001</t>
+          <t>FRC-HQ-SLM-C-23-0000</t>
         </is>
       </c>
       <c r="C326" t="inlineStr">
@@ -37403,7 +37403,7 @@
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-23-0001</t>
+          <t>FRC-HQ-SLM-C-23-0000</t>
         </is>
       </c>
       <c r="C327" t="inlineStr">
@@ -37515,7 +37515,7 @@
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-23-0001</t>
+          <t>FRC-HQ-SLM-C-23-0000</t>
         </is>
       </c>
       <c r="C328" t="inlineStr">
@@ -37627,7 +37627,7 @@
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-23-0001</t>
+          <t>FRC-HQ-SLM-C-23-0000</t>
         </is>
       </c>
       <c r="C329" t="inlineStr">
@@ -37739,7 +37739,7 @@
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-23-0001</t>
+          <t>FRC-HQ-SLM-C-23-0000</t>
         </is>
       </c>
       <c r="C330" t="inlineStr">
@@ -37851,7 +37851,7 @@
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-23-0001</t>
+          <t>FRC-HQ-SLM-C-23-0000</t>
         </is>
       </c>
       <c r="C331" t="inlineStr">
@@ -37963,7 +37963,7 @@
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-C-23-0001</t>
+          <t>FRC-HQ-SLM-C-23-0000</t>
         </is>
       </c>
       <c r="C332" t="inlineStr">
@@ -38075,7 +38075,7 @@
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-T-20-0001</t>
+          <t>FRC-HQ-SLM-T-20-0000</t>
         </is>
       </c>
       <c r="C333" t="inlineStr">
@@ -38187,7 +38187,7 @@
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>FRC-HQ-SLM-O-21-0001</t>
+          <t>FRC-HQ-SLM-O-21-0000</t>
         </is>
       </c>
       <c r="C334" t="inlineStr">

--- a/afar_project/csv_path/excel_files/depreciation.xlsx
+++ b/afar_project/csv_path/excel_files/depreciation.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1406,12 +1406,12 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="K9" t="n">
@@ -1516,12 +1516,12 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
@@ -1628,12 +1628,12 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
@@ -1740,12 +1740,12 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
@@ -1852,12 +1852,12 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="K13" t="n">
@@ -2079,7 +2079,7 @@
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
@@ -2302,12 +2302,12 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
@@ -2767,7 +2767,7 @@
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
@@ -2874,12 +2874,12 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="K22" t="n">
@@ -2984,12 +2984,12 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
@@ -3096,12 +3096,12 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
@@ -3213,7 +3213,7 @@
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
@@ -3325,7 +3325,7 @@
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
@@ -3437,7 +3437,7 @@
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
@@ -3549,7 +3549,7 @@
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
@@ -4001,7 +4001,7 @@
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
@@ -4113,7 +4113,7 @@
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="K33" t="n">
@@ -4223,7 +4223,7 @@
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="K34" t="n">
@@ -4328,7 +4328,7 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -4552,12 +4552,12 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
@@ -5116,12 +5116,12 @@
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
@@ -5233,7 +5233,7 @@
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
@@ -5461,7 +5461,7 @@
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
@@ -5568,12 +5568,12 @@
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
@@ -5680,12 +5680,12 @@
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="K47" t="n">
@@ -6143,7 +6143,7 @@
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="K51" t="inlineStr">
@@ -6375,7 +6375,7 @@
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="K53" t="inlineStr">
@@ -6491,7 +6491,7 @@
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="K54" t="inlineStr">
@@ -6607,7 +6607,7 @@
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="K55" t="inlineStr">
@@ -6723,7 +6723,7 @@
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="K56" t="inlineStr">
@@ -6955,7 +6955,7 @@
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="K58" t="inlineStr">
@@ -7071,7 +7071,7 @@
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="K59" t="inlineStr">
@@ -7187,7 +7187,7 @@
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="K60" t="inlineStr">
@@ -7298,12 +7298,12 @@
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="K61" t="inlineStr">
@@ -7410,12 +7410,12 @@
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="K62" t="inlineStr">
@@ -7639,7 +7639,7 @@
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="K64" t="inlineStr">
@@ -7974,12 +7974,12 @@
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="K67" t="inlineStr">
@@ -8091,7 +8091,7 @@
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="K68" t="inlineStr">
@@ -8203,7 +8203,7 @@
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="K69" t="inlineStr">
@@ -8315,7 +8315,7 @@
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="K70" t="inlineStr">
@@ -8431,7 +8431,7 @@
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="K71" t="inlineStr">
@@ -8538,12 +8538,12 @@
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="K72" t="inlineStr">
@@ -8767,7 +8767,7 @@
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="K74" t="inlineStr">
@@ -9103,7 +9103,7 @@
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="K77" t="n">
@@ -9325,7 +9325,7 @@
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="K79" t="inlineStr">
@@ -9432,12 +9432,12 @@
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="K80" t="inlineStr">
@@ -9661,7 +9661,7 @@
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="K82" t="inlineStr">
@@ -9992,12 +9992,12 @@
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="K85" t="inlineStr">
@@ -10328,12 +10328,12 @@
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="K88" t="inlineStr">
@@ -10440,12 +10440,12 @@
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="K89" t="inlineStr">
@@ -10669,7 +10669,7 @@
       </c>
       <c r="J91" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="K91" t="inlineStr">
@@ -10781,7 +10781,7 @@
       </c>
       <c r="J92" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="K92" t="inlineStr">
@@ -10897,7 +10897,7 @@
       </c>
       <c r="J93" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="K93" t="inlineStr">
@@ -11013,7 +11013,7 @@
       </c>
       <c r="J94" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="K94" t="inlineStr">
@@ -11245,7 +11245,7 @@
       </c>
       <c r="J96" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="K96" t="n">
@@ -11350,12 +11350,12 @@
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="K97" t="inlineStr">
@@ -11796,12 +11796,12 @@
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="K101" t="inlineStr">
@@ -11908,12 +11908,12 @@
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="K102" t="inlineStr">
@@ -12020,12 +12020,12 @@
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="K103" t="inlineStr">
@@ -12248,12 +12248,12 @@
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="K105" t="n">
@@ -12810,12 +12810,12 @@
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="J110" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="K110" t="inlineStr">
@@ -13043,7 +13043,7 @@
       </c>
       <c r="J112" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="K112" t="inlineStr">
@@ -13275,7 +13275,7 @@
       </c>
       <c r="J114" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="K114" t="inlineStr">
@@ -13391,7 +13391,7 @@
       </c>
       <c r="J115" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="K115" t="inlineStr">
@@ -13503,7 +13503,7 @@
       </c>
       <c r="J116" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="K116" t="inlineStr">
@@ -13727,7 +13727,7 @@
       </c>
       <c r="J118" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="K118" t="inlineStr">
@@ -13843,7 +13843,7 @@
       </c>
       <c r="J119" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="K119" t="inlineStr">
@@ -14179,7 +14179,7 @@
       </c>
       <c r="J122" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="K122" t="inlineStr">
@@ -14622,12 +14622,12 @@
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="J126" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="K126" t="inlineStr">
@@ -14851,7 +14851,7 @@
       </c>
       <c r="J128" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="K128" t="inlineStr">
@@ -14963,7 +14963,7 @@
       </c>
       <c r="J129" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="K129" t="inlineStr">
@@ -15075,7 +15075,7 @@
       </c>
       <c r="J130" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="K130" t="inlineStr">
@@ -15411,7 +15411,7 @@
       </c>
       <c r="J133" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="K133" t="inlineStr">
@@ -15854,12 +15854,12 @@
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="J137" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="K137" t="inlineStr">
@@ -16307,7 +16307,7 @@
       </c>
       <c r="J141" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="K141" t="inlineStr">
@@ -16419,7 +16419,7 @@
       </c>
       <c r="J142" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="K142" t="inlineStr">
@@ -16750,12 +16750,12 @@
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="J145" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="K145" t="n">
@@ -16865,7 +16865,7 @@
       </c>
       <c r="J146" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="K146" t="inlineStr">
@@ -17196,12 +17196,12 @@
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="J149" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="K149" t="n">
@@ -17423,7 +17423,7 @@
       </c>
       <c r="J151" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="K151" t="inlineStr">
@@ -17517,7 +17517,7 @@
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="G152" t="inlineStr">
@@ -17532,12 +17532,12 @@
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="J152" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="K152" t="inlineStr">
@@ -17631,7 +17631,7 @@
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="G153" t="inlineStr">
@@ -17646,12 +17646,12 @@
       </c>
       <c r="I153" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="J153" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="K153" t="inlineStr">
@@ -17745,7 +17745,7 @@
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="G154" t="inlineStr">
@@ -17760,12 +17760,12 @@
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="J154" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="K154" t="inlineStr">
@@ -17859,7 +17859,7 @@
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="G155" t="inlineStr">
@@ -17874,12 +17874,12 @@
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="J155" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="K155" t="inlineStr">
@@ -17973,7 +17973,7 @@
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="G156" t="inlineStr">
@@ -17988,12 +17988,12 @@
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="J156" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="K156" t="inlineStr">
@@ -18087,7 +18087,7 @@
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="G157" t="inlineStr">
@@ -18102,12 +18102,12 @@
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="J157" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="K157" t="inlineStr">
@@ -18201,7 +18201,7 @@
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="G158" t="inlineStr">
@@ -18216,12 +18216,12 @@
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="J158" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="K158" t="inlineStr">
@@ -18315,7 +18315,7 @@
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="G159" t="inlineStr">
@@ -18330,12 +18330,12 @@
       </c>
       <c r="I159" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="J159" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="K159" t="inlineStr">
@@ -18429,7 +18429,7 @@
       </c>
       <c r="F160" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="G160" t="inlineStr">
@@ -18444,12 +18444,12 @@
       </c>
       <c r="I160" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="J160" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="K160" t="inlineStr">
@@ -18543,7 +18543,7 @@
       </c>
       <c r="F161" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="G161" t="inlineStr">
@@ -18558,12 +18558,12 @@
       </c>
       <c r="I161" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="J161" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="K161" t="inlineStr">
@@ -18657,7 +18657,7 @@
       </c>
       <c r="F162" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="G162" t="inlineStr">
@@ -18672,12 +18672,12 @@
       </c>
       <c r="I162" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="J162" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="K162" t="inlineStr">
@@ -18771,7 +18771,7 @@
       </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="G163" t="inlineStr">
@@ -18786,12 +18786,12 @@
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="J163" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="K163" t="inlineStr">
@@ -18885,7 +18885,7 @@
       </c>
       <c r="F164" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="G164" t="inlineStr">
@@ -18900,12 +18900,12 @@
       </c>
       <c r="I164" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="J164" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="K164" t="inlineStr">
@@ -18999,7 +18999,7 @@
       </c>
       <c r="F165" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="G165" t="inlineStr">
@@ -19014,12 +19014,12 @@
       </c>
       <c r="I165" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="J165" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="K165" t="inlineStr">
@@ -19113,7 +19113,7 @@
       </c>
       <c r="F166" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="G166" t="inlineStr">
@@ -19128,12 +19128,12 @@
       </c>
       <c r="I166" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="J166" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="K166" t="inlineStr">
@@ -19227,7 +19227,7 @@
       </c>
       <c r="F167" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="G167" t="inlineStr">
@@ -19242,12 +19242,12 @@
       </c>
       <c r="I167" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="J167" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="K167" t="inlineStr">
@@ -19341,7 +19341,7 @@
       </c>
       <c r="F168" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="G168" t="inlineStr">
@@ -19356,12 +19356,12 @@
       </c>
       <c r="I168" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="J168" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="K168" t="inlineStr">
@@ -19455,7 +19455,7 @@
       </c>
       <c r="F169" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="G169" t="inlineStr">
@@ -19471,12 +19471,12 @@
       </c>
       <c r="I169" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="J169" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="K169" t="inlineStr">
@@ -19570,7 +19570,7 @@
       </c>
       <c r="F170" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="G170" t="inlineStr">
@@ -19590,7 +19590,7 @@
       </c>
       <c r="J170" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="K170" t="inlineStr">
@@ -19684,7 +19684,7 @@
       </c>
       <c r="F171" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="G171" t="inlineStr">
@@ -19699,12 +19699,12 @@
       </c>
       <c r="I171" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="J171" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="K171" t="inlineStr">
@@ -19798,7 +19798,7 @@
       </c>
       <c r="F172" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="G172" t="inlineStr">
@@ -19818,7 +19818,7 @@
       </c>
       <c r="J172" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="K172" t="inlineStr">
@@ -19912,7 +19912,7 @@
       </c>
       <c r="F173" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="G173" t="inlineStr">
@@ -19932,7 +19932,7 @@
       </c>
       <c r="J173" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="K173" t="inlineStr">
@@ -20026,7 +20026,7 @@
       </c>
       <c r="F174" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="G174" t="inlineStr">
@@ -20046,7 +20046,7 @@
       </c>
       <c r="J174" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="K174" t="inlineStr">
@@ -20140,7 +20140,7 @@
       </c>
       <c r="F175" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="G175" t="inlineStr">
@@ -20160,7 +20160,7 @@
       </c>
       <c r="J175" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="K175" t="inlineStr">
@@ -20254,7 +20254,7 @@
       </c>
       <c r="F176" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="G176" t="inlineStr">
@@ -20269,12 +20269,12 @@
       </c>
       <c r="I176" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="J176" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="K176" t="inlineStr">
@@ -20368,7 +20368,7 @@
       </c>
       <c r="F177" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="G177" t="inlineStr">
@@ -20383,12 +20383,12 @@
       </c>
       <c r="I177" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="J177" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="K177" t="inlineStr">
@@ -20482,7 +20482,7 @@
       </c>
       <c r="F178" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="G178" t="inlineStr">
@@ -20497,12 +20497,12 @@
       </c>
       <c r="I178" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="J178" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="K178" t="inlineStr">
@@ -20596,7 +20596,7 @@
       </c>
       <c r="F179" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="G179" t="inlineStr">
@@ -20611,12 +20611,12 @@
       </c>
       <c r="I179" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="J179" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="K179" t="inlineStr">
@@ -20710,7 +20710,7 @@
       </c>
       <c r="F180" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="G180" t="inlineStr">
@@ -20730,7 +20730,7 @@
       </c>
       <c r="J180" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="K180" t="inlineStr">
@@ -20824,7 +20824,7 @@
       </c>
       <c r="F181" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="G181" t="inlineStr">
@@ -20839,12 +20839,12 @@
       </c>
       <c r="I181" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="J181" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="K181" t="inlineStr">
@@ -20938,7 +20938,7 @@
       </c>
       <c r="F182" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="G182" t="inlineStr">
@@ -20953,12 +20953,12 @@
       </c>
       <c r="I182" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="J182" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="K182" t="inlineStr">
@@ -21052,7 +21052,7 @@
       </c>
       <c r="F183" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="G183" t="inlineStr">
@@ -21067,12 +21067,12 @@
       </c>
       <c r="I183" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="J183" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="K183" t="inlineStr">
@@ -21166,7 +21166,7 @@
       </c>
       <c r="F184" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="G184" t="inlineStr">
@@ -21182,12 +21182,12 @@
       </c>
       <c r="I184" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="J184" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="K184" t="inlineStr">
@@ -21281,7 +21281,7 @@
       </c>
       <c r="F185" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="G185" t="inlineStr">
@@ -21296,12 +21296,12 @@
       </c>
       <c r="I185" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="J185" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="K185" t="inlineStr">
@@ -21395,7 +21395,7 @@
       </c>
       <c r="F186" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="G186" t="inlineStr">
@@ -21410,12 +21410,12 @@
       </c>
       <c r="I186" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="J186" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="K186" t="inlineStr">
@@ -21509,7 +21509,7 @@
       </c>
       <c r="F187" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="G187" t="inlineStr">
@@ -21524,12 +21524,12 @@
       </c>
       <c r="I187" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="J187" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="K187" t="inlineStr">
@@ -21623,7 +21623,7 @@
       </c>
       <c r="F188" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="G188" t="inlineStr">
@@ -21638,12 +21638,12 @@
       </c>
       <c r="I188" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="J188" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="K188" t="inlineStr">
@@ -21737,7 +21737,7 @@
       </c>
       <c r="F189" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="G189" t="inlineStr">
@@ -21752,12 +21752,12 @@
       </c>
       <c r="I189" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="J189" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="K189" t="inlineStr">
@@ -21851,7 +21851,7 @@
       </c>
       <c r="F190" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="G190" t="inlineStr">
@@ -21871,7 +21871,7 @@
       </c>
       <c r="J190" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="K190" t="inlineStr">
@@ -21965,7 +21965,7 @@
       </c>
       <c r="F191" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="G191" t="inlineStr">
@@ -21985,7 +21985,7 @@
       </c>
       <c r="J191" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="K191" t="inlineStr">
@@ -22079,7 +22079,7 @@
       </c>
       <c r="F192" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="G192" t="inlineStr">
@@ -22094,12 +22094,12 @@
       </c>
       <c r="I192" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="J192" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="K192" t="inlineStr">
@@ -22193,7 +22193,7 @@
       </c>
       <c r="F193" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="G193" t="inlineStr">
@@ -22213,7 +22213,7 @@
       </c>
       <c r="J193" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="K193" t="inlineStr">
@@ -22307,7 +22307,7 @@
       </c>
       <c r="F194" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="G194" t="inlineStr">
@@ -22327,7 +22327,7 @@
       </c>
       <c r="J194" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="K194" t="inlineStr">
@@ -22421,7 +22421,7 @@
       </c>
       <c r="F195" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="G195" t="inlineStr">
@@ -22441,7 +22441,7 @@
       </c>
       <c r="J195" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="K195" t="inlineStr">
@@ -22535,7 +22535,7 @@
       </c>
       <c r="F196" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="G196" t="inlineStr">
@@ -22550,12 +22550,12 @@
       </c>
       <c r="I196" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="J196" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="K196" t="inlineStr">
@@ -22649,7 +22649,7 @@
       </c>
       <c r="F197" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="G197" t="inlineStr">
@@ -22664,12 +22664,12 @@
       </c>
       <c r="I197" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="J197" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="K197" t="inlineStr">
@@ -22763,7 +22763,7 @@
       </c>
       <c r="F198" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="G198" t="inlineStr">
@@ -22783,7 +22783,7 @@
       </c>
       <c r="J198" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="K198" t="inlineStr">
@@ -22877,7 +22877,7 @@
       </c>
       <c r="F199" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="G199" t="inlineStr">
@@ -22897,7 +22897,7 @@
       </c>
       <c r="J199" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="K199" t="inlineStr">
@@ -22991,7 +22991,7 @@
       </c>
       <c r="F200" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="G200" t="inlineStr">
@@ -23011,7 +23011,7 @@
       </c>
       <c r="J200" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="K200" t="inlineStr">
@@ -23105,7 +23105,7 @@
       </c>
       <c r="F201" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="G201" t="inlineStr">
@@ -23125,7 +23125,7 @@
       </c>
       <c r="J201" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="K201" t="inlineStr">
@@ -23219,7 +23219,7 @@
       </c>
       <c r="F202" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="G202" t="inlineStr">
@@ -23239,7 +23239,7 @@
       </c>
       <c r="J202" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="K202" t="inlineStr">
@@ -23333,7 +23333,7 @@
       </c>
       <c r="F203" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="G203" t="inlineStr">
@@ -23353,7 +23353,7 @@
       </c>
       <c r="J203" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="K203" t="inlineStr">
@@ -23447,7 +23447,7 @@
       </c>
       <c r="F204" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="G204" t="inlineStr">
@@ -23467,7 +23467,7 @@
       </c>
       <c r="J204" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="K204" t="inlineStr">
@@ -23561,7 +23561,7 @@
       </c>
       <c r="F205" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="G205" t="inlineStr">
@@ -23581,7 +23581,7 @@
       </c>
       <c r="J205" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="K205" t="inlineStr">
@@ -23675,7 +23675,7 @@
       </c>
       <c r="F206" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="G206" t="inlineStr">
@@ -23695,7 +23695,7 @@
       </c>
       <c r="J206" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="K206" t="inlineStr">
@@ -23789,7 +23789,7 @@
       </c>
       <c r="F207" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="G207" t="inlineStr">
@@ -23809,7 +23809,7 @@
       </c>
       <c r="J207" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="K207" t="inlineStr">
@@ -23903,7 +23903,7 @@
       </c>
       <c r="F208" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="G208" t="inlineStr">
@@ -23923,7 +23923,7 @@
       </c>
       <c r="J208" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="K208" t="inlineStr">
@@ -24017,7 +24017,7 @@
       </c>
       <c r="F209" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="G209" t="inlineStr">
@@ -24037,7 +24037,7 @@
       </c>
       <c r="J209" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="K209" t="inlineStr">
@@ -24131,7 +24131,7 @@
       </c>
       <c r="F210" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="G210" t="inlineStr">
@@ -24151,7 +24151,7 @@
       </c>
       <c r="J210" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="K210" t="inlineStr">
@@ -24245,7 +24245,7 @@
       </c>
       <c r="F211" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="G211" t="inlineStr">
@@ -24265,7 +24265,7 @@
       </c>
       <c r="J211" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="K211" t="inlineStr">
@@ -24359,7 +24359,7 @@
       </c>
       <c r="F212" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="G212" t="inlineStr">
@@ -24379,7 +24379,7 @@
       </c>
       <c r="J212" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="K212" t="inlineStr">
@@ -24473,7 +24473,7 @@
       </c>
       <c r="F213" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="G213" t="inlineStr">
@@ -24493,7 +24493,7 @@
       </c>
       <c r="J213" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="K213" t="inlineStr">
@@ -24587,7 +24587,7 @@
       </c>
       <c r="F214" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="G214" t="inlineStr">
@@ -24607,7 +24607,7 @@
       </c>
       <c r="J214" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="K214" t="inlineStr">
@@ -24701,7 +24701,7 @@
       </c>
       <c r="F215" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="G215" t="inlineStr">
@@ -24721,7 +24721,7 @@
       </c>
       <c r="J215" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="K215" t="inlineStr">
@@ -24815,7 +24815,7 @@
       </c>
       <c r="F216" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="G216" t="inlineStr">
@@ -24835,7 +24835,7 @@
       </c>
       <c r="J216" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="K216" t="inlineStr">
@@ -24929,7 +24929,7 @@
       </c>
       <c r="F217" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="G217" t="inlineStr">
@@ -24949,7 +24949,7 @@
       </c>
       <c r="J217" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="K217" t="inlineStr">
@@ -25043,7 +25043,7 @@
       </c>
       <c r="F218" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="G218" t="inlineStr">
@@ -25157,7 +25157,7 @@
       </c>
       <c r="F219" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="G219" t="inlineStr">
@@ -25271,7 +25271,7 @@
       </c>
       <c r="F220" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="G220" t="inlineStr">
@@ -25291,7 +25291,7 @@
       </c>
       <c r="J220" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="K220" t="inlineStr">
@@ -25385,7 +25385,7 @@
       </c>
       <c r="F221" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="G221" t="inlineStr">
@@ -25400,7 +25400,7 @@
       </c>
       <c r="I221" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="J221" t="inlineStr">
@@ -25499,7 +25499,7 @@
       </c>
       <c r="F222" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="G222" t="inlineStr">
@@ -25514,12 +25514,12 @@
       </c>
       <c r="I222" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="J222" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="K222" t="inlineStr">
@@ -25613,7 +25613,7 @@
       </c>
       <c r="F223" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="G223" t="inlineStr">
@@ -25628,12 +25628,12 @@
       </c>
       <c r="I223" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="J223" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="K223" t="inlineStr">
@@ -25727,7 +25727,7 @@
       </c>
       <c r="F224" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="G224" t="inlineStr">
@@ -25742,7 +25742,7 @@
       </c>
       <c r="I224" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="J224" t="inlineStr">
@@ -25841,7 +25841,7 @@
       </c>
       <c r="F225" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="G225" t="inlineStr">
@@ -25856,7 +25856,7 @@
       </c>
       <c r="I225" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="J225" t="inlineStr">
@@ -25955,7 +25955,7 @@
       </c>
       <c r="F226" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="G226" t="inlineStr">
@@ -25970,7 +25970,7 @@
       </c>
       <c r="I226" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="J226" t="inlineStr">
@@ -26069,7 +26069,7 @@
       </c>
       <c r="F227" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="G227" t="inlineStr">
@@ -26089,7 +26089,7 @@
       </c>
       <c r="J227" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="K227" t="inlineStr">
@@ -26183,7 +26183,7 @@
       </c>
       <c r="F228" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="G228" t="inlineStr">
@@ -26198,12 +26198,12 @@
       </c>
       <c r="I228" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="J228" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="K228" t="inlineStr">
@@ -26297,7 +26297,7 @@
       </c>
       <c r="F229" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="G229" t="inlineStr">
@@ -26312,12 +26312,12 @@
       </c>
       <c r="I229" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="J229" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="K229" t="inlineStr">
@@ -26411,7 +26411,7 @@
       </c>
       <c r="F230" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="G230" t="inlineStr">
@@ -26426,12 +26426,12 @@
       </c>
       <c r="I230" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="J230" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="K230" t="inlineStr">
@@ -26525,7 +26525,7 @@
       </c>
       <c r="F231" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="G231" t="inlineStr">
@@ -26540,12 +26540,12 @@
       </c>
       <c r="I231" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="J231" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="K231" t="inlineStr">
@@ -26639,7 +26639,7 @@
       </c>
       <c r="F232" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="G232" t="inlineStr">
@@ -26654,12 +26654,12 @@
       </c>
       <c r="I232" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="J232" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="K232" t="inlineStr">
@@ -26753,7 +26753,7 @@
       </c>
       <c r="F233" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="G233" t="inlineStr">
@@ -26768,12 +26768,12 @@
       </c>
       <c r="I233" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="J233" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="K233" t="inlineStr">
@@ -26867,7 +26867,7 @@
       </c>
       <c r="F234" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="G234" t="inlineStr">
@@ -26882,12 +26882,12 @@
       </c>
       <c r="I234" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="J234" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="K234" t="inlineStr">
@@ -26981,7 +26981,7 @@
       </c>
       <c r="F235" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="G235" t="inlineStr">
@@ -26996,7 +26996,7 @@
       </c>
       <c r="I235" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="J235" t="inlineStr">
@@ -27095,7 +27095,7 @@
       </c>
       <c r="F236" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="G236" t="inlineStr">
@@ -27110,7 +27110,7 @@
       </c>
       <c r="I236" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="J236" t="inlineStr">
@@ -27209,7 +27209,7 @@
       </c>
       <c r="F237" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="G237" t="inlineStr">
@@ -27224,12 +27224,12 @@
       </c>
       <c r="I237" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="J237" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="K237" t="inlineStr">
@@ -27323,7 +27323,7 @@
       </c>
       <c r="F238" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="G238" t="inlineStr">
@@ -27338,12 +27338,12 @@
       </c>
       <c r="I238" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="J238" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="K238" t="inlineStr">
@@ -27437,7 +27437,7 @@
       </c>
       <c r="F239" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="G239" t="inlineStr">
@@ -27452,12 +27452,12 @@
       </c>
       <c r="I239" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="J239" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="K239" t="inlineStr">
@@ -27551,7 +27551,7 @@
       </c>
       <c r="F240" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="G240" t="inlineStr">
@@ -27566,12 +27566,12 @@
       </c>
       <c r="I240" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="J240" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="K240" t="inlineStr">
@@ -27665,7 +27665,7 @@
       </c>
       <c r="F241" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="G241" t="inlineStr">
@@ -27680,12 +27680,12 @@
       </c>
       <c r="I241" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="J241" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="K241" t="inlineStr">
@@ -27779,7 +27779,7 @@
       </c>
       <c r="F242" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="G242" t="inlineStr">
@@ -27794,12 +27794,12 @@
       </c>
       <c r="I242" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="J242" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="K242" t="inlineStr">
@@ -27893,7 +27893,7 @@
       </c>
       <c r="F243" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="G243" t="inlineStr">
@@ -27908,12 +27908,12 @@
       </c>
       <c r="I243" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="J243" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="K243" t="inlineStr">
@@ -28007,7 +28007,7 @@
       </c>
       <c r="F244" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="G244" t="inlineStr">
@@ -28022,12 +28022,12 @@
       </c>
       <c r="I244" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="J244" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="K244" t="inlineStr">
@@ -28121,7 +28121,7 @@
       </c>
       <c r="F245" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="G245" t="inlineStr">
@@ -28136,12 +28136,12 @@
       </c>
       <c r="I245" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="J245" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="K245" t="inlineStr">
@@ -28235,7 +28235,7 @@
       </c>
       <c r="F246" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="G246" t="inlineStr">
@@ -28250,12 +28250,12 @@
       </c>
       <c r="I246" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="J246" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="K246" t="inlineStr">
@@ -28349,7 +28349,7 @@
       </c>
       <c r="F247" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="G247" t="inlineStr">
@@ -28364,12 +28364,12 @@
       </c>
       <c r="I247" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="J247" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="K247" t="inlineStr">
@@ -28463,7 +28463,7 @@
       </c>
       <c r="F248" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="G248" t="inlineStr">
@@ -28478,12 +28478,12 @@
       </c>
       <c r="I248" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="J248" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="K248" t="inlineStr">
@@ -28577,7 +28577,7 @@
       </c>
       <c r="F249" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="G249" t="inlineStr">
@@ -28592,12 +28592,12 @@
       </c>
       <c r="I249" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="J249" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="K249" t="inlineStr">
@@ -28691,7 +28691,7 @@
       </c>
       <c r="F250" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="G250" t="inlineStr">
@@ -28706,12 +28706,12 @@
       </c>
       <c r="I250" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="J250" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="K250" t="inlineStr">
@@ -28805,7 +28805,7 @@
       </c>
       <c r="F251" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="G251" t="inlineStr">
@@ -28820,12 +28820,12 @@
       </c>
       <c r="I251" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="J251" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="K251" t="inlineStr">
@@ -28919,7 +28919,7 @@
       </c>
       <c r="F252" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="G252" t="inlineStr">
@@ -28934,12 +28934,12 @@
       </c>
       <c r="I252" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="J252" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="K252" t="inlineStr">
@@ -29033,7 +29033,7 @@
       </c>
       <c r="F253" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="G253" t="inlineStr">
@@ -29048,12 +29048,12 @@
       </c>
       <c r="I253" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="J253" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="K253" t="inlineStr">
@@ -29147,7 +29147,7 @@
       </c>
       <c r="F254" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="G254" t="inlineStr">
@@ -29162,12 +29162,12 @@
       </c>
       <c r="I254" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="J254" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="K254" t="inlineStr">
@@ -29261,7 +29261,7 @@
       </c>
       <c r="F255" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="G255" t="inlineStr">
@@ -29276,12 +29276,12 @@
       </c>
       <c r="I255" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="J255" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="K255" t="inlineStr">
@@ -29375,7 +29375,7 @@
       </c>
       <c r="F256" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="G256" t="inlineStr">
@@ -29390,12 +29390,12 @@
       </c>
       <c r="I256" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="J256" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="K256" t="inlineStr">
@@ -29489,7 +29489,7 @@
       </c>
       <c r="F257" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="G257" t="inlineStr">
@@ -29504,12 +29504,12 @@
       </c>
       <c r="I257" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="J257" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="K257" t="inlineStr">
@@ -29603,7 +29603,7 @@
       </c>
       <c r="F258" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="G258" t="inlineStr">
@@ -29618,12 +29618,12 @@
       </c>
       <c r="I258" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="J258" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="K258" t="inlineStr">
@@ -29717,7 +29717,7 @@
       </c>
       <c r="F259" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="G259" t="inlineStr">
@@ -29732,12 +29732,12 @@
       </c>
       <c r="I259" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="J259" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="K259" t="inlineStr">
@@ -29831,7 +29831,7 @@
       </c>
       <c r="F260" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="G260" t="inlineStr">
@@ -29846,12 +29846,12 @@
       </c>
       <c r="I260" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="J260" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="K260" t="inlineStr">
@@ -29945,7 +29945,7 @@
       </c>
       <c r="F261" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="G261" t="inlineStr">
@@ -29960,12 +29960,12 @@
       </c>
       <c r="I261" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="J261" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="K261" t="inlineStr">
@@ -30059,7 +30059,7 @@
       </c>
       <c r="F262" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="G262" t="inlineStr">
@@ -30074,12 +30074,12 @@
       </c>
       <c r="I262" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="J262" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="K262" t="inlineStr">
@@ -30173,7 +30173,7 @@
       </c>
       <c r="F263" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="G263" t="inlineStr">
@@ -30188,12 +30188,12 @@
       </c>
       <c r="I263" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="J263" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="K263" t="inlineStr">
@@ -30287,7 +30287,7 @@
       </c>
       <c r="F264" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="G264" t="inlineStr">
@@ -30302,12 +30302,12 @@
       </c>
       <c r="I264" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="J264" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="K264" t="inlineStr">
@@ -30401,7 +30401,7 @@
       </c>
       <c r="F265" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="G265" t="inlineStr">
@@ -30416,12 +30416,12 @@
       </c>
       <c r="I265" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="J265" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="K265" t="inlineStr">
@@ -30515,7 +30515,7 @@
       </c>
       <c r="F266" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="G266" t="inlineStr">
@@ -30530,12 +30530,12 @@
       </c>
       <c r="I266" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="J266" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="K266" t="inlineStr">
@@ -30629,7 +30629,7 @@
       </c>
       <c r="F267" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="G267" t="inlineStr">
@@ -30644,12 +30644,12 @@
       </c>
       <c r="I267" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="J267" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="K267" t="inlineStr">
@@ -30743,7 +30743,7 @@
       </c>
       <c r="F268" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="G268" t="inlineStr">
@@ -30758,12 +30758,12 @@
       </c>
       <c r="I268" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="J268" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="K268" t="inlineStr">
@@ -30857,7 +30857,7 @@
       </c>
       <c r="F269" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="G269" t="inlineStr">
@@ -30872,7 +30872,7 @@
       </c>
       <c r="I269" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="J269" t="inlineStr">
@@ -30971,7 +30971,7 @@
       </c>
       <c r="F270" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="G270" t="inlineStr">
@@ -30986,12 +30986,12 @@
       </c>
       <c r="I270" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="J270" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="K270" t="inlineStr">
@@ -31085,7 +31085,7 @@
       </c>
       <c r="F271" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="G271" t="inlineStr">
@@ -31100,12 +31100,12 @@
       </c>
       <c r="I271" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="J271" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="K271" t="inlineStr">
@@ -31199,7 +31199,7 @@
       </c>
       <c r="F272" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="G272" t="inlineStr">
@@ -31214,12 +31214,12 @@
       </c>
       <c r="I272" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="J272" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="K272" t="inlineStr">
@@ -31313,7 +31313,7 @@
       </c>
       <c r="F273" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="G273" t="inlineStr">
@@ -31328,12 +31328,12 @@
       </c>
       <c r="I273" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="J273" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="K273" t="inlineStr">
@@ -31427,7 +31427,7 @@
       </c>
       <c r="F274" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="G274" t="inlineStr">
@@ -31442,12 +31442,12 @@
       </c>
       <c r="I274" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="J274" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="K274" t="inlineStr">
@@ -31541,7 +31541,7 @@
       </c>
       <c r="F275" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="G275" t="inlineStr">
@@ -31556,12 +31556,12 @@
       </c>
       <c r="I275" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="J275" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="K275" t="inlineStr">
@@ -31655,7 +31655,7 @@
       </c>
       <c r="F276" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="G276" t="inlineStr">
@@ -31670,12 +31670,12 @@
       </c>
       <c r="I276" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="J276" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="K276" t="inlineStr">
@@ -31769,7 +31769,7 @@
       </c>
       <c r="F277" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="G277" t="inlineStr">
@@ -31784,12 +31784,12 @@
       </c>
       <c r="I277" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="J277" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="K277" t="inlineStr">
@@ -31883,7 +31883,7 @@
       </c>
       <c r="F278" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="G278" t="inlineStr">
@@ -31898,12 +31898,12 @@
       </c>
       <c r="I278" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="J278" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="K278" t="inlineStr">
@@ -31997,7 +31997,7 @@
       </c>
       <c r="F279" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="G279" t="inlineStr">
@@ -32012,12 +32012,12 @@
       </c>
       <c r="I279" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="J279" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="K279" t="inlineStr">
@@ -32111,7 +32111,7 @@
       </c>
       <c r="F280" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="G280" t="inlineStr">
@@ -32126,12 +32126,12 @@
       </c>
       <c r="I280" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="J280" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="K280" t="inlineStr">
@@ -32225,7 +32225,7 @@
       </c>
       <c r="F281" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="G281" t="inlineStr">
@@ -32240,12 +32240,12 @@
       </c>
       <c r="I281" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="J281" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="K281" t="inlineStr">
@@ -32339,7 +32339,7 @@
       </c>
       <c r="F282" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="G282" t="inlineStr">
@@ -32354,12 +32354,12 @@
       </c>
       <c r="I282" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="J282" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="K282" t="inlineStr">
@@ -32453,7 +32453,7 @@
       </c>
       <c r="F283" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="G283" t="inlineStr">
@@ -32468,12 +32468,12 @@
       </c>
       <c r="I283" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="J283" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="K283" t="inlineStr">
@@ -32567,7 +32567,7 @@
       </c>
       <c r="F284" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="G284" t="inlineStr">
@@ -32587,7 +32587,7 @@
       </c>
       <c r="J284" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="K284" t="inlineStr">
@@ -32681,7 +32681,7 @@
       </c>
       <c r="F285" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="G285" t="inlineStr">
@@ -32701,7 +32701,7 @@
       </c>
       <c r="J285" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="K285" t="inlineStr">
@@ -32795,7 +32795,7 @@
       </c>
       <c r="F286" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="G286" t="inlineStr">
@@ -32815,7 +32815,7 @@
       </c>
       <c r="J286" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="K286" t="inlineStr">
@@ -32909,7 +32909,7 @@
       </c>
       <c r="F287" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="G287" t="inlineStr">
@@ -32924,12 +32924,12 @@
       </c>
       <c r="I287" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="J287" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="K287" t="inlineStr">
@@ -33023,7 +33023,7 @@
       </c>
       <c r="F288" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="G288" t="inlineStr">
@@ -33043,7 +33043,7 @@
       </c>
       <c r="J288" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="K288" t="inlineStr">
@@ -33137,7 +33137,7 @@
       </c>
       <c r="F289" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="G289" t="inlineStr">
@@ -33157,7 +33157,7 @@
       </c>
       <c r="J289" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="K289" t="inlineStr">
@@ -33251,7 +33251,7 @@
       </c>
       <c r="F290" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="G290" t="inlineStr">
@@ -33271,7 +33271,7 @@
       </c>
       <c r="J290" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="K290" t="inlineStr">
@@ -33365,7 +33365,7 @@
       </c>
       <c r="F291" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="G291" t="inlineStr">
@@ -33385,7 +33385,7 @@
       </c>
       <c r="J291" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="K291" t="inlineStr">
@@ -33479,7 +33479,7 @@
       </c>
       <c r="F292" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="G292" t="inlineStr">
@@ -33499,7 +33499,7 @@
       </c>
       <c r="J292" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="K292" t="inlineStr">
@@ -33593,7 +33593,7 @@
       </c>
       <c r="F293" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="G293" t="inlineStr">
@@ -33613,7 +33613,7 @@
       </c>
       <c r="J293" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="K293" t="inlineStr">
@@ -33707,7 +33707,7 @@
       </c>
       <c r="F294" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="G294" t="inlineStr">
@@ -33727,7 +33727,7 @@
       </c>
       <c r="J294" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="K294" t="inlineStr">
@@ -33821,7 +33821,7 @@
       </c>
       <c r="F295" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="G295" t="inlineStr">
@@ -33841,7 +33841,7 @@
       </c>
       <c r="J295" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="K295" t="inlineStr">
@@ -33935,7 +33935,7 @@
       </c>
       <c r="F296" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="G296" t="inlineStr">
@@ -33950,12 +33950,12 @@
       </c>
       <c r="I296" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="J296" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="K296" t="inlineStr">
@@ -34049,7 +34049,7 @@
       </c>
       <c r="F297" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="G297" t="inlineStr">
@@ -34064,12 +34064,12 @@
       </c>
       <c r="I297" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="J297" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="K297" t="inlineStr">
@@ -34163,7 +34163,7 @@
       </c>
       <c r="F298" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="G298" t="inlineStr">
@@ -34178,12 +34178,12 @@
       </c>
       <c r="I298" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="J298" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="K298" t="inlineStr">
@@ -34277,7 +34277,7 @@
       </c>
       <c r="F299" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="G299" t="inlineStr">
@@ -34292,12 +34292,12 @@
       </c>
       <c r="I299" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="J299" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="K299" t="inlineStr">
@@ -34391,7 +34391,7 @@
       </c>
       <c r="F300" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="G300" t="inlineStr">
@@ -34406,12 +34406,12 @@
       </c>
       <c r="I300" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="J300" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="K300" t="inlineStr">
@@ -34505,7 +34505,7 @@
       </c>
       <c r="F301" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="G301" t="inlineStr">
@@ -34520,12 +34520,12 @@
       </c>
       <c r="I301" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="J301" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="K301" t="inlineStr">
@@ -34632,12 +34632,12 @@
       </c>
       <c r="I302" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="J302" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="K302" t="inlineStr">
@@ -34738,12 +34738,12 @@
       </c>
       <c r="I303" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="J303" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="K303" t="inlineStr">
@@ -34844,12 +34844,12 @@
       </c>
       <c r="I304" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="J304" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="K304" t="inlineStr">
@@ -34950,12 +34950,12 @@
       </c>
       <c r="I305" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="J305" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="K305" t="inlineStr">
@@ -35056,12 +35056,12 @@
       </c>
       <c r="I306" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="J306" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="K306" t="inlineStr">
@@ -35162,12 +35162,12 @@
       </c>
       <c r="I307" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="J307" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="K307" t="inlineStr">
@@ -35268,12 +35268,12 @@
       </c>
       <c r="I308" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="J308" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="K308" t="inlineStr">
@@ -35374,12 +35374,12 @@
       </c>
       <c r="I309" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="J309" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="K309" t="inlineStr">
@@ -35480,12 +35480,12 @@
       </c>
       <c r="I310" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="J310" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="K310" t="inlineStr">
@@ -35586,12 +35586,12 @@
       </c>
       <c r="I311" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="J311" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="K311" t="inlineStr">
@@ -35692,12 +35692,12 @@
       </c>
       <c r="I312" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="J312" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="K312" t="inlineStr">
@@ -35798,12 +35798,12 @@
       </c>
       <c r="I313" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="J313" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="K313" t="inlineStr">
@@ -35904,12 +35904,12 @@
       </c>
       <c r="I314" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="J314" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="K314" t="inlineStr">
@@ -36010,12 +36010,12 @@
       </c>
       <c r="I315" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="J315" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="K315" t="inlineStr">
@@ -36116,12 +36116,12 @@
       </c>
       <c r="I316" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="J316" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="K316" t="inlineStr">
@@ -36222,12 +36222,12 @@
       </c>
       <c r="I317" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="J317" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="K317" t="inlineStr">
@@ -36328,12 +36328,12 @@
       </c>
       <c r="I318" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="J318" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="K318" t="inlineStr">
@@ -36434,12 +36434,12 @@
       </c>
       <c r="I319" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="J319" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="K319" t="inlineStr">
@@ -36540,12 +36540,12 @@
       </c>
       <c r="I320" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="J320" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="K320" t="inlineStr">
@@ -36646,12 +36646,12 @@
       </c>
       <c r="I321" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="J321" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="K321" t="inlineStr">
@@ -36752,12 +36752,12 @@
       </c>
       <c r="I322" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="J322" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="K322" t="inlineStr">
@@ -36858,12 +36858,12 @@
       </c>
       <c r="I323" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="J323" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="K323" t="inlineStr">
@@ -36964,12 +36964,12 @@
       </c>
       <c r="I324" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="J324" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="K324" t="inlineStr">
@@ -37070,12 +37070,12 @@
       </c>
       <c r="I325" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="J325" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="K325" t="inlineStr">
@@ -37176,12 +37176,12 @@
       </c>
       <c r="I326" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="J326" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="K326" t="inlineStr">
@@ -37282,12 +37282,12 @@
       </c>
       <c r="I327" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="J327" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="K327" t="inlineStr">
@@ -37388,12 +37388,12 @@
       </c>
       <c r="I328" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="J328" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="K328" t="inlineStr">
@@ -37494,12 +37494,12 @@
       </c>
       <c r="I329" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="J329" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="K329" t="inlineStr">
@@ -37600,12 +37600,12 @@
       </c>
       <c r="I330" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="J330" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="K330" t="inlineStr">
@@ -37706,12 +37706,12 @@
       </c>
       <c r="I331" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="J331" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="K331" t="inlineStr">
@@ -37812,12 +37812,12 @@
       </c>
       <c r="I332" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="J332" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="K332" t="inlineStr">
@@ -37918,12 +37918,12 @@
       </c>
       <c r="I333" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="J333" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="K333" t="inlineStr">
@@ -38024,12 +38024,12 @@
       </c>
       <c r="I334" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="J334" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="K334" t="inlineStr">

--- a/afar_project/csv_path/excel_files/depreciation.xlsx
+++ b/afar_project/csv_path/excel_files/depreciation.xlsx
@@ -637,7 +637,9 @@
       <c r="M2" t="n">
         <v>56862</v>
       </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
       <c r="O2" t="n">
         <v>7</v>
       </c>
@@ -753,7 +755,9 @@
       <c r="M3" t="n">
         <v>22253</v>
       </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
       <c r="O3" t="n">
         <v>7</v>
       </c>
@@ -865,7 +869,9 @@
       <c r="M4" t="n">
         <v>10810</v>
       </c>
-      <c r="N4" t="inlineStr"/>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
       <c r="O4" t="n">
         <v>7</v>
       </c>
@@ -977,7 +983,9 @@
       <c r="M5" t="n">
         <v>21481</v>
       </c>
-      <c r="N5" t="inlineStr"/>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
       <c r="O5" t="n">
         <v>7</v>
       </c>
@@ -1089,7 +1097,9 @@
       <c r="M6" t="n">
         <v>11653</v>
       </c>
-      <c r="N6" t="inlineStr"/>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
       <c r="O6" t="n">
         <v>7</v>
       </c>
@@ -1201,7 +1211,9 @@
       <c r="M7" t="n">
         <v>32151</v>
       </c>
-      <c r="N7" t="inlineStr"/>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
       <c r="O7" t="n">
         <v>7</v>
       </c>
@@ -1313,7 +1325,9 @@
       <c r="M8" t="n">
         <v>24570</v>
       </c>
-      <c r="N8" t="inlineStr"/>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
       <c r="O8" t="n">
         <v>7</v>
       </c>
@@ -1423,7 +1437,9 @@
       <c r="M9" t="n">
         <v>47855</v>
       </c>
-      <c r="N9" t="inlineStr"/>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
       <c r="O9" t="n">
         <v>7</v>
       </c>
@@ -1535,7 +1551,9 @@
       <c r="M10" t="n">
         <v>24830</v>
       </c>
-      <c r="N10" t="inlineStr"/>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
       <c r="O10" t="n">
         <v>7</v>
       </c>
@@ -1647,7 +1665,9 @@
       <c r="M11" t="n">
         <v>105164</v>
       </c>
-      <c r="N11" t="inlineStr"/>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
       <c r="O11" t="n">
         <v>5</v>
       </c>
@@ -1759,7 +1779,9 @@
       <c r="M12" t="n">
         <v>55000</v>
       </c>
-      <c r="N12" t="inlineStr"/>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
       <c r="O12" t="n">
         <v>5</v>
       </c>
@@ -1869,7 +1891,9 @@
       <c r="M13" t="n">
         <v>50900</v>
       </c>
-      <c r="N13" t="inlineStr"/>
+      <c r="N13" t="n">
+        <v>0</v>
+      </c>
       <c r="O13" t="n">
         <v>7</v>
       </c>
@@ -1981,7 +2005,9 @@
       <c r="M14" t="n">
         <v>56900</v>
       </c>
-      <c r="N14" t="inlineStr"/>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
       <c r="O14" t="n">
         <v>7</v>
       </c>
@@ -2093,7 +2119,9 @@
       <c r="M15" t="n">
         <v>38400</v>
       </c>
-      <c r="N15" t="inlineStr"/>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
       <c r="O15" t="n">
         <v>10</v>
       </c>
@@ -2209,7 +2237,9 @@
       <c r="M16" t="n">
         <v>16900</v>
       </c>
-      <c r="N16" t="inlineStr"/>
+      <c r="N16" t="n">
+        <v>0</v>
+      </c>
       <c r="O16" t="n">
         <v>7</v>
       </c>
@@ -2321,7 +2351,9 @@
       <c r="M17" t="n">
         <v>19500</v>
       </c>
-      <c r="N17" t="inlineStr"/>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
       <c r="O17" t="n">
         <v>7</v>
       </c>
@@ -2433,7 +2465,9 @@
       <c r="M18" t="n">
         <v>30145.79</v>
       </c>
-      <c r="N18" t="inlineStr"/>
+      <c r="N18" t="n">
+        <v>0</v>
+      </c>
       <c r="O18" t="n">
         <v>10</v>
       </c>
@@ -2549,7 +2583,9 @@
       <c r="M19" t="n">
         <v>18900</v>
       </c>
-      <c r="N19" t="inlineStr"/>
+      <c r="N19" t="n">
+        <v>0</v>
+      </c>
       <c r="O19" t="n">
         <v>7</v>
       </c>
@@ -2665,7 +2701,9 @@
       <c r="M20" t="n">
         <v>13500</v>
       </c>
-      <c r="N20" t="inlineStr"/>
+      <c r="N20" t="n">
+        <v>0</v>
+      </c>
       <c r="O20" t="n">
         <v>10</v>
       </c>
@@ -2781,7 +2819,9 @@
       <c r="M21" t="n">
         <v>30450</v>
       </c>
-      <c r="N21" t="inlineStr"/>
+      <c r="N21" t="n">
+        <v>0</v>
+      </c>
       <c r="O21" t="n">
         <v>10</v>
       </c>
@@ -2891,7 +2931,9 @@
       <c r="M22" t="n">
         <v>4300</v>
       </c>
-      <c r="N22" t="inlineStr"/>
+      <c r="N22" t="n">
+        <v>0</v>
+      </c>
       <c r="O22" t="n">
         <v>7</v>
       </c>
@@ -3003,7 +3045,9 @@
       <c r="M23" t="n">
         <v>28288</v>
       </c>
-      <c r="N23" t="inlineStr"/>
+      <c r="N23" t="n">
+        <v>0</v>
+      </c>
       <c r="O23" t="n">
         <v>7</v>
       </c>
@@ -3115,7 +3159,9 @@
       <c r="M24" t="n">
         <v>20199</v>
       </c>
-      <c r="N24" t="inlineStr"/>
+      <c r="N24" t="n">
+        <v>0</v>
+      </c>
       <c r="O24" t="n">
         <v>7</v>
       </c>
@@ -3227,7 +3273,9 @@
       <c r="M25" t="n">
         <v>55106</v>
       </c>
-      <c r="N25" t="inlineStr"/>
+      <c r="N25" t="n">
+        <v>0</v>
+      </c>
       <c r="O25" t="n">
         <v>10</v>
       </c>
@@ -3339,7 +3387,9 @@
       <c r="M26" t="n">
         <v>11700</v>
       </c>
-      <c r="N26" t="inlineStr"/>
+      <c r="N26" t="n">
+        <v>0</v>
+      </c>
       <c r="O26" t="n">
         <v>10</v>
       </c>
@@ -3451,7 +3501,9 @@
       <c r="M27" t="n">
         <v>25920</v>
       </c>
-      <c r="N27" t="inlineStr"/>
+      <c r="N27" t="n">
+        <v>0</v>
+      </c>
       <c r="O27" t="n">
         <v>10</v>
       </c>
@@ -3563,7 +3615,9 @@
       <c r="M28" t="n">
         <v>255360</v>
       </c>
-      <c r="N28" t="inlineStr"/>
+      <c r="N28" t="n">
+        <v>0</v>
+      </c>
       <c r="O28" t="n">
         <v>10</v>
       </c>
@@ -3675,7 +3729,9 @@
       <c r="M29" t="n">
         <v>56300</v>
       </c>
-      <c r="N29" t="inlineStr"/>
+      <c r="N29" t="n">
+        <v>0</v>
+      </c>
       <c r="O29" t="n">
         <v>7</v>
       </c>
@@ -3791,7 +3847,9 @@
       <c r="M30" t="n">
         <v>240000</v>
       </c>
-      <c r="N30" t="inlineStr"/>
+      <c r="N30" t="n">
+        <v>0</v>
+      </c>
       <c r="O30" t="n">
         <v>10</v>
       </c>
@@ -3903,7 +3961,9 @@
       <c r="M31" t="n">
         <v>48000</v>
       </c>
-      <c r="N31" t="inlineStr"/>
+      <c r="N31" t="n">
+        <v>0</v>
+      </c>
       <c r="O31" t="n">
         <v>10</v>
       </c>
@@ -4015,7 +4075,9 @@
       <c r="M32" t="n">
         <v>28800</v>
       </c>
-      <c r="N32" t="inlineStr"/>
+      <c r="N32" t="n">
+        <v>0</v>
+      </c>
       <c r="O32" t="n">
         <v>10</v>
       </c>
@@ -4125,7 +4187,9 @@
       <c r="M33" t="n">
         <v>362600</v>
       </c>
-      <c r="N33" t="inlineStr"/>
+      <c r="N33" t="n">
+        <v>0</v>
+      </c>
       <c r="O33" t="n">
         <v>7</v>
       </c>
@@ -4235,7 +4299,9 @@
       <c r="M34" t="n">
         <v>13375</v>
       </c>
-      <c r="N34" t="inlineStr"/>
+      <c r="N34" t="n">
+        <v>0</v>
+      </c>
       <c r="O34" t="n">
         <v>10</v>
       </c>
@@ -4347,7 +4413,9 @@
       <c r="M35" t="n">
         <v>12300</v>
       </c>
-      <c r="N35" t="inlineStr"/>
+      <c r="N35" t="n">
+        <v>0</v>
+      </c>
       <c r="O35" t="n">
         <v>7</v>
       </c>
@@ -4459,7 +4527,9 @@
       <c r="M36" t="n">
         <v>97300</v>
       </c>
-      <c r="N36" t="inlineStr"/>
+      <c r="N36" t="n">
+        <v>0</v>
+      </c>
       <c r="O36" t="n">
         <v>10</v>
       </c>
@@ -4571,7 +4641,9 @@
       <c r="M37" t="n">
         <v>53770</v>
       </c>
-      <c r="N37" t="inlineStr"/>
+      <c r="N37" t="n">
+        <v>0</v>
+      </c>
       <c r="O37" t="n">
         <v>7</v>
       </c>
@@ -4683,7 +4755,9 @@
       <c r="M38" t="n">
         <v>106500</v>
       </c>
-      <c r="N38" t="inlineStr"/>
+      <c r="N38" t="n">
+        <v>0</v>
+      </c>
       <c r="O38" t="n">
         <v>7</v>
       </c>
@@ -4799,7 +4873,9 @@
       <c r="M39" t="n">
         <v>196000</v>
       </c>
-      <c r="N39" t="inlineStr"/>
+      <c r="N39" t="n">
+        <v>0</v>
+      </c>
       <c r="O39" t="n">
         <v>7</v>
       </c>
@@ -4911,7 +4987,9 @@
       <c r="M40" t="n">
         <v>15000</v>
       </c>
-      <c r="N40" t="inlineStr"/>
+      <c r="N40" t="n">
+        <v>0</v>
+      </c>
       <c r="O40" t="n">
         <v>10</v>
       </c>
@@ -5023,7 +5101,9 @@
       <c r="M41" t="n">
         <v>6375</v>
       </c>
-      <c r="N41" t="inlineStr"/>
+      <c r="N41" t="n">
+        <v>0</v>
+      </c>
       <c r="O41" t="n">
         <v>10</v>
       </c>
@@ -5135,7 +5215,9 @@
       <c r="M42" t="n">
         <v>16408</v>
       </c>
-      <c r="N42" t="inlineStr"/>
+      <c r="N42" t="n">
+        <v>0</v>
+      </c>
       <c r="O42" t="n">
         <v>7</v>
       </c>
@@ -5247,7 +5329,9 @@
       <c r="M43" t="n">
         <v>12900</v>
       </c>
-      <c r="N43" t="inlineStr"/>
+      <c r="N43" t="n">
+        <v>0</v>
+      </c>
       <c r="O43" t="n">
         <v>10</v>
       </c>
@@ -5363,7 +5447,9 @@
       <c r="M44" t="n">
         <v>11723.36</v>
       </c>
-      <c r="N44" t="inlineStr"/>
+      <c r="N44" t="n">
+        <v>0</v>
+      </c>
       <c r="O44" t="n">
         <v>10</v>
       </c>
@@ -5475,7 +5561,9 @@
       <c r="M45" t="n">
         <v>2930.84</v>
       </c>
-      <c r="N45" t="inlineStr"/>
+      <c r="N45" t="n">
+        <v>0</v>
+      </c>
       <c r="O45" t="n">
         <v>10</v>
       </c>
@@ -5587,7 +5675,9 @@
       <c r="M46" t="n">
         <v>10400</v>
       </c>
-      <c r="N46" t="inlineStr"/>
+      <c r="N46" t="n">
+        <v>0</v>
+      </c>
       <c r="O46" t="n">
         <v>7</v>
       </c>
@@ -5697,7 +5787,9 @@
       <c r="M47" t="n">
         <v>80250</v>
       </c>
-      <c r="N47" t="inlineStr"/>
+      <c r="N47" t="n">
+        <v>0</v>
+      </c>
       <c r="O47" t="n">
         <v>7</v>
       </c>
@@ -5809,7 +5901,9 @@
       <c r="M48" t="n">
         <v>48215</v>
       </c>
-      <c r="N48" t="inlineStr"/>
+      <c r="N48" t="n">
+        <v>0</v>
+      </c>
       <c r="O48" t="n">
         <v>10</v>
       </c>
@@ -5925,7 +6019,9 @@
       <c r="M49" t="n">
         <v>54124</v>
       </c>
-      <c r="N49" t="inlineStr"/>
+      <c r="N49" t="n">
+        <v>0</v>
+      </c>
       <c r="O49" t="n">
         <v>7</v>
       </c>
@@ -6041,7 +6137,9 @@
       <c r="M50" t="n">
         <v>97240</v>
       </c>
-      <c r="N50" t="inlineStr"/>
+      <c r="N50" t="n">
+        <v>0</v>
+      </c>
       <c r="O50" t="n">
         <v>10</v>
       </c>
@@ -6157,7 +6255,9 @@
       <c r="M51" t="n">
         <v>167000</v>
       </c>
-      <c r="N51" t="inlineStr"/>
+      <c r="N51" t="n">
+        <v>0</v>
+      </c>
       <c r="O51" t="n">
         <v>7</v>
       </c>
@@ -6273,7 +6373,9 @@
       <c r="M52" t="n">
         <v>385050</v>
       </c>
-      <c r="N52" t="inlineStr"/>
+      <c r="N52" t="n">
+        <v>0</v>
+      </c>
       <c r="O52" t="n">
         <v>7</v>
       </c>
@@ -6389,7 +6491,9 @@
       <c r="M53" t="n">
         <v>119900</v>
       </c>
-      <c r="N53" t="inlineStr"/>
+      <c r="N53" t="n">
+        <v>0</v>
+      </c>
       <c r="O53" t="n">
         <v>10</v>
       </c>
@@ -6505,7 +6609,9 @@
       <c r="M54" t="n">
         <v>57021</v>
       </c>
-      <c r="N54" t="inlineStr"/>
+      <c r="N54" t="n">
+        <v>0</v>
+      </c>
       <c r="O54" t="n">
         <v>10</v>
       </c>
@@ -6621,7 +6727,9 @@
       <c r="M55" t="n">
         <v>13789.8</v>
       </c>
-      <c r="N55" t="inlineStr"/>
+      <c r="N55" t="n">
+        <v>0</v>
+      </c>
       <c r="O55" t="n">
         <v>10</v>
       </c>
@@ -6737,7 +6845,9 @@
       <c r="M56" t="n">
         <v>6550</v>
       </c>
-      <c r="N56" t="inlineStr"/>
+      <c r="N56" t="n">
+        <v>0</v>
+      </c>
       <c r="O56" t="n">
         <v>10</v>
       </c>
@@ -6853,7 +6963,9 @@
       <c r="M57" t="n">
         <v>27379</v>
       </c>
-      <c r="N57" t="inlineStr"/>
+      <c r="N57" t="n">
+        <v>0</v>
+      </c>
       <c r="O57" t="n">
         <v>10</v>
       </c>
@@ -6969,7 +7081,9 @@
       <c r="M58" t="n">
         <v>57400</v>
       </c>
-      <c r="N58" t="inlineStr"/>
+      <c r="N58" t="n">
+        <v>0</v>
+      </c>
       <c r="O58" t="n">
         <v>10</v>
       </c>
@@ -7085,7 +7199,9 @@
       <c r="M59" t="n">
         <v>36220</v>
       </c>
-      <c r="N59" t="inlineStr"/>
+      <c r="N59" t="n">
+        <v>0</v>
+      </c>
       <c r="O59" t="n">
         <v>10</v>
       </c>
@@ -7201,7 +7317,9 @@
       <c r="M60" t="n">
         <v>101042</v>
       </c>
-      <c r="N60" t="inlineStr"/>
+      <c r="N60" t="n">
+        <v>0</v>
+      </c>
       <c r="O60" t="n">
         <v>10</v>
       </c>
@@ -7317,7 +7435,9 @@
       <c r="M61" t="n">
         <v>83200</v>
       </c>
-      <c r="N61" t="inlineStr"/>
+      <c r="N61" t="n">
+        <v>0</v>
+      </c>
       <c r="O61" t="n">
         <v>5</v>
       </c>
@@ -7429,7 +7549,9 @@
       <c r="M62" t="n">
         <v>146100</v>
       </c>
-      <c r="N62" t="inlineStr"/>
+      <c r="N62" t="n">
+        <v>0</v>
+      </c>
       <c r="O62" t="n">
         <v>5</v>
       </c>
@@ -7541,7 +7663,9 @@
       <c r="M63" t="n">
         <v>18368</v>
       </c>
-      <c r="N63" t="inlineStr"/>
+      <c r="N63" t="n">
+        <v>0</v>
+      </c>
       <c r="O63" t="n">
         <v>7</v>
       </c>
@@ -7653,7 +7777,9 @@
       <c r="M64" t="n">
         <v>17072.14</v>
       </c>
-      <c r="N64" t="inlineStr"/>
+      <c r="N64" t="n">
+        <v>0</v>
+      </c>
       <c r="O64" t="n">
         <v>10</v>
       </c>
@@ -7765,7 +7891,9 @@
       <c r="M65" t="n">
         <v>90000</v>
       </c>
-      <c r="N65" t="inlineStr"/>
+      <c r="N65" t="n">
+        <v>0</v>
+      </c>
       <c r="O65" t="n">
         <v>10</v>
       </c>
@@ -7881,7 +8009,9 @@
       <c r="M66" t="n">
         <v>197600</v>
       </c>
-      <c r="N66" t="inlineStr"/>
+      <c r="N66" t="n">
+        <v>0</v>
+      </c>
       <c r="O66" t="n">
         <v>5</v>
       </c>
@@ -7993,7 +8123,9 @@
       <c r="M67" t="n">
         <v>57700</v>
       </c>
-      <c r="N67" t="inlineStr"/>
+      <c r="N67" t="n">
+        <v>0</v>
+      </c>
       <c r="O67" t="n">
         <v>5</v>
       </c>
@@ -8105,7 +8237,9 @@
       <c r="M68" t="n">
         <v>55000</v>
       </c>
-      <c r="N68" t="inlineStr"/>
+      <c r="N68" t="n">
+        <v>0</v>
+      </c>
       <c r="O68" t="n">
         <v>10</v>
       </c>
@@ -8217,7 +8351,9 @@
       <c r="M69" t="n">
         <v>25000</v>
       </c>
-      <c r="N69" t="inlineStr"/>
+      <c r="N69" t="n">
+        <v>0</v>
+      </c>
       <c r="O69" t="n">
         <v>10</v>
       </c>
@@ -8329,7 +8465,9 @@
       <c r="M70" t="n">
         <v>46980</v>
       </c>
-      <c r="N70" t="inlineStr"/>
+      <c r="N70" t="n">
+        <v>0</v>
+      </c>
       <c r="O70" t="n">
         <v>10</v>
       </c>
@@ -8445,7 +8583,9 @@
       <c r="M71" t="n">
         <v>7330</v>
       </c>
-      <c r="N71" t="inlineStr"/>
+      <c r="N71" t="n">
+        <v>0</v>
+      </c>
       <c r="O71" t="n">
         <v>10</v>
       </c>
@@ -8557,7 +8697,9 @@
       <c r="M72" t="n">
         <v>46000</v>
       </c>
-      <c r="N72" t="inlineStr"/>
+      <c r="N72" t="n">
+        <v>0</v>
+      </c>
       <c r="O72" t="n">
         <v>5</v>
       </c>
@@ -8669,7 +8811,9 @@
       <c r="M73" t="n">
         <v>9500</v>
       </c>
-      <c r="N73" t="inlineStr"/>
+      <c r="N73" t="n">
+        <v>0</v>
+      </c>
       <c r="O73" t="n">
         <v>10</v>
       </c>
@@ -8781,7 +8925,9 @@
       <c r="M74" t="n">
         <v>16800</v>
       </c>
-      <c r="N74" t="inlineStr"/>
+      <c r="N74" t="n">
+        <v>0</v>
+      </c>
       <c r="O74" t="n">
         <v>10</v>
       </c>
@@ -8893,7 +9039,9 @@
       <c r="M75" t="n">
         <v>12750</v>
       </c>
-      <c r="N75" t="inlineStr"/>
+      <c r="N75" t="n">
+        <v>0</v>
+      </c>
       <c r="O75" t="n">
         <v>10</v>
       </c>
@@ -9005,7 +9153,9 @@
       <c r="M76" t="n">
         <v>31500</v>
       </c>
-      <c r="N76" t="inlineStr"/>
+      <c r="N76" t="n">
+        <v>0</v>
+      </c>
       <c r="O76" t="n">
         <v>10</v>
       </c>
@@ -9115,7 +9265,9 @@
       <c r="M77" t="n">
         <v>20662</v>
       </c>
-      <c r="N77" t="inlineStr"/>
+      <c r="N77" t="n">
+        <v>0</v>
+      </c>
       <c r="O77" t="n">
         <v>7</v>
       </c>
@@ -9227,7 +9379,9 @@
       <c r="M78" t="n">
         <v>16963</v>
       </c>
-      <c r="N78" t="inlineStr"/>
+      <c r="N78" t="n">
+        <v>0</v>
+      </c>
       <c r="O78" t="n">
         <v>10</v>
       </c>
@@ -9339,7 +9493,9 @@
       <c r="M79" t="n">
         <v>12000</v>
       </c>
-      <c r="N79" t="inlineStr"/>
+      <c r="N79" t="n">
+        <v>0</v>
+      </c>
       <c r="O79" t="n">
         <v>10</v>
       </c>
@@ -9451,7 +9607,9 @@
       <c r="M80" t="n">
         <v>5000</v>
       </c>
-      <c r="N80" t="inlineStr"/>
+      <c r="N80" t="n">
+        <v>0</v>
+      </c>
       <c r="O80" t="n">
         <v>10</v>
       </c>
@@ -9563,7 +9721,9 @@
       <c r="M81" t="n">
         <v>63665</v>
       </c>
-      <c r="N81" t="inlineStr"/>
+      <c r="N81" t="n">
+        <v>0</v>
+      </c>
       <c r="O81" t="n">
         <v>5</v>
       </c>
@@ -9675,7 +9835,9 @@
       <c r="M82" t="n">
         <v>3745</v>
       </c>
-      <c r="N82" t="inlineStr"/>
+      <c r="N82" t="n">
+        <v>0</v>
+      </c>
       <c r="O82" t="n">
         <v>5</v>
       </c>
@@ -9787,7 +9949,9 @@
       <c r="M83" t="n">
         <v>18725</v>
       </c>
-      <c r="N83" t="inlineStr"/>
+      <c r="N83" t="n">
+        <v>0</v>
+      </c>
       <c r="O83" t="n">
         <v>5</v>
       </c>
@@ -9899,7 +10063,9 @@
       <c r="M84" t="n">
         <v>28890</v>
       </c>
-      <c r="N84" t="inlineStr"/>
+      <c r="N84" t="n">
+        <v>0</v>
+      </c>
       <c r="O84" t="n">
         <v>5</v>
       </c>
@@ -10011,7 +10177,9 @@
       <c r="M85" t="n">
         <v>39380</v>
       </c>
-      <c r="N85" t="inlineStr"/>
+      <c r="N85" t="n">
+        <v>0</v>
+      </c>
       <c r="O85" t="n">
         <v>7</v>
       </c>
@@ -10123,7 +10291,9 @@
       <c r="M86" t="n">
         <v>15194</v>
       </c>
-      <c r="N86" t="inlineStr"/>
+      <c r="N86" t="n">
+        <v>0</v>
+      </c>
       <c r="O86" t="n">
         <v>5</v>
       </c>
@@ -10235,7 +10405,9 @@
       <c r="M87" t="n">
         <v>5350</v>
       </c>
-      <c r="N87" t="inlineStr"/>
+      <c r="N87" t="n">
+        <v>0</v>
+      </c>
       <c r="O87" t="n">
         <v>5</v>
       </c>
@@ -10347,7 +10519,9 @@
       <c r="M88" t="n">
         <v>62500</v>
       </c>
-      <c r="N88" t="inlineStr"/>
+      <c r="N88" t="n">
+        <v>0</v>
+      </c>
       <c r="O88" t="n">
         <v>7</v>
       </c>
@@ -10459,7 +10633,9 @@
       <c r="M89" t="n">
         <v>12305</v>
       </c>
-      <c r="N89" t="inlineStr"/>
+      <c r="N89" t="n">
+        <v>0</v>
+      </c>
       <c r="O89" t="n">
         <v>5</v>
       </c>
@@ -10571,7 +10747,9 @@
       <c r="M90" t="n">
         <v>172056</v>
       </c>
-      <c r="N90" t="inlineStr"/>
+      <c r="N90" t="n">
+        <v>0</v>
+      </c>
       <c r="O90" t="n">
         <v>5</v>
       </c>
@@ -10683,7 +10861,9 @@
       <c r="M91" t="n">
         <v>5564</v>
       </c>
-      <c r="N91" t="inlineStr"/>
+      <c r="N91" t="n">
+        <v>0</v>
+      </c>
       <c r="O91" t="n">
         <v>5</v>
       </c>
@@ -10795,7 +10975,9 @@
       <c r="M92" t="n">
         <v>311168</v>
       </c>
-      <c r="N92" t="inlineStr"/>
+      <c r="N92" t="n">
+        <v>0</v>
+      </c>
       <c r="O92" t="n">
         <v>10</v>
       </c>
@@ -10911,7 +11093,9 @@
       <c r="M93" t="n">
         <v>60480</v>
       </c>
-      <c r="N93" t="inlineStr"/>
+      <c r="N93" t="n">
+        <v>0</v>
+      </c>
       <c r="O93" t="n">
         <v>10</v>
       </c>
@@ -11027,7 +11211,9 @@
       <c r="M94" t="n">
         <v>14000</v>
       </c>
-      <c r="N94" t="inlineStr"/>
+      <c r="N94" t="n">
+        <v>0</v>
+      </c>
       <c r="O94" t="n">
         <v>10</v>
       </c>
@@ -11143,7 +11329,9 @@
       <c r="M95" t="n">
         <v>337568</v>
       </c>
-      <c r="N95" t="inlineStr"/>
+      <c r="N95" t="n">
+        <v>0</v>
+      </c>
       <c r="O95" t="n">
         <v>7</v>
       </c>
@@ -11257,7 +11445,9 @@
       <c r="M96" t="n">
         <v>35000</v>
       </c>
-      <c r="N96" t="inlineStr"/>
+      <c r="N96" t="n">
+        <v>0</v>
+      </c>
       <c r="O96" t="n">
         <v>10</v>
       </c>
@@ -11369,7 +11559,9 @@
       <c r="M97" t="n">
         <v>36700</v>
       </c>
-      <c r="N97" t="inlineStr"/>
+      <c r="N97" t="n">
+        <v>0</v>
+      </c>
       <c r="O97" t="n">
         <v>7</v>
       </c>
@@ -11479,7 +11671,9 @@
       <c r="M98" t="n">
         <v>214136</v>
       </c>
-      <c r="N98" t="inlineStr"/>
+      <c r="N98" t="n">
+        <v>0</v>
+      </c>
       <c r="O98" t="n">
         <v>7</v>
       </c>
@@ -11591,7 +11785,9 @@
       <c r="M99" t="n">
         <v>9276465</v>
       </c>
-      <c r="N99" t="inlineStr"/>
+      <c r="N99" t="n">
+        <v>0</v>
+      </c>
       <c r="O99" t="n">
         <v>10</v>
       </c>
@@ -11703,7 +11899,9 @@
       <c r="M100" t="n">
         <v>9046900</v>
       </c>
-      <c r="N100" t="inlineStr"/>
+      <c r="N100" t="n">
+        <v>0</v>
+      </c>
       <c r="O100" t="n">
         <v>10</v>
       </c>
@@ -11815,7 +12013,9 @@
       <c r="M101" t="n">
         <v>42801</v>
       </c>
-      <c r="N101" t="inlineStr"/>
+      <c r="N101" t="n">
+        <v>0</v>
+      </c>
       <c r="O101" t="n">
         <v>7</v>
       </c>
@@ -11927,7 +12127,9 @@
       <c r="M102" t="n">
         <v>20100</v>
       </c>
-      <c r="N102" t="inlineStr"/>
+      <c r="N102" t="n">
+        <v>0</v>
+      </c>
       <c r="O102" t="n">
         <v>7</v>
       </c>
@@ -12039,7 +12241,9 @@
       <c r="M103" t="n">
         <v>4320</v>
       </c>
-      <c r="N103" t="inlineStr"/>
+      <c r="N103" t="n">
+        <v>0</v>
+      </c>
       <c r="O103" t="n">
         <v>7</v>
       </c>
@@ -12151,7 +12355,9 @@
       <c r="M104" t="n">
         <v>186384</v>
       </c>
-      <c r="N104" t="inlineStr"/>
+      <c r="N104" t="n">
+        <v>0</v>
+      </c>
       <c r="O104" t="n">
         <v>7</v>
       </c>
@@ -12265,7 +12471,9 @@
       <c r="M105" t="n">
         <v>9900</v>
       </c>
-      <c r="N105" t="inlineStr"/>
+      <c r="N105" t="n">
+        <v>0</v>
+      </c>
       <c r="O105" t="n">
         <v>7</v>
       </c>
@@ -12377,7 +12585,9 @@
       <c r="M106" t="n">
         <v>57800</v>
       </c>
-      <c r="N106" t="inlineStr"/>
+      <c r="N106" t="n">
+        <v>0</v>
+      </c>
       <c r="O106" t="n">
         <v>7</v>
       </c>
@@ -12489,7 +12699,9 @@
       <c r="M107" t="n">
         <v>374075</v>
       </c>
-      <c r="N107" t="inlineStr"/>
+      <c r="N107" t="n">
+        <v>0</v>
+      </c>
       <c r="O107" t="n">
         <v>7</v>
       </c>
@@ -12605,7 +12817,9 @@
       <c r="M108" t="n">
         <v>182937</v>
       </c>
-      <c r="N108" t="inlineStr"/>
+      <c r="N108" t="n">
+        <v>0</v>
+      </c>
       <c r="O108" t="n">
         <v>7</v>
       </c>
@@ -12717,7 +12931,9 @@
       <c r="M109" t="n">
         <v>9146</v>
       </c>
-      <c r="N109" t="inlineStr"/>
+      <c r="N109" t="n">
+        <v>0</v>
+      </c>
       <c r="O109" t="n">
         <v>7</v>
       </c>
@@ -12829,7 +13045,9 @@
       <c r="M110" t="n">
         <v>72760</v>
       </c>
-      <c r="N110" t="inlineStr"/>
+      <c r="N110" t="n">
+        <v>0</v>
+      </c>
       <c r="O110" t="n">
         <v>7</v>
       </c>
@@ -12941,7 +13159,9 @@
       <c r="M111" t="n">
         <v>68448</v>
       </c>
-      <c r="N111" t="inlineStr"/>
+      <c r="N111" t="n">
+        <v>0</v>
+      </c>
       <c r="O111" t="n">
         <v>10</v>
       </c>
@@ -13057,7 +13277,9 @@
       <c r="M112" t="n">
         <v>35910</v>
       </c>
-      <c r="N112" t="inlineStr"/>
+      <c r="N112" t="n">
+        <v>0</v>
+      </c>
       <c r="O112" t="n">
         <v>10</v>
       </c>
@@ -13173,7 +13395,9 @@
       <c r="M113" t="n">
         <v>22500</v>
       </c>
-      <c r="N113" t="inlineStr"/>
+      <c r="N113" t="n">
+        <v>0</v>
+      </c>
       <c r="O113" t="n">
         <v>10</v>
       </c>
@@ -13289,7 +13513,9 @@
       <c r="M114" t="n">
         <v>98000</v>
       </c>
-      <c r="N114" t="inlineStr"/>
+      <c r="N114" t="n">
+        <v>0</v>
+      </c>
       <c r="O114" t="n">
         <v>10</v>
       </c>
@@ -13405,7 +13631,9 @@
       <c r="M115" t="n">
         <v>294000</v>
       </c>
-      <c r="N115" t="inlineStr"/>
+      <c r="N115" t="n">
+        <v>0</v>
+      </c>
       <c r="O115" t="n">
         <v>10</v>
       </c>
@@ -13517,7 +13745,9 @@
       <c r="M116" t="n">
         <v>14000</v>
       </c>
-      <c r="N116" t="inlineStr"/>
+      <c r="N116" t="n">
+        <v>0</v>
+      </c>
       <c r="O116" t="n">
         <v>10</v>
       </c>
@@ -13629,7 +13859,9 @@
       <c r="M117" t="n">
         <v>51939</v>
       </c>
-      <c r="N117" t="inlineStr"/>
+      <c r="N117" t="n">
+        <v>0</v>
+      </c>
       <c r="O117" t="n">
         <v>7</v>
       </c>
@@ -13741,7 +13973,9 @@
       <c r="M118" t="n">
         <v>48870</v>
       </c>
-      <c r="N118" t="inlineStr"/>
+      <c r="N118" t="n">
+        <v>0</v>
+      </c>
       <c r="O118" t="n">
         <v>10</v>
       </c>
@@ -13857,7 +14091,9 @@
       <c r="M119" t="n">
         <v>22520</v>
       </c>
-      <c r="N119" t="inlineStr"/>
+      <c r="N119" t="n">
+        <v>0</v>
+      </c>
       <c r="O119" t="n">
         <v>10</v>
       </c>
@@ -13969,7 +14205,9 @@
       <c r="M120" t="n">
         <v>24900</v>
       </c>
-      <c r="N120" t="inlineStr"/>
+      <c r="N120" t="n">
+        <v>0</v>
+      </c>
       <c r="O120" t="n">
         <v>7</v>
       </c>
@@ -14081,7 +14319,9 @@
       <c r="M121" t="n">
         <v>48485</v>
       </c>
-      <c r="N121" t="inlineStr"/>
+      <c r="N121" t="n">
+        <v>0</v>
+      </c>
       <c r="O121" t="n">
         <v>7</v>
       </c>
@@ -14193,7 +14433,9 @@
       <c r="M122" t="n">
         <v>33172</v>
       </c>
-      <c r="N122" t="inlineStr"/>
+      <c r="N122" t="n">
+        <v>0</v>
+      </c>
       <c r="O122" t="n">
         <v>10</v>
       </c>
@@ -14305,7 +14547,9 @@
       <c r="M123" t="n">
         <v>87706.17</v>
       </c>
-      <c r="N123" t="inlineStr"/>
+      <c r="N123" t="n">
+        <v>0</v>
+      </c>
       <c r="O123" t="n">
         <v>5</v>
       </c>
@@ -14417,7 +14661,9 @@
       <c r="M124" t="n">
         <v>106113.64</v>
       </c>
-      <c r="N124" t="inlineStr"/>
+      <c r="N124" t="n">
+        <v>0</v>
+      </c>
       <c r="O124" t="n">
         <v>5</v>
       </c>
@@ -14529,7 +14775,9 @@
       <c r="M125" t="n">
         <v>44394.48</v>
       </c>
-      <c r="N125" t="inlineStr"/>
+      <c r="N125" t="n">
+        <v>0</v>
+      </c>
       <c r="O125" t="n">
         <v>5</v>
       </c>
@@ -14641,7 +14889,9 @@
       <c r="M126" t="n">
         <v>7254.71</v>
       </c>
-      <c r="N126" t="inlineStr"/>
+      <c r="N126" t="n">
+        <v>0</v>
+      </c>
       <c r="O126" t="n">
         <v>5</v>
       </c>
@@ -14753,7 +15003,9 @@
       <c r="M127" t="n">
         <v>29000</v>
       </c>
-      <c r="N127" t="inlineStr"/>
+      <c r="N127" t="n">
+        <v>0</v>
+      </c>
       <c r="O127" t="n">
         <v>10</v>
       </c>
@@ -14865,7 +15117,9 @@
       <c r="M128" t="n">
         <v>117000</v>
       </c>
-      <c r="N128" t="inlineStr"/>
+      <c r="N128" t="n">
+        <v>0</v>
+      </c>
       <c r="O128" t="n">
         <v>10</v>
       </c>
@@ -14977,7 +15231,9 @@
       <c r="M129" t="n">
         <v>17500</v>
       </c>
-      <c r="N129" t="inlineStr"/>
+      <c r="N129" t="n">
+        <v>0</v>
+      </c>
       <c r="O129" t="n">
         <v>10</v>
       </c>
@@ -15089,7 +15345,9 @@
       <c r="M130" t="n">
         <v>20442</v>
       </c>
-      <c r="N130" t="inlineStr"/>
+      <c r="N130" t="n">
+        <v>0</v>
+      </c>
       <c r="O130" t="n">
         <v>5</v>
       </c>
@@ -15201,7 +15459,9 @@
       <c r="M131" t="n">
         <v>56354</v>
       </c>
-      <c r="N131" t="inlineStr"/>
+      <c r="N131" t="n">
+        <v>0</v>
+      </c>
       <c r="O131" t="n">
         <v>5</v>
       </c>
@@ -15313,7 +15573,9 @@
       <c r="M132" t="n">
         <v>41989</v>
       </c>
-      <c r="N132" t="inlineStr"/>
+      <c r="N132" t="n">
+        <v>0</v>
+      </c>
       <c r="O132" t="n">
         <v>5</v>
       </c>
@@ -15425,7 +15687,9 @@
       <c r="M133" t="n">
         <v>1989</v>
       </c>
-      <c r="N133" t="inlineStr"/>
+      <c r="N133" t="n">
+        <v>0</v>
+      </c>
       <c r="O133" t="n">
         <v>5</v>
       </c>
@@ -15537,7 +15801,9 @@
       <c r="M134" t="n">
         <v>9075</v>
       </c>
-      <c r="N134" t="inlineStr"/>
+      <c r="N134" t="n">
+        <v>0</v>
+      </c>
       <c r="O134" t="n">
         <v>7</v>
       </c>
@@ -15649,7 +15915,9 @@
       <c r="M135" t="n">
         <v>81400</v>
       </c>
-      <c r="N135" t="inlineStr"/>
+      <c r="N135" t="n">
+        <v>0</v>
+      </c>
       <c r="O135" t="n">
         <v>5</v>
       </c>
@@ -15761,7 +16029,9 @@
       <c r="M136" t="n">
         <v>23980</v>
       </c>
-      <c r="N136" t="inlineStr"/>
+      <c r="N136" t="n">
+        <v>0</v>
+      </c>
       <c r="O136" t="n">
         <v>5</v>
       </c>
@@ -15873,7 +16143,9 @@
       <c r="M137" t="n">
         <v>9900</v>
       </c>
-      <c r="N137" t="inlineStr"/>
+      <c r="N137" t="n">
+        <v>0</v>
+      </c>
       <c r="O137" t="n">
         <v>5</v>
       </c>
@@ -15985,7 +16257,9 @@
       <c r="M138" t="n">
         <v>133335</v>
       </c>
-      <c r="N138" t="inlineStr"/>
+      <c r="N138" t="n">
+        <v>0</v>
+      </c>
       <c r="O138" t="n">
         <v>5</v>
       </c>
@@ -16097,7 +16371,9 @@
       <c r="M139" t="n">
         <v>17814</v>
       </c>
-      <c r="N139" t="inlineStr"/>
+      <c r="N139" t="n">
+        <v>0</v>
+      </c>
       <c r="O139" t="n">
         <v>10</v>
       </c>
@@ -16209,7 +16485,9 @@
       <c r="M140" t="n">
         <v>59116</v>
       </c>
-      <c r="N140" t="inlineStr"/>
+      <c r="N140" t="n">
+        <v>0</v>
+      </c>
       <c r="O140" t="n">
         <v>5</v>
       </c>
@@ -16321,7 +16599,9 @@
       <c r="M141" t="n">
         <v>4500</v>
       </c>
-      <c r="N141" t="inlineStr"/>
+      <c r="N141" t="n">
+        <v>0</v>
+      </c>
       <c r="O141" t="n">
         <v>10</v>
       </c>
@@ -16433,7 +16713,9 @@
       <c r="M142" t="n">
         <v>279005</v>
       </c>
-      <c r="N142" t="inlineStr"/>
+      <c r="N142" t="n">
+        <v>0</v>
+      </c>
       <c r="O142" t="n">
         <v>5</v>
       </c>
@@ -16545,7 +16827,9 @@
       <c r="M143" t="n">
         <v>130387</v>
       </c>
-      <c r="N143" t="inlineStr"/>
+      <c r="N143" t="n">
+        <v>0</v>
+      </c>
       <c r="O143" t="n">
         <v>5</v>
       </c>
@@ -16657,7 +16941,9 @@
       <c r="M144" t="n">
         <v>3296500</v>
       </c>
-      <c r="N144" t="inlineStr"/>
+      <c r="N144" t="n">
+        <v>0</v>
+      </c>
       <c r="O144" t="n">
         <v>10</v>
       </c>
@@ -16767,7 +17053,9 @@
       <c r="M145" t="n">
         <v>30331</v>
       </c>
-      <c r="N145" t="inlineStr"/>
+      <c r="N145" t="n">
+        <v>0</v>
+      </c>
       <c r="O145" t="n">
         <v>10</v>
       </c>
@@ -16879,7 +17167,9 @@
       <c r="M146" t="n">
         <v>161000</v>
       </c>
-      <c r="N146" t="inlineStr"/>
+      <c r="N146" t="n">
+        <v>0</v>
+      </c>
       <c r="O146" t="n">
         <v>7</v>
       </c>
@@ -16991,7 +17281,9 @@
       <c r="M147" t="n">
         <v>82123.02</v>
       </c>
-      <c r="N147" t="inlineStr"/>
+      <c r="N147" t="n">
+        <v>0</v>
+      </c>
       <c r="O147" t="n">
         <v>5</v>
       </c>
@@ -17103,7 +17395,9 @@
       <c r="M148" t="n">
         <v>32402.28</v>
       </c>
-      <c r="N148" t="inlineStr"/>
+      <c r="N148" t="n">
+        <v>0</v>
+      </c>
       <c r="O148" t="n">
         <v>5</v>
       </c>
@@ -17213,7 +17507,9 @@
       <c r="M149" t="n">
         <v>21450</v>
       </c>
-      <c r="N149" t="inlineStr"/>
+      <c r="N149" t="n">
+        <v>0</v>
+      </c>
       <c r="O149" t="n">
         <v>10</v>
       </c>
@@ -17325,7 +17621,9 @@
       <c r="M150" t="n">
         <v>19485</v>
       </c>
-      <c r="N150" t="inlineStr"/>
+      <c r="N150" t="n">
+        <v>0</v>
+      </c>
       <c r="O150" t="n">
         <v>10</v>
       </c>
@@ -17437,7 +17735,9 @@
       <c r="M151" t="n">
         <v>4500</v>
       </c>
-      <c r="N151" t="inlineStr"/>
+      <c r="N151" t="n">
+        <v>0</v>
+      </c>
       <c r="O151" t="n">
         <v>7</v>
       </c>
@@ -17551,7 +17851,9 @@
       <c r="M152" t="n">
         <v>10000</v>
       </c>
-      <c r="N152" t="inlineStr"/>
+      <c r="N152" t="n">
+        <v>0</v>
+      </c>
       <c r="O152" t="n">
         <v>20</v>
       </c>
@@ -17665,7 +17967,9 @@
       <c r="M153" t="n">
         <v>10000</v>
       </c>
-      <c r="N153" t="inlineStr"/>
+      <c r="N153" t="n">
+        <v>0</v>
+      </c>
       <c r="O153" t="n">
         <v>20</v>
       </c>
@@ -17779,7 +18083,9 @@
       <c r="M154" t="n">
         <v>79259.95</v>
       </c>
-      <c r="N154" t="inlineStr"/>
+      <c r="N154" t="n">
+        <v>0</v>
+      </c>
       <c r="O154" t="n">
         <v>20</v>
       </c>
@@ -17893,7 +18199,9 @@
       <c r="M155" t="n">
         <v>26387.5</v>
       </c>
-      <c r="N155" t="inlineStr"/>
+      <c r="N155" t="n">
+        <v>0</v>
+      </c>
       <c r="O155" t="n">
         <v>20</v>
       </c>
@@ -18007,7 +18315,9 @@
       <c r="M156" t="n">
         <v>3979.25</v>
       </c>
-      <c r="N156" t="inlineStr"/>
+      <c r="N156" t="n">
+        <v>0</v>
+      </c>
       <c r="O156" t="n">
         <v>20</v>
       </c>
@@ -18121,7 +18431,9 @@
       <c r="M157" t="n">
         <v>250000</v>
       </c>
-      <c r="N157" t="inlineStr"/>
+      <c r="N157" t="n">
+        <v>0</v>
+      </c>
       <c r="O157" t="n">
         <v>20</v>
       </c>
@@ -18235,7 +18547,9 @@
       <c r="M158" t="n">
         <v>38500</v>
       </c>
-      <c r="N158" t="inlineStr"/>
+      <c r="N158" t="n">
+        <v>0</v>
+      </c>
       <c r="O158" t="n">
         <v>20</v>
       </c>
@@ -18349,7 +18663,9 @@
       <c r="M159" t="n">
         <v>1396.5</v>
       </c>
-      <c r="N159" t="inlineStr"/>
+      <c r="N159" t="n">
+        <v>0</v>
+      </c>
       <c r="O159" t="n">
         <v>20</v>
       </c>
@@ -18463,7 +18779,9 @@
       <c r="M160" t="n">
         <v>124300</v>
       </c>
-      <c r="N160" t="inlineStr"/>
+      <c r="N160" t="n">
+        <v>0</v>
+      </c>
       <c r="O160" t="n">
         <v>20</v>
       </c>
@@ -18577,7 +18895,9 @@
       <c r="M161" t="n">
         <v>5475</v>
       </c>
-      <c r="N161" t="inlineStr"/>
+      <c r="N161" t="n">
+        <v>0</v>
+      </c>
       <c r="O161" t="n">
         <v>20</v>
       </c>
@@ -18691,7 +19011,9 @@
       <c r="M162" t="n">
         <v>328860</v>
       </c>
-      <c r="N162" t="inlineStr"/>
+      <c r="N162" t="n">
+        <v>0</v>
+      </c>
       <c r="O162" t="n">
         <v>15</v>
       </c>
@@ -18805,7 +19127,9 @@
       <c r="M163" t="n">
         <v>38150</v>
       </c>
-      <c r="N163" t="inlineStr"/>
+      <c r="N163" t="n">
+        <v>0</v>
+      </c>
       <c r="O163" t="n">
         <v>15</v>
       </c>
@@ -18919,7 +19243,9 @@
       <c r="M164" t="n">
         <v>35000</v>
       </c>
-      <c r="N164" t="inlineStr"/>
+      <c r="N164" t="n">
+        <v>0</v>
+      </c>
       <c r="O164" t="n">
         <v>15</v>
       </c>
@@ -19033,7 +19359,9 @@
       <c r="M165" t="n">
         <v>38150</v>
       </c>
-      <c r="N165" t="inlineStr"/>
+      <c r="N165" t="n">
+        <v>0</v>
+      </c>
       <c r="O165" t="n">
         <v>15</v>
       </c>
@@ -19147,7 +19475,9 @@
       <c r="M166" t="n">
         <v>1190</v>
       </c>
-      <c r="N166" t="inlineStr"/>
+      <c r="N166" t="n">
+        <v>0</v>
+      </c>
       <c r="O166" t="n">
         <v>15</v>
       </c>
@@ -19261,7 +19591,9 @@
       <c r="M167" t="n">
         <v>7500</v>
       </c>
-      <c r="N167" t="inlineStr"/>
+      <c r="N167" t="n">
+        <v>0</v>
+      </c>
       <c r="O167" t="n">
         <v>15</v>
       </c>
@@ -19375,7 +19707,9 @@
       <c r="M168" t="n">
         <v>31005</v>
       </c>
-      <c r="N168" t="inlineStr"/>
+      <c r="N168" t="n">
+        <v>0</v>
+      </c>
       <c r="O168" t="n">
         <v>15</v>
       </c>
@@ -19490,7 +19824,9 @@
       <c r="M169" t="n">
         <v>7000</v>
       </c>
-      <c r="N169" t="inlineStr"/>
+      <c r="N169" t="n">
+        <v>0</v>
+      </c>
       <c r="O169" t="n">
         <v>15</v>
       </c>
@@ -19604,7 +19940,9 @@
       <c r="M170" t="n">
         <v>55000</v>
       </c>
-      <c r="N170" t="inlineStr"/>
+      <c r="N170" t="n">
+        <v>0</v>
+      </c>
       <c r="O170" t="n">
         <v>15</v>
       </c>
@@ -19718,7 +20056,9 @@
       <c r="M171" t="n">
         <v>134000</v>
       </c>
-      <c r="N171" t="inlineStr"/>
+      <c r="N171" t="n">
+        <v>0</v>
+      </c>
       <c r="O171" t="n">
         <v>15</v>
       </c>
@@ -19832,7 +20172,9 @@
       <c r="M172" t="n">
         <v>42500</v>
       </c>
-      <c r="N172" t="inlineStr"/>
+      <c r="N172" t="n">
+        <v>0</v>
+      </c>
       <c r="O172" t="n">
         <v>15</v>
       </c>
@@ -19946,7 +20288,9 @@
       <c r="M173" t="n">
         <v>147000</v>
       </c>
-      <c r="N173" t="inlineStr"/>
+      <c r="N173" t="n">
+        <v>0</v>
+      </c>
       <c r="O173" t="n">
         <v>20</v>
       </c>
@@ -20060,7 +20404,9 @@
       <c r="M174" t="n">
         <v>210600</v>
       </c>
-      <c r="N174" t="inlineStr"/>
+      <c r="N174" t="n">
+        <v>0</v>
+      </c>
       <c r="O174" t="n">
         <v>20</v>
       </c>
@@ -20174,7 +20520,9 @@
       <c r="M175" t="n">
         <v>7180</v>
       </c>
-      <c r="N175" t="inlineStr"/>
+      <c r="N175" t="n">
+        <v>0</v>
+      </c>
       <c r="O175" t="n">
         <v>20</v>
       </c>
@@ -20288,7 +20636,9 @@
       <c r="M176" t="n">
         <v>5850</v>
       </c>
-      <c r="N176" t="inlineStr"/>
+      <c r="N176" t="n">
+        <v>0</v>
+      </c>
       <c r="O176" t="n">
         <v>20</v>
       </c>
@@ -20402,7 +20752,9 @@
       <c r="M177" t="n">
         <v>9000</v>
       </c>
-      <c r="N177" t="inlineStr"/>
+      <c r="N177" t="n">
+        <v>0</v>
+      </c>
       <c r="O177" t="n">
         <v>20</v>
       </c>
@@ -20516,7 +20868,9 @@
       <c r="M178" t="n">
         <v>3800</v>
       </c>
-      <c r="N178" t="inlineStr"/>
+      <c r="N178" t="n">
+        <v>0</v>
+      </c>
       <c r="O178" t="n">
         <v>20</v>
       </c>
@@ -20630,7 +20984,9 @@
       <c r="M179" t="n">
         <v>4400</v>
       </c>
-      <c r="N179" t="inlineStr"/>
+      <c r="N179" t="n">
+        <v>0</v>
+      </c>
       <c r="O179" t="n">
         <v>20</v>
       </c>
@@ -20744,7 +21100,9 @@
       <c r="M180" t="n">
         <v>18000</v>
       </c>
-      <c r="N180" t="inlineStr"/>
+      <c r="N180" t="n">
+        <v>0</v>
+      </c>
       <c r="O180" t="n">
         <v>20</v>
       </c>
@@ -20858,7 +21216,9 @@
       <c r="M181" t="n">
         <v>19170</v>
       </c>
-      <c r="N181" t="inlineStr"/>
+      <c r="N181" t="n">
+        <v>0</v>
+      </c>
       <c r="O181" t="n">
         <v>20</v>
       </c>
@@ -20972,7 +21332,9 @@
       <c r="M182" t="n">
         <v>1625</v>
       </c>
-      <c r="N182" t="inlineStr"/>
+      <c r="N182" t="n">
+        <v>0</v>
+      </c>
       <c r="O182" t="n">
         <v>20</v>
       </c>
@@ -21086,7 +21448,9 @@
       <c r="M183" t="n">
         <v>3575</v>
       </c>
-      <c r="N183" t="inlineStr"/>
+      <c r="N183" t="n">
+        <v>0</v>
+      </c>
       <c r="O183" t="n">
         <v>20</v>
       </c>
@@ -21201,7 +21565,9 @@
       <c r="M184" t="n">
         <v>4550</v>
       </c>
-      <c r="N184" t="inlineStr"/>
+      <c r="N184" t="n">
+        <v>0</v>
+      </c>
       <c r="O184" t="n">
         <v>20</v>
       </c>
@@ -21315,7 +21681,9 @@
       <c r="M185" t="n">
         <v>1755</v>
       </c>
-      <c r="N185" t="inlineStr"/>
+      <c r="N185" t="n">
+        <v>0</v>
+      </c>
       <c r="O185" t="n">
         <v>20</v>
       </c>
@@ -21429,7 +21797,9 @@
       <c r="M186" t="n">
         <v>7000</v>
       </c>
-      <c r="N186" t="inlineStr"/>
+      <c r="N186" t="n">
+        <v>0</v>
+      </c>
       <c r="O186" t="n">
         <v>20</v>
       </c>
@@ -21543,7 +21913,9 @@
       <c r="M187" t="n">
         <v>420</v>
       </c>
-      <c r="N187" t="inlineStr"/>
+      <c r="N187" t="n">
+        <v>0</v>
+      </c>
       <c r="O187" t="n">
         <v>20</v>
       </c>
@@ -21657,7 +22029,9 @@
       <c r="M188" t="n">
         <v>3780</v>
       </c>
-      <c r="N188" t="inlineStr"/>
+      <c r="N188" t="n">
+        <v>0</v>
+      </c>
       <c r="O188" t="n">
         <v>20</v>
       </c>
@@ -21771,7 +22145,9 @@
       <c r="M189" t="n">
         <v>125000</v>
       </c>
-      <c r="N189" t="inlineStr"/>
+      <c r="N189" t="n">
+        <v>0</v>
+      </c>
       <c r="O189" t="n">
         <v>20</v>
       </c>
@@ -21885,7 +22261,9 @@
       <c r="M190" t="n">
         <v>24900</v>
       </c>
-      <c r="N190" t="inlineStr"/>
+      <c r="N190" t="n">
+        <v>0</v>
+      </c>
       <c r="O190" t="n">
         <v>20</v>
       </c>
@@ -21999,7 +22377,9 @@
       <c r="M191" t="n">
         <v>6500</v>
       </c>
-      <c r="N191" t="inlineStr"/>
+      <c r="N191" t="n">
+        <v>0</v>
+      </c>
       <c r="O191" t="n">
         <v>20</v>
       </c>
@@ -22113,7 +22493,9 @@
       <c r="M192" t="n">
         <v>3750</v>
       </c>
-      <c r="N192" t="inlineStr"/>
+      <c r="N192" t="n">
+        <v>0</v>
+      </c>
       <c r="O192" t="n">
         <v>20</v>
       </c>
@@ -22227,7 +22609,9 @@
       <c r="M193" t="n">
         <v>11100</v>
       </c>
-      <c r="N193" t="inlineStr"/>
+      <c r="N193" t="n">
+        <v>0</v>
+      </c>
       <c r="O193" t="n">
         <v>15</v>
       </c>
@@ -22341,7 +22725,9 @@
       <c r="M194" t="n">
         <v>29900</v>
       </c>
-      <c r="N194" t="inlineStr"/>
+      <c r="N194" t="n">
+        <v>0</v>
+      </c>
       <c r="O194" t="n">
         <v>15</v>
       </c>
@@ -22455,7 +22841,9 @@
       <c r="M195" t="n">
         <v>6250</v>
       </c>
-      <c r="N195" t="inlineStr"/>
+      <c r="N195" t="n">
+        <v>0</v>
+      </c>
       <c r="O195" t="n">
         <v>15</v>
       </c>
@@ -22569,7 +22957,9 @@
       <c r="M196" t="n">
         <v>12150</v>
       </c>
-      <c r="N196" t="inlineStr"/>
+      <c r="N196" t="n">
+        <v>0</v>
+      </c>
       <c r="O196" t="n">
         <v>15</v>
       </c>
@@ -22683,7 +23073,9 @@
       <c r="M197" t="n">
         <v>7500</v>
       </c>
-      <c r="N197" t="inlineStr"/>
+      <c r="N197" t="n">
+        <v>0</v>
+      </c>
       <c r="O197" t="n">
         <v>15</v>
       </c>
@@ -22797,7 +23189,9 @@
       <c r="M198" t="n">
         <v>2625</v>
       </c>
-      <c r="N198" t="inlineStr"/>
+      <c r="N198" t="n">
+        <v>0</v>
+      </c>
       <c r="O198" t="n">
         <v>15</v>
       </c>
@@ -22911,7 +23305,9 @@
       <c r="M199" t="n">
         <v>18375</v>
       </c>
-      <c r="N199" t="inlineStr"/>
+      <c r="N199" t="n">
+        <v>0</v>
+      </c>
       <c r="O199" t="n">
         <v>15</v>
       </c>
@@ -23025,7 +23421,9 @@
       <c r="M200" t="n">
         <v>3360</v>
       </c>
-      <c r="N200" t="inlineStr"/>
+      <c r="N200" t="n">
+        <v>0</v>
+      </c>
       <c r="O200" t="n">
         <v>15</v>
       </c>
@@ -23139,7 +23537,9 @@
       <c r="M201" t="n">
         <v>2062.5</v>
       </c>
-      <c r="N201" t="inlineStr"/>
+      <c r="N201" t="n">
+        <v>0</v>
+      </c>
       <c r="O201" t="n">
         <v>15</v>
       </c>
@@ -23253,7 +23653,9 @@
       <c r="M202" t="n">
         <v>13125</v>
       </c>
-      <c r="N202" t="inlineStr"/>
+      <c r="N202" t="n">
+        <v>0</v>
+      </c>
       <c r="O202" t="n">
         <v>15</v>
       </c>
@@ -23367,7 +23769,9 @@
       <c r="M203" t="n">
         <v>2100</v>
       </c>
-      <c r="N203" t="inlineStr"/>
+      <c r="N203" t="n">
+        <v>0</v>
+      </c>
       <c r="O203" t="n">
         <v>15</v>
       </c>
@@ -23481,7 +23885,9 @@
       <c r="M204" t="n">
         <v>86100</v>
       </c>
-      <c r="N204" t="inlineStr"/>
+      <c r="N204" t="n">
+        <v>0</v>
+      </c>
       <c r="O204" t="n">
         <v>15</v>
       </c>
@@ -23595,7 +24001,9 @@
       <c r="M205" t="n">
         <v>196500</v>
       </c>
-      <c r="N205" t="inlineStr"/>
+      <c r="N205" t="n">
+        <v>0</v>
+      </c>
       <c r="O205" t="n">
         <v>15</v>
       </c>
@@ -23709,7 +24117,9 @@
       <c r="M206" t="n">
         <v>1560</v>
       </c>
-      <c r="N206" t="inlineStr"/>
+      <c r="N206" t="n">
+        <v>0</v>
+      </c>
       <c r="O206" t="n">
         <v>15</v>
       </c>
@@ -23823,7 +24233,9 @@
       <c r="M207" t="n">
         <v>22340</v>
       </c>
-      <c r="N207" t="inlineStr"/>
+      <c r="N207" t="n">
+        <v>0</v>
+      </c>
       <c r="O207" t="n">
         <v>15</v>
       </c>
@@ -23937,7 +24349,9 @@
       <c r="M208" t="n">
         <v>52360</v>
       </c>
-      <c r="N208" t="inlineStr"/>
+      <c r="N208" t="n">
+        <v>0</v>
+      </c>
       <c r="O208" t="n">
         <v>15</v>
       </c>
@@ -24051,7 +24465,9 @@
       <c r="M209" t="n">
         <v>11875</v>
       </c>
-      <c r="N209" t="inlineStr"/>
+      <c r="N209" t="n">
+        <v>0</v>
+      </c>
       <c r="O209" t="n">
         <v>15</v>
       </c>
@@ -24165,7 +24581,9 @@
       <c r="M210" t="n">
         <v>15675</v>
       </c>
-      <c r="N210" t="inlineStr"/>
+      <c r="N210" t="n">
+        <v>0</v>
+      </c>
       <c r="O210" t="n">
         <v>15</v>
       </c>
@@ -24279,7 +24697,9 @@
       <c r="M211" t="n">
         <v>3000</v>
       </c>
-      <c r="N211" t="inlineStr"/>
+      <c r="N211" t="n">
+        <v>0</v>
+      </c>
       <c r="O211" t="n">
         <v>15</v>
       </c>
@@ -24393,7 +24813,9 @@
       <c r="M212" t="n">
         <v>6030</v>
       </c>
-      <c r="N212" t="inlineStr"/>
+      <c r="N212" t="n">
+        <v>0</v>
+      </c>
       <c r="O212" t="n">
         <v>15</v>
       </c>
@@ -24507,7 +24929,9 @@
       <c r="M213" t="n">
         <v>8250</v>
       </c>
-      <c r="N213" t="inlineStr"/>
+      <c r="N213" t="n">
+        <v>0</v>
+      </c>
       <c r="O213" t="n">
         <v>15</v>
       </c>
@@ -24621,7 +25045,9 @@
       <c r="M214" t="n">
         <v>1950</v>
       </c>
-      <c r="N214" t="inlineStr"/>
+      <c r="N214" t="n">
+        <v>0</v>
+      </c>
       <c r="O214" t="n">
         <v>15</v>
       </c>
@@ -24735,7 +25161,9 @@
       <c r="M215" t="n">
         <v>23200</v>
       </c>
-      <c r="N215" t="inlineStr"/>
+      <c r="N215" t="n">
+        <v>0</v>
+      </c>
       <c r="O215" t="n">
         <v>15</v>
       </c>
@@ -24849,7 +25277,9 @@
       <c r="M216" t="n">
         <v>3500</v>
       </c>
-      <c r="N216" t="inlineStr"/>
+      <c r="N216" t="n">
+        <v>0</v>
+      </c>
       <c r="O216" t="n">
         <v>15</v>
       </c>
@@ -24963,7 +25393,9 @@
       <c r="M217" t="n">
         <v>78750</v>
       </c>
-      <c r="N217" t="inlineStr"/>
+      <c r="N217" t="n">
+        <v>0</v>
+      </c>
       <c r="O217" t="n">
         <v>15</v>
       </c>
@@ -25077,7 +25509,9 @@
       <c r="M218" t="n">
         <v>175000</v>
       </c>
-      <c r="N218" t="inlineStr"/>
+      <c r="N218" t="n">
+        <v>0</v>
+      </c>
       <c r="O218" t="n">
         <v>15</v>
       </c>
@@ -25191,7 +25625,9 @@
       <c r="M219" t="n">
         <v>97500</v>
       </c>
-      <c r="N219" t="inlineStr"/>
+      <c r="N219" t="n">
+        <v>0</v>
+      </c>
       <c r="O219" t="n">
         <v>15</v>
       </c>
@@ -25305,7 +25741,9 @@
       <c r="M220" t="n">
         <v>30500</v>
       </c>
-      <c r="N220" t="inlineStr"/>
+      <c r="N220" t="n">
+        <v>0</v>
+      </c>
       <c r="O220" t="n">
         <v>15</v>
       </c>
@@ -25419,7 +25857,9 @@
       <c r="M221" t="n">
         <v>15000</v>
       </c>
-      <c r="N221" t="inlineStr"/>
+      <c r="N221" t="n">
+        <v>0</v>
+      </c>
       <c r="O221" t="n">
         <v>15</v>
       </c>
@@ -25533,7 +25973,9 @@
       <c r="M222" t="n">
         <v>12825</v>
       </c>
-      <c r="N222" t="inlineStr"/>
+      <c r="N222" t="n">
+        <v>0</v>
+      </c>
       <c r="O222" t="n">
         <v>15</v>
       </c>
@@ -25647,7 +26089,9 @@
       <c r="M223" t="n">
         <v>43875</v>
       </c>
-      <c r="N223" t="inlineStr"/>
+      <c r="N223" t="n">
+        <v>0</v>
+      </c>
       <c r="O223" t="n">
         <v>15</v>
       </c>
@@ -25761,7 +26205,9 @@
       <c r="M224" t="n">
         <v>30600</v>
       </c>
-      <c r="N224" t="inlineStr"/>
+      <c r="N224" t="n">
+        <v>0</v>
+      </c>
       <c r="O224" t="n">
         <v>15</v>
       </c>
@@ -25875,7 +26321,9 @@
       <c r="M225" t="n">
         <v>4143.75</v>
       </c>
-      <c r="N225" t="inlineStr"/>
+      <c r="N225" t="n">
+        <v>0</v>
+      </c>
       <c r="O225" t="n">
         <v>15</v>
       </c>
@@ -25989,7 +26437,9 @@
       <c r="M226" t="n">
         <v>81375</v>
       </c>
-      <c r="N226" t="inlineStr"/>
+      <c r="N226" t="n">
+        <v>0</v>
+      </c>
       <c r="O226" t="n">
         <v>15</v>
       </c>
@@ -26103,7 +26553,9 @@
       <c r="M227" t="n">
         <v>107000</v>
       </c>
-      <c r="N227" t="inlineStr"/>
+      <c r="N227" t="n">
+        <v>0</v>
+      </c>
       <c r="O227" t="n">
         <v>15</v>
       </c>
@@ -26217,7 +26669,9 @@
       <c r="M228" t="n">
         <v>16575</v>
       </c>
-      <c r="N228" t="inlineStr"/>
+      <c r="N228" t="n">
+        <v>0</v>
+      </c>
       <c r="O228" t="n">
         <v>15</v>
       </c>
@@ -26331,7 +26785,9 @@
       <c r="M229" t="n">
         <v>22000</v>
       </c>
-      <c r="N229" t="inlineStr"/>
+      <c r="N229" t="n">
+        <v>0</v>
+      </c>
       <c r="O229" t="n">
         <v>15</v>
       </c>
@@ -26445,7 +26901,9 @@
       <c r="M230" t="n">
         <v>14700</v>
       </c>
-      <c r="N230" t="inlineStr"/>
+      <c r="N230" t="n">
+        <v>0</v>
+      </c>
       <c r="O230" t="n">
         <v>15</v>
       </c>
@@ -26559,7 +27017,9 @@
       <c r="M231" t="n">
         <v>715</v>
       </c>
-      <c r="N231" t="inlineStr"/>
+      <c r="N231" t="n">
+        <v>0</v>
+      </c>
       <c r="O231" t="n">
         <v>15</v>
       </c>
@@ -26673,7 +27133,9 @@
       <c r="M232" t="n">
         <v>3895</v>
       </c>
-      <c r="N232" t="inlineStr"/>
+      <c r="N232" t="n">
+        <v>0</v>
+      </c>
       <c r="O232" t="n">
         <v>15</v>
       </c>
@@ -26787,7 +27249,9 @@
       <c r="M233" t="n">
         <v>57150</v>
       </c>
-      <c r="N233" t="inlineStr"/>
+      <c r="N233" t="n">
+        <v>0</v>
+      </c>
       <c r="O233" t="n">
         <v>15</v>
       </c>
@@ -26901,7 +27365,9 @@
       <c r="M234" t="n">
         <v>12750</v>
       </c>
-      <c r="N234" t="inlineStr"/>
+      <c r="N234" t="n">
+        <v>0</v>
+      </c>
       <c r="O234" t="n">
         <v>15</v>
       </c>
@@ -27015,7 +27481,9 @@
       <c r="M235" t="n">
         <v>90000</v>
       </c>
-      <c r="N235" t="inlineStr"/>
+      <c r="N235" t="n">
+        <v>0</v>
+      </c>
       <c r="O235" t="n">
         <v>15</v>
       </c>
@@ -27129,7 +27597,9 @@
       <c r="M236" t="n">
         <v>34500</v>
       </c>
-      <c r="N236" t="inlineStr"/>
+      <c r="N236" t="n">
+        <v>0</v>
+      </c>
       <c r="O236" t="n">
         <v>15</v>
       </c>
@@ -27243,7 +27713,9 @@
       <c r="M237" t="n">
         <v>226248.75</v>
       </c>
-      <c r="N237" t="inlineStr"/>
+      <c r="N237" t="n">
+        <v>0</v>
+      </c>
       <c r="O237" t="n">
         <v>10</v>
       </c>
@@ -27357,7 +27829,9 @@
       <c r="M238" t="n">
         <v>42525</v>
       </c>
-      <c r="N238" t="inlineStr"/>
+      <c r="N238" t="n">
+        <v>0</v>
+      </c>
       <c r="O238" t="n">
         <v>10</v>
       </c>
@@ -27471,7 +27945,9 @@
       <c r="M239" t="n">
         <v>29250</v>
       </c>
-      <c r="N239" t="inlineStr"/>
+      <c r="N239" t="n">
+        <v>0</v>
+      </c>
       <c r="O239" t="n">
         <v>10</v>
       </c>
@@ -27585,7 +28061,9 @@
       <c r="M240" t="n">
         <v>55560</v>
       </c>
-      <c r="N240" t="inlineStr"/>
+      <c r="N240" t="n">
+        <v>0</v>
+      </c>
       <c r="O240" t="n">
         <v>10</v>
       </c>
@@ -27699,7 +28177,9 @@
       <c r="M241" t="n">
         <v>22385</v>
       </c>
-      <c r="N241" t="inlineStr"/>
+      <c r="N241" t="n">
+        <v>0</v>
+      </c>
       <c r="O241" t="n">
         <v>10</v>
       </c>
@@ -27813,7 +28293,9 @@
       <c r="M242" t="n">
         <v>57701.1</v>
       </c>
-      <c r="N242" t="inlineStr"/>
+      <c r="N242" t="n">
+        <v>0</v>
+      </c>
       <c r="O242" t="n">
         <v>20</v>
       </c>
@@ -27927,7 +28409,9 @@
       <c r="M243" t="n">
         <v>235951.5</v>
       </c>
-      <c r="N243" t="inlineStr"/>
+      <c r="N243" t="n">
+        <v>0</v>
+      </c>
       <c r="O243" t="n">
         <v>20</v>
       </c>
@@ -28041,7 +28525,9 @@
       <c r="M244" t="n">
         <v>141805.5</v>
       </c>
-      <c r="N244" t="inlineStr"/>
+      <c r="N244" t="n">
+        <v>0</v>
+      </c>
       <c r="O244" t="n">
         <v>20</v>
       </c>
@@ -28155,7 +28641,9 @@
       <c r="M245" t="n">
         <v>211901.7</v>
       </c>
-      <c r="N245" t="inlineStr"/>
+      <c r="N245" t="n">
+        <v>0</v>
+      </c>
       <c r="O245" t="n">
         <v>20</v>
       </c>
@@ -28269,7 +28757,9 @@
       <c r="M246" t="n">
         <v>103382.4</v>
       </c>
-      <c r="N246" t="inlineStr"/>
+      <c r="N246" t="n">
+        <v>0</v>
+      </c>
       <c r="O246" t="n">
         <v>20</v>
       </c>
@@ -28383,7 +28873,9 @@
       <c r="M247" t="n">
         <v>270286.8</v>
       </c>
-      <c r="N247" t="inlineStr"/>
+      <c r="N247" t="n">
+        <v>0</v>
+      </c>
       <c r="O247" t="n">
         <v>20</v>
       </c>
@@ -28497,7 +28989,9 @@
       <c r="M248" t="n">
         <v>58650</v>
       </c>
-      <c r="N248" t="inlineStr"/>
+      <c r="N248" t="n">
+        <v>0</v>
+      </c>
       <c r="O248" t="n">
         <v>20</v>
       </c>
@@ -28611,7 +29105,9 @@
       <c r="M249" t="n">
         <v>3000</v>
       </c>
-      <c r="N249" t="inlineStr"/>
+      <c r="N249" t="n">
+        <v>0</v>
+      </c>
       <c r="O249" t="n">
         <v>20</v>
       </c>
@@ -28725,7 +29221,9 @@
       <c r="M250" t="n">
         <v>115152.45</v>
       </c>
-      <c r="N250" t="inlineStr"/>
+      <c r="N250" t="n">
+        <v>0</v>
+      </c>
       <c r="O250" t="n">
         <v>20</v>
       </c>
@@ -28839,7 +29337,9 @@
       <c r="M251" t="n">
         <v>52387.5</v>
       </c>
-      <c r="N251" t="inlineStr"/>
+      <c r="N251" t="n">
+        <v>0</v>
+      </c>
       <c r="O251" t="n">
         <v>20</v>
       </c>
@@ -28953,7 +29453,9 @@
       <c r="M252" t="n">
         <v>28500</v>
       </c>
-      <c r="N252" t="inlineStr"/>
+      <c r="N252" t="n">
+        <v>0</v>
+      </c>
       <c r="O252" t="n">
         <v>20</v>
       </c>
@@ -29067,7 +29569,9 @@
       <c r="M253" t="n">
         <v>69080</v>
       </c>
-      <c r="N253" t="inlineStr"/>
+      <c r="N253" t="n">
+        <v>0</v>
+      </c>
       <c r="O253" t="n">
         <v>20</v>
       </c>
@@ -29181,7 +29685,9 @@
       <c r="M254" t="n">
         <v>708513</v>
       </c>
-      <c r="N254" t="inlineStr"/>
+      <c r="N254" t="n">
+        <v>0</v>
+      </c>
       <c r="O254" t="n">
         <v>20</v>
       </c>
@@ -29295,7 +29801,9 @@
       <c r="M255" t="n">
         <v>480000</v>
       </c>
-      <c r="N255" t="inlineStr"/>
+      <c r="N255" t="n">
+        <v>0</v>
+      </c>
       <c r="O255" t="n">
         <v>20</v>
       </c>
@@ -29409,7 +29917,9 @@
       <c r="M256" t="n">
         <v>596805</v>
       </c>
-      <c r="N256" t="inlineStr"/>
+      <c r="N256" t="n">
+        <v>0</v>
+      </c>
       <c r="O256" t="n">
         <v>20</v>
       </c>
@@ -29523,7 +30033,9 @@
       <c r="M257" t="n">
         <v>43112.85</v>
       </c>
-      <c r="N257" t="inlineStr"/>
+      <c r="N257" t="n">
+        <v>0</v>
+      </c>
       <c r="O257" t="n">
         <v>20</v>
       </c>
@@ -29637,7 +30149,9 @@
       <c r="M258" t="n">
         <v>109200</v>
       </c>
-      <c r="N258" t="inlineStr"/>
+      <c r="N258" t="n">
+        <v>0</v>
+      </c>
       <c r="O258" t="n">
         <v>20</v>
       </c>
@@ -29751,7 +30265,9 @@
       <c r="M259" t="n">
         <v>39375</v>
       </c>
-      <c r="N259" t="inlineStr"/>
+      <c r="N259" t="n">
+        <v>0</v>
+      </c>
       <c r="O259" t="n">
         <v>20</v>
       </c>
@@ -29865,7 +30381,9 @@
       <c r="M260" t="n">
         <v>110250</v>
       </c>
-      <c r="N260" t="inlineStr"/>
+      <c r="N260" t="n">
+        <v>0</v>
+      </c>
       <c r="O260" t="n">
         <v>20</v>
       </c>
@@ -29979,7 +30497,9 @@
       <c r="M261" t="n">
         <v>215845.5</v>
       </c>
-      <c r="N261" t="inlineStr"/>
+      <c r="N261" t="n">
+        <v>0</v>
+      </c>
       <c r="O261" t="n">
         <v>20</v>
       </c>
@@ -30093,7 +30613,9 @@
       <c r="M262" t="n">
         <v>36387.75</v>
       </c>
-      <c r="N262" t="inlineStr"/>
+      <c r="N262" t="n">
+        <v>0</v>
+      </c>
       <c r="O262" t="n">
         <v>20</v>
       </c>
@@ -30207,7 +30729,9 @@
       <c r="M263" t="n">
         <v>86708.39999999999</v>
       </c>
-      <c r="N263" t="inlineStr"/>
+      <c r="N263" t="n">
+        <v>0</v>
+      </c>
       <c r="O263" t="n">
         <v>20</v>
       </c>
@@ -30321,7 +30845,9 @@
       <c r="M264" t="n">
         <v>250930.35</v>
       </c>
-      <c r="N264" t="inlineStr"/>
+      <c r="N264" t="n">
+        <v>0</v>
+      </c>
       <c r="O264" t="n">
         <v>20</v>
       </c>
@@ -30435,7 +30961,9 @@
       <c r="M265" t="n">
         <v>37275</v>
       </c>
-      <c r="N265" t="inlineStr"/>
+      <c r="N265" t="n">
+        <v>0</v>
+      </c>
       <c r="O265" t="n">
         <v>20</v>
       </c>
@@ -30549,7 +31077,9 @@
       <c r="M266" t="n">
         <v>31674</v>
       </c>
-      <c r="N266" t="inlineStr"/>
+      <c r="N266" t="n">
+        <v>0</v>
+      </c>
       <c r="O266" t="n">
         <v>20</v>
       </c>
@@ -30663,7 +31193,9 @@
       <c r="M267" t="n">
         <v>21500</v>
       </c>
-      <c r="N267" t="inlineStr"/>
+      <c r="N267" t="n">
+        <v>0</v>
+      </c>
       <c r="O267" t="n">
         <v>20</v>
       </c>
@@ -30777,7 +31309,9 @@
       <c r="M268" t="n">
         <v>145000</v>
       </c>
-      <c r="N268" t="inlineStr"/>
+      <c r="N268" t="n">
+        <v>0</v>
+      </c>
       <c r="O268" t="n">
         <v>20</v>
       </c>
@@ -30891,7 +31425,9 @@
       <c r="M269" t="n">
         <v>36267.2</v>
       </c>
-      <c r="N269" t="inlineStr"/>
+      <c r="N269" t="n">
+        <v>0</v>
+      </c>
       <c r="O269" t="n">
         <v>20</v>
       </c>
@@ -31005,7 +31541,9 @@
       <c r="M270" t="n">
         <v>83200</v>
       </c>
-      <c r="N270" t="inlineStr"/>
+      <c r="N270" t="n">
+        <v>0</v>
+      </c>
       <c r="O270" t="n">
         <v>20</v>
       </c>
@@ -31119,7 +31657,9 @@
       <c r="M271" t="n">
         <v>74750</v>
       </c>
-      <c r="N271" t="inlineStr"/>
+      <c r="N271" t="n">
+        <v>0</v>
+      </c>
       <c r="O271" t="n">
         <v>20</v>
       </c>
@@ -31233,7 +31773,9 @@
       <c r="M272" t="n">
         <v>140600</v>
       </c>
-      <c r="N272" t="inlineStr"/>
+      <c r="N272" t="n">
+        <v>0</v>
+      </c>
       <c r="O272" t="n">
         <v>20</v>
       </c>
@@ -31347,7 +31889,9 @@
       <c r="M273" t="n">
         <v>134186.25</v>
       </c>
-      <c r="N273" t="inlineStr"/>
+      <c r="N273" t="n">
+        <v>0</v>
+      </c>
       <c r="O273" t="n">
         <v>20</v>
       </c>
@@ -31461,7 +32005,9 @@
       <c r="M274" t="n">
         <v>3900</v>
       </c>
-      <c r="N274" t="inlineStr"/>
+      <c r="N274" t="n">
+        <v>0</v>
+      </c>
       <c r="O274" t="n">
         <v>20</v>
       </c>
@@ -31575,7 +32121,9 @@
       <c r="M275" t="n">
         <v>1000000</v>
       </c>
-      <c r="N275" t="inlineStr"/>
+      <c r="N275" t="n">
+        <v>0</v>
+      </c>
       <c r="O275" t="n">
         <v>15</v>
       </c>
@@ -31689,7 +32237,9 @@
       <c r="M276" t="n">
         <v>117000</v>
       </c>
-      <c r="N276" t="inlineStr"/>
+      <c r="N276" t="n">
+        <v>0</v>
+      </c>
       <c r="O276" t="n">
         <v>15</v>
       </c>
@@ -31803,7 +32353,9 @@
       <c r="M277" t="n">
         <v>165000</v>
       </c>
-      <c r="N277" t="inlineStr"/>
+      <c r="N277" t="n">
+        <v>0</v>
+      </c>
       <c r="O277" t="n">
         <v>15</v>
       </c>
@@ -31917,7 +32469,9 @@
       <c r="M278" t="n">
         <v>47500</v>
       </c>
-      <c r="N278" t="inlineStr"/>
+      <c r="N278" t="n">
+        <v>0</v>
+      </c>
       <c r="O278" t="n">
         <v>15</v>
       </c>
@@ -32031,7 +32585,9 @@
       <c r="M279" t="n">
         <v>73500</v>
       </c>
-      <c r="N279" t="inlineStr"/>
+      <c r="N279" t="n">
+        <v>0</v>
+      </c>
       <c r="O279" t="n">
         <v>15</v>
       </c>
@@ -32145,7 +32701,9 @@
       <c r="M280" t="n">
         <v>50800</v>
       </c>
-      <c r="N280" t="inlineStr"/>
+      <c r="N280" t="n">
+        <v>0</v>
+      </c>
       <c r="O280" t="n">
         <v>15</v>
       </c>
@@ -32259,7 +32817,9 @@
       <c r="M281" t="n">
         <v>47000</v>
       </c>
-      <c r="N281" t="inlineStr"/>
+      <c r="N281" t="n">
+        <v>0</v>
+      </c>
       <c r="O281" t="n">
         <v>15</v>
       </c>
@@ -32373,7 +32933,9 @@
       <c r="M282" t="n">
         <v>96000</v>
       </c>
-      <c r="N282" t="inlineStr"/>
+      <c r="N282" t="n">
+        <v>0</v>
+      </c>
       <c r="O282" t="n">
         <v>15</v>
       </c>
@@ -32487,7 +33049,9 @@
       <c r="M283" t="n">
         <v>220800</v>
       </c>
-      <c r="N283" t="inlineStr"/>
+      <c r="N283" t="n">
+        <v>0</v>
+      </c>
       <c r="O283" t="n">
         <v>15</v>
       </c>
@@ -32601,7 +33165,9 @@
       <c r="M284" t="n">
         <v>65000</v>
       </c>
-      <c r="N284" t="inlineStr"/>
+      <c r="N284" t="n">
+        <v>0</v>
+      </c>
       <c r="O284" t="n">
         <v>15</v>
       </c>
@@ -32715,7 +33281,9 @@
       <c r="M285" t="n">
         <v>87000</v>
       </c>
-      <c r="N285" t="inlineStr"/>
+      <c r="N285" t="n">
+        <v>0</v>
+      </c>
       <c r="O285" t="n">
         <v>15</v>
       </c>
@@ -32829,7 +33397,9 @@
       <c r="M286" t="n">
         <v>140000</v>
       </c>
-      <c r="N286" t="inlineStr"/>
+      <c r="N286" t="n">
+        <v>0</v>
+      </c>
       <c r="O286" t="n">
         <v>15</v>
       </c>
@@ -32943,7 +33513,9 @@
       <c r="M287" t="n">
         <v>95000</v>
       </c>
-      <c r="N287" t="inlineStr"/>
+      <c r="N287" t="n">
+        <v>0</v>
+      </c>
       <c r="O287" t="n">
         <v>15</v>
       </c>
@@ -33057,7 +33629,9 @@
       <c r="M288" t="n">
         <v>60000</v>
       </c>
-      <c r="N288" t="inlineStr"/>
+      <c r="N288" t="n">
+        <v>0</v>
+      </c>
       <c r="O288" t="n">
         <v>15</v>
       </c>
@@ -33171,7 +33745,9 @@
       <c r="M289" t="n">
         <v>422500</v>
       </c>
-      <c r="N289" t="inlineStr"/>
+      <c r="N289" t="n">
+        <v>0</v>
+      </c>
       <c r="O289" t="n">
         <v>15</v>
       </c>
@@ -33285,7 +33861,9 @@
       <c r="M290" t="n">
         <v>8450</v>
       </c>
-      <c r="N290" t="inlineStr"/>
+      <c r="N290" t="n">
+        <v>0</v>
+      </c>
       <c r="O290" t="n">
         <v>15</v>
       </c>
@@ -33399,7 +33977,9 @@
       <c r="M291" t="n">
         <v>60000</v>
       </c>
-      <c r="N291" t="inlineStr"/>
+      <c r="N291" t="n">
+        <v>0</v>
+      </c>
       <c r="O291" t="n">
         <v>15</v>
       </c>
@@ -33513,7 +34093,9 @@
       <c r="M292" t="n">
         <v>23400</v>
       </c>
-      <c r="N292" t="inlineStr"/>
+      <c r="N292" t="n">
+        <v>0</v>
+      </c>
       <c r="O292" t="n">
         <v>15</v>
       </c>
@@ -33627,7 +34209,9 @@
       <c r="M293" t="n">
         <v>118430</v>
       </c>
-      <c r="N293" t="inlineStr"/>
+      <c r="N293" t="n">
+        <v>0</v>
+      </c>
       <c r="O293" t="n">
         <v>15</v>
       </c>
@@ -33741,7 +34325,9 @@
       <c r="M294" t="n">
         <v>8937.5</v>
       </c>
-      <c r="N294" t="inlineStr"/>
+      <c r="N294" t="n">
+        <v>0</v>
+      </c>
       <c r="O294" t="n">
         <v>15</v>
       </c>
@@ -33855,7 +34441,9 @@
       <c r="M295" t="n">
         <v>200000</v>
       </c>
-      <c r="N295" t="inlineStr"/>
+      <c r="N295" t="n">
+        <v>0</v>
+      </c>
       <c r="O295" t="n">
         <v>15</v>
       </c>
@@ -33969,7 +34557,9 @@
       <c r="M296" t="n">
         <v>1182360</v>
       </c>
-      <c r="N296" t="inlineStr"/>
+      <c r="N296" t="n">
+        <v>0</v>
+      </c>
       <c r="O296" t="n">
         <v>15</v>
       </c>
@@ -34083,7 +34673,9 @@
       <c r="M297" t="n">
         <v>120000</v>
       </c>
-      <c r="N297" t="inlineStr"/>
+      <c r="N297" t="n">
+        <v>0</v>
+      </c>
       <c r="O297" t="n">
         <v>15</v>
       </c>
@@ -34197,7 +34789,9 @@
       <c r="M298" t="n">
         <v>78800</v>
       </c>
-      <c r="N298" t="inlineStr"/>
+      <c r="N298" t="n">
+        <v>0</v>
+      </c>
       <c r="O298" t="n">
         <v>15</v>
       </c>
@@ -34311,7 +34905,9 @@
       <c r="M299" t="n">
         <v>50100</v>
       </c>
-      <c r="N299" t="inlineStr"/>
+      <c r="N299" t="n">
+        <v>0</v>
+      </c>
       <c r="O299" t="n">
         <v>15</v>
       </c>
@@ -34425,7 +35021,9 @@
       <c r="M300" t="n">
         <v>188000</v>
       </c>
-      <c r="N300" t="inlineStr"/>
+      <c r="N300" t="n">
+        <v>0</v>
+      </c>
       <c r="O300" t="n">
         <v>15</v>
       </c>
@@ -34539,7 +35137,9 @@
       <c r="M301" t="n">
         <v>45500</v>
       </c>
-      <c r="N301" t="inlineStr"/>
+      <c r="N301" t="n">
+        <v>0</v>
+      </c>
       <c r="O301" t="n">
         <v>15</v>
       </c>
@@ -34651,7 +35251,9 @@
       <c r="M302" t="n">
         <v>2132</v>
       </c>
-      <c r="N302" t="inlineStr"/>
+      <c r="N302" t="n">
+        <v>0</v>
+      </c>
       <c r="O302" t="n">
         <v>10</v>
       </c>
@@ -34660,7 +35262,9 @@
           <t>0</t>
         </is>
       </c>
-      <c r="Q302" t="inlineStr"/>
+      <c r="Q302" t="n">
+        <v>0</v>
+      </c>
       <c r="R302" t="n">
         <v>0</v>
       </c>
@@ -34676,9 +35280,15 @@
       <c r="V302" t="n">
         <v>426.4</v>
       </c>
-      <c r="W302" t="inlineStr"/>
-      <c r="X302" t="inlineStr"/>
-      <c r="Y302" t="inlineStr"/>
+      <c r="W302" t="n">
+        <v>0</v>
+      </c>
+      <c r="X302" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y302" t="n">
+        <v>0</v>
+      </c>
       <c r="Z302" t="n">
         <v>0</v>
       </c>
@@ -34757,7 +35367,9 @@
       <c r="M303" t="n">
         <v>2132</v>
       </c>
-      <c r="N303" t="inlineStr"/>
+      <c r="N303" t="n">
+        <v>0</v>
+      </c>
       <c r="O303" t="n">
         <v>10</v>
       </c>
@@ -34766,7 +35378,9 @@
           <t>0</t>
         </is>
       </c>
-      <c r="Q303" t="inlineStr"/>
+      <c r="Q303" t="n">
+        <v>0</v>
+      </c>
       <c r="R303" t="n">
         <v>0</v>
       </c>
@@ -34782,9 +35396,15 @@
       <c r="V303" t="n">
         <v>426.4</v>
       </c>
-      <c r="W303" t="inlineStr"/>
-      <c r="X303" t="inlineStr"/>
-      <c r="Y303" t="inlineStr"/>
+      <c r="W303" t="n">
+        <v>0</v>
+      </c>
+      <c r="X303" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y303" t="n">
+        <v>0</v>
+      </c>
       <c r="Z303" t="n">
         <v>0</v>
       </c>
@@ -34863,7 +35483,9 @@
       <c r="M304" t="n">
         <v>2112</v>
       </c>
-      <c r="N304" t="inlineStr"/>
+      <c r="N304" t="n">
+        <v>0</v>
+      </c>
       <c r="O304" t="n">
         <v>10</v>
       </c>
@@ -34872,7 +35494,9 @@
           <t>0</t>
         </is>
       </c>
-      <c r="Q304" t="inlineStr"/>
+      <c r="Q304" t="n">
+        <v>0</v>
+      </c>
       <c r="R304" t="n">
         <v>0</v>
       </c>
@@ -34888,9 +35512,15 @@
       <c r="V304" t="n">
         <v>422.4</v>
       </c>
-      <c r="W304" t="inlineStr"/>
-      <c r="X304" t="inlineStr"/>
-      <c r="Y304" t="inlineStr"/>
+      <c r="W304" t="n">
+        <v>0</v>
+      </c>
+      <c r="X304" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y304" t="n">
+        <v>0</v>
+      </c>
       <c r="Z304" t="n">
         <v>0</v>
       </c>
@@ -34969,7 +35599,9 @@
       <c r="M305" t="n">
         <v>2112</v>
       </c>
-      <c r="N305" t="inlineStr"/>
+      <c r="N305" t="n">
+        <v>0</v>
+      </c>
       <c r="O305" t="n">
         <v>10</v>
       </c>
@@ -34978,7 +35610,9 @@
           <t>0</t>
         </is>
       </c>
-      <c r="Q305" t="inlineStr"/>
+      <c r="Q305" t="n">
+        <v>0</v>
+      </c>
       <c r="R305" t="n">
         <v>0</v>
       </c>
@@ -34994,9 +35628,15 @@
       <c r="V305" t="n">
         <v>422.4</v>
       </c>
-      <c r="W305" t="inlineStr"/>
-      <c r="X305" t="inlineStr"/>
-      <c r="Y305" t="inlineStr"/>
+      <c r="W305" t="n">
+        <v>0</v>
+      </c>
+      <c r="X305" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y305" t="n">
+        <v>0</v>
+      </c>
       <c r="Z305" t="n">
         <v>0</v>
       </c>
@@ -35075,7 +35715,9 @@
       <c r="M306" t="n">
         <v>2112</v>
       </c>
-      <c r="N306" t="inlineStr"/>
+      <c r="N306" t="n">
+        <v>0</v>
+      </c>
       <c r="O306" t="n">
         <v>10</v>
       </c>
@@ -35084,7 +35726,9 @@
           <t>0</t>
         </is>
       </c>
-      <c r="Q306" t="inlineStr"/>
+      <c r="Q306" t="n">
+        <v>0</v>
+      </c>
       <c r="R306" t="n">
         <v>0</v>
       </c>
@@ -35100,9 +35744,15 @@
       <c r="V306" t="n">
         <v>422.4</v>
       </c>
-      <c r="W306" t="inlineStr"/>
-      <c r="X306" t="inlineStr"/>
-      <c r="Y306" t="inlineStr"/>
+      <c r="W306" t="n">
+        <v>0</v>
+      </c>
+      <c r="X306" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y306" t="n">
+        <v>0</v>
+      </c>
       <c r="Z306" t="n">
         <v>0</v>
       </c>
@@ -35181,7 +35831,9 @@
       <c r="M307" t="n">
         <v>2112</v>
       </c>
-      <c r="N307" t="inlineStr"/>
+      <c r="N307" t="n">
+        <v>0</v>
+      </c>
       <c r="O307" t="n">
         <v>10</v>
       </c>
@@ -35190,7 +35842,9 @@
           <t>0</t>
         </is>
       </c>
-      <c r="Q307" t="inlineStr"/>
+      <c r="Q307" t="n">
+        <v>0</v>
+      </c>
       <c r="R307" t="n">
         <v>0</v>
       </c>
@@ -35206,9 +35860,15 @@
       <c r="V307" t="n">
         <v>422.4</v>
       </c>
-      <c r="W307" t="inlineStr"/>
-      <c r="X307" t="inlineStr"/>
-      <c r="Y307" t="inlineStr"/>
+      <c r="W307" t="n">
+        <v>0</v>
+      </c>
+      <c r="X307" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y307" t="n">
+        <v>0</v>
+      </c>
       <c r="Z307" t="n">
         <v>0</v>
       </c>
@@ -35287,7 +35947,9 @@
       <c r="M308" t="n">
         <v>34</v>
       </c>
-      <c r="N308" t="inlineStr"/>
+      <c r="N308" t="n">
+        <v>0</v>
+      </c>
       <c r="O308" t="n">
         <v>10</v>
       </c>
@@ -35296,7 +35958,9 @@
           <t>0</t>
         </is>
       </c>
-      <c r="Q308" t="inlineStr"/>
+      <c r="Q308" t="n">
+        <v>0</v>
+      </c>
       <c r="R308" t="n">
         <v>0</v>
       </c>
@@ -35312,9 +35976,15 @@
       <c r="V308" t="n">
         <v>13.6</v>
       </c>
-      <c r="W308" t="inlineStr"/>
-      <c r="X308" t="inlineStr"/>
-      <c r="Y308" t="inlineStr"/>
+      <c r="W308" t="n">
+        <v>0</v>
+      </c>
+      <c r="X308" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y308" t="n">
+        <v>0</v>
+      </c>
       <c r="Z308" t="n">
         <v>0</v>
       </c>
@@ -35393,7 +36063,9 @@
       <c r="M309" t="n">
         <v>34</v>
       </c>
-      <c r="N309" t="inlineStr"/>
+      <c r="N309" t="n">
+        <v>0</v>
+      </c>
       <c r="O309" t="n">
         <v>10</v>
       </c>
@@ -35402,7 +36074,9 @@
           <t>0</t>
         </is>
       </c>
-      <c r="Q309" t="inlineStr"/>
+      <c r="Q309" t="n">
+        <v>0</v>
+      </c>
       <c r="R309" t="n">
         <v>0</v>
       </c>
@@ -35418,9 +36092,15 @@
       <c r="V309" t="n">
         <v>13.6</v>
       </c>
-      <c r="W309" t="inlineStr"/>
-      <c r="X309" t="inlineStr"/>
-      <c r="Y309" t="inlineStr"/>
+      <c r="W309" t="n">
+        <v>0</v>
+      </c>
+      <c r="X309" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y309" t="n">
+        <v>0</v>
+      </c>
       <c r="Z309" t="n">
         <v>0</v>
       </c>
@@ -35499,7 +36179,9 @@
       <c r="M310" t="n">
         <v>12</v>
       </c>
-      <c r="N310" t="inlineStr"/>
+      <c r="N310" t="n">
+        <v>0</v>
+      </c>
       <c r="O310" t="n">
         <v>7</v>
       </c>
@@ -35508,7 +36190,9 @@
           <t>0</t>
         </is>
       </c>
-      <c r="Q310" t="inlineStr"/>
+      <c r="Q310" t="n">
+        <v>0</v>
+      </c>
       <c r="R310" t="n">
         <v>0</v>
       </c>
@@ -35524,9 +36208,15 @@
       <c r="V310" t="n">
         <v>10.28571428571428</v>
       </c>
-      <c r="W310" t="inlineStr"/>
-      <c r="X310" t="inlineStr"/>
-      <c r="Y310" t="inlineStr"/>
+      <c r="W310" t="n">
+        <v>0</v>
+      </c>
+      <c r="X310" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y310" t="n">
+        <v>0</v>
+      </c>
       <c r="Z310" t="n">
         <v>0</v>
       </c>
@@ -35605,7 +36295,9 @@
       <c r="M311" t="n">
         <v>12</v>
       </c>
-      <c r="N311" t="inlineStr"/>
+      <c r="N311" t="n">
+        <v>0</v>
+      </c>
       <c r="O311" t="n">
         <v>7</v>
       </c>
@@ -35614,7 +36306,9 @@
           <t>0</t>
         </is>
       </c>
-      <c r="Q311" t="inlineStr"/>
+      <c r="Q311" t="n">
+        <v>0</v>
+      </c>
       <c r="R311" t="n">
         <v>0</v>
       </c>
@@ -35630,9 +36324,15 @@
       <c r="V311" t="n">
         <v>10.28571428571428</v>
       </c>
-      <c r="W311" t="inlineStr"/>
-      <c r="X311" t="inlineStr"/>
-      <c r="Y311" t="inlineStr"/>
+      <c r="W311" t="n">
+        <v>0</v>
+      </c>
+      <c r="X311" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y311" t="n">
+        <v>0</v>
+      </c>
       <c r="Z311" t="n">
         <v>0</v>
       </c>
@@ -35711,7 +36411,9 @@
       <c r="M312" t="n">
         <v>56</v>
       </c>
-      <c r="N312" t="inlineStr"/>
+      <c r="N312" t="n">
+        <v>0</v>
+      </c>
       <c r="O312" t="n">
         <v>15</v>
       </c>
@@ -35720,7 +36422,9 @@
           <t>0</t>
         </is>
       </c>
-      <c r="Q312" t="inlineStr"/>
+      <c r="Q312" t="n">
+        <v>0</v>
+      </c>
       <c r="R312" t="n">
         <v>0</v>
       </c>
@@ -35736,9 +36440,15 @@
       <c r="V312" t="n">
         <v>7.466666666666667</v>
       </c>
-      <c r="W312" t="inlineStr"/>
-      <c r="X312" t="inlineStr"/>
-      <c r="Y312" t="inlineStr"/>
+      <c r="W312" t="n">
+        <v>0</v>
+      </c>
+      <c r="X312" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y312" t="n">
+        <v>0</v>
+      </c>
       <c r="Z312" t="n">
         <v>0</v>
       </c>
@@ -35817,7 +36527,9 @@
       <c r="M313" t="n">
         <v>56</v>
       </c>
-      <c r="N313" t="inlineStr"/>
+      <c r="N313" t="n">
+        <v>0</v>
+      </c>
       <c r="O313" t="n">
         <v>15</v>
       </c>
@@ -35826,7 +36538,9 @@
           <t>0</t>
         </is>
       </c>
-      <c r="Q313" t="inlineStr"/>
+      <c r="Q313" t="n">
+        <v>0</v>
+      </c>
       <c r="R313" t="n">
         <v>0</v>
       </c>
@@ -35842,9 +36556,15 @@
       <c r="V313" t="n">
         <v>7.466666666666667</v>
       </c>
-      <c r="W313" t="inlineStr"/>
-      <c r="X313" t="inlineStr"/>
-      <c r="Y313" t="inlineStr"/>
+      <c r="W313" t="n">
+        <v>0</v>
+      </c>
+      <c r="X313" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y313" t="n">
+        <v>0</v>
+      </c>
       <c r="Z313" t="n">
         <v>0</v>
       </c>
@@ -35923,7 +36643,9 @@
       <c r="M314" t="n">
         <v>56</v>
       </c>
-      <c r="N314" t="inlineStr"/>
+      <c r="N314" t="n">
+        <v>0</v>
+      </c>
       <c r="O314" t="n">
         <v>7</v>
       </c>
@@ -35932,7 +36654,9 @@
           <t>0</t>
         </is>
       </c>
-      <c r="Q314" t="inlineStr"/>
+      <c r="Q314" t="n">
+        <v>0</v>
+      </c>
       <c r="R314" t="n">
         <v>0</v>
       </c>
@@ -35948,9 +36672,15 @@
       <c r="V314" t="n">
         <v>16</v>
       </c>
-      <c r="W314" t="inlineStr"/>
-      <c r="X314" t="inlineStr"/>
-      <c r="Y314" t="inlineStr"/>
+      <c r="W314" t="n">
+        <v>0</v>
+      </c>
+      <c r="X314" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y314" t="n">
+        <v>0</v>
+      </c>
       <c r="Z314" t="n">
         <v>0</v>
       </c>
@@ -36029,7 +36759,9 @@
       <c r="M315" t="n">
         <v>56</v>
       </c>
-      <c r="N315" t="inlineStr"/>
+      <c r="N315" t="n">
+        <v>0</v>
+      </c>
       <c r="O315" t="n">
         <v>7</v>
       </c>
@@ -36038,7 +36770,9 @@
           <t>0</t>
         </is>
       </c>
-      <c r="Q315" t="inlineStr"/>
+      <c r="Q315" t="n">
+        <v>0</v>
+      </c>
       <c r="R315" t="n">
         <v>0</v>
       </c>
@@ -36054,9 +36788,15 @@
       <c r="V315" t="n">
         <v>16</v>
       </c>
-      <c r="W315" t="inlineStr"/>
-      <c r="X315" t="inlineStr"/>
-      <c r="Y315" t="inlineStr"/>
+      <c r="W315" t="n">
+        <v>0</v>
+      </c>
+      <c r="X315" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y315" t="n">
+        <v>0</v>
+      </c>
       <c r="Z315" t="n">
         <v>0</v>
       </c>
@@ -36135,7 +36875,9 @@
       <c r="M316" t="n">
         <v>6</v>
       </c>
-      <c r="N316" t="inlineStr"/>
+      <c r="N316" t="n">
+        <v>0</v>
+      </c>
       <c r="O316" t="n">
         <v>15</v>
       </c>
@@ -36144,7 +36886,9 @@
           <t>0</t>
         </is>
       </c>
-      <c r="Q316" t="inlineStr"/>
+      <c r="Q316" t="n">
+        <v>0</v>
+      </c>
       <c r="R316" t="n">
         <v>0</v>
       </c>
@@ -36160,9 +36904,15 @@
       <c r="V316" t="n">
         <v>0.8</v>
       </c>
-      <c r="W316" t="inlineStr"/>
-      <c r="X316" t="inlineStr"/>
-      <c r="Y316" t="inlineStr"/>
+      <c r="W316" t="n">
+        <v>0</v>
+      </c>
+      <c r="X316" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y316" t="n">
+        <v>0</v>
+      </c>
       <c r="Z316" t="n">
         <v>0</v>
       </c>
@@ -36241,7 +36991,9 @@
       <c r="M317" t="n">
         <v>6</v>
       </c>
-      <c r="N317" t="inlineStr"/>
+      <c r="N317" t="n">
+        <v>0</v>
+      </c>
       <c r="O317" t="n">
         <v>15</v>
       </c>
@@ -36250,7 +37002,9 @@
           <t>0</t>
         </is>
       </c>
-      <c r="Q317" t="inlineStr"/>
+      <c r="Q317" t="n">
+        <v>0</v>
+      </c>
       <c r="R317" t="n">
         <v>0</v>
       </c>
@@ -36266,9 +37020,15 @@
       <c r="V317" t="n">
         <v>0.8</v>
       </c>
-      <c r="W317" t="inlineStr"/>
-      <c r="X317" t="inlineStr"/>
-      <c r="Y317" t="inlineStr"/>
+      <c r="W317" t="n">
+        <v>0</v>
+      </c>
+      <c r="X317" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y317" t="n">
+        <v>0</v>
+      </c>
       <c r="Z317" t="n">
         <v>0</v>
       </c>
@@ -36347,7 +37107,9 @@
       <c r="M318" t="n">
         <v>6</v>
       </c>
-      <c r="N318" t="inlineStr"/>
+      <c r="N318" t="n">
+        <v>0</v>
+      </c>
       <c r="O318" t="n">
         <v>15</v>
       </c>
@@ -36356,7 +37118,9 @@
           <t>0</t>
         </is>
       </c>
-      <c r="Q318" t="inlineStr"/>
+      <c r="Q318" t="n">
+        <v>0</v>
+      </c>
       <c r="R318" t="n">
         <v>0</v>
       </c>
@@ -36372,9 +37136,15 @@
       <c r="V318" t="n">
         <v>0.8</v>
       </c>
-      <c r="W318" t="inlineStr"/>
-      <c r="X318" t="inlineStr"/>
-      <c r="Y318" t="inlineStr"/>
+      <c r="W318" t="n">
+        <v>0</v>
+      </c>
+      <c r="X318" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y318" t="n">
+        <v>0</v>
+      </c>
       <c r="Z318" t="n">
         <v>0</v>
       </c>
@@ -36453,7 +37223,9 @@
       <c r="M319" t="n">
         <v>6</v>
       </c>
-      <c r="N319" t="inlineStr"/>
+      <c r="N319" t="n">
+        <v>0</v>
+      </c>
       <c r="O319" t="n">
         <v>5</v>
       </c>
@@ -36462,7 +37234,9 @@
           <t>0</t>
         </is>
       </c>
-      <c r="Q319" t="inlineStr"/>
+      <c r="Q319" t="n">
+        <v>0</v>
+      </c>
       <c r="R319" t="n">
         <v>0</v>
       </c>
@@ -36478,9 +37252,15 @@
       <c r="V319" t="n">
         <v>3.600000000000001</v>
       </c>
-      <c r="W319" t="inlineStr"/>
-      <c r="X319" t="inlineStr"/>
-      <c r="Y319" t="inlineStr"/>
+      <c r="W319" t="n">
+        <v>0</v>
+      </c>
+      <c r="X319" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y319" t="n">
+        <v>0</v>
+      </c>
       <c r="Z319" t="n">
         <v>0</v>
       </c>
@@ -36559,7 +37339,9 @@
       <c r="M320" t="n">
         <v>6</v>
       </c>
-      <c r="N320" t="inlineStr"/>
+      <c r="N320" t="n">
+        <v>0</v>
+      </c>
       <c r="O320" t="n">
         <v>5</v>
       </c>
@@ -36568,7 +37350,9 @@
           <t>0</t>
         </is>
       </c>
-      <c r="Q320" t="inlineStr"/>
+      <c r="Q320" t="n">
+        <v>0</v>
+      </c>
       <c r="R320" t="n">
         <v>0</v>
       </c>
@@ -36584,9 +37368,15 @@
       <c r="V320" t="n">
         <v>3.600000000000001</v>
       </c>
-      <c r="W320" t="inlineStr"/>
-      <c r="X320" t="inlineStr"/>
-      <c r="Y320" t="inlineStr"/>
+      <c r="W320" t="n">
+        <v>0</v>
+      </c>
+      <c r="X320" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y320" t="n">
+        <v>0</v>
+      </c>
       <c r="Z320" t="n">
         <v>0</v>
       </c>
@@ -36665,7 +37455,9 @@
       <c r="M321" t="n">
         <v>12</v>
       </c>
-      <c r="N321" t="inlineStr"/>
+      <c r="N321" t="n">
+        <v>0</v>
+      </c>
       <c r="O321" t="n">
         <v>5</v>
       </c>
@@ -36674,7 +37466,9 @@
           <t>0</t>
         </is>
       </c>
-      <c r="Q321" t="inlineStr"/>
+      <c r="Q321" t="n">
+        <v>0</v>
+      </c>
       <c r="R321" t="n">
         <v>0</v>
       </c>
@@ -36690,9 +37484,15 @@
       <c r="V321" t="n">
         <v>4.800000000000001</v>
       </c>
-      <c r="W321" t="inlineStr"/>
-      <c r="X321" t="inlineStr"/>
-      <c r="Y321" t="inlineStr"/>
+      <c r="W321" t="n">
+        <v>0</v>
+      </c>
+      <c r="X321" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y321" t="n">
+        <v>0</v>
+      </c>
       <c r="Z321" t="n">
         <v>0</v>
       </c>
@@ -36771,7 +37571,9 @@
       <c r="M322" t="n">
         <v>12</v>
       </c>
-      <c r="N322" t="inlineStr"/>
+      <c r="N322" t="n">
+        <v>0</v>
+      </c>
       <c r="O322" t="n">
         <v>5</v>
       </c>
@@ -36780,7 +37582,9 @@
           <t>0</t>
         </is>
       </c>
-      <c r="Q322" t="inlineStr"/>
+      <c r="Q322" t="n">
+        <v>0</v>
+      </c>
       <c r="R322" t="n">
         <v>0</v>
       </c>
@@ -36796,9 +37600,15 @@
       <c r="V322" t="n">
         <v>4.800000000000001</v>
       </c>
-      <c r="W322" t="inlineStr"/>
-      <c r="X322" t="inlineStr"/>
-      <c r="Y322" t="inlineStr"/>
+      <c r="W322" t="n">
+        <v>0</v>
+      </c>
+      <c r="X322" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y322" t="n">
+        <v>0</v>
+      </c>
       <c r="Z322" t="n">
         <v>0</v>
       </c>
@@ -36877,7 +37687,9 @@
       <c r="M323" t="n">
         <v>12</v>
       </c>
-      <c r="N323" t="inlineStr"/>
+      <c r="N323" t="n">
+        <v>0</v>
+      </c>
       <c r="O323" t="n">
         <v>5</v>
       </c>
@@ -36886,7 +37698,9 @@
           <t>0</t>
         </is>
       </c>
-      <c r="Q323" t="inlineStr"/>
+      <c r="Q323" t="n">
+        <v>0</v>
+      </c>
       <c r="R323" t="n">
         <v>0</v>
       </c>
@@ -36902,9 +37716,15 @@
       <c r="V323" t="n">
         <v>4.800000000000001</v>
       </c>
-      <c r="W323" t="inlineStr"/>
-      <c r="X323" t="inlineStr"/>
-      <c r="Y323" t="inlineStr"/>
+      <c r="W323" t="n">
+        <v>0</v>
+      </c>
+      <c r="X323" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y323" t="n">
+        <v>0</v>
+      </c>
       <c r="Z323" t="n">
         <v>0</v>
       </c>
@@ -36983,7 +37803,9 @@
       <c r="M324" t="n">
         <v>12</v>
       </c>
-      <c r="N324" t="inlineStr"/>
+      <c r="N324" t="n">
+        <v>0</v>
+      </c>
       <c r="O324" t="n">
         <v>5</v>
       </c>
@@ -36992,7 +37814,9 @@
           <t>0</t>
         </is>
       </c>
-      <c r="Q324" t="inlineStr"/>
+      <c r="Q324" t="n">
+        <v>0</v>
+      </c>
       <c r="R324" t="n">
         <v>0</v>
       </c>
@@ -37008,9 +37832,15 @@
       <c r="V324" t="n">
         <v>4.800000000000001</v>
       </c>
-      <c r="W324" t="inlineStr"/>
-      <c r="X324" t="inlineStr"/>
-      <c r="Y324" t="inlineStr"/>
+      <c r="W324" t="n">
+        <v>0</v>
+      </c>
+      <c r="X324" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y324" t="n">
+        <v>0</v>
+      </c>
       <c r="Z324" t="n">
         <v>0</v>
       </c>
@@ -37089,7 +37919,9 @@
       <c r="M325" t="n">
         <v>12</v>
       </c>
-      <c r="N325" t="inlineStr"/>
+      <c r="N325" t="n">
+        <v>0</v>
+      </c>
       <c r="O325" t="n">
         <v>5</v>
       </c>
@@ -37098,7 +37930,9 @@
           <t>0</t>
         </is>
       </c>
-      <c r="Q325" t="inlineStr"/>
+      <c r="Q325" t="n">
+        <v>0</v>
+      </c>
       <c r="R325" t="n">
         <v>0</v>
       </c>
@@ -37114,9 +37948,15 @@
       <c r="V325" t="n">
         <v>4.800000000000001</v>
       </c>
-      <c r="W325" t="inlineStr"/>
-      <c r="X325" t="inlineStr"/>
-      <c r="Y325" t="inlineStr"/>
+      <c r="W325" t="n">
+        <v>0</v>
+      </c>
+      <c r="X325" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y325" t="n">
+        <v>0</v>
+      </c>
       <c r="Z325" t="n">
         <v>0</v>
       </c>
@@ -37195,7 +38035,9 @@
       <c r="M326" t="n">
         <v>12</v>
       </c>
-      <c r="N326" t="inlineStr"/>
+      <c r="N326" t="n">
+        <v>0</v>
+      </c>
       <c r="O326" t="n">
         <v>5</v>
       </c>
@@ -37204,7 +38046,9 @@
           <t>0</t>
         </is>
       </c>
-      <c r="Q326" t="inlineStr"/>
+      <c r="Q326" t="n">
+        <v>0</v>
+      </c>
       <c r="R326" t="n">
         <v>0</v>
       </c>
@@ -37220,9 +38064,15 @@
       <c r="V326" t="n">
         <v>4.800000000000001</v>
       </c>
-      <c r="W326" t="inlineStr"/>
-      <c r="X326" t="inlineStr"/>
-      <c r="Y326" t="inlineStr"/>
+      <c r="W326" t="n">
+        <v>0</v>
+      </c>
+      <c r="X326" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y326" t="n">
+        <v>0</v>
+      </c>
       <c r="Z326" t="n">
         <v>0</v>
       </c>
@@ -37301,7 +38151,9 @@
       <c r="M327" t="n">
         <v>12</v>
       </c>
-      <c r="N327" t="inlineStr"/>
+      <c r="N327" t="n">
+        <v>0</v>
+      </c>
       <c r="O327" t="n">
         <v>5</v>
       </c>
@@ -37310,7 +38162,9 @@
           <t>0</t>
         </is>
       </c>
-      <c r="Q327" t="inlineStr"/>
+      <c r="Q327" t="n">
+        <v>0</v>
+      </c>
       <c r="R327" t="n">
         <v>0</v>
       </c>
@@ -37326,9 +38180,15 @@
       <c r="V327" t="n">
         <v>4.800000000000001</v>
       </c>
-      <c r="W327" t="inlineStr"/>
-      <c r="X327" t="inlineStr"/>
-      <c r="Y327" t="inlineStr"/>
+      <c r="W327" t="n">
+        <v>0</v>
+      </c>
+      <c r="X327" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y327" t="n">
+        <v>0</v>
+      </c>
       <c r="Z327" t="n">
         <v>0</v>
       </c>
@@ -37407,7 +38267,9 @@
       <c r="M328" t="n">
         <v>12</v>
       </c>
-      <c r="N328" t="inlineStr"/>
+      <c r="N328" t="n">
+        <v>0</v>
+      </c>
       <c r="O328" t="n">
         <v>5</v>
       </c>
@@ -37416,7 +38278,9 @@
           <t>0</t>
         </is>
       </c>
-      <c r="Q328" t="inlineStr"/>
+      <c r="Q328" t="n">
+        <v>0</v>
+      </c>
       <c r="R328" t="n">
         <v>0</v>
       </c>
@@ -37432,9 +38296,15 @@
       <c r="V328" t="n">
         <v>4.800000000000001</v>
       </c>
-      <c r="W328" t="inlineStr"/>
-      <c r="X328" t="inlineStr"/>
-      <c r="Y328" t="inlineStr"/>
+      <c r="W328" t="n">
+        <v>0</v>
+      </c>
+      <c r="X328" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y328" t="n">
+        <v>0</v>
+      </c>
       <c r="Z328" t="n">
         <v>0</v>
       </c>
@@ -37513,7 +38383,9 @@
       <c r="M329" t="n">
         <v>12</v>
       </c>
-      <c r="N329" t="inlineStr"/>
+      <c r="N329" t="n">
+        <v>0</v>
+      </c>
       <c r="O329" t="n">
         <v>5</v>
       </c>
@@ -37522,7 +38394,9 @@
           <t>0</t>
         </is>
       </c>
-      <c r="Q329" t="inlineStr"/>
+      <c r="Q329" t="n">
+        <v>0</v>
+      </c>
       <c r="R329" t="n">
         <v>0</v>
       </c>
@@ -37538,9 +38412,15 @@
       <c r="V329" t="n">
         <v>4.800000000000001</v>
       </c>
-      <c r="W329" t="inlineStr"/>
-      <c r="X329" t="inlineStr"/>
-      <c r="Y329" t="inlineStr"/>
+      <c r="W329" t="n">
+        <v>0</v>
+      </c>
+      <c r="X329" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y329" t="n">
+        <v>0</v>
+      </c>
       <c r="Z329" t="n">
         <v>0</v>
       </c>
@@ -37619,7 +38499,9 @@
       <c r="M330" t="n">
         <v>12</v>
       </c>
-      <c r="N330" t="inlineStr"/>
+      <c r="N330" t="n">
+        <v>0</v>
+      </c>
       <c r="O330" t="n">
         <v>5</v>
       </c>
@@ -37628,7 +38510,9 @@
           <t>0</t>
         </is>
       </c>
-      <c r="Q330" t="inlineStr"/>
+      <c r="Q330" t="n">
+        <v>0</v>
+      </c>
       <c r="R330" t="n">
         <v>0</v>
       </c>
@@ -37644,9 +38528,15 @@
       <c r="V330" t="n">
         <v>4.800000000000001</v>
       </c>
-      <c r="W330" t="inlineStr"/>
-      <c r="X330" t="inlineStr"/>
-      <c r="Y330" t="inlineStr"/>
+      <c r="W330" t="n">
+        <v>0</v>
+      </c>
+      <c r="X330" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y330" t="n">
+        <v>0</v>
+      </c>
       <c r="Z330" t="n">
         <v>0</v>
       </c>
@@ -37725,7 +38615,9 @@
       <c r="M331" t="n">
         <v>12</v>
       </c>
-      <c r="N331" t="inlineStr"/>
+      <c r="N331" t="n">
+        <v>0</v>
+      </c>
       <c r="O331" t="n">
         <v>5</v>
       </c>
@@ -37734,7 +38626,9 @@
           <t>0</t>
         </is>
       </c>
-      <c r="Q331" t="inlineStr"/>
+      <c r="Q331" t="n">
+        <v>0</v>
+      </c>
       <c r="R331" t="n">
         <v>0</v>
       </c>
@@ -37750,9 +38644,15 @@
       <c r="V331" t="n">
         <v>4.800000000000001</v>
       </c>
-      <c r="W331" t="inlineStr"/>
-      <c r="X331" t="inlineStr"/>
-      <c r="Y331" t="inlineStr"/>
+      <c r="W331" t="n">
+        <v>0</v>
+      </c>
+      <c r="X331" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y331" t="n">
+        <v>0</v>
+      </c>
       <c r="Z331" t="n">
         <v>0</v>
       </c>
@@ -37831,7 +38731,9 @@
       <c r="M332" t="n">
         <v>12</v>
       </c>
-      <c r="N332" t="inlineStr"/>
+      <c r="N332" t="n">
+        <v>0</v>
+      </c>
       <c r="O332" t="n">
         <v>5</v>
       </c>
@@ -37840,7 +38742,9 @@
           <t>0</t>
         </is>
       </c>
-      <c r="Q332" t="inlineStr"/>
+      <c r="Q332" t="n">
+        <v>0</v>
+      </c>
       <c r="R332" t="n">
         <v>0</v>
       </c>
@@ -37856,9 +38760,15 @@
       <c r="V332" t="n">
         <v>4.800000000000001</v>
       </c>
-      <c r="W332" t="inlineStr"/>
-      <c r="X332" t="inlineStr"/>
-      <c r="Y332" t="inlineStr"/>
+      <c r="W332" t="n">
+        <v>0</v>
+      </c>
+      <c r="X332" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y332" t="n">
+        <v>0</v>
+      </c>
       <c r="Z332" t="n">
         <v>0</v>
       </c>
@@ -37937,7 +38847,9 @@
       <c r="M333" t="n">
         <v>56</v>
       </c>
-      <c r="N333" t="inlineStr"/>
+      <c r="N333" t="n">
+        <v>0</v>
+      </c>
       <c r="O333" t="n">
         <v>7</v>
       </c>
@@ -37946,7 +38858,9 @@
           <t>0</t>
         </is>
       </c>
-      <c r="Q333" t="inlineStr"/>
+      <c r="Q333" t="n">
+        <v>0</v>
+      </c>
       <c r="R333" t="n">
         <v>0</v>
       </c>
@@ -37962,9 +38876,15 @@
       <c r="V333" t="n">
         <v>40</v>
       </c>
-      <c r="W333" t="inlineStr"/>
-      <c r="X333" t="inlineStr"/>
-      <c r="Y333" t="inlineStr"/>
+      <c r="W333" t="n">
+        <v>0</v>
+      </c>
+      <c r="X333" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y333" t="n">
+        <v>0</v>
+      </c>
       <c r="Z333" t="n">
         <v>0</v>
       </c>
@@ -38043,7 +38963,9 @@
       <c r="M334" t="n">
         <v>20</v>
       </c>
-      <c r="N334" t="inlineStr"/>
+      <c r="N334" t="n">
+        <v>0</v>
+      </c>
       <c r="O334" t="n">
         <v>7</v>
       </c>
@@ -38052,7 +38974,9 @@
           <t>0</t>
         </is>
       </c>
-      <c r="Q334" t="inlineStr"/>
+      <c r="Q334" t="n">
+        <v>0</v>
+      </c>
       <c r="R334" t="n">
         <v>0</v>
       </c>
@@ -38068,9 +38992,15 @@
       <c r="V334" t="n">
         <v>11.42857142857143</v>
       </c>
-      <c r="W334" t="inlineStr"/>
-      <c r="X334" t="inlineStr"/>
-      <c r="Y334" t="inlineStr"/>
+      <c r="W334" t="n">
+        <v>0</v>
+      </c>
+      <c r="X334" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y334" t="n">
+        <v>0</v>
+      </c>
       <c r="Z334" t="n">
         <v>0</v>
       </c>

--- a/afar_project/csv_path/excel_files/depreciation.xlsx
+++ b/afar_project/csv_path/excel_files/depreciation.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -666,37 +666,37 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="V2" t="n">
-        <v>44677.28571428571</v>
+        <v>44677.27</v>
       </c>
       <c r="W2" t="n">
-        <v>16246.28571428571</v>
+        <v>16246.29</v>
       </c>
       <c r="X2" t="n">
-        <v>28431</v>
+        <v>28430.98</v>
       </c>
       <c r="Y2" t="n">
-        <v>3.637978807091713e-12</v>
+        <v>0.02</v>
       </c>
       <c r="Z2" t="n">
-        <v>8123.142857142857</v>
+        <v>8123.14</v>
       </c>
       <c r="AA2" t="n">
-        <v>8123.142857142857</v>
+        <v>8123.14</v>
       </c>
       <c r="AB2" t="n">
-        <v>8123.142857142857</v>
+        <v>8123.14</v>
       </c>
       <c r="AC2" t="n">
-        <v>8123.142857142857</v>
+        <v>8123.14</v>
       </c>
       <c r="AD2" t="n">
-        <v>4061.571428571428</v>
+        <v>4061.57</v>
       </c>
       <c r="AE2" t="n">
-        <v>4061.571428571428</v>
+        <v>4061.57</v>
       </c>
       <c r="AF2" t="n">
-        <v>4061.571428571428</v>
+        <v>4061.57</v>
       </c>
     </row>
     <row r="3">
@@ -894,37 +894,37 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="V4" t="n">
-        <v>10810</v>
+        <v>10810.03</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>10810</v>
+        <v>10810.03</v>
       </c>
       <c r="Y4" t="n">
-        <v>1.818989403545856e-12</v>
+        <v>-0.03</v>
       </c>
       <c r="Z4" t="n">
-        <v>1544.285714285714</v>
+        <v>1544.29</v>
       </c>
       <c r="AA4" t="n">
-        <v>1544.285714285714</v>
+        <v>1544.29</v>
       </c>
       <c r="AB4" t="n">
-        <v>1544.285714285714</v>
+        <v>1544.29</v>
       </c>
       <c r="AC4" t="n">
-        <v>1544.285714285714</v>
+        <v>1544.29</v>
       </c>
       <c r="AD4" t="n">
-        <v>1544.285714285714</v>
+        <v>1544.29</v>
       </c>
       <c r="AE4" t="n">
-        <v>1544.285714285714</v>
+        <v>1544.29</v>
       </c>
       <c r="AF4" t="n">
-        <v>1544.285714285714</v>
+        <v>1544.29</v>
       </c>
     </row>
     <row r="5">
@@ -1008,37 +1008,37 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="V5" t="n">
-        <v>21481</v>
+        <v>21480.97</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>21481</v>
+        <v>21480.97</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="Z5" t="n">
-        <v>3068.714285714285</v>
+        <v>3068.71</v>
       </c>
       <c r="AA5" t="n">
-        <v>3068.714285714285</v>
+        <v>3068.71</v>
       </c>
       <c r="AB5" t="n">
-        <v>3068.714285714285</v>
+        <v>3068.71</v>
       </c>
       <c r="AC5" t="n">
-        <v>3068.714285714285</v>
+        <v>3068.71</v>
       </c>
       <c r="AD5" t="n">
-        <v>3068.714285714285</v>
+        <v>3068.71</v>
       </c>
       <c r="AE5" t="n">
-        <v>3068.714285714285</v>
+        <v>3068.71</v>
       </c>
       <c r="AF5" t="n">
-        <v>3068.714285714285</v>
+        <v>3068.71</v>
       </c>
     </row>
     <row r="6">
@@ -1122,37 +1122,37 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="V6" t="n">
-        <v>11653</v>
+        <v>11652.97</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>11653</v>
+        <v>11652.97</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="Z6" t="n">
-        <v>1664.714285714286</v>
+        <v>1664.71</v>
       </c>
       <c r="AA6" t="n">
-        <v>1664.714285714286</v>
+        <v>1664.71</v>
       </c>
       <c r="AB6" t="n">
-        <v>1664.714285714286</v>
+        <v>1664.71</v>
       </c>
       <c r="AC6" t="n">
-        <v>1664.714285714286</v>
+        <v>1664.71</v>
       </c>
       <c r="AD6" t="n">
-        <v>1664.714285714286</v>
+        <v>1664.71</v>
       </c>
       <c r="AE6" t="n">
-        <v>1664.714285714286</v>
+        <v>1664.71</v>
       </c>
       <c r="AF6" t="n">
-        <v>1664.714285714286</v>
+        <v>1664.71</v>
       </c>
     </row>
     <row r="7">
@@ -1420,12 +1420,12 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="K9" t="n">
@@ -1462,37 +1462,37 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="V9" t="n">
-        <v>47855</v>
+        <v>47855.01</v>
       </c>
       <c r="W9" t="n">
         <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>47855</v>
+        <v>47855.01</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>-0.01</v>
       </c>
       <c r="Z9" t="n">
-        <v>6836.428571428571</v>
+        <v>6836.43</v>
       </c>
       <c r="AA9" t="n">
-        <v>6836.428571428571</v>
+        <v>6836.43</v>
       </c>
       <c r="AB9" t="n">
-        <v>6836.428571428571</v>
+        <v>6836.43</v>
       </c>
       <c r="AC9" t="n">
-        <v>6836.428571428571</v>
+        <v>6836.43</v>
       </c>
       <c r="AD9" t="n">
-        <v>6836.428571428571</v>
+        <v>6836.43</v>
       </c>
       <c r="AE9" t="n">
-        <v>6836.428571428571</v>
+        <v>6836.43</v>
       </c>
       <c r="AF9" t="n">
-        <v>6836.428571428571</v>
+        <v>6836.43</v>
       </c>
     </row>
     <row r="10">
@@ -1532,12 +1532,12 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
@@ -1576,37 +1576,37 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="V10" t="n">
-        <v>24829.99999999999</v>
+        <v>24829.98</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>24829.99999999999</v>
+        <v>24829.98</v>
       </c>
       <c r="Y10" t="n">
-        <v>7.275957614183426e-12</v>
+        <v>0.02</v>
       </c>
       <c r="Z10" t="n">
-        <v>3547.142857142857</v>
+        <v>3547.14</v>
       </c>
       <c r="AA10" t="n">
-        <v>3547.142857142857</v>
+        <v>3547.14</v>
       </c>
       <c r="AB10" t="n">
-        <v>3547.142857142857</v>
+        <v>3547.14</v>
       </c>
       <c r="AC10" t="n">
-        <v>3547.142857142857</v>
+        <v>3547.14</v>
       </c>
       <c r="AD10" t="n">
-        <v>3547.142857142857</v>
+        <v>3547.14</v>
       </c>
       <c r="AE10" t="n">
-        <v>3547.142857142857</v>
+        <v>3547.14</v>
       </c>
       <c r="AF10" t="n">
-        <v>3547.142857142857</v>
+        <v>3547.14</v>
       </c>
     </row>
     <row r="11">
@@ -1646,12 +1646,12 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
@@ -1699,7 +1699,7 @@
         <v>105164</v>
       </c>
       <c r="Y11" t="n">
-        <v>-1.455191522836685e-11</v>
+        <v>0</v>
       </c>
       <c r="Z11" t="n">
         <v>21032.8</v>
@@ -1760,12 +1760,12 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
@@ -1874,12 +1874,12 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="K13" t="n">
@@ -1916,37 +1916,37 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="V13" t="n">
-        <v>50900</v>
+        <v>50900.01</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>50900</v>
+        <v>50900.01</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>-0.01</v>
       </c>
       <c r="Z13" t="n">
-        <v>7271.428571428571</v>
+        <v>7271.43</v>
       </c>
       <c r="AA13" t="n">
-        <v>7271.428571428571</v>
+        <v>7271.43</v>
       </c>
       <c r="AB13" t="n">
-        <v>7271.428571428571</v>
+        <v>7271.43</v>
       </c>
       <c r="AC13" t="n">
-        <v>7271.428571428571</v>
+        <v>7271.43</v>
       </c>
       <c r="AD13" t="n">
-        <v>7271.428571428571</v>
+        <v>7271.43</v>
       </c>
       <c r="AE13" t="n">
-        <v>7271.428571428571</v>
+        <v>7271.43</v>
       </c>
       <c r="AF13" t="n">
-        <v>7271.428571428571</v>
+        <v>7271.43</v>
       </c>
     </row>
     <row r="14">
@@ -2030,37 +2030,37 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="V14" t="n">
-        <v>56900</v>
+        <v>56899.99</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>56900</v>
+        <v>56899.99</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="Z14" t="n">
-        <v>8128.571428571428</v>
+        <v>8128.57</v>
       </c>
       <c r="AA14" t="n">
-        <v>8128.571428571428</v>
+        <v>8128.57</v>
       </c>
       <c r="AB14" t="n">
-        <v>8128.571428571428</v>
+        <v>8128.57</v>
       </c>
       <c r="AC14" t="n">
-        <v>8128.571428571428</v>
+        <v>8128.57</v>
       </c>
       <c r="AD14" t="n">
-        <v>8128.571428571428</v>
+        <v>8128.57</v>
       </c>
       <c r="AE14" t="n">
-        <v>8128.571428571428</v>
+        <v>8128.57</v>
       </c>
       <c r="AF14" t="n">
-        <v>8128.571428571428</v>
+        <v>8128.57</v>
       </c>
     </row>
     <row r="15">
@@ -2105,7 +2105,7 @@
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
@@ -2262,37 +2262,37 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="V16" t="n">
-        <v>16900</v>
+        <v>16900.03</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>16900</v>
+        <v>16900.03</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>-0.03</v>
       </c>
       <c r="Z16" t="n">
-        <v>2414.285714285714</v>
+        <v>2414.29</v>
       </c>
       <c r="AA16" t="n">
-        <v>2414.285714285714</v>
+        <v>2414.29</v>
       </c>
       <c r="AB16" t="n">
-        <v>2414.285714285714</v>
+        <v>2414.29</v>
       </c>
       <c r="AC16" t="n">
-        <v>2414.285714285714</v>
+        <v>2414.29</v>
       </c>
       <c r="AD16" t="n">
-        <v>2414.285714285714</v>
+        <v>2414.29</v>
       </c>
       <c r="AE16" t="n">
-        <v>2414.285714285714</v>
+        <v>2414.29</v>
       </c>
       <c r="AF16" t="n">
-        <v>2414.285714285714</v>
+        <v>2414.29</v>
       </c>
     </row>
     <row r="17">
@@ -2332,12 +2332,12 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
@@ -2376,37 +2376,37 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="V17" t="n">
-        <v>19500</v>
+        <v>19499.97</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>19500</v>
+        <v>19499.97</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="Z17" t="n">
-        <v>2785.714285714286</v>
+        <v>2785.71</v>
       </c>
       <c r="AA17" t="n">
-        <v>2785.714285714286</v>
+        <v>2785.71</v>
       </c>
       <c r="AB17" t="n">
-        <v>2785.714285714286</v>
+        <v>2785.71</v>
       </c>
       <c r="AC17" t="n">
-        <v>2785.714285714286</v>
+        <v>2785.71</v>
       </c>
       <c r="AD17" t="n">
-        <v>2785.714285714286</v>
+        <v>2785.71</v>
       </c>
       <c r="AE17" t="n">
-        <v>2785.714285714286</v>
+        <v>2785.71</v>
       </c>
       <c r="AF17" t="n">
-        <v>2785.714285714286</v>
+        <v>2785.71</v>
       </c>
     </row>
     <row r="18">
@@ -2494,37 +2494,37 @@
         <v>0.1</v>
       </c>
       <c r="V18" t="n">
-        <v>12058.314682243</v>
+        <v>12058.32</v>
       </c>
       <c r="W18" t="n">
-        <v>12058.31775700934</v>
+        <v>12058.32</v>
       </c>
       <c r="X18" t="n">
-        <v>-0.003074766349527636</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>-0.00131775700901926</v>
+        <v>-0</v>
       </c>
       <c r="Z18" t="n">
-        <v>3014.579</v>
+        <v>3014.58</v>
       </c>
       <c r="AA18" t="n">
-        <v>3014.579</v>
+        <v>3014.58</v>
       </c>
       <c r="AB18" t="n">
-        <v>3014.579</v>
+        <v>3014.58</v>
       </c>
       <c r="AC18" t="n">
-        <v>3014.579</v>
+        <v>3014.58</v>
       </c>
       <c r="AD18" t="n">
-        <v>-0.0004392523358546896</v>
+        <v>-0</v>
       </c>
       <c r="AE18" t="n">
-        <v>-0.0004392523358546896</v>
+        <v>-0</v>
       </c>
       <c r="AF18" t="n">
-        <v>-0.0004392523358546896</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="19">
@@ -2805,7 +2805,7 @@
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
@@ -2914,12 +2914,12 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="K22" t="n">
@@ -2956,37 +2956,37 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="V22" t="n">
-        <v>4300</v>
+        <v>4300.03</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>4300</v>
+        <v>4300.03</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>-0.03</v>
       </c>
       <c r="Z22" t="n">
-        <v>614.2857142857142</v>
+        <v>614.29</v>
       </c>
       <c r="AA22" t="n">
-        <v>614.2857142857142</v>
+        <v>614.29</v>
       </c>
       <c r="AB22" t="n">
-        <v>614.2857142857142</v>
+        <v>614.29</v>
       </c>
       <c r="AC22" t="n">
-        <v>614.2857142857142</v>
+        <v>614.29</v>
       </c>
       <c r="AD22" t="n">
-        <v>614.2857142857142</v>
+        <v>614.29</v>
       </c>
       <c r="AE22" t="n">
-        <v>614.2857142857142</v>
+        <v>614.29</v>
       </c>
       <c r="AF22" t="n">
-        <v>614.2857142857142</v>
+        <v>614.29</v>
       </c>
     </row>
     <row r="23">
@@ -3026,12 +3026,12 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
@@ -3070,37 +3070,37 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="V23" t="n">
-        <v>28287.99999999999</v>
+        <v>28287.98</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>28287.99999999999</v>
+        <v>28287.98</v>
       </c>
       <c r="Y23" t="n">
-        <v>7.275957614183426e-12</v>
+        <v>0.02</v>
       </c>
       <c r="Z23" t="n">
-        <v>4041.142857142857</v>
+        <v>4041.14</v>
       </c>
       <c r="AA23" t="n">
-        <v>4041.142857142857</v>
+        <v>4041.14</v>
       </c>
       <c r="AB23" t="n">
-        <v>4041.142857142857</v>
+        <v>4041.14</v>
       </c>
       <c r="AC23" t="n">
-        <v>4041.142857142857</v>
+        <v>4041.14</v>
       </c>
       <c r="AD23" t="n">
-        <v>4041.142857142857</v>
+        <v>4041.14</v>
       </c>
       <c r="AE23" t="n">
-        <v>4041.142857142857</v>
+        <v>4041.14</v>
       </c>
       <c r="AF23" t="n">
-        <v>4041.142857142857</v>
+        <v>4041.14</v>
       </c>
     </row>
     <row r="24">
@@ -3140,12 +3140,12 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
@@ -3184,37 +3184,37 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="V24" t="n">
-        <v>20199</v>
+        <v>20198.99</v>
       </c>
       <c r="W24" t="n">
         <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>20199</v>
+        <v>20198.99</v>
       </c>
       <c r="Y24" t="n">
-        <v>3.637978807091713e-12</v>
+        <v>0.01</v>
       </c>
       <c r="Z24" t="n">
-        <v>2885.571428571428</v>
+        <v>2885.57</v>
       </c>
       <c r="AA24" t="n">
-        <v>2885.571428571428</v>
+        <v>2885.57</v>
       </c>
       <c r="AB24" t="n">
-        <v>2885.571428571428</v>
+        <v>2885.57</v>
       </c>
       <c r="AC24" t="n">
-        <v>2885.571428571428</v>
+        <v>2885.57</v>
       </c>
       <c r="AD24" t="n">
-        <v>2885.571428571428</v>
+        <v>2885.57</v>
       </c>
       <c r="AE24" t="n">
-        <v>2885.571428571428</v>
+        <v>2885.57</v>
       </c>
       <c r="AF24" t="n">
-        <v>2885.571428571428</v>
+        <v>2885.57</v>
       </c>
     </row>
     <row r="25">
@@ -3259,7 +3259,7 @@
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
@@ -3373,7 +3373,7 @@
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
@@ -3487,7 +3487,7 @@
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
@@ -3601,7 +3601,7 @@
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
@@ -3758,37 +3758,37 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="V29" t="n">
-        <v>44235.71428571428</v>
+        <v>44235.73</v>
       </c>
       <c r="W29" t="n">
-        <v>16085.71428571428</v>
+        <v>16085.71</v>
       </c>
       <c r="X29" t="n">
-        <v>28150</v>
+        <v>28150.02</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>-0.02</v>
       </c>
       <c r="Z29" t="n">
-        <v>8042.857142857142</v>
+        <v>8042.86</v>
       </c>
       <c r="AA29" t="n">
-        <v>8042.857142857142</v>
+        <v>8042.86</v>
       </c>
       <c r="AB29" t="n">
-        <v>8042.857142857142</v>
+        <v>8042.86</v>
       </c>
       <c r="AC29" t="n">
-        <v>8042.857142857142</v>
+        <v>8042.86</v>
       </c>
       <c r="AD29" t="n">
-        <v>4021.428571428571</v>
+        <v>4021.43</v>
       </c>
       <c r="AE29" t="n">
-        <v>4021.428571428571</v>
+        <v>4021.43</v>
       </c>
       <c r="AF29" t="n">
-        <v>4021.428571428571</v>
+        <v>4021.43</v>
       </c>
     </row>
     <row r="30">
@@ -4061,7 +4061,7 @@
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
@@ -4175,7 +4175,7 @@
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="K33" t="n">
@@ -4287,7 +4287,7 @@
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="K34" t="n">
@@ -4394,7 +4394,7 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -4438,37 +4438,37 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="V35" t="n">
-        <v>12300</v>
+        <v>12299.98</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>12300</v>
+        <v>12299.98</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="Z35" t="n">
-        <v>1757.142857142857</v>
+        <v>1757.14</v>
       </c>
       <c r="AA35" t="n">
-        <v>1757.142857142857</v>
+        <v>1757.14</v>
       </c>
       <c r="AB35" t="n">
-        <v>1757.142857142857</v>
+        <v>1757.14</v>
       </c>
       <c r="AC35" t="n">
-        <v>1757.142857142857</v>
+        <v>1757.14</v>
       </c>
       <c r="AD35" t="n">
-        <v>1757.142857142857</v>
+        <v>1757.14</v>
       </c>
       <c r="AE35" t="n">
-        <v>1757.142857142857</v>
+        <v>1757.14</v>
       </c>
       <c r="AF35" t="n">
-        <v>1757.142857142857</v>
+        <v>1757.14</v>
       </c>
     </row>
     <row r="36">
@@ -4622,12 +4622,12 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
@@ -4666,37 +4666,37 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="V37" t="n">
-        <v>53770</v>
+        <v>53770.01</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>53770</v>
+        <v>53770.01</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>-0.01</v>
       </c>
       <c r="Z37" t="n">
-        <v>7681.428571428571</v>
+        <v>7681.43</v>
       </c>
       <c r="AA37" t="n">
-        <v>7681.428571428571</v>
+        <v>7681.43</v>
       </c>
       <c r="AB37" t="n">
-        <v>7681.428571428571</v>
+        <v>7681.43</v>
       </c>
       <c r="AC37" t="n">
-        <v>7681.428571428571</v>
+        <v>7681.43</v>
       </c>
       <c r="AD37" t="n">
-        <v>7681.428571428571</v>
+        <v>7681.43</v>
       </c>
       <c r="AE37" t="n">
-        <v>7681.428571428571</v>
+        <v>7681.43</v>
       </c>
       <c r="AF37" t="n">
-        <v>7681.428571428571</v>
+        <v>7681.43</v>
       </c>
     </row>
     <row r="38">
@@ -4784,28 +4784,28 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="V38" t="n">
-        <v>60857.14285714286</v>
+        <v>60857.16</v>
       </c>
       <c r="W38" t="n">
-        <v>60857.14285714286</v>
+        <v>60857.14</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>-0.02</v>
       </c>
       <c r="Z38" t="n">
-        <v>15214.28571428571</v>
+        <v>15214.29</v>
       </c>
       <c r="AA38" t="n">
-        <v>15214.28571428571</v>
+        <v>15214.29</v>
       </c>
       <c r="AB38" t="n">
-        <v>15214.28571428571</v>
+        <v>15214.29</v>
       </c>
       <c r="AC38" t="n">
-        <v>15214.28571428571</v>
+        <v>15214.29</v>
       </c>
       <c r="AD38" t="n">
         <v>0</v>
@@ -5196,12 +5196,12 @@
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
@@ -5315,7 +5315,7 @@
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
@@ -5472,37 +5472,37 @@
         <v>0.1</v>
       </c>
       <c r="V44" t="n">
-        <v>8206.352000000001</v>
+        <v>8206.379999999999</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>8206.352000000001</v>
+        <v>8206.379999999999</v>
       </c>
       <c r="Y44" t="n">
-        <v>3517.008</v>
+        <v>3516.98</v>
       </c>
       <c r="Z44" t="n">
-        <v>1172.336</v>
+        <v>1172.34</v>
       </c>
       <c r="AA44" t="n">
-        <v>1172.336</v>
+        <v>1172.34</v>
       </c>
       <c r="AB44" t="n">
-        <v>1172.336</v>
+        <v>1172.34</v>
       </c>
       <c r="AC44" t="n">
-        <v>1172.336</v>
+        <v>1172.34</v>
       </c>
       <c r="AD44" t="n">
-        <v>1172.336</v>
+        <v>1172.34</v>
       </c>
       <c r="AE44" t="n">
-        <v>1172.336</v>
+        <v>1172.34</v>
       </c>
       <c r="AF44" t="n">
-        <v>1172.336</v>
+        <v>1172.34</v>
       </c>
     </row>
     <row r="45">
@@ -5547,7 +5547,7 @@
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
@@ -5586,37 +5586,37 @@
         <v>0.1</v>
       </c>
       <c r="V45" t="n">
-        <v>2051.588</v>
+        <v>2051.56</v>
       </c>
       <c r="W45" t="n">
         <v>0</v>
       </c>
       <c r="X45" t="n">
-        <v>2051.588</v>
+        <v>2051.56</v>
       </c>
       <c r="Y45" t="n">
-        <v>879.252</v>
+        <v>879.28</v>
       </c>
       <c r="Z45" t="n">
-        <v>293.084</v>
+        <v>293.08</v>
       </c>
       <c r="AA45" t="n">
-        <v>293.084</v>
+        <v>293.08</v>
       </c>
       <c r="AB45" t="n">
-        <v>293.084</v>
+        <v>293.08</v>
       </c>
       <c r="AC45" t="n">
-        <v>293.084</v>
+        <v>293.08</v>
       </c>
       <c r="AD45" t="n">
-        <v>293.084</v>
+        <v>293.08</v>
       </c>
       <c r="AE45" t="n">
-        <v>293.084</v>
+        <v>293.08</v>
       </c>
       <c r="AF45" t="n">
-        <v>293.084</v>
+        <v>293.08</v>
       </c>
     </row>
     <row r="46">
@@ -5656,12 +5656,12 @@
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
@@ -5700,37 +5700,37 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="V46" t="n">
-        <v>10400</v>
+        <v>10399.97</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>10400</v>
+        <v>10399.97</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="Z46" t="n">
-        <v>1485.714285714286</v>
+        <v>1485.71</v>
       </c>
       <c r="AA46" t="n">
-        <v>1485.714285714286</v>
+        <v>1485.71</v>
       </c>
       <c r="AB46" t="n">
-        <v>1485.714285714286</v>
+        <v>1485.71</v>
       </c>
       <c r="AC46" t="n">
-        <v>1485.714285714286</v>
+        <v>1485.71</v>
       </c>
       <c r="AD46" t="n">
-        <v>1485.714285714286</v>
+        <v>1485.71</v>
       </c>
       <c r="AE46" t="n">
-        <v>1485.714285714286</v>
+        <v>1485.71</v>
       </c>
       <c r="AF46" t="n">
-        <v>1485.714285714286</v>
+        <v>1485.71</v>
       </c>
     </row>
     <row r="47">
@@ -5770,12 +5770,12 @@
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="K47" t="n">
@@ -5812,37 +5812,37 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="V47" t="n">
-        <v>80249.99999999999</v>
+        <v>80250.03</v>
       </c>
       <c r="W47" t="n">
         <v>0</v>
       </c>
       <c r="X47" t="n">
-        <v>80249.99999999999</v>
+        <v>80250.03</v>
       </c>
       <c r="Y47" t="n">
-        <v>1.455191522836685e-11</v>
+        <v>-0.03</v>
       </c>
       <c r="Z47" t="n">
-        <v>11464.28571428571</v>
+        <v>11464.29</v>
       </c>
       <c r="AA47" t="n">
-        <v>11464.28571428571</v>
+        <v>11464.29</v>
       </c>
       <c r="AB47" t="n">
-        <v>11464.28571428571</v>
+        <v>11464.29</v>
       </c>
       <c r="AC47" t="n">
-        <v>11464.28571428571</v>
+        <v>11464.29</v>
       </c>
       <c r="AD47" t="n">
-        <v>11464.28571428571</v>
+        <v>11464.29</v>
       </c>
       <c r="AE47" t="n">
-        <v>11464.28571428571</v>
+        <v>11464.29</v>
       </c>
       <c r="AF47" t="n">
-        <v>11464.28571428571</v>
+        <v>11464.29</v>
       </c>
     </row>
     <row r="48">
@@ -6241,7 +6241,7 @@
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="K51" t="inlineStr">
@@ -6284,28 +6284,28 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="V51" t="n">
-        <v>95428.57142857142</v>
+        <v>95428.56</v>
       </c>
       <c r="W51" t="n">
-        <v>95428.57142857142</v>
+        <v>95428.57000000001</v>
       </c>
       <c r="X51" t="n">
-        <v>0</v>
+        <v>-0.01</v>
       </c>
       <c r="Y51" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="Z51" t="n">
-        <v>23857.14285714286</v>
+        <v>23857.14</v>
       </c>
       <c r="AA51" t="n">
-        <v>23857.14285714286</v>
+        <v>23857.14</v>
       </c>
       <c r="AB51" t="n">
-        <v>23857.14285714286</v>
+        <v>23857.14</v>
       </c>
       <c r="AC51" t="n">
-        <v>23857.14285714286</v>
+        <v>23857.14</v>
       </c>
       <c r="AD51" t="n">
         <v>0</v>
@@ -6402,28 +6402,28 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="V52" t="n">
-        <v>220028.5714285714</v>
+        <v>220028.56</v>
       </c>
       <c r="W52" t="n">
-        <v>220028.5714285714</v>
+        <v>220028.57</v>
       </c>
       <c r="X52" t="n">
-        <v>0</v>
+        <v>-0.01</v>
       </c>
       <c r="Y52" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="Z52" t="n">
-        <v>55007.14285714286</v>
+        <v>55007.14</v>
       </c>
       <c r="AA52" t="n">
-        <v>55007.14285714286</v>
+        <v>55007.14</v>
       </c>
       <c r="AB52" t="n">
-        <v>55007.14285714286</v>
+        <v>55007.14</v>
       </c>
       <c r="AC52" t="n">
-        <v>55007.14285714286</v>
+        <v>55007.14</v>
       </c>
       <c r="AD52" t="n">
         <v>0</v>
@@ -6477,7 +6477,7 @@
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="K53" t="inlineStr">
@@ -6595,7 +6595,7 @@
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="K54" t="inlineStr">
@@ -6713,7 +6713,7 @@
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="K55" t="inlineStr">
@@ -6756,16 +6756,16 @@
         <v>0.1</v>
       </c>
       <c r="V55" t="n">
-        <v>4136.941632653061</v>
+        <v>4136.940000000001</v>
       </c>
       <c r="W55" t="n">
-        <v>4136.938775510205</v>
+        <v>4136.94</v>
       </c>
       <c r="X55" t="n">
-        <v>0.002857142855646089</v>
+        <v>0</v>
       </c>
       <c r="Y55" t="n">
-        <v>0.001224489793457906</v>
+        <v>0</v>
       </c>
       <c r="Z55" t="n">
         <v>1378.98</v>
@@ -6777,16 +6777,16 @@
         <v>1378.98</v>
       </c>
       <c r="AC55" t="n">
-        <v>0.0004081632649103995</v>
+        <v>0</v>
       </c>
       <c r="AD55" t="n">
-        <v>0.0004081632649103995</v>
+        <v>0</v>
       </c>
       <c r="AE55" t="n">
-        <v>0.0004081632649103995</v>
+        <v>0</v>
       </c>
       <c r="AF55" t="n">
-        <v>0.0004081632649103995</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56">
@@ -6831,7 +6831,7 @@
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="K56" t="inlineStr">
@@ -7067,7 +7067,7 @@
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="K58" t="inlineStr">
@@ -7185,7 +7185,7 @@
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="K59" t="inlineStr">
@@ -7303,7 +7303,7 @@
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="K60" t="inlineStr">
@@ -7416,12 +7416,12 @@
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="K61" t="inlineStr">
@@ -7530,12 +7530,12 @@
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="K62" t="inlineStr">
@@ -7763,7 +7763,7 @@
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="K64" t="inlineStr">
@@ -7802,37 +7802,37 @@
         <v>0.1</v>
       </c>
       <c r="V64" t="n">
-        <v>11950.498</v>
+        <v>11950.47</v>
       </c>
       <c r="W64" t="n">
         <v>0</v>
       </c>
       <c r="X64" t="n">
-        <v>11950.498</v>
+        <v>11950.47</v>
       </c>
       <c r="Y64" t="n">
-        <v>5121.642</v>
+        <v>5121.67</v>
       </c>
       <c r="Z64" t="n">
-        <v>1707.214</v>
+        <v>1707.21</v>
       </c>
       <c r="AA64" t="n">
-        <v>1707.214</v>
+        <v>1707.21</v>
       </c>
       <c r="AB64" t="n">
-        <v>1707.214</v>
+        <v>1707.21</v>
       </c>
       <c r="AC64" t="n">
-        <v>1707.214</v>
+        <v>1707.21</v>
       </c>
       <c r="AD64" t="n">
-        <v>1707.214</v>
+        <v>1707.21</v>
       </c>
       <c r="AE64" t="n">
-        <v>1707.214</v>
+        <v>1707.21</v>
       </c>
       <c r="AF64" t="n">
-        <v>1707.214</v>
+        <v>1707.21</v>
       </c>
     </row>
     <row r="65">
@@ -8104,12 +8104,12 @@
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="K67" t="inlineStr">
@@ -8223,7 +8223,7 @@
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="K68" t="inlineStr">
@@ -8337,7 +8337,7 @@
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="K69" t="inlineStr">
@@ -8451,7 +8451,7 @@
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="K70" t="inlineStr">
@@ -8569,7 +8569,7 @@
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="K71" t="inlineStr">
@@ -8678,12 +8678,12 @@
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="K72" t="inlineStr">
@@ -8911,7 +8911,7 @@
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="K74" t="inlineStr">
@@ -9253,7 +9253,7 @@
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="K77" t="n">
@@ -9290,37 +9290,37 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="V77" t="n">
-        <v>20662</v>
+        <v>20661.97</v>
       </c>
       <c r="W77" t="n">
         <v>0</v>
       </c>
       <c r="X77" t="n">
-        <v>20662</v>
+        <v>20661.97</v>
       </c>
       <c r="Y77" t="n">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="Z77" t="n">
-        <v>2951.714285714285</v>
+        <v>2951.71</v>
       </c>
       <c r="AA77" t="n">
-        <v>2951.714285714285</v>
+        <v>2951.71</v>
       </c>
       <c r="AB77" t="n">
-        <v>2951.714285714285</v>
+        <v>2951.71</v>
       </c>
       <c r="AC77" t="n">
-        <v>2951.714285714285</v>
+        <v>2951.71</v>
       </c>
       <c r="AD77" t="n">
-        <v>2951.714285714285</v>
+        <v>2951.71</v>
       </c>
       <c r="AE77" t="n">
-        <v>2951.714285714285</v>
+        <v>2951.71</v>
       </c>
       <c r="AF77" t="n">
-        <v>2951.714285714285</v>
+        <v>2951.71</v>
       </c>
     </row>
     <row r="78">
@@ -9413,7 +9413,7 @@
         <v>11874.1</v>
       </c>
       <c r="Y78" t="n">
-        <v>5088.900000000001</v>
+        <v>5088.9</v>
       </c>
       <c r="Z78" t="n">
         <v>1696.3</v>
@@ -9479,7 +9479,7 @@
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="K79" t="inlineStr">
@@ -9588,12 +9588,12 @@
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="K80" t="inlineStr">
@@ -9821,7 +9821,7 @@
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="K82" t="inlineStr">
@@ -10158,12 +10158,12 @@
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="K85" t="inlineStr">
@@ -10202,37 +10202,37 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="V85" t="n">
-        <v>39379.99999999999</v>
+        <v>39379.97</v>
       </c>
       <c r="W85" t="n">
         <v>0</v>
       </c>
       <c r="X85" t="n">
-        <v>39379.99999999999</v>
+        <v>39379.97</v>
       </c>
       <c r="Y85" t="n">
-        <v>7.275957614183426e-12</v>
+        <v>0.03</v>
       </c>
       <c r="Z85" t="n">
-        <v>5625.714285714285</v>
+        <v>5625.71</v>
       </c>
       <c r="AA85" t="n">
-        <v>5625.714285714285</v>
+        <v>5625.71</v>
       </c>
       <c r="AB85" t="n">
-        <v>5625.714285714285</v>
+        <v>5625.71</v>
       </c>
       <c r="AC85" t="n">
-        <v>5625.714285714285</v>
+        <v>5625.71</v>
       </c>
       <c r="AD85" t="n">
-        <v>5625.714285714285</v>
+        <v>5625.71</v>
       </c>
       <c r="AE85" t="n">
-        <v>5625.714285714285</v>
+        <v>5625.71</v>
       </c>
       <c r="AF85" t="n">
-        <v>5625.714285714285</v>
+        <v>5625.71</v>
       </c>
     </row>
     <row r="86">
@@ -10500,12 +10500,12 @@
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="K88" t="inlineStr">
@@ -10544,37 +10544,37 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="V88" t="n">
-        <v>62499.99999999999</v>
+        <v>62499.99</v>
       </c>
       <c r="W88" t="n">
         <v>0</v>
       </c>
       <c r="X88" t="n">
-        <v>62499.99999999999</v>
+        <v>62499.99</v>
       </c>
       <c r="Y88" t="n">
-        <v>7.275957614183426e-12</v>
+        <v>0.01</v>
       </c>
       <c r="Z88" t="n">
-        <v>8928.571428571428</v>
+        <v>8928.57</v>
       </c>
       <c r="AA88" t="n">
-        <v>8928.571428571428</v>
+        <v>8928.57</v>
       </c>
       <c r="AB88" t="n">
-        <v>8928.571428571428</v>
+        <v>8928.57</v>
       </c>
       <c r="AC88" t="n">
-        <v>8928.571428571428</v>
+        <v>8928.57</v>
       </c>
       <c r="AD88" t="n">
-        <v>8928.571428571428</v>
+        <v>8928.57</v>
       </c>
       <c r="AE88" t="n">
-        <v>8928.571428571428</v>
+        <v>8928.57</v>
       </c>
       <c r="AF88" t="n">
-        <v>8928.571428571428</v>
+        <v>8928.57</v>
       </c>
     </row>
     <row r="89">
@@ -10614,12 +10614,12 @@
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="K89" t="inlineStr">
@@ -10781,7 +10781,7 @@
         <v>172056</v>
       </c>
       <c r="Y90" t="n">
-        <v>-2.91038304567337e-11</v>
+        <v>0</v>
       </c>
       <c r="Z90" t="n">
         <v>34411.2</v>
@@ -10847,7 +10847,7 @@
       </c>
       <c r="J91" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="K91" t="inlineStr">
@@ -10961,7 +10961,7 @@
       </c>
       <c r="J92" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="K92" t="inlineStr">
@@ -11004,10 +11004,10 @@
         <v>0.1</v>
       </c>
       <c r="V92" t="n">
-        <v>93350.40000000001</v>
+        <v>93350.39999999999</v>
       </c>
       <c r="W92" t="n">
-        <v>93350.40000000001</v>
+        <v>93350.39999999999</v>
       </c>
       <c r="X92" t="n">
         <v>0</v>
@@ -11079,7 +11079,7 @@
       </c>
       <c r="J93" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="K93" t="inlineStr">
@@ -11197,7 +11197,7 @@
       </c>
       <c r="J94" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="K94" t="inlineStr">
@@ -11433,7 +11433,7 @@
       </c>
       <c r="J96" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="K96" t="n">
@@ -11540,12 +11540,12 @@
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="K97" t="inlineStr">
@@ -11584,37 +11584,37 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="V97" t="n">
-        <v>36699.99999999999</v>
+        <v>36700.02</v>
       </c>
       <c r="W97" t="n">
         <v>0</v>
       </c>
       <c r="X97" t="n">
-        <v>36699.99999999999</v>
+        <v>36700.02</v>
       </c>
       <c r="Y97" t="n">
-        <v>7.275957614183426e-12</v>
+        <v>-0.02</v>
       </c>
       <c r="Z97" t="n">
-        <v>5242.857142857142</v>
+        <v>5242.86</v>
       </c>
       <c r="AA97" t="n">
-        <v>5242.857142857142</v>
+        <v>5242.86</v>
       </c>
       <c r="AB97" t="n">
-        <v>5242.857142857142</v>
+        <v>5242.86</v>
       </c>
       <c r="AC97" t="n">
-        <v>5242.857142857142</v>
+        <v>5242.86</v>
       </c>
       <c r="AD97" t="n">
-        <v>5242.857142857142</v>
+        <v>5242.86</v>
       </c>
       <c r="AE97" t="n">
-        <v>5242.857142857142</v>
+        <v>5242.86</v>
       </c>
       <c r="AF97" t="n">
-        <v>5242.857142857142</v>
+        <v>5242.86</v>
       </c>
     </row>
     <row r="98">
@@ -11696,37 +11696,37 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="V98" t="n">
-        <v>214136</v>
+        <v>214136.02</v>
       </c>
       <c r="W98" t="n">
         <v>0</v>
       </c>
       <c r="X98" t="n">
-        <v>214136</v>
+        <v>214136.02</v>
       </c>
       <c r="Y98" t="n">
-        <v>2.91038304567337e-11</v>
+        <v>-0.02</v>
       </c>
       <c r="Z98" t="n">
-        <v>30590.85714285714</v>
+        <v>30590.86</v>
       </c>
       <c r="AA98" t="n">
-        <v>30590.85714285714</v>
+        <v>30590.86</v>
       </c>
       <c r="AB98" t="n">
-        <v>30590.85714285714</v>
+        <v>30590.86</v>
       </c>
       <c r="AC98" t="n">
-        <v>30590.85714285714</v>
+        <v>30590.86</v>
       </c>
       <c r="AD98" t="n">
-        <v>30590.85714285714</v>
+        <v>30590.86</v>
       </c>
       <c r="AE98" t="n">
-        <v>30590.85714285714</v>
+        <v>30590.86</v>
       </c>
       <c r="AF98" t="n">
-        <v>30590.85714285714</v>
+        <v>30590.86</v>
       </c>
     </row>
     <row r="99">
@@ -11994,12 +11994,12 @@
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="K101" t="inlineStr">
@@ -12038,37 +12038,37 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="V101" t="n">
-        <v>42801</v>
+        <v>42801.01</v>
       </c>
       <c r="W101" t="n">
         <v>0</v>
       </c>
       <c r="X101" t="n">
-        <v>42801</v>
+        <v>42801.01</v>
       </c>
       <c r="Y101" t="n">
-        <v>0</v>
+        <v>-0.01</v>
       </c>
       <c r="Z101" t="n">
-        <v>6114.428571428571</v>
+        <v>6114.43</v>
       </c>
       <c r="AA101" t="n">
-        <v>6114.428571428571</v>
+        <v>6114.43</v>
       </c>
       <c r="AB101" t="n">
-        <v>6114.428571428571</v>
+        <v>6114.43</v>
       </c>
       <c r="AC101" t="n">
-        <v>6114.428571428571</v>
+        <v>6114.43</v>
       </c>
       <c r="AD101" t="n">
-        <v>6114.428571428571</v>
+        <v>6114.43</v>
       </c>
       <c r="AE101" t="n">
-        <v>6114.428571428571</v>
+        <v>6114.43</v>
       </c>
       <c r="AF101" t="n">
-        <v>6114.428571428571</v>
+        <v>6114.43</v>
       </c>
     </row>
     <row r="102">
@@ -12108,12 +12108,12 @@
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="K102" t="inlineStr">
@@ -12152,37 +12152,37 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="V102" t="n">
-        <v>20100</v>
+        <v>20100.01</v>
       </c>
       <c r="W102" t="n">
         <v>0</v>
       </c>
       <c r="X102" t="n">
-        <v>20100</v>
+        <v>20100.01</v>
       </c>
       <c r="Y102" t="n">
-        <v>0</v>
+        <v>-0.01</v>
       </c>
       <c r="Z102" t="n">
-        <v>2871.428571428571</v>
+        <v>2871.43</v>
       </c>
       <c r="AA102" t="n">
-        <v>2871.428571428571</v>
+        <v>2871.43</v>
       </c>
       <c r="AB102" t="n">
-        <v>2871.428571428571</v>
+        <v>2871.43</v>
       </c>
       <c r="AC102" t="n">
-        <v>2871.428571428571</v>
+        <v>2871.43</v>
       </c>
       <c r="AD102" t="n">
-        <v>2871.428571428571</v>
+        <v>2871.43</v>
       </c>
       <c r="AE102" t="n">
-        <v>2871.428571428571</v>
+        <v>2871.43</v>
       </c>
       <c r="AF102" t="n">
-        <v>2871.428571428571</v>
+        <v>2871.43</v>
       </c>
     </row>
     <row r="103">
@@ -12222,12 +12222,12 @@
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="K103" t="inlineStr">
@@ -12266,37 +12266,37 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="V103" t="n">
-        <v>4319.999999999999</v>
+        <v>4319.98</v>
       </c>
       <c r="W103" t="n">
         <v>0</v>
       </c>
       <c r="X103" t="n">
-        <v>4319.999999999999</v>
+        <v>4319.98</v>
       </c>
       <c r="Y103" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0.02</v>
       </c>
       <c r="Z103" t="n">
-        <v>617.1428571428571</v>
+        <v>617.14</v>
       </c>
       <c r="AA103" t="n">
-        <v>617.1428571428571</v>
+        <v>617.14</v>
       </c>
       <c r="AB103" t="n">
-        <v>617.1428571428571</v>
+        <v>617.14</v>
       </c>
       <c r="AC103" t="n">
-        <v>617.1428571428571</v>
+        <v>617.14</v>
       </c>
       <c r="AD103" t="n">
-        <v>617.1428571428571</v>
+        <v>617.14</v>
       </c>
       <c r="AE103" t="n">
-        <v>617.1428571428571</v>
+        <v>617.14</v>
       </c>
       <c r="AF103" t="n">
-        <v>617.1428571428571</v>
+        <v>617.14</v>
       </c>
     </row>
     <row r="104">
@@ -12384,25 +12384,25 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="V104" t="n">
-        <v>79878.85714285714</v>
+        <v>79878.87</v>
       </c>
       <c r="W104" t="n">
-        <v>79878.85714285714</v>
+        <v>79878.86</v>
       </c>
       <c r="X104" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="Y104" t="n">
-        <v>0</v>
+        <v>-0.01</v>
       </c>
       <c r="Z104" t="n">
-        <v>26626.28571428571</v>
+        <v>26626.29</v>
       </c>
       <c r="AA104" t="n">
-        <v>26626.28571428571</v>
+        <v>26626.29</v>
       </c>
       <c r="AB104" t="n">
-        <v>26626.28571428571</v>
+        <v>26626.29</v>
       </c>
       <c r="AC104" t="n">
         <v>0</v>
@@ -12454,12 +12454,12 @@
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="K105" t="n">
@@ -12496,37 +12496,37 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="V105" t="n">
-        <v>9899.999999999998</v>
+        <v>9900.029999999999</v>
       </c>
       <c r="W105" t="n">
         <v>0</v>
       </c>
       <c r="X105" t="n">
-        <v>9899.999999999998</v>
+        <v>9900.030000000001</v>
       </c>
       <c r="Y105" t="n">
-        <v>1.818989403545856e-12</v>
+        <v>-0.03</v>
       </c>
       <c r="Z105" t="n">
-        <v>1414.285714285714</v>
+        <v>1414.29</v>
       </c>
       <c r="AA105" t="n">
-        <v>1414.285714285714</v>
+        <v>1414.29</v>
       </c>
       <c r="AB105" t="n">
-        <v>1414.285714285714</v>
+        <v>1414.29</v>
       </c>
       <c r="AC105" t="n">
-        <v>1414.285714285714</v>
+        <v>1414.29</v>
       </c>
       <c r="AD105" t="n">
-        <v>1414.285714285714</v>
+        <v>1414.29</v>
       </c>
       <c r="AE105" t="n">
-        <v>1414.285714285714</v>
+        <v>1414.29</v>
       </c>
       <c r="AF105" t="n">
-        <v>1414.285714285714</v>
+        <v>1414.29</v>
       </c>
     </row>
     <row r="106">
@@ -12610,37 +12610,37 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="V106" t="n">
-        <v>57799.99999999999</v>
+        <v>57799.98</v>
       </c>
       <c r="W106" t="n">
         <v>0</v>
       </c>
       <c r="X106" t="n">
-        <v>57799.99999999999</v>
+        <v>57799.98</v>
       </c>
       <c r="Y106" t="n">
-        <v>7.275957614183426e-12</v>
+        <v>0.02</v>
       </c>
       <c r="Z106" t="n">
-        <v>8257.142857142857</v>
+        <v>8257.139999999999</v>
       </c>
       <c r="AA106" t="n">
-        <v>8257.142857142857</v>
+        <v>8257.139999999999</v>
       </c>
       <c r="AB106" t="n">
-        <v>8257.142857142857</v>
+        <v>8257.139999999999</v>
       </c>
       <c r="AC106" t="n">
-        <v>8257.142857142857</v>
+        <v>8257.139999999999</v>
       </c>
       <c r="AD106" t="n">
-        <v>8257.142857142857</v>
+        <v>8257.139999999999</v>
       </c>
       <c r="AE106" t="n">
-        <v>8257.142857142857</v>
+        <v>8257.139999999999</v>
       </c>
       <c r="AF106" t="n">
-        <v>8257.142857142857</v>
+        <v>8257.139999999999</v>
       </c>
     </row>
     <row r="107">
@@ -12728,25 +12728,25 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="V107" t="n">
-        <v>160317.8571428571</v>
+        <v>160317.87</v>
       </c>
       <c r="W107" t="n">
-        <v>160317.8571428571</v>
+        <v>160317.86</v>
       </c>
       <c r="X107" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="Y107" t="n">
-        <v>0</v>
+        <v>-0.01</v>
       </c>
       <c r="Z107" t="n">
-        <v>53439.28571428571</v>
+        <v>53439.29</v>
       </c>
       <c r="AA107" t="n">
-        <v>53439.28571428571</v>
+        <v>53439.29</v>
       </c>
       <c r="AB107" t="n">
-        <v>53439.28571428571</v>
+        <v>53439.29</v>
       </c>
       <c r="AC107" t="n">
         <v>0</v>
@@ -12842,37 +12842,37 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="V108" t="n">
-        <v>182937</v>
+        <v>182937.02</v>
       </c>
       <c r="W108" t="n">
         <v>0</v>
       </c>
       <c r="X108" t="n">
-        <v>182937</v>
+        <v>182937.02</v>
       </c>
       <c r="Y108" t="n">
-        <v>2.91038304567337e-11</v>
+        <v>-0.02</v>
       </c>
       <c r="Z108" t="n">
-        <v>26133.85714285714</v>
+        <v>26133.86</v>
       </c>
       <c r="AA108" t="n">
-        <v>26133.85714285714</v>
+        <v>26133.86</v>
       </c>
       <c r="AB108" t="n">
-        <v>26133.85714285714</v>
+        <v>26133.86</v>
       </c>
       <c r="AC108" t="n">
-        <v>26133.85714285714</v>
+        <v>26133.86</v>
       </c>
       <c r="AD108" t="n">
-        <v>26133.85714285714</v>
+        <v>26133.86</v>
       </c>
       <c r="AE108" t="n">
-        <v>26133.85714285714</v>
+        <v>26133.86</v>
       </c>
       <c r="AF108" t="n">
-        <v>26133.85714285714</v>
+        <v>26133.86</v>
       </c>
     </row>
     <row r="109">
@@ -12956,37 +12956,37 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="V109" t="n">
-        <v>9146</v>
+        <v>9145.99</v>
       </c>
       <c r="W109" t="n">
         <v>0</v>
       </c>
       <c r="X109" t="n">
-        <v>9146</v>
+        <v>9145.99</v>
       </c>
       <c r="Y109" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="Z109" t="n">
-        <v>1306.571428571428</v>
+        <v>1306.57</v>
       </c>
       <c r="AA109" t="n">
-        <v>1306.571428571428</v>
+        <v>1306.57</v>
       </c>
       <c r="AB109" t="n">
-        <v>1306.571428571428</v>
+        <v>1306.57</v>
       </c>
       <c r="AC109" t="n">
-        <v>1306.571428571428</v>
+        <v>1306.57</v>
       </c>
       <c r="AD109" t="n">
-        <v>1306.571428571428</v>
+        <v>1306.57</v>
       </c>
       <c r="AE109" t="n">
-        <v>1306.571428571428</v>
+        <v>1306.57</v>
       </c>
       <c r="AF109" t="n">
-        <v>1306.571428571428</v>
+        <v>1306.57</v>
       </c>
     </row>
     <row r="110">
@@ -13026,12 +13026,12 @@
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="J110" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="K110" t="inlineStr">
@@ -13070,37 +13070,37 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="V110" t="n">
-        <v>72759.99999999999</v>
+        <v>72760.03</v>
       </c>
       <c r="W110" t="n">
         <v>0</v>
       </c>
       <c r="X110" t="n">
-        <v>72759.99999999999</v>
+        <v>72760.03</v>
       </c>
       <c r="Y110" t="n">
-        <v>1.455191522836685e-11</v>
+        <v>-0.03</v>
       </c>
       <c r="Z110" t="n">
-        <v>10394.28571428571</v>
+        <v>10394.29</v>
       </c>
       <c r="AA110" t="n">
-        <v>10394.28571428571</v>
+        <v>10394.29</v>
       </c>
       <c r="AB110" t="n">
-        <v>10394.28571428571</v>
+        <v>10394.29</v>
       </c>
       <c r="AC110" t="n">
-        <v>10394.28571428571</v>
+        <v>10394.29</v>
       </c>
       <c r="AD110" t="n">
-        <v>10394.28571428571</v>
+        <v>10394.29</v>
       </c>
       <c r="AE110" t="n">
-        <v>10394.28571428571</v>
+        <v>10394.29</v>
       </c>
       <c r="AF110" t="n">
-        <v>10394.28571428571</v>
+        <v>10394.29</v>
       </c>
     </row>
     <row r="111">
@@ -13263,7 +13263,7 @@
       </c>
       <c r="J112" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="K112" t="inlineStr">
@@ -13499,7 +13499,7 @@
       </c>
       <c r="J114" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="K114" t="inlineStr">
@@ -13617,7 +13617,7 @@
       </c>
       <c r="J115" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="K115" t="inlineStr">
@@ -13731,7 +13731,7 @@
       </c>
       <c r="J116" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="K116" t="inlineStr">
@@ -13884,37 +13884,37 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="V117" t="n">
-        <v>44519.14285714286</v>
+        <v>44519.16</v>
       </c>
       <c r="W117" t="n">
         <v>0</v>
       </c>
       <c r="X117" t="n">
-        <v>44519.14285714286</v>
+        <v>44519.16</v>
       </c>
       <c r="Y117" t="n">
-        <v>7419.857142857145</v>
+        <v>7419.84</v>
       </c>
       <c r="Z117" t="n">
         <v>0</v>
       </c>
       <c r="AA117" t="n">
-        <v>7419.857142857142</v>
+        <v>7419.86</v>
       </c>
       <c r="AB117" t="n">
-        <v>7419.857142857142</v>
+        <v>7419.86</v>
       </c>
       <c r="AC117" t="n">
-        <v>7419.857142857142</v>
+        <v>7419.86</v>
       </c>
       <c r="AD117" t="n">
-        <v>7419.857142857142</v>
+        <v>7419.86</v>
       </c>
       <c r="AE117" t="n">
-        <v>7419.857142857142</v>
+        <v>7419.86</v>
       </c>
       <c r="AF117" t="n">
-        <v>7419.857142857142</v>
+        <v>7419.86</v>
       </c>
     </row>
     <row r="118">
@@ -13959,7 +13959,7 @@
       </c>
       <c r="J118" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="K118" t="inlineStr">
@@ -14077,7 +14077,7 @@
       </c>
       <c r="J119" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="K119" t="inlineStr">
@@ -14230,37 +14230,37 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="V120" t="n">
-        <v>21342.85714285714</v>
+        <v>21342.84</v>
       </c>
       <c r="W120" t="n">
         <v>0</v>
       </c>
       <c r="X120" t="n">
-        <v>21342.85714285714</v>
+        <v>21342.84</v>
       </c>
       <c r="Y120" t="n">
-        <v>3557.142857142862</v>
+        <v>3557.16</v>
       </c>
       <c r="Z120" t="n">
         <v>0</v>
       </c>
       <c r="AA120" t="n">
-        <v>3557.142857142857</v>
+        <v>3557.14</v>
       </c>
       <c r="AB120" t="n">
-        <v>3557.142857142857</v>
+        <v>3557.14</v>
       </c>
       <c r="AC120" t="n">
-        <v>3557.142857142857</v>
+        <v>3557.14</v>
       </c>
       <c r="AD120" t="n">
-        <v>3557.142857142857</v>
+        <v>3557.14</v>
       </c>
       <c r="AE120" t="n">
-        <v>3557.142857142857</v>
+        <v>3557.14</v>
       </c>
       <c r="AF120" t="n">
-        <v>3557.142857142857</v>
+        <v>3557.14</v>
       </c>
     </row>
     <row r="121">
@@ -14344,37 +14344,37 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="V121" t="n">
-        <v>41558.57142857143</v>
+        <v>41558.58</v>
       </c>
       <c r="W121" t="n">
         <v>0</v>
       </c>
       <c r="X121" t="n">
-        <v>41558.57142857143</v>
+        <v>41558.58</v>
       </c>
       <c r="Y121" t="n">
-        <v>6926.428571428572</v>
+        <v>6926.42</v>
       </c>
       <c r="Z121" t="n">
         <v>0</v>
       </c>
       <c r="AA121" t="n">
-        <v>6926.428571428571</v>
+        <v>6926.43</v>
       </c>
       <c r="AB121" t="n">
-        <v>6926.428571428571</v>
+        <v>6926.43</v>
       </c>
       <c r="AC121" t="n">
-        <v>6926.428571428571</v>
+        <v>6926.43</v>
       </c>
       <c r="AD121" t="n">
-        <v>6926.428571428571</v>
+        <v>6926.43</v>
       </c>
       <c r="AE121" t="n">
-        <v>6926.428571428571</v>
+        <v>6926.43</v>
       </c>
       <c r="AF121" t="n">
-        <v>6926.428571428571</v>
+        <v>6926.43</v>
       </c>
     </row>
     <row r="122">
@@ -14419,7 +14419,7 @@
       </c>
       <c r="J122" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="K122" t="inlineStr">
@@ -14572,34 +14572,34 @@
         <v>0.2</v>
       </c>
       <c r="V123" t="n">
-        <v>87706.17</v>
+        <v>87706.14999999999</v>
       </c>
       <c r="W123" t="n">
         <v>0</v>
       </c>
       <c r="X123" t="n">
-        <v>87706.17</v>
+        <v>87706.14999999999</v>
       </c>
       <c r="Y123" t="n">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="Z123" t="n">
         <v>0</v>
       </c>
       <c r="AA123" t="n">
-        <v>17541.234</v>
+        <v>17541.23</v>
       </c>
       <c r="AB123" t="n">
-        <v>17541.234</v>
+        <v>17541.23</v>
       </c>
       <c r="AC123" t="n">
-        <v>17541.234</v>
+        <v>17541.23</v>
       </c>
       <c r="AD123" t="n">
-        <v>17541.234</v>
+        <v>17541.23</v>
       </c>
       <c r="AE123" t="n">
-        <v>17541.234</v>
+        <v>17541.23</v>
       </c>
       <c r="AF123" t="n">
         <v>0</v>
@@ -14686,34 +14686,34 @@
         <v>0.2</v>
       </c>
       <c r="V124" t="n">
-        <v>106113.64</v>
+        <v>106113.65</v>
       </c>
       <c r="W124" t="n">
         <v>0</v>
       </c>
       <c r="X124" t="n">
-        <v>106113.64</v>
+        <v>106113.65</v>
       </c>
       <c r="Y124" t="n">
-        <v>-1.455191522836685e-11</v>
+        <v>-0.01</v>
       </c>
       <c r="Z124" t="n">
         <v>0</v>
       </c>
       <c r="AA124" t="n">
-        <v>21222.728</v>
+        <v>21222.73</v>
       </c>
       <c r="AB124" t="n">
-        <v>21222.728</v>
+        <v>21222.73</v>
       </c>
       <c r="AC124" t="n">
-        <v>21222.728</v>
+        <v>21222.73</v>
       </c>
       <c r="AD124" t="n">
-        <v>21222.728</v>
+        <v>21222.73</v>
       </c>
       <c r="AE124" t="n">
-        <v>21222.728</v>
+        <v>21222.73</v>
       </c>
       <c r="AF124" t="n">
         <v>0</v>
@@ -14800,34 +14800,34 @@
         <v>0.2</v>
       </c>
       <c r="V125" t="n">
-        <v>44394.48</v>
+        <v>44394.5</v>
       </c>
       <c r="W125" t="n">
         <v>0</v>
       </c>
       <c r="X125" t="n">
-        <v>44394.48</v>
+        <v>44394.5</v>
       </c>
       <c r="Y125" t="n">
-        <v>0</v>
+        <v>-0.02</v>
       </c>
       <c r="Z125" t="n">
         <v>0</v>
       </c>
       <c r="AA125" t="n">
-        <v>8878.896000000001</v>
+        <v>8878.9</v>
       </c>
       <c r="AB125" t="n">
-        <v>8878.896000000001</v>
+        <v>8878.9</v>
       </c>
       <c r="AC125" t="n">
-        <v>8878.896000000001</v>
+        <v>8878.9</v>
       </c>
       <c r="AD125" t="n">
-        <v>8878.896000000001</v>
+        <v>8878.9</v>
       </c>
       <c r="AE125" t="n">
-        <v>8878.896000000001</v>
+        <v>8878.9</v>
       </c>
       <c r="AF125" t="n">
         <v>0</v>
@@ -14870,12 +14870,12 @@
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="J126" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="K126" t="inlineStr">
@@ -14914,34 +14914,34 @@
         <v>0.2</v>
       </c>
       <c r="V126" t="n">
-        <v>7254.71</v>
+        <v>7254.700000000001</v>
       </c>
       <c r="W126" t="n">
         <v>0</v>
       </c>
       <c r="X126" t="n">
-        <v>7254.71</v>
+        <v>7254.7</v>
       </c>
       <c r="Y126" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="Z126" t="n">
         <v>0</v>
       </c>
       <c r="AA126" t="n">
-        <v>1450.942</v>
+        <v>1450.94</v>
       </c>
       <c r="AB126" t="n">
-        <v>1450.942</v>
+        <v>1450.94</v>
       </c>
       <c r="AC126" t="n">
-        <v>1450.942</v>
+        <v>1450.94</v>
       </c>
       <c r="AD126" t="n">
-        <v>1450.942</v>
+        <v>1450.94</v>
       </c>
       <c r="AE126" t="n">
-        <v>1450.942</v>
+        <v>1450.94</v>
       </c>
       <c r="AF126" t="n">
         <v>0</v>
@@ -15103,7 +15103,7 @@
       </c>
       <c r="J128" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="K128" t="inlineStr">
@@ -15217,7 +15217,7 @@
       </c>
       <c r="J129" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="K129" t="inlineStr">
@@ -15331,7 +15331,7 @@
       </c>
       <c r="J130" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="K130" t="inlineStr">
@@ -15484,16 +15484,16 @@
         <v>0.2</v>
       </c>
       <c r="V131" t="n">
-        <v>56354.00000000001</v>
+        <v>56354</v>
       </c>
       <c r="W131" t="n">
         <v>0</v>
       </c>
       <c r="X131" t="n">
-        <v>56354.00000000001</v>
+        <v>56354</v>
       </c>
       <c r="Y131" t="n">
-        <v>-7.275957614183426e-12</v>
+        <v>0</v>
       </c>
       <c r="Z131" t="n">
         <v>0</v>
@@ -15598,16 +15598,16 @@
         <v>0.2</v>
       </c>
       <c r="V132" t="n">
-        <v>41989.00000000001</v>
+        <v>41989</v>
       </c>
       <c r="W132" t="n">
         <v>0</v>
       </c>
       <c r="X132" t="n">
-        <v>41989.00000000001</v>
+        <v>41989</v>
       </c>
       <c r="Y132" t="n">
-        <v>-7.275957614183426e-12</v>
+        <v>0</v>
       </c>
       <c r="Z132" t="n">
         <v>0</v>
@@ -15616,19 +15616,19 @@
         <v>0</v>
       </c>
       <c r="AB132" t="n">
-        <v>8397.800000000001</v>
+        <v>8397.799999999999</v>
       </c>
       <c r="AC132" t="n">
-        <v>8397.800000000001</v>
+        <v>8397.799999999999</v>
       </c>
       <c r="AD132" t="n">
-        <v>8397.800000000001</v>
+        <v>8397.799999999999</v>
       </c>
       <c r="AE132" t="n">
-        <v>8397.800000000001</v>
+        <v>8397.799999999999</v>
       </c>
       <c r="AF132" t="n">
-        <v>8397.800000000001</v>
+        <v>8397.799999999999</v>
       </c>
     </row>
     <row r="133">
@@ -15673,7 +15673,7 @@
       </c>
       <c r="J133" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="K133" t="inlineStr">
@@ -15826,16 +15826,16 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="V134" t="n">
-        <v>6482.142857142857</v>
+        <v>6482.150000000001</v>
       </c>
       <c r="W134" t="n">
         <v>0</v>
       </c>
       <c r="X134" t="n">
-        <v>6482.142857142857</v>
+        <v>6482.15</v>
       </c>
       <c r="Y134" t="n">
-        <v>2592.857142857143</v>
+        <v>2592.85</v>
       </c>
       <c r="Z134" t="n">
         <v>0</v>
@@ -15844,19 +15844,19 @@
         <v>0</v>
       </c>
       <c r="AB134" t="n">
-        <v>1296.428571428571</v>
+        <v>1296.43</v>
       </c>
       <c r="AC134" t="n">
-        <v>1296.428571428571</v>
+        <v>1296.43</v>
       </c>
       <c r="AD134" t="n">
-        <v>1296.428571428571</v>
+        <v>1296.43</v>
       </c>
       <c r="AE134" t="n">
-        <v>1296.428571428571</v>
+        <v>1296.43</v>
       </c>
       <c r="AF134" t="n">
-        <v>1296.428571428571</v>
+        <v>1296.43</v>
       </c>
     </row>
     <row r="135">
@@ -16124,12 +16124,12 @@
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="J137" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="K137" t="inlineStr">
@@ -16585,7 +16585,7 @@
       </c>
       <c r="J141" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="K141" t="inlineStr">
@@ -16699,7 +16699,7 @@
       </c>
       <c r="J142" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="K142" t="inlineStr">
@@ -17036,12 +17036,12 @@
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="J145" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="K145" t="n">
@@ -17153,7 +17153,7 @@
       </c>
       <c r="J146" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="K146" t="inlineStr">
@@ -17306,16 +17306,16 @@
         <v>0.2</v>
       </c>
       <c r="V147" t="n">
-        <v>65698.41600000001</v>
+        <v>65698.39999999999</v>
       </c>
       <c r="W147" t="n">
         <v>0</v>
       </c>
       <c r="X147" t="n">
-        <v>65698.41600000001</v>
+        <v>65698.39999999999</v>
       </c>
       <c r="Y147" t="n">
-        <v>16424.60399999999</v>
+        <v>16424.62</v>
       </c>
       <c r="Z147" t="n">
         <v>0</v>
@@ -17327,16 +17327,16 @@
         <v>0</v>
       </c>
       <c r="AC147" t="n">
-        <v>16424.604</v>
+        <v>16424.6</v>
       </c>
       <c r="AD147" t="n">
-        <v>16424.604</v>
+        <v>16424.6</v>
       </c>
       <c r="AE147" t="n">
-        <v>16424.604</v>
+        <v>16424.6</v>
       </c>
       <c r="AF147" t="n">
-        <v>16424.604</v>
+        <v>16424.6</v>
       </c>
     </row>
     <row r="148">
@@ -17420,16 +17420,16 @@
         <v>0.2</v>
       </c>
       <c r="V148" t="n">
-        <v>25921.824</v>
+        <v>25921.84</v>
       </c>
       <c r="W148" t="n">
         <v>0</v>
       </c>
       <c r="X148" t="n">
-        <v>25921.824</v>
+        <v>25921.84</v>
       </c>
       <c r="Y148" t="n">
-        <v>6480.455999999998</v>
+        <v>6480.44</v>
       </c>
       <c r="Z148" t="n">
         <v>0</v>
@@ -17441,16 +17441,16 @@
         <v>0</v>
       </c>
       <c r="AC148" t="n">
-        <v>6480.456</v>
+        <v>6480.46</v>
       </c>
       <c r="AD148" t="n">
-        <v>6480.456</v>
+        <v>6480.46</v>
       </c>
       <c r="AE148" t="n">
-        <v>6480.456</v>
+        <v>6480.46</v>
       </c>
       <c r="AF148" t="n">
-        <v>6480.456</v>
+        <v>6480.46</v>
       </c>
     </row>
     <row r="149">
@@ -17490,12 +17490,12 @@
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="J149" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="K149" t="n">
@@ -17721,7 +17721,7 @@
       </c>
       <c r="J151" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="K151" t="inlineStr">
@@ -17760,16 +17760,16 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="V151" t="n">
-        <v>2571.428571428571</v>
+        <v>2571.44</v>
       </c>
       <c r="W151" t="n">
         <v>0</v>
       </c>
       <c r="X151" t="n">
-        <v>2571.428571428571</v>
+        <v>2571.44</v>
       </c>
       <c r="Y151" t="n">
-        <v>1928.571428571429</v>
+        <v>1928.56</v>
       </c>
       <c r="Z151" t="n">
         <v>0</v>
@@ -17781,16 +17781,16 @@
         <v>0</v>
       </c>
       <c r="AC151" t="n">
-        <v>642.8571428571428</v>
+        <v>642.86</v>
       </c>
       <c r="AD151" t="n">
-        <v>642.8571428571428</v>
+        <v>642.86</v>
       </c>
       <c r="AE151" t="n">
-        <v>642.8571428571428</v>
+        <v>642.86</v>
       </c>
       <c r="AF151" t="n">
-        <v>642.8571428571428</v>
+        <v>642.86</v>
       </c>
     </row>
     <row r="152">
@@ -17817,7 +17817,7 @@
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G152" t="inlineStr">
@@ -17832,12 +17832,12 @@
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="J152" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="K152" t="inlineStr">
@@ -17933,7 +17933,7 @@
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G153" t="inlineStr">
@@ -17948,12 +17948,12 @@
       </c>
       <c r="I153" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="J153" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="K153" t="inlineStr">
@@ -18049,7 +18049,7 @@
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G154" t="inlineStr">
@@ -18064,12 +18064,12 @@
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="J154" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="K154" t="inlineStr">
@@ -18108,16 +18108,16 @@
         <v>0.05</v>
       </c>
       <c r="V154" t="n">
-        <v>15851.99</v>
+        <v>15852</v>
       </c>
       <c r="W154" t="n">
         <v>0</v>
       </c>
       <c r="X154" t="n">
-        <v>15851.99</v>
+        <v>15852</v>
       </c>
       <c r="Y154" t="n">
-        <v>63407.96</v>
+        <v>63407.95</v>
       </c>
       <c r="Z154" t="n">
         <v>0</v>
@@ -18129,16 +18129,16 @@
         <v>0</v>
       </c>
       <c r="AC154" t="n">
-        <v>3962.9975</v>
+        <v>3963</v>
       </c>
       <c r="AD154" t="n">
-        <v>3962.9975</v>
+        <v>3963</v>
       </c>
       <c r="AE154" t="n">
-        <v>3962.9975</v>
+        <v>3963</v>
       </c>
       <c r="AF154" t="n">
-        <v>3962.9975</v>
+        <v>3963</v>
       </c>
     </row>
     <row r="155">
@@ -18165,7 +18165,7 @@
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G155" t="inlineStr">
@@ -18180,12 +18180,12 @@
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="J155" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="K155" t="inlineStr">
@@ -18224,16 +18224,16 @@
         <v>0.05</v>
       </c>
       <c r="V155" t="n">
-        <v>5277.5</v>
+        <v>5277.52</v>
       </c>
       <c r="W155" t="n">
         <v>0</v>
       </c>
       <c r="X155" t="n">
-        <v>5277.5</v>
+        <v>5277.52</v>
       </c>
       <c r="Y155" t="n">
-        <v>21110</v>
+        <v>21109.98</v>
       </c>
       <c r="Z155" t="n">
         <v>0</v>
@@ -18245,16 +18245,16 @@
         <v>0</v>
       </c>
       <c r="AC155" t="n">
-        <v>1319.375</v>
+        <v>1319.38</v>
       </c>
       <c r="AD155" t="n">
-        <v>1319.375</v>
+        <v>1319.38</v>
       </c>
       <c r="AE155" t="n">
-        <v>1319.375</v>
+        <v>1319.38</v>
       </c>
       <c r="AF155" t="n">
-        <v>1319.375</v>
+        <v>1319.38</v>
       </c>
     </row>
     <row r="156">
@@ -18281,7 +18281,7 @@
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G156" t="inlineStr">
@@ -18296,12 +18296,12 @@
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="J156" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="K156" t="inlineStr">
@@ -18340,16 +18340,16 @@
         <v>0.05</v>
       </c>
       <c r="V156" t="n">
-        <v>795.85</v>
+        <v>795.84</v>
       </c>
       <c r="W156" t="n">
         <v>0</v>
       </c>
       <c r="X156" t="n">
-        <v>795.85</v>
+        <v>795.84</v>
       </c>
       <c r="Y156" t="n">
-        <v>3183.4</v>
+        <v>3183.41</v>
       </c>
       <c r="Z156" t="n">
         <v>0</v>
@@ -18361,16 +18361,16 @@
         <v>0</v>
       </c>
       <c r="AC156" t="n">
-        <v>198.9625</v>
+        <v>198.96</v>
       </c>
       <c r="AD156" t="n">
-        <v>198.9625</v>
+        <v>198.96</v>
       </c>
       <c r="AE156" t="n">
-        <v>198.9625</v>
+        <v>198.96</v>
       </c>
       <c r="AF156" t="n">
-        <v>198.9625</v>
+        <v>198.96</v>
       </c>
     </row>
     <row r="157">
@@ -18397,7 +18397,7 @@
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G157" t="inlineStr">
@@ -18412,12 +18412,12 @@
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="J157" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="K157" t="inlineStr">
@@ -18513,7 +18513,7 @@
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G158" t="inlineStr">
@@ -18528,12 +18528,12 @@
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="J158" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="K158" t="inlineStr">
@@ -18629,7 +18629,7 @@
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G159" t="inlineStr">
@@ -18644,12 +18644,12 @@
       </c>
       <c r="I159" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="J159" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="K159" t="inlineStr">
@@ -18688,16 +18688,16 @@
         <v>0.05</v>
       </c>
       <c r="V159" t="n">
-        <v>279.3</v>
+        <v>279.32</v>
       </c>
       <c r="W159" t="n">
         <v>0</v>
       </c>
       <c r="X159" t="n">
-        <v>279.3</v>
+        <v>279.32</v>
       </c>
       <c r="Y159" t="n">
-        <v>1117.2</v>
+        <v>1117.18</v>
       </c>
       <c r="Z159" t="n">
         <v>0</v>
@@ -18709,16 +18709,16 @@
         <v>0</v>
       </c>
       <c r="AC159" t="n">
-        <v>69.825</v>
+        <v>69.83</v>
       </c>
       <c r="AD159" t="n">
-        <v>69.825</v>
+        <v>69.83</v>
       </c>
       <c r="AE159" t="n">
-        <v>69.825</v>
+        <v>69.83</v>
       </c>
       <c r="AF159" t="n">
-        <v>69.825</v>
+        <v>69.83</v>
       </c>
     </row>
     <row r="160">
@@ -18745,7 +18745,7 @@
       </c>
       <c r="F160" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G160" t="inlineStr">
@@ -18760,12 +18760,12 @@
       </c>
       <c r="I160" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="J160" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="K160" t="inlineStr">
@@ -18861,7 +18861,7 @@
       </c>
       <c r="F161" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G161" t="inlineStr">
@@ -18876,12 +18876,12 @@
       </c>
       <c r="I161" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="J161" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="K161" t="inlineStr">
@@ -18977,7 +18977,7 @@
       </c>
       <c r="F162" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G162" t="inlineStr">
@@ -18992,12 +18992,12 @@
       </c>
       <c r="I162" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="J162" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="K162" t="inlineStr">
@@ -19093,7 +19093,7 @@
       </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G163" t="inlineStr">
@@ -19108,12 +19108,12 @@
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="J163" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="K163" t="inlineStr">
@@ -19152,16 +19152,16 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="V163" t="n">
-        <v>10173.33333333333</v>
+        <v>10173.32</v>
       </c>
       <c r="W163" t="n">
         <v>0</v>
       </c>
       <c r="X163" t="n">
-        <v>10173.33333333333</v>
+        <v>10173.32</v>
       </c>
       <c r="Y163" t="n">
-        <v>27976.66666666666</v>
+        <v>27976.68</v>
       </c>
       <c r="Z163" t="n">
         <v>0</v>
@@ -19173,16 +19173,16 @@
         <v>0</v>
       </c>
       <c r="AC163" t="n">
-        <v>2543.333333333333</v>
+        <v>2543.33</v>
       </c>
       <c r="AD163" t="n">
-        <v>2543.333333333333</v>
+        <v>2543.33</v>
       </c>
       <c r="AE163" t="n">
-        <v>2543.333333333333</v>
+        <v>2543.33</v>
       </c>
       <c r="AF163" t="n">
-        <v>2543.333333333333</v>
+        <v>2543.33</v>
       </c>
     </row>
     <row r="164">
@@ -19209,7 +19209,7 @@
       </c>
       <c r="F164" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G164" t="inlineStr">
@@ -19224,12 +19224,12 @@
       </c>
       <c r="I164" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="J164" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="K164" t="inlineStr">
@@ -19268,16 +19268,16 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="V164" t="n">
-        <v>9333.333333333334</v>
+        <v>9333.32</v>
       </c>
       <c r="W164" t="n">
         <v>0</v>
       </c>
       <c r="X164" t="n">
-        <v>9333.333333333334</v>
+        <v>9333.32</v>
       </c>
       <c r="Y164" t="n">
-        <v>25666.66666666666</v>
+        <v>25666.68</v>
       </c>
       <c r="Z164" t="n">
         <v>0</v>
@@ -19289,16 +19289,16 @@
         <v>0</v>
       </c>
       <c r="AC164" t="n">
-        <v>2333.333333333333</v>
+        <v>2333.33</v>
       </c>
       <c r="AD164" t="n">
-        <v>2333.333333333333</v>
+        <v>2333.33</v>
       </c>
       <c r="AE164" t="n">
-        <v>2333.333333333333</v>
+        <v>2333.33</v>
       </c>
       <c r="AF164" t="n">
-        <v>2333.333333333333</v>
+        <v>2333.33</v>
       </c>
     </row>
     <row r="165">
@@ -19325,7 +19325,7 @@
       </c>
       <c r="F165" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G165" t="inlineStr">
@@ -19340,12 +19340,12 @@
       </c>
       <c r="I165" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="J165" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="K165" t="inlineStr">
@@ -19384,16 +19384,16 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="V165" t="n">
-        <v>10173.33333333333</v>
+        <v>10173.32</v>
       </c>
       <c r="W165" t="n">
         <v>0</v>
       </c>
       <c r="X165" t="n">
-        <v>10173.33333333333</v>
+        <v>10173.32</v>
       </c>
       <c r="Y165" t="n">
-        <v>27976.66666666666</v>
+        <v>27976.68</v>
       </c>
       <c r="Z165" t="n">
         <v>0</v>
@@ -19405,16 +19405,16 @@
         <v>0</v>
       </c>
       <c r="AC165" t="n">
-        <v>2543.333333333333</v>
+        <v>2543.33</v>
       </c>
       <c r="AD165" t="n">
-        <v>2543.333333333333</v>
+        <v>2543.33</v>
       </c>
       <c r="AE165" t="n">
-        <v>2543.333333333333</v>
+        <v>2543.33</v>
       </c>
       <c r="AF165" t="n">
-        <v>2543.333333333333</v>
+        <v>2543.33</v>
       </c>
     </row>
     <row r="166">
@@ -19441,7 +19441,7 @@
       </c>
       <c r="F166" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G166" t="inlineStr">
@@ -19456,12 +19456,12 @@
       </c>
       <c r="I166" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="J166" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="K166" t="inlineStr">
@@ -19500,16 +19500,16 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="V166" t="n">
-        <v>317.3333333333333</v>
+        <v>317.32</v>
       </c>
       <c r="W166" t="n">
         <v>0</v>
       </c>
       <c r="X166" t="n">
-        <v>317.3333333333333</v>
+        <v>317.32</v>
       </c>
       <c r="Y166" t="n">
-        <v>872.6666666666667</v>
+        <v>872.6799999999999</v>
       </c>
       <c r="Z166" t="n">
         <v>0</v>
@@ -19521,16 +19521,16 @@
         <v>0</v>
       </c>
       <c r="AC166" t="n">
-        <v>79.33333333333333</v>
+        <v>79.33</v>
       </c>
       <c r="AD166" t="n">
-        <v>79.33333333333333</v>
+        <v>79.33</v>
       </c>
       <c r="AE166" t="n">
-        <v>79.33333333333333</v>
+        <v>79.33</v>
       </c>
       <c r="AF166" t="n">
-        <v>79.33333333333333</v>
+        <v>79.33</v>
       </c>
     </row>
     <row r="167">
@@ -19557,7 +19557,7 @@
       </c>
       <c r="F167" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G167" t="inlineStr">
@@ -19572,12 +19572,12 @@
       </c>
       <c r="I167" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="J167" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="K167" t="inlineStr">
@@ -19673,7 +19673,7 @@
       </c>
       <c r="F168" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G168" t="inlineStr">
@@ -19688,12 +19688,12 @@
       </c>
       <c r="I168" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="J168" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="K168" t="inlineStr">
@@ -19789,7 +19789,7 @@
       </c>
       <c r="F169" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G169" t="inlineStr">
@@ -19805,12 +19805,12 @@
       </c>
       <c r="I169" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="J169" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="K169" t="inlineStr">
@@ -19849,16 +19849,16 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="V169" t="n">
-        <v>1866.666666666667</v>
+        <v>1866.68</v>
       </c>
       <c r="W169" t="n">
         <v>0</v>
       </c>
       <c r="X169" t="n">
-        <v>1866.666666666667</v>
+        <v>1866.68</v>
       </c>
       <c r="Y169" t="n">
-        <v>5133.333333333333</v>
+        <v>5133.32</v>
       </c>
       <c r="Z169" t="n">
         <v>0</v>
@@ -19870,16 +19870,16 @@
         <v>0</v>
       </c>
       <c r="AC169" t="n">
-        <v>466.6666666666667</v>
+        <v>466.67</v>
       </c>
       <c r="AD169" t="n">
-        <v>466.6666666666667</v>
+        <v>466.67</v>
       </c>
       <c r="AE169" t="n">
-        <v>466.6666666666667</v>
+        <v>466.67</v>
       </c>
       <c r="AF169" t="n">
-        <v>466.6666666666667</v>
+        <v>466.67</v>
       </c>
     </row>
     <row r="170">
@@ -19906,7 +19906,7 @@
       </c>
       <c r="F170" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G170" t="inlineStr">
@@ -19926,7 +19926,7 @@
       </c>
       <c r="J170" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="K170" t="inlineStr">
@@ -19965,16 +19965,16 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="V170" t="n">
-        <v>14666.66666666667</v>
+        <v>14666.68</v>
       </c>
       <c r="W170" t="n">
         <v>0</v>
       </c>
       <c r="X170" t="n">
-        <v>14666.66666666667</v>
+        <v>14666.68</v>
       </c>
       <c r="Y170" t="n">
-        <v>40333.33333333334</v>
+        <v>40333.32</v>
       </c>
       <c r="Z170" t="n">
         <v>0</v>
@@ -19986,16 +19986,16 @@
         <v>0</v>
       </c>
       <c r="AC170" t="n">
-        <v>3666.666666666667</v>
+        <v>3666.67</v>
       </c>
       <c r="AD170" t="n">
-        <v>3666.666666666667</v>
+        <v>3666.67</v>
       </c>
       <c r="AE170" t="n">
-        <v>3666.666666666667</v>
+        <v>3666.67</v>
       </c>
       <c r="AF170" t="n">
-        <v>3666.666666666667</v>
+        <v>3666.67</v>
       </c>
     </row>
     <row r="171">
@@ -20022,7 +20022,7 @@
       </c>
       <c r="F171" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G171" t="inlineStr">
@@ -20037,12 +20037,12 @@
       </c>
       <c r="I171" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="J171" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="K171" t="inlineStr">
@@ -20081,16 +20081,16 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="V171" t="n">
-        <v>35733.33333333334</v>
+        <v>35733.32</v>
       </c>
       <c r="W171" t="n">
         <v>0</v>
       </c>
       <c r="X171" t="n">
-        <v>35733.33333333334</v>
+        <v>35733.32</v>
       </c>
       <c r="Y171" t="n">
-        <v>98266.66666666666</v>
+        <v>98266.67999999999</v>
       </c>
       <c r="Z171" t="n">
         <v>0</v>
@@ -20102,16 +20102,16 @@
         <v>0</v>
       </c>
       <c r="AC171" t="n">
-        <v>8933.333333333334</v>
+        <v>8933.33</v>
       </c>
       <c r="AD171" t="n">
-        <v>8933.333333333334</v>
+        <v>8933.33</v>
       </c>
       <c r="AE171" t="n">
-        <v>8933.333333333334</v>
+        <v>8933.33</v>
       </c>
       <c r="AF171" t="n">
-        <v>8933.333333333334</v>
+        <v>8933.33</v>
       </c>
     </row>
     <row r="172">
@@ -20138,7 +20138,7 @@
       </c>
       <c r="F172" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G172" t="inlineStr">
@@ -20158,7 +20158,7 @@
       </c>
       <c r="J172" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="K172" t="inlineStr">
@@ -20197,16 +20197,16 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="V172" t="n">
-        <v>11333.33333333333</v>
+        <v>11333.32</v>
       </c>
       <c r="W172" t="n">
         <v>0</v>
       </c>
       <c r="X172" t="n">
-        <v>11333.33333333333</v>
+        <v>11333.32</v>
       </c>
       <c r="Y172" t="n">
-        <v>31166.66666666666</v>
+        <v>31166.68</v>
       </c>
       <c r="Z172" t="n">
         <v>0</v>
@@ -20218,16 +20218,16 @@
         <v>0</v>
       </c>
       <c r="AC172" t="n">
-        <v>2833.333333333333</v>
+        <v>2833.33</v>
       </c>
       <c r="AD172" t="n">
-        <v>2833.333333333333</v>
+        <v>2833.33</v>
       </c>
       <c r="AE172" t="n">
-        <v>2833.333333333333</v>
+        <v>2833.33</v>
       </c>
       <c r="AF172" t="n">
-        <v>2833.333333333333</v>
+        <v>2833.33</v>
       </c>
     </row>
     <row r="173">
@@ -20254,7 +20254,7 @@
       </c>
       <c r="F173" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G173" t="inlineStr">
@@ -20274,7 +20274,7 @@
       </c>
       <c r="J173" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="K173" t="inlineStr">
@@ -20370,7 +20370,7 @@
       </c>
       <c r="F174" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G174" t="inlineStr">
@@ -20390,7 +20390,7 @@
       </c>
       <c r="J174" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="K174" t="inlineStr">
@@ -20486,7 +20486,7 @@
       </c>
       <c r="F175" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G175" t="inlineStr">
@@ -20506,7 +20506,7 @@
       </c>
       <c r="J175" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="K175" t="inlineStr">
@@ -20602,7 +20602,7 @@
       </c>
       <c r="F176" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G176" t="inlineStr">
@@ -20617,12 +20617,12 @@
       </c>
       <c r="I176" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="J176" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="K176" t="inlineStr">
@@ -20718,7 +20718,7 @@
       </c>
       <c r="F177" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G177" t="inlineStr">
@@ -20733,12 +20733,12 @@
       </c>
       <c r="I177" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="J177" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="K177" t="inlineStr">
@@ -20834,7 +20834,7 @@
       </c>
       <c r="F178" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G178" t="inlineStr">
@@ -20849,12 +20849,12 @@
       </c>
       <c r="I178" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="J178" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="K178" t="inlineStr">
@@ -20950,7 +20950,7 @@
       </c>
       <c r="F179" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G179" t="inlineStr">
@@ -20965,12 +20965,12 @@
       </c>
       <c r="I179" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="J179" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="K179" t="inlineStr">
@@ -21066,7 +21066,7 @@
       </c>
       <c r="F180" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G180" t="inlineStr">
@@ -21086,7 +21086,7 @@
       </c>
       <c r="J180" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="K180" t="inlineStr">
@@ -21182,7 +21182,7 @@
       </c>
       <c r="F181" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G181" t="inlineStr">
@@ -21197,12 +21197,12 @@
       </c>
       <c r="I181" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="J181" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="K181" t="inlineStr">
@@ -21298,7 +21298,7 @@
       </c>
       <c r="F182" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G182" t="inlineStr">
@@ -21313,12 +21313,12 @@
       </c>
       <c r="I182" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="J182" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="K182" t="inlineStr">
@@ -21414,7 +21414,7 @@
       </c>
       <c r="F183" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G183" t="inlineStr">
@@ -21429,12 +21429,12 @@
       </c>
       <c r="I183" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="J183" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="K183" t="inlineStr">
@@ -21530,7 +21530,7 @@
       </c>
       <c r="F184" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G184" t="inlineStr">
@@ -21546,12 +21546,12 @@
       </c>
       <c r="I184" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="J184" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="K184" t="inlineStr">
@@ -21647,7 +21647,7 @@
       </c>
       <c r="F185" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G185" t="inlineStr">
@@ -21662,12 +21662,12 @@
       </c>
       <c r="I185" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="J185" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="K185" t="inlineStr">
@@ -21763,7 +21763,7 @@
       </c>
       <c r="F186" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G186" t="inlineStr">
@@ -21778,12 +21778,12 @@
       </c>
       <c r="I186" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="J186" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="K186" t="inlineStr">
@@ -21879,7 +21879,7 @@
       </c>
       <c r="F187" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G187" t="inlineStr">
@@ -21894,12 +21894,12 @@
       </c>
       <c r="I187" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="J187" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="K187" t="inlineStr">
@@ -21995,7 +21995,7 @@
       </c>
       <c r="F188" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G188" t="inlineStr">
@@ -22010,12 +22010,12 @@
       </c>
       <c r="I188" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="J188" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="K188" t="inlineStr">
@@ -22111,7 +22111,7 @@
       </c>
       <c r="F189" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G189" t="inlineStr">
@@ -22126,12 +22126,12 @@
       </c>
       <c r="I189" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="J189" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="K189" t="inlineStr">
@@ -22227,7 +22227,7 @@
       </c>
       <c r="F190" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G190" t="inlineStr">
@@ -22247,7 +22247,7 @@
       </c>
       <c r="J190" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="K190" t="inlineStr">
@@ -22343,7 +22343,7 @@
       </c>
       <c r="F191" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G191" t="inlineStr">
@@ -22363,7 +22363,7 @@
       </c>
       <c r="J191" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="K191" t="inlineStr">
@@ -22459,7 +22459,7 @@
       </c>
       <c r="F192" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G192" t="inlineStr">
@@ -22474,12 +22474,12 @@
       </c>
       <c r="I192" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="J192" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="K192" t="inlineStr">
@@ -22575,7 +22575,7 @@
       </c>
       <c r="F193" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G193" t="inlineStr">
@@ -22595,7 +22595,7 @@
       </c>
       <c r="J193" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="K193" t="inlineStr">
@@ -22691,7 +22691,7 @@
       </c>
       <c r="F194" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G194" t="inlineStr">
@@ -22711,7 +22711,7 @@
       </c>
       <c r="J194" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="K194" t="inlineStr">
@@ -22750,16 +22750,16 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="V194" t="n">
-        <v>7973.333333333333</v>
+        <v>7973.32</v>
       </c>
       <c r="W194" t="n">
         <v>0</v>
       </c>
       <c r="X194" t="n">
-        <v>7973.333333333333</v>
+        <v>7973.32</v>
       </c>
       <c r="Y194" t="n">
-        <v>21926.66666666667</v>
+        <v>21926.68</v>
       </c>
       <c r="Z194" t="n">
         <v>0</v>
@@ -22771,16 +22771,16 @@
         <v>0</v>
       </c>
       <c r="AC194" t="n">
-        <v>1993.333333333333</v>
+        <v>1993.33</v>
       </c>
       <c r="AD194" t="n">
-        <v>1993.333333333333</v>
+        <v>1993.33</v>
       </c>
       <c r="AE194" t="n">
-        <v>1993.333333333333</v>
+        <v>1993.33</v>
       </c>
       <c r="AF194" t="n">
-        <v>1993.333333333333</v>
+        <v>1993.33</v>
       </c>
     </row>
     <row r="195">
@@ -22807,7 +22807,7 @@
       </c>
       <c r="F195" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G195" t="inlineStr">
@@ -22827,7 +22827,7 @@
       </c>
       <c r="J195" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="K195" t="inlineStr">
@@ -22866,16 +22866,16 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="V195" t="n">
-        <v>1666.666666666667</v>
+        <v>1666.68</v>
       </c>
       <c r="W195" t="n">
         <v>0</v>
       </c>
       <c r="X195" t="n">
-        <v>1666.666666666667</v>
+        <v>1666.68</v>
       </c>
       <c r="Y195" t="n">
-        <v>4583.333333333333</v>
+        <v>4583.32</v>
       </c>
       <c r="Z195" t="n">
         <v>0</v>
@@ -22887,16 +22887,16 @@
         <v>0</v>
       </c>
       <c r="AC195" t="n">
-        <v>416.6666666666667</v>
+        <v>416.67</v>
       </c>
       <c r="AD195" t="n">
-        <v>416.6666666666667</v>
+        <v>416.67</v>
       </c>
       <c r="AE195" t="n">
-        <v>416.6666666666667</v>
+        <v>416.67</v>
       </c>
       <c r="AF195" t="n">
-        <v>416.6666666666667</v>
+        <v>416.67</v>
       </c>
     </row>
     <row r="196">
@@ -22923,7 +22923,7 @@
       </c>
       <c r="F196" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G196" t="inlineStr">
@@ -22938,12 +22938,12 @@
       </c>
       <c r="I196" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="J196" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="K196" t="inlineStr">
@@ -23039,7 +23039,7 @@
       </c>
       <c r="F197" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G197" t="inlineStr">
@@ -23054,12 +23054,12 @@
       </c>
       <c r="I197" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="J197" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="K197" t="inlineStr">
@@ -23155,7 +23155,7 @@
       </c>
       <c r="F198" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G198" t="inlineStr">
@@ -23175,7 +23175,7 @@
       </c>
       <c r="J198" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="K198" t="inlineStr">
@@ -23271,7 +23271,7 @@
       </c>
       <c r="F199" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G199" t="inlineStr">
@@ -23291,7 +23291,7 @@
       </c>
       <c r="J199" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="K199" t="inlineStr">
@@ -23387,7 +23387,7 @@
       </c>
       <c r="F200" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G200" t="inlineStr">
@@ -23407,7 +23407,7 @@
       </c>
       <c r="J200" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="K200" t="inlineStr">
@@ -23503,7 +23503,7 @@
       </c>
       <c r="F201" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G201" t="inlineStr">
@@ -23523,7 +23523,7 @@
       </c>
       <c r="J201" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="K201" t="inlineStr">
@@ -23619,7 +23619,7 @@
       </c>
       <c r="F202" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G202" t="inlineStr">
@@ -23639,7 +23639,7 @@
       </c>
       <c r="J202" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="K202" t="inlineStr">
@@ -23735,7 +23735,7 @@
       </c>
       <c r="F203" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G203" t="inlineStr">
@@ -23755,7 +23755,7 @@
       </c>
       <c r="J203" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="K203" t="inlineStr">
@@ -23851,7 +23851,7 @@
       </c>
       <c r="F204" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G204" t="inlineStr">
@@ -23871,7 +23871,7 @@
       </c>
       <c r="J204" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="K204" t="inlineStr">
@@ -23967,7 +23967,7 @@
       </c>
       <c r="F205" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G205" t="inlineStr">
@@ -23987,7 +23987,7 @@
       </c>
       <c r="J205" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="K205" t="inlineStr">
@@ -24083,7 +24083,7 @@
       </c>
       <c r="F206" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G206" t="inlineStr">
@@ -24103,7 +24103,7 @@
       </c>
       <c r="J206" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="K206" t="inlineStr">
@@ -24199,7 +24199,7 @@
       </c>
       <c r="F207" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G207" t="inlineStr">
@@ -24219,7 +24219,7 @@
       </c>
       <c r="J207" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="K207" t="inlineStr">
@@ -24258,16 +24258,16 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="V207" t="n">
-        <v>5957.333333333333</v>
+        <v>5957.32</v>
       </c>
       <c r="W207" t="n">
         <v>0</v>
       </c>
       <c r="X207" t="n">
-        <v>5957.333333333333</v>
+        <v>5957.32</v>
       </c>
       <c r="Y207" t="n">
-        <v>16382.66666666667</v>
+        <v>16382.68</v>
       </c>
       <c r="Z207" t="n">
         <v>0</v>
@@ -24279,16 +24279,16 @@
         <v>0</v>
       </c>
       <c r="AC207" t="n">
-        <v>1489.333333333333</v>
+        <v>1489.33</v>
       </c>
       <c r="AD207" t="n">
-        <v>1489.333333333333</v>
+        <v>1489.33</v>
       </c>
       <c r="AE207" t="n">
-        <v>1489.333333333333</v>
+        <v>1489.33</v>
       </c>
       <c r="AF207" t="n">
-        <v>1489.333333333333</v>
+        <v>1489.33</v>
       </c>
     </row>
     <row r="208">
@@ -24315,7 +24315,7 @@
       </c>
       <c r="F208" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G208" t="inlineStr">
@@ -24335,7 +24335,7 @@
       </c>
       <c r="J208" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="K208" t="inlineStr">
@@ -24374,16 +24374,16 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="V208" t="n">
-        <v>13962.66666666667</v>
+        <v>13962.68</v>
       </c>
       <c r="W208" t="n">
         <v>0</v>
       </c>
       <c r="X208" t="n">
-        <v>13962.66666666667</v>
+        <v>13962.68</v>
       </c>
       <c r="Y208" t="n">
-        <v>38397.33333333334</v>
+        <v>38397.32</v>
       </c>
       <c r="Z208" t="n">
         <v>0</v>
@@ -24395,16 +24395,16 @@
         <v>0</v>
       </c>
       <c r="AC208" t="n">
-        <v>3490.666666666667</v>
+        <v>3490.67</v>
       </c>
       <c r="AD208" t="n">
-        <v>3490.666666666667</v>
+        <v>3490.67</v>
       </c>
       <c r="AE208" t="n">
-        <v>3490.666666666667</v>
+        <v>3490.67</v>
       </c>
       <c r="AF208" t="n">
-        <v>3490.666666666667</v>
+        <v>3490.67</v>
       </c>
     </row>
     <row r="209">
@@ -24431,7 +24431,7 @@
       </c>
       <c r="F209" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G209" t="inlineStr">
@@ -24451,7 +24451,7 @@
       </c>
       <c r="J209" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="K209" t="inlineStr">
@@ -24490,16 +24490,16 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="V209" t="n">
-        <v>3166.666666666667</v>
+        <v>3166.68</v>
       </c>
       <c r="W209" t="n">
         <v>0</v>
       </c>
       <c r="X209" t="n">
-        <v>3166.666666666667</v>
+        <v>3166.68</v>
       </c>
       <c r="Y209" t="n">
-        <v>8708.333333333334</v>
+        <v>8708.32</v>
       </c>
       <c r="Z209" t="n">
         <v>0</v>
@@ -24511,16 +24511,16 @@
         <v>0</v>
       </c>
       <c r="AC209" t="n">
-        <v>791.6666666666666</v>
+        <v>791.67</v>
       </c>
       <c r="AD209" t="n">
-        <v>791.6666666666666</v>
+        <v>791.67</v>
       </c>
       <c r="AE209" t="n">
-        <v>791.6666666666666</v>
+        <v>791.67</v>
       </c>
       <c r="AF209" t="n">
-        <v>791.6666666666666</v>
+        <v>791.67</v>
       </c>
     </row>
     <row r="210">
@@ -24547,7 +24547,7 @@
       </c>
       <c r="F210" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G210" t="inlineStr">
@@ -24567,7 +24567,7 @@
       </c>
       <c r="J210" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="K210" t="inlineStr">
@@ -24663,7 +24663,7 @@
       </c>
       <c r="F211" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G211" t="inlineStr">
@@ -24683,7 +24683,7 @@
       </c>
       <c r="J211" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="K211" t="inlineStr">
@@ -24779,7 +24779,7 @@
       </c>
       <c r="F212" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G212" t="inlineStr">
@@ -24799,7 +24799,7 @@
       </c>
       <c r="J212" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="K212" t="inlineStr">
@@ -24895,7 +24895,7 @@
       </c>
       <c r="F213" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G213" t="inlineStr">
@@ -24915,7 +24915,7 @@
       </c>
       <c r="J213" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="K213" t="inlineStr">
@@ -25011,7 +25011,7 @@
       </c>
       <c r="F214" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G214" t="inlineStr">
@@ -25031,7 +25031,7 @@
       </c>
       <c r="J214" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="K214" t="inlineStr">
@@ -25127,7 +25127,7 @@
       </c>
       <c r="F215" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G215" t="inlineStr">
@@ -25147,7 +25147,7 @@
       </c>
       <c r="J215" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="K215" t="inlineStr">
@@ -25186,16 +25186,16 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="V215" t="n">
-        <v>6186.666666666667</v>
+        <v>6186.68</v>
       </c>
       <c r="W215" t="n">
         <v>0</v>
       </c>
       <c r="X215" t="n">
-        <v>6186.666666666667</v>
+        <v>6186.68</v>
       </c>
       <c r="Y215" t="n">
-        <v>17013.33333333333</v>
+        <v>17013.32</v>
       </c>
       <c r="Z215" t="n">
         <v>0</v>
@@ -25207,16 +25207,16 @@
         <v>0</v>
       </c>
       <c r="AC215" t="n">
-        <v>1546.666666666667</v>
+        <v>1546.67</v>
       </c>
       <c r="AD215" t="n">
-        <v>1546.666666666667</v>
+        <v>1546.67</v>
       </c>
       <c r="AE215" t="n">
-        <v>1546.666666666667</v>
+        <v>1546.67</v>
       </c>
       <c r="AF215" t="n">
-        <v>1546.666666666667</v>
+        <v>1546.67</v>
       </c>
     </row>
     <row r="216">
@@ -25243,7 +25243,7 @@
       </c>
       <c r="F216" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G216" t="inlineStr">
@@ -25263,7 +25263,7 @@
       </c>
       <c r="J216" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="K216" t="inlineStr">
@@ -25302,16 +25302,16 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="V216" t="n">
-        <v>933.3333333333334</v>
+        <v>933.3200000000001</v>
       </c>
       <c r="W216" t="n">
         <v>0</v>
       </c>
       <c r="X216" t="n">
-        <v>933.3333333333334</v>
+        <v>933.3200000000001</v>
       </c>
       <c r="Y216" t="n">
-        <v>2566.666666666667</v>
+        <v>2566.68</v>
       </c>
       <c r="Z216" t="n">
         <v>0</v>
@@ -25323,16 +25323,16 @@
         <v>0</v>
       </c>
       <c r="AC216" t="n">
-        <v>233.3333333333333</v>
+        <v>233.33</v>
       </c>
       <c r="AD216" t="n">
-        <v>233.3333333333333</v>
+        <v>233.33</v>
       </c>
       <c r="AE216" t="n">
-        <v>233.3333333333333</v>
+        <v>233.33</v>
       </c>
       <c r="AF216" t="n">
-        <v>233.3333333333333</v>
+        <v>233.33</v>
       </c>
     </row>
     <row r="217">
@@ -25359,7 +25359,7 @@
       </c>
       <c r="F217" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G217" t="inlineStr">
@@ -25379,7 +25379,7 @@
       </c>
       <c r="J217" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="K217" t="inlineStr">
@@ -25475,7 +25475,7 @@
       </c>
       <c r="F218" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G218" t="inlineStr">
@@ -25534,16 +25534,16 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="V218" t="n">
-        <v>46666.66666666666</v>
+        <v>46666.68</v>
       </c>
       <c r="W218" t="n">
         <v>0</v>
       </c>
       <c r="X218" t="n">
-        <v>46666.66666666666</v>
+        <v>46666.68</v>
       </c>
       <c r="Y218" t="n">
-        <v>128333.3333333333</v>
+        <v>128333.32</v>
       </c>
       <c r="Z218" t="n">
         <v>0</v>
@@ -25555,16 +25555,16 @@
         <v>0</v>
       </c>
       <c r="AC218" t="n">
-        <v>11666.66666666667</v>
+        <v>11666.67</v>
       </c>
       <c r="AD218" t="n">
-        <v>11666.66666666667</v>
+        <v>11666.67</v>
       </c>
       <c r="AE218" t="n">
-        <v>11666.66666666667</v>
+        <v>11666.67</v>
       </c>
       <c r="AF218" t="n">
-        <v>11666.66666666667</v>
+        <v>11666.67</v>
       </c>
     </row>
     <row r="219">
@@ -25591,7 +25591,7 @@
       </c>
       <c r="F219" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G219" t="inlineStr">
@@ -25707,7 +25707,7 @@
       </c>
       <c r="F220" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G220" t="inlineStr">
@@ -25727,7 +25727,7 @@
       </c>
       <c r="J220" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="K220" t="inlineStr">
@@ -25766,16 +25766,16 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="V220" t="n">
-        <v>8133.333333333333</v>
+        <v>8133.32</v>
       </c>
       <c r="W220" t="n">
         <v>0</v>
       </c>
       <c r="X220" t="n">
-        <v>8133.333333333333</v>
+        <v>8133.32</v>
       </c>
       <c r="Y220" t="n">
-        <v>22366.66666666667</v>
+        <v>22366.68</v>
       </c>
       <c r="Z220" t="n">
         <v>0</v>
@@ -25787,16 +25787,16 @@
         <v>0</v>
       </c>
       <c r="AC220" t="n">
-        <v>2033.333333333333</v>
+        <v>2033.33</v>
       </c>
       <c r="AD220" t="n">
-        <v>2033.333333333333</v>
+        <v>2033.33</v>
       </c>
       <c r="AE220" t="n">
-        <v>2033.333333333333</v>
+        <v>2033.33</v>
       </c>
       <c r="AF220" t="n">
-        <v>2033.333333333333</v>
+        <v>2033.33</v>
       </c>
     </row>
     <row r="221">
@@ -25823,7 +25823,7 @@
       </c>
       <c r="F221" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G221" t="inlineStr">
@@ -25838,7 +25838,7 @@
       </c>
       <c r="I221" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="J221" t="inlineStr">
@@ -25939,7 +25939,7 @@
       </c>
       <c r="F222" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G222" t="inlineStr">
@@ -25954,12 +25954,12 @@
       </c>
       <c r="I222" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="J222" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="K222" t="inlineStr">
@@ -26055,7 +26055,7 @@
       </c>
       <c r="F223" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G223" t="inlineStr">
@@ -26070,12 +26070,12 @@
       </c>
       <c r="I223" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="J223" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="K223" t="inlineStr">
@@ -26171,7 +26171,7 @@
       </c>
       <c r="F224" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G224" t="inlineStr">
@@ -26186,7 +26186,7 @@
       </c>
       <c r="I224" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="J224" t="inlineStr">
@@ -26287,7 +26287,7 @@
       </c>
       <c r="F225" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G225" t="inlineStr">
@@ -26302,7 +26302,7 @@
       </c>
       <c r="I225" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="J225" t="inlineStr">
@@ -26403,7 +26403,7 @@
       </c>
       <c r="F226" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G226" t="inlineStr">
@@ -26418,7 +26418,7 @@
       </c>
       <c r="I226" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="J226" t="inlineStr">
@@ -26519,7 +26519,7 @@
       </c>
       <c r="F227" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G227" t="inlineStr">
@@ -26539,7 +26539,7 @@
       </c>
       <c r="J227" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="K227" t="inlineStr">
@@ -26578,16 +26578,16 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="V227" t="n">
-        <v>28533.33333333333</v>
+        <v>28533.32</v>
       </c>
       <c r="W227" t="n">
         <v>0</v>
       </c>
       <c r="X227" t="n">
-        <v>28533.33333333333</v>
+        <v>28533.32</v>
       </c>
       <c r="Y227" t="n">
-        <v>78466.66666666667</v>
+        <v>78466.67999999999</v>
       </c>
       <c r="Z227" t="n">
         <v>0</v>
@@ -26599,16 +26599,16 @@
         <v>0</v>
       </c>
       <c r="AC227" t="n">
-        <v>7133.333333333333</v>
+        <v>7133.33</v>
       </c>
       <c r="AD227" t="n">
-        <v>7133.333333333333</v>
+        <v>7133.33</v>
       </c>
       <c r="AE227" t="n">
-        <v>7133.333333333333</v>
+        <v>7133.33</v>
       </c>
       <c r="AF227" t="n">
-        <v>7133.333333333333</v>
+        <v>7133.33</v>
       </c>
     </row>
     <row r="228">
@@ -26635,7 +26635,7 @@
       </c>
       <c r="F228" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G228" t="inlineStr">
@@ -26650,12 +26650,12 @@
       </c>
       <c r="I228" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="J228" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="K228" t="inlineStr">
@@ -26751,7 +26751,7 @@
       </c>
       <c r="F229" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G229" t="inlineStr">
@@ -26766,12 +26766,12 @@
       </c>
       <c r="I229" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="J229" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="K229" t="inlineStr">
@@ -26810,16 +26810,16 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="V229" t="n">
-        <v>5866.666666666667</v>
+        <v>5866.68</v>
       </c>
       <c r="W229" t="n">
         <v>0</v>
       </c>
       <c r="X229" t="n">
-        <v>5866.666666666667</v>
+        <v>5866.68</v>
       </c>
       <c r="Y229" t="n">
-        <v>16133.33333333333</v>
+        <v>16133.32</v>
       </c>
       <c r="Z229" t="n">
         <v>0</v>
@@ -26831,16 +26831,16 @@
         <v>0</v>
       </c>
       <c r="AC229" t="n">
-        <v>1466.666666666667</v>
+        <v>1466.67</v>
       </c>
       <c r="AD229" t="n">
-        <v>1466.666666666667</v>
+        <v>1466.67</v>
       </c>
       <c r="AE229" t="n">
-        <v>1466.666666666667</v>
+        <v>1466.67</v>
       </c>
       <c r="AF229" t="n">
-        <v>1466.666666666667</v>
+        <v>1466.67</v>
       </c>
     </row>
     <row r="230">
@@ -26867,7 +26867,7 @@
       </c>
       <c r="F230" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G230" t="inlineStr">
@@ -26882,12 +26882,12 @@
       </c>
       <c r="I230" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="J230" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="K230" t="inlineStr">
@@ -26983,7 +26983,7 @@
       </c>
       <c r="F231" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G231" t="inlineStr">
@@ -26998,12 +26998,12 @@
       </c>
       <c r="I231" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="J231" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="K231" t="inlineStr">
@@ -27042,16 +27042,16 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="V231" t="n">
-        <v>190.6666666666667</v>
+        <v>190.68</v>
       </c>
       <c r="W231" t="n">
         <v>0</v>
       </c>
       <c r="X231" t="n">
-        <v>190.6666666666667</v>
+        <v>190.68</v>
       </c>
       <c r="Y231" t="n">
-        <v>524.3333333333334</v>
+        <v>524.3200000000001</v>
       </c>
       <c r="Z231" t="n">
         <v>0</v>
@@ -27063,16 +27063,16 @@
         <v>0</v>
       </c>
       <c r="AC231" t="n">
-        <v>47.66666666666666</v>
+        <v>47.67</v>
       </c>
       <c r="AD231" t="n">
-        <v>47.66666666666666</v>
+        <v>47.67</v>
       </c>
       <c r="AE231" t="n">
-        <v>47.66666666666666</v>
+        <v>47.67</v>
       </c>
       <c r="AF231" t="n">
-        <v>47.66666666666666</v>
+        <v>47.67</v>
       </c>
     </row>
     <row r="232">
@@ -27099,7 +27099,7 @@
       </c>
       <c r="F232" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G232" t="inlineStr">
@@ -27114,12 +27114,12 @@
       </c>
       <c r="I232" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="J232" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="K232" t="inlineStr">
@@ -27158,16 +27158,16 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="V232" t="n">
-        <v>1038.666666666667</v>
+        <v>1038.68</v>
       </c>
       <c r="W232" t="n">
         <v>0</v>
       </c>
       <c r="X232" t="n">
-        <v>1038.666666666667</v>
+        <v>1038.68</v>
       </c>
       <c r="Y232" t="n">
-        <v>2856.333333333333</v>
+        <v>2856.32</v>
       </c>
       <c r="Z232" t="n">
         <v>0</v>
@@ -27179,16 +27179,16 @@
         <v>0</v>
       </c>
       <c r="AC232" t="n">
-        <v>259.6666666666667</v>
+        <v>259.67</v>
       </c>
       <c r="AD232" t="n">
-        <v>259.6666666666667</v>
+        <v>259.67</v>
       </c>
       <c r="AE232" t="n">
-        <v>259.6666666666667</v>
+        <v>259.67</v>
       </c>
       <c r="AF232" t="n">
-        <v>259.6666666666667</v>
+        <v>259.67</v>
       </c>
     </row>
     <row r="233">
@@ -27215,7 +27215,7 @@
       </c>
       <c r="F233" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G233" t="inlineStr">
@@ -27230,12 +27230,12 @@
       </c>
       <c r="I233" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="J233" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="K233" t="inlineStr">
@@ -27331,7 +27331,7 @@
       </c>
       <c r="F234" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G234" t="inlineStr">
@@ -27346,12 +27346,12 @@
       </c>
       <c r="I234" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="J234" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="K234" t="inlineStr">
@@ -27447,7 +27447,7 @@
       </c>
       <c r="F235" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G235" t="inlineStr">
@@ -27462,7 +27462,7 @@
       </c>
       <c r="I235" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="J235" t="inlineStr">
@@ -27563,7 +27563,7 @@
       </c>
       <c r="F236" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G236" t="inlineStr">
@@ -27578,7 +27578,7 @@
       </c>
       <c r="I236" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="J236" t="inlineStr">
@@ -27679,7 +27679,7 @@
       </c>
       <c r="F237" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G237" t="inlineStr">
@@ -27694,12 +27694,12 @@
       </c>
       <c r="I237" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="J237" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="K237" t="inlineStr">
@@ -27738,16 +27738,16 @@
         <v>0.1</v>
       </c>
       <c r="V237" t="n">
-        <v>90499.5</v>
+        <v>90499.52</v>
       </c>
       <c r="W237" t="n">
         <v>0</v>
       </c>
       <c r="X237" t="n">
-        <v>90499.5</v>
+        <v>90499.52</v>
       </c>
       <c r="Y237" t="n">
-        <v>135749.25</v>
+        <v>135749.23</v>
       </c>
       <c r="Z237" t="n">
         <v>0</v>
@@ -27759,16 +27759,16 @@
         <v>0</v>
       </c>
       <c r="AC237" t="n">
-        <v>22624.875</v>
+        <v>22624.88</v>
       </c>
       <c r="AD237" t="n">
-        <v>22624.875</v>
+        <v>22624.88</v>
       </c>
       <c r="AE237" t="n">
-        <v>22624.875</v>
+        <v>22624.88</v>
       </c>
       <c r="AF237" t="n">
-        <v>22624.875</v>
+        <v>22624.88</v>
       </c>
     </row>
     <row r="238">
@@ -27795,7 +27795,7 @@
       </c>
       <c r="F238" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G238" t="inlineStr">
@@ -27810,12 +27810,12 @@
       </c>
       <c r="I238" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="J238" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="K238" t="inlineStr">
@@ -27911,7 +27911,7 @@
       </c>
       <c r="F239" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G239" t="inlineStr">
@@ -27926,12 +27926,12 @@
       </c>
       <c r="I239" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="J239" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="K239" t="inlineStr">
@@ -28027,7 +28027,7 @@
       </c>
       <c r="F240" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G240" t="inlineStr">
@@ -28042,12 +28042,12 @@
       </c>
       <c r="I240" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="J240" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="K240" t="inlineStr">
@@ -28143,7 +28143,7 @@
       </c>
       <c r="F241" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G241" t="inlineStr">
@@ -28158,12 +28158,12 @@
       </c>
       <c r="I241" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="J241" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="K241" t="inlineStr">
@@ -28259,7 +28259,7 @@
       </c>
       <c r="F242" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G242" t="inlineStr">
@@ -28274,12 +28274,12 @@
       </c>
       <c r="I242" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="J242" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="K242" t="inlineStr">
@@ -28318,16 +28318,16 @@
         <v>0.05</v>
       </c>
       <c r="V242" t="n">
-        <v>11540.22</v>
+        <v>11540.24</v>
       </c>
       <c r="W242" t="n">
         <v>0</v>
       </c>
       <c r="X242" t="n">
-        <v>11540.22</v>
+        <v>11540.24</v>
       </c>
       <c r="Y242" t="n">
-        <v>46160.88</v>
+        <v>46160.86</v>
       </c>
       <c r="Z242" t="n">
         <v>0</v>
@@ -28339,16 +28339,16 @@
         <v>0</v>
       </c>
       <c r="AC242" t="n">
-        <v>2885.055</v>
+        <v>2885.06</v>
       </c>
       <c r="AD242" t="n">
-        <v>2885.055</v>
+        <v>2885.06</v>
       </c>
       <c r="AE242" t="n">
-        <v>2885.055</v>
+        <v>2885.06</v>
       </c>
       <c r="AF242" t="n">
-        <v>2885.055</v>
+        <v>2885.06</v>
       </c>
     </row>
     <row r="243">
@@ -28375,7 +28375,7 @@
       </c>
       <c r="F243" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G243" t="inlineStr">
@@ -28390,12 +28390,12 @@
       </c>
       <c r="I243" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="J243" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="K243" t="inlineStr">
@@ -28434,16 +28434,16 @@
         <v>0.05</v>
       </c>
       <c r="V243" t="n">
-        <v>47190.3</v>
+        <v>47190.32</v>
       </c>
       <c r="W243" t="n">
         <v>0</v>
       </c>
       <c r="X243" t="n">
-        <v>47190.3</v>
+        <v>47190.32</v>
       </c>
       <c r="Y243" t="n">
-        <v>188761.2</v>
+        <v>188761.18</v>
       </c>
       <c r="Z243" t="n">
         <v>0</v>
@@ -28455,16 +28455,16 @@
         <v>0</v>
       </c>
       <c r="AC243" t="n">
-        <v>11797.575</v>
+        <v>11797.58</v>
       </c>
       <c r="AD243" t="n">
-        <v>11797.575</v>
+        <v>11797.58</v>
       </c>
       <c r="AE243" t="n">
-        <v>11797.575</v>
+        <v>11797.58</v>
       </c>
       <c r="AF243" t="n">
-        <v>11797.575</v>
+        <v>11797.58</v>
       </c>
     </row>
     <row r="244">
@@ -28491,7 +28491,7 @@
       </c>
       <c r="F244" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G244" t="inlineStr">
@@ -28506,12 +28506,12 @@
       </c>
       <c r="I244" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="J244" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="K244" t="inlineStr">
@@ -28550,16 +28550,16 @@
         <v>0.05</v>
       </c>
       <c r="V244" t="n">
-        <v>28361.1</v>
+        <v>28361.12</v>
       </c>
       <c r="W244" t="n">
         <v>0</v>
       </c>
       <c r="X244" t="n">
-        <v>28361.1</v>
+        <v>28361.12</v>
       </c>
       <c r="Y244" t="n">
-        <v>113444.4</v>
+        <v>113444.38</v>
       </c>
       <c r="Z244" t="n">
         <v>0</v>
@@ -28571,16 +28571,16 @@
         <v>0</v>
       </c>
       <c r="AC244" t="n">
-        <v>7090.275000000001</v>
+        <v>7090.28</v>
       </c>
       <c r="AD244" t="n">
-        <v>7090.275000000001</v>
+        <v>7090.28</v>
       </c>
       <c r="AE244" t="n">
-        <v>7090.275000000001</v>
+        <v>7090.28</v>
       </c>
       <c r="AF244" t="n">
-        <v>7090.275000000001</v>
+        <v>7090.28</v>
       </c>
     </row>
     <row r="245">
@@ -28607,7 +28607,7 @@
       </c>
       <c r="F245" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G245" t="inlineStr">
@@ -28622,12 +28622,12 @@
       </c>
       <c r="I245" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="J245" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="K245" t="inlineStr">
@@ -28666,16 +28666,16 @@
         <v>0.05</v>
       </c>
       <c r="V245" t="n">
-        <v>42380.34</v>
+        <v>42380.36</v>
       </c>
       <c r="W245" t="n">
         <v>0</v>
       </c>
       <c r="X245" t="n">
-        <v>42380.34</v>
+        <v>42380.36</v>
       </c>
       <c r="Y245" t="n">
-        <v>169521.36</v>
+        <v>169521.34</v>
       </c>
       <c r="Z245" t="n">
         <v>0</v>
@@ -28687,16 +28687,16 @@
         <v>0</v>
       </c>
       <c r="AC245" t="n">
-        <v>10595.085</v>
+        <v>10595.09</v>
       </c>
       <c r="AD245" t="n">
-        <v>10595.085</v>
+        <v>10595.09</v>
       </c>
       <c r="AE245" t="n">
-        <v>10595.085</v>
+        <v>10595.09</v>
       </c>
       <c r="AF245" t="n">
-        <v>10595.085</v>
+        <v>10595.09</v>
       </c>
     </row>
     <row r="246">
@@ -28723,7 +28723,7 @@
       </c>
       <c r="F246" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G246" t="inlineStr">
@@ -28738,12 +28738,12 @@
       </c>
       <c r="I246" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="J246" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="K246" t="inlineStr">
@@ -28839,7 +28839,7 @@
       </c>
       <c r="F247" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G247" t="inlineStr">
@@ -28854,12 +28854,12 @@
       </c>
       <c r="I247" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="J247" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="K247" t="inlineStr">
@@ -28955,7 +28955,7 @@
       </c>
       <c r="F248" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G248" t="inlineStr">
@@ -28970,12 +28970,12 @@
       </c>
       <c r="I248" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="J248" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="K248" t="inlineStr">
@@ -29071,7 +29071,7 @@
       </c>
       <c r="F249" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G249" t="inlineStr">
@@ -29086,12 +29086,12 @@
       </c>
       <c r="I249" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="J249" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="K249" t="inlineStr">
@@ -29187,7 +29187,7 @@
       </c>
       <c r="F250" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G250" t="inlineStr">
@@ -29202,12 +29202,12 @@
       </c>
       <c r="I250" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="J250" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="K250" t="inlineStr">
@@ -29246,16 +29246,16 @@
         <v>0.05</v>
       </c>
       <c r="V250" t="n">
-        <v>23030.49</v>
+        <v>23030.48</v>
       </c>
       <c r="W250" t="n">
         <v>0</v>
       </c>
       <c r="X250" t="n">
-        <v>23030.49</v>
+        <v>23030.48</v>
       </c>
       <c r="Y250" t="n">
-        <v>92121.95999999999</v>
+        <v>92121.97</v>
       </c>
       <c r="Z250" t="n">
         <v>0</v>
@@ -29267,16 +29267,16 @@
         <v>0</v>
       </c>
       <c r="AC250" t="n">
-        <v>5757.6225</v>
+        <v>5757.62</v>
       </c>
       <c r="AD250" t="n">
-        <v>5757.6225</v>
+        <v>5757.62</v>
       </c>
       <c r="AE250" t="n">
-        <v>5757.6225</v>
+        <v>5757.62</v>
       </c>
       <c r="AF250" t="n">
-        <v>5757.6225</v>
+        <v>5757.62</v>
       </c>
     </row>
     <row r="251">
@@ -29303,7 +29303,7 @@
       </c>
       <c r="F251" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G251" t="inlineStr">
@@ -29318,12 +29318,12 @@
       </c>
       <c r="I251" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="J251" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="K251" t="inlineStr">
@@ -29362,16 +29362,16 @@
         <v>0.05</v>
       </c>
       <c r="V251" t="n">
-        <v>10477.5</v>
+        <v>10477.52</v>
       </c>
       <c r="W251" t="n">
         <v>0</v>
       </c>
       <c r="X251" t="n">
-        <v>10477.5</v>
+        <v>10477.52</v>
       </c>
       <c r="Y251" t="n">
-        <v>41910</v>
+        <v>41909.98</v>
       </c>
       <c r="Z251" t="n">
         <v>0</v>
@@ -29383,16 +29383,16 @@
         <v>0</v>
       </c>
       <c r="AC251" t="n">
-        <v>2619.375</v>
+        <v>2619.38</v>
       </c>
       <c r="AD251" t="n">
-        <v>2619.375</v>
+        <v>2619.38</v>
       </c>
       <c r="AE251" t="n">
-        <v>2619.375</v>
+        <v>2619.38</v>
       </c>
       <c r="AF251" t="n">
-        <v>2619.375</v>
+        <v>2619.38</v>
       </c>
     </row>
     <row r="252">
@@ -29419,7 +29419,7 @@
       </c>
       <c r="F252" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G252" t="inlineStr">
@@ -29434,12 +29434,12 @@
       </c>
       <c r="I252" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="J252" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="K252" t="inlineStr">
@@ -29535,7 +29535,7 @@
       </c>
       <c r="F253" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G253" t="inlineStr">
@@ -29550,12 +29550,12 @@
       </c>
       <c r="I253" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="J253" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="K253" t="inlineStr">
@@ -29651,7 +29651,7 @@
       </c>
       <c r="F254" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G254" t="inlineStr">
@@ -29666,12 +29666,12 @@
       </c>
       <c r="I254" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="J254" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="K254" t="inlineStr">
@@ -29767,7 +29767,7 @@
       </c>
       <c r="F255" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G255" t="inlineStr">
@@ -29782,12 +29782,12 @@
       </c>
       <c r="I255" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="J255" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="K255" t="inlineStr">
@@ -29883,7 +29883,7 @@
       </c>
       <c r="F256" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G256" t="inlineStr">
@@ -29898,12 +29898,12 @@
       </c>
       <c r="I256" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="J256" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="K256" t="inlineStr">
@@ -29999,7 +29999,7 @@
       </c>
       <c r="F257" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G257" t="inlineStr">
@@ -30014,12 +30014,12 @@
       </c>
       <c r="I257" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="J257" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="K257" t="inlineStr">
@@ -30058,16 +30058,16 @@
         <v>0.05</v>
       </c>
       <c r="V257" t="n">
-        <v>8622.57</v>
+        <v>8622.559999999999</v>
       </c>
       <c r="W257" t="n">
         <v>0</v>
       </c>
       <c r="X257" t="n">
-        <v>8622.57</v>
+        <v>8622.559999999999</v>
       </c>
       <c r="Y257" t="n">
-        <v>34490.28</v>
+        <v>34490.29</v>
       </c>
       <c r="Z257" t="n">
         <v>0</v>
@@ -30079,16 +30079,16 @@
         <v>0</v>
       </c>
       <c r="AC257" t="n">
-        <v>2155.6425</v>
+        <v>2155.64</v>
       </c>
       <c r="AD257" t="n">
-        <v>2155.6425</v>
+        <v>2155.64</v>
       </c>
       <c r="AE257" t="n">
-        <v>2155.6425</v>
+        <v>2155.64</v>
       </c>
       <c r="AF257" t="n">
-        <v>2155.6425</v>
+        <v>2155.64</v>
       </c>
     </row>
     <row r="258">
@@ -30115,7 +30115,7 @@
       </c>
       <c r="F258" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G258" t="inlineStr">
@@ -30130,12 +30130,12 @@
       </c>
       <c r="I258" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="J258" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="K258" t="inlineStr">
@@ -30231,7 +30231,7 @@
       </c>
       <c r="F259" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G259" t="inlineStr">
@@ -30246,12 +30246,12 @@
       </c>
       <c r="I259" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="J259" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="K259" t="inlineStr">
@@ -30347,7 +30347,7 @@
       </c>
       <c r="F260" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G260" t="inlineStr">
@@ -30362,12 +30362,12 @@
       </c>
       <c r="I260" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="J260" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="K260" t="inlineStr">
@@ -30463,7 +30463,7 @@
       </c>
       <c r="F261" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G261" t="inlineStr">
@@ -30478,12 +30478,12 @@
       </c>
       <c r="I261" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="J261" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="K261" t="inlineStr">
@@ -30522,16 +30522,16 @@
         <v>0.05</v>
       </c>
       <c r="V261" t="n">
-        <v>43169.10000000001</v>
+        <v>43169.12</v>
       </c>
       <c r="W261" t="n">
         <v>0</v>
       </c>
       <c r="X261" t="n">
-        <v>43169.10000000001</v>
+        <v>43169.12</v>
       </c>
       <c r="Y261" t="n">
-        <v>172676.4</v>
+        <v>172676.38</v>
       </c>
       <c r="Z261" t="n">
         <v>0</v>
@@ -30543,16 +30543,16 @@
         <v>0</v>
       </c>
       <c r="AC261" t="n">
-        <v>10792.275</v>
+        <v>10792.28</v>
       </c>
       <c r="AD261" t="n">
-        <v>10792.275</v>
+        <v>10792.28</v>
       </c>
       <c r="AE261" t="n">
-        <v>10792.275</v>
+        <v>10792.28</v>
       </c>
       <c r="AF261" t="n">
-        <v>10792.275</v>
+        <v>10792.28</v>
       </c>
     </row>
     <row r="262">
@@ -30579,7 +30579,7 @@
       </c>
       <c r="F262" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G262" t="inlineStr">
@@ -30594,12 +30594,12 @@
       </c>
       <c r="I262" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="J262" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="K262" t="inlineStr">
@@ -30638,16 +30638,16 @@
         <v>0.05</v>
       </c>
       <c r="V262" t="n">
-        <v>7277.55</v>
+        <v>7277.56</v>
       </c>
       <c r="W262" t="n">
         <v>0</v>
       </c>
       <c r="X262" t="n">
-        <v>7277.55</v>
+        <v>7277.56</v>
       </c>
       <c r="Y262" t="n">
-        <v>29110.2</v>
+        <v>29110.19</v>
       </c>
       <c r="Z262" t="n">
         <v>0</v>
@@ -30659,16 +30659,16 @@
         <v>0</v>
       </c>
       <c r="AC262" t="n">
-        <v>1819.3875</v>
+        <v>1819.39</v>
       </c>
       <c r="AD262" t="n">
-        <v>1819.3875</v>
+        <v>1819.39</v>
       </c>
       <c r="AE262" t="n">
-        <v>1819.3875</v>
+        <v>1819.39</v>
       </c>
       <c r="AF262" t="n">
-        <v>1819.3875</v>
+        <v>1819.39</v>
       </c>
     </row>
     <row r="263">
@@ -30695,7 +30695,7 @@
       </c>
       <c r="F263" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G263" t="inlineStr">
@@ -30710,12 +30710,12 @@
       </c>
       <c r="I263" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="J263" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="K263" t="inlineStr">
@@ -30811,7 +30811,7 @@
       </c>
       <c r="F264" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G264" t="inlineStr">
@@ -30826,12 +30826,12 @@
       </c>
       <c r="I264" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="J264" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="K264" t="inlineStr">
@@ -30870,16 +30870,16 @@
         <v>0.05</v>
       </c>
       <c r="V264" t="n">
-        <v>50186.07000000001</v>
+        <v>50186.08</v>
       </c>
       <c r="W264" t="n">
         <v>0</v>
       </c>
       <c r="X264" t="n">
-        <v>50186.07000000001</v>
+        <v>50186.08</v>
       </c>
       <c r="Y264" t="n">
-        <v>200744.28</v>
+        <v>200744.27</v>
       </c>
       <c r="Z264" t="n">
         <v>0</v>
@@ -30891,16 +30891,16 @@
         <v>0</v>
       </c>
       <c r="AC264" t="n">
-        <v>12546.5175</v>
+        <v>12546.52</v>
       </c>
       <c r="AD264" t="n">
-        <v>12546.5175</v>
+        <v>12546.52</v>
       </c>
       <c r="AE264" t="n">
-        <v>12546.5175</v>
+        <v>12546.52</v>
       </c>
       <c r="AF264" t="n">
-        <v>12546.5175</v>
+        <v>12546.52</v>
       </c>
     </row>
     <row r="265">
@@ -30927,7 +30927,7 @@
       </c>
       <c r="F265" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G265" t="inlineStr">
@@ -30942,12 +30942,12 @@
       </c>
       <c r="I265" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="J265" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="K265" t="inlineStr">
@@ -31043,7 +31043,7 @@
       </c>
       <c r="F266" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G266" t="inlineStr">
@@ -31058,12 +31058,12 @@
       </c>
       <c r="I266" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="J266" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="K266" t="inlineStr">
@@ -31159,7 +31159,7 @@
       </c>
       <c r="F267" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G267" t="inlineStr">
@@ -31174,12 +31174,12 @@
       </c>
       <c r="I267" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="J267" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="K267" t="inlineStr">
@@ -31275,7 +31275,7 @@
       </c>
       <c r="F268" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G268" t="inlineStr">
@@ -31290,12 +31290,12 @@
       </c>
       <c r="I268" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="J268" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="K268" t="inlineStr">
@@ -31391,7 +31391,7 @@
       </c>
       <c r="F269" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G269" t="inlineStr">
@@ -31406,7 +31406,7 @@
       </c>
       <c r="I269" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="J269" t="inlineStr">
@@ -31507,7 +31507,7 @@
       </c>
       <c r="F270" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G270" t="inlineStr">
@@ -31522,12 +31522,12 @@
       </c>
       <c r="I270" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="J270" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="K270" t="inlineStr">
@@ -31623,7 +31623,7 @@
       </c>
       <c r="F271" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G271" t="inlineStr">
@@ -31638,12 +31638,12 @@
       </c>
       <c r="I271" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="J271" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="K271" t="inlineStr">
@@ -31739,7 +31739,7 @@
       </c>
       <c r="F272" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G272" t="inlineStr">
@@ -31754,12 +31754,12 @@
       </c>
       <c r="I272" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="J272" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="K272" t="inlineStr">
@@ -31855,7 +31855,7 @@
       </c>
       <c r="F273" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G273" t="inlineStr">
@@ -31870,12 +31870,12 @@
       </c>
       <c r="I273" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="J273" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="K273" t="inlineStr">
@@ -31914,16 +31914,16 @@
         <v>0.05</v>
       </c>
       <c r="V273" t="n">
-        <v>26837.25</v>
+        <v>26837.24</v>
       </c>
       <c r="W273" t="n">
         <v>0</v>
       </c>
       <c r="X273" t="n">
-        <v>26837.25</v>
+        <v>26837.24</v>
       </c>
       <c r="Y273" t="n">
-        <v>107349</v>
+        <v>107349.01</v>
       </c>
       <c r="Z273" t="n">
         <v>0</v>
@@ -31935,16 +31935,16 @@
         <v>0</v>
       </c>
       <c r="AC273" t="n">
-        <v>6709.3125</v>
+        <v>6709.31</v>
       </c>
       <c r="AD273" t="n">
-        <v>6709.3125</v>
+        <v>6709.31</v>
       </c>
       <c r="AE273" t="n">
-        <v>6709.3125</v>
+        <v>6709.31</v>
       </c>
       <c r="AF273" t="n">
-        <v>6709.3125</v>
+        <v>6709.31</v>
       </c>
     </row>
     <row r="274">
@@ -31971,7 +31971,7 @@
       </c>
       <c r="F274" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G274" t="inlineStr">
@@ -31986,12 +31986,12 @@
       </c>
       <c r="I274" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="J274" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="K274" t="inlineStr">
@@ -32087,7 +32087,7 @@
       </c>
       <c r="F275" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G275" t="inlineStr">
@@ -32102,12 +32102,12 @@
       </c>
       <c r="I275" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="J275" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="K275" t="inlineStr">
@@ -32146,16 +32146,16 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="V275" t="n">
-        <v>266666.6666666667</v>
+        <v>266666.68</v>
       </c>
       <c r="W275" t="n">
         <v>0</v>
       </c>
       <c r="X275" t="n">
-        <v>266666.6666666667</v>
+        <v>266666.68</v>
       </c>
       <c r="Y275" t="n">
-        <v>733333.3333333333</v>
+        <v>733333.3199999999</v>
       </c>
       <c r="Z275" t="n">
         <v>0</v>
@@ -32167,16 +32167,16 @@
         <v>0</v>
       </c>
       <c r="AC275" t="n">
-        <v>66666.66666666667</v>
+        <v>66666.67</v>
       </c>
       <c r="AD275" t="n">
-        <v>66666.66666666667</v>
+        <v>66666.67</v>
       </c>
       <c r="AE275" t="n">
-        <v>66666.66666666667</v>
+        <v>66666.67</v>
       </c>
       <c r="AF275" t="n">
-        <v>66666.66666666667</v>
+        <v>66666.67</v>
       </c>
     </row>
     <row r="276">
@@ -32203,7 +32203,7 @@
       </c>
       <c r="F276" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G276" t="inlineStr">
@@ -32218,12 +32218,12 @@
       </c>
       <c r="I276" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="J276" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="K276" t="inlineStr">
@@ -32319,7 +32319,7 @@
       </c>
       <c r="F277" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G277" t="inlineStr">
@@ -32334,12 +32334,12 @@
       </c>
       <c r="I277" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="J277" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="K277" t="inlineStr">
@@ -32435,7 +32435,7 @@
       </c>
       <c r="F278" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G278" t="inlineStr">
@@ -32450,12 +32450,12 @@
       </c>
       <c r="I278" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="J278" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="K278" t="inlineStr">
@@ -32494,16 +32494,16 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="V278" t="n">
-        <v>12666.66666666667</v>
+        <v>12666.68</v>
       </c>
       <c r="W278" t="n">
         <v>0</v>
       </c>
       <c r="X278" t="n">
-        <v>12666.66666666667</v>
+        <v>12666.68</v>
       </c>
       <c r="Y278" t="n">
-        <v>34833.33333333334</v>
+        <v>34833.32</v>
       </c>
       <c r="Z278" t="n">
         <v>0</v>
@@ -32515,16 +32515,16 @@
         <v>0</v>
       </c>
       <c r="AC278" t="n">
-        <v>3166.666666666667</v>
+        <v>3166.67</v>
       </c>
       <c r="AD278" t="n">
-        <v>3166.666666666667</v>
+        <v>3166.67</v>
       </c>
       <c r="AE278" t="n">
-        <v>3166.666666666667</v>
+        <v>3166.67</v>
       </c>
       <c r="AF278" t="n">
-        <v>3166.666666666667</v>
+        <v>3166.67</v>
       </c>
     </row>
     <row r="279">
@@ -32551,7 +32551,7 @@
       </c>
       <c r="F279" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G279" t="inlineStr">
@@ -32566,12 +32566,12 @@
       </c>
       <c r="I279" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="J279" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="K279" t="inlineStr">
@@ -32667,7 +32667,7 @@
       </c>
       <c r="F280" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G280" t="inlineStr">
@@ -32682,12 +32682,12 @@
       </c>
       <c r="I280" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="J280" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="K280" t="inlineStr">
@@ -32726,16 +32726,16 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="V280" t="n">
-        <v>13546.66666666667</v>
+        <v>13546.68</v>
       </c>
       <c r="W280" t="n">
         <v>0</v>
       </c>
       <c r="X280" t="n">
-        <v>13546.66666666667</v>
+        <v>13546.68</v>
       </c>
       <c r="Y280" t="n">
-        <v>37253.33333333334</v>
+        <v>37253.32</v>
       </c>
       <c r="Z280" t="n">
         <v>0</v>
@@ -32747,16 +32747,16 @@
         <v>0</v>
       </c>
       <c r="AC280" t="n">
-        <v>3386.666666666667</v>
+        <v>3386.67</v>
       </c>
       <c r="AD280" t="n">
-        <v>3386.666666666667</v>
+        <v>3386.67</v>
       </c>
       <c r="AE280" t="n">
-        <v>3386.666666666667</v>
+        <v>3386.67</v>
       </c>
       <c r="AF280" t="n">
-        <v>3386.666666666667</v>
+        <v>3386.67</v>
       </c>
     </row>
     <row r="281">
@@ -32783,7 +32783,7 @@
       </c>
       <c r="F281" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G281" t="inlineStr">
@@ -32798,12 +32798,12 @@
       </c>
       <c r="I281" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="J281" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="K281" t="inlineStr">
@@ -32842,16 +32842,16 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="V281" t="n">
-        <v>12533.33333333333</v>
+        <v>12533.32</v>
       </c>
       <c r="W281" t="n">
         <v>0</v>
       </c>
       <c r="X281" t="n">
-        <v>12533.33333333333</v>
+        <v>12533.32</v>
       </c>
       <c r="Y281" t="n">
-        <v>34466.66666666666</v>
+        <v>34466.68</v>
       </c>
       <c r="Z281" t="n">
         <v>0</v>
@@ -32863,16 +32863,16 @@
         <v>0</v>
       </c>
       <c r="AC281" t="n">
-        <v>3133.333333333333</v>
+        <v>3133.33</v>
       </c>
       <c r="AD281" t="n">
-        <v>3133.333333333333</v>
+        <v>3133.33</v>
       </c>
       <c r="AE281" t="n">
-        <v>3133.333333333333</v>
+        <v>3133.33</v>
       </c>
       <c r="AF281" t="n">
-        <v>3133.333333333333</v>
+        <v>3133.33</v>
       </c>
     </row>
     <row r="282">
@@ -32899,7 +32899,7 @@
       </c>
       <c r="F282" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G282" t="inlineStr">
@@ -32914,12 +32914,12 @@
       </c>
       <c r="I282" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="J282" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="K282" t="inlineStr">
@@ -33015,7 +33015,7 @@
       </c>
       <c r="F283" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G283" t="inlineStr">
@@ -33030,12 +33030,12 @@
       </c>
       <c r="I283" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="J283" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="K283" t="inlineStr">
@@ -33131,7 +33131,7 @@
       </c>
       <c r="F284" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G284" t="inlineStr">
@@ -33151,7 +33151,7 @@
       </c>
       <c r="J284" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="K284" t="inlineStr">
@@ -33190,16 +33190,16 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="V284" t="n">
-        <v>17333.33333333333</v>
+        <v>17333.32</v>
       </c>
       <c r="W284" t="n">
         <v>0</v>
       </c>
       <c r="X284" t="n">
-        <v>17333.33333333333</v>
+        <v>17333.32</v>
       </c>
       <c r="Y284" t="n">
-        <v>47666.66666666667</v>
+        <v>47666.68</v>
       </c>
       <c r="Z284" t="n">
         <v>0</v>
@@ -33211,16 +33211,16 @@
         <v>0</v>
       </c>
       <c r="AC284" t="n">
-        <v>4333.333333333333</v>
+        <v>4333.33</v>
       </c>
       <c r="AD284" t="n">
-        <v>4333.333333333333</v>
+        <v>4333.33</v>
       </c>
       <c r="AE284" t="n">
-        <v>4333.333333333333</v>
+        <v>4333.33</v>
       </c>
       <c r="AF284" t="n">
-        <v>4333.333333333333</v>
+        <v>4333.33</v>
       </c>
     </row>
     <row r="285">
@@ -33247,7 +33247,7 @@
       </c>
       <c r="F285" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G285" t="inlineStr">
@@ -33267,7 +33267,7 @@
       </c>
       <c r="J285" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="K285" t="inlineStr">
@@ -33363,7 +33363,7 @@
       </c>
       <c r="F286" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G286" t="inlineStr">
@@ -33383,7 +33383,7 @@
       </c>
       <c r="J286" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="K286" t="inlineStr">
@@ -33422,16 +33422,16 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="V286" t="n">
-        <v>37333.33333333334</v>
+        <v>37333.32</v>
       </c>
       <c r="W286" t="n">
         <v>0</v>
       </c>
       <c r="X286" t="n">
-        <v>37333.33333333334</v>
+        <v>37333.32</v>
       </c>
       <c r="Y286" t="n">
-        <v>102666.6666666667</v>
+        <v>102666.68</v>
       </c>
       <c r="Z286" t="n">
         <v>0</v>
@@ -33443,16 +33443,16 @@
         <v>0</v>
       </c>
       <c r="AC286" t="n">
-        <v>9333.333333333334</v>
+        <v>9333.33</v>
       </c>
       <c r="AD286" t="n">
-        <v>9333.333333333334</v>
+        <v>9333.33</v>
       </c>
       <c r="AE286" t="n">
-        <v>9333.333333333334</v>
+        <v>9333.33</v>
       </c>
       <c r="AF286" t="n">
-        <v>9333.333333333334</v>
+        <v>9333.33</v>
       </c>
     </row>
     <row r="287">
@@ -33479,7 +33479,7 @@
       </c>
       <c r="F287" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G287" t="inlineStr">
@@ -33494,12 +33494,12 @@
       </c>
       <c r="I287" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="J287" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="K287" t="inlineStr">
@@ -33538,16 +33538,16 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="V287" t="n">
-        <v>25333.33333333333</v>
+        <v>25333.32</v>
       </c>
       <c r="W287" t="n">
         <v>0</v>
       </c>
       <c r="X287" t="n">
-        <v>25333.33333333333</v>
+        <v>25333.32</v>
       </c>
       <c r="Y287" t="n">
-        <v>69666.66666666667</v>
+        <v>69666.67999999999</v>
       </c>
       <c r="Z287" t="n">
         <v>0</v>
@@ -33559,16 +33559,16 @@
         <v>0</v>
       </c>
       <c r="AC287" t="n">
-        <v>6333.333333333333</v>
+        <v>6333.33</v>
       </c>
       <c r="AD287" t="n">
-        <v>6333.333333333333</v>
+        <v>6333.33</v>
       </c>
       <c r="AE287" t="n">
-        <v>6333.333333333333</v>
+        <v>6333.33</v>
       </c>
       <c r="AF287" t="n">
-        <v>6333.333333333333</v>
+        <v>6333.33</v>
       </c>
     </row>
     <row r="288">
@@ -33595,7 +33595,7 @@
       </c>
       <c r="F288" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G288" t="inlineStr">
@@ -33615,7 +33615,7 @@
       </c>
       <c r="J288" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="K288" t="inlineStr">
@@ -33711,7 +33711,7 @@
       </c>
       <c r="F289" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G289" t="inlineStr">
@@ -33731,7 +33731,7 @@
       </c>
       <c r="J289" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="K289" t="inlineStr">
@@ -33770,16 +33770,16 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="V289" t="n">
-        <v>112666.6666666667</v>
+        <v>112666.68</v>
       </c>
       <c r="W289" t="n">
         <v>0</v>
       </c>
       <c r="X289" t="n">
-        <v>112666.6666666667</v>
+        <v>112666.68</v>
       </c>
       <c r="Y289" t="n">
-        <v>309833.3333333333</v>
+        <v>309833.32</v>
       </c>
       <c r="Z289" t="n">
         <v>0</v>
@@ -33791,16 +33791,16 @@
         <v>0</v>
       </c>
       <c r="AC289" t="n">
-        <v>28166.66666666667</v>
+        <v>28166.67</v>
       </c>
       <c r="AD289" t="n">
-        <v>28166.66666666667</v>
+        <v>28166.67</v>
       </c>
       <c r="AE289" t="n">
-        <v>28166.66666666667</v>
+        <v>28166.67</v>
       </c>
       <c r="AF289" t="n">
-        <v>28166.66666666667</v>
+        <v>28166.67</v>
       </c>
     </row>
     <row r="290">
@@ -33827,7 +33827,7 @@
       </c>
       <c r="F290" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G290" t="inlineStr">
@@ -33847,7 +33847,7 @@
       </c>
       <c r="J290" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="K290" t="inlineStr">
@@ -33886,16 +33886,16 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="V290" t="n">
-        <v>2253.333333333333</v>
+        <v>2253.32</v>
       </c>
       <c r="W290" t="n">
         <v>0</v>
       </c>
       <c r="X290" t="n">
-        <v>2253.333333333333</v>
+        <v>2253.32</v>
       </c>
       <c r="Y290" t="n">
-        <v>6196.666666666666</v>
+        <v>6196.68</v>
       </c>
       <c r="Z290" t="n">
         <v>0</v>
@@ -33907,16 +33907,16 @@
         <v>0</v>
       </c>
       <c r="AC290" t="n">
-        <v>563.3333333333334</v>
+        <v>563.33</v>
       </c>
       <c r="AD290" t="n">
-        <v>563.3333333333334</v>
+        <v>563.33</v>
       </c>
       <c r="AE290" t="n">
-        <v>563.3333333333334</v>
+        <v>563.33</v>
       </c>
       <c r="AF290" t="n">
-        <v>563.3333333333334</v>
+        <v>563.33</v>
       </c>
     </row>
     <row r="291">
@@ -33943,7 +33943,7 @@
       </c>
       <c r="F291" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G291" t="inlineStr">
@@ -33963,7 +33963,7 @@
       </c>
       <c r="J291" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="K291" t="inlineStr">
@@ -34059,7 +34059,7 @@
       </c>
       <c r="F292" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G292" t="inlineStr">
@@ -34079,7 +34079,7 @@
       </c>
       <c r="J292" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="K292" t="inlineStr">
@@ -34175,7 +34175,7 @@
       </c>
       <c r="F293" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G293" t="inlineStr">
@@ -34195,7 +34195,7 @@
       </c>
       <c r="J293" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="K293" t="inlineStr">
@@ -34234,16 +34234,16 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="V293" t="n">
-        <v>31581.33333333333</v>
+        <v>31581.32</v>
       </c>
       <c r="W293" t="n">
         <v>0</v>
       </c>
       <c r="X293" t="n">
-        <v>31581.33333333333</v>
+        <v>31581.32</v>
       </c>
       <c r="Y293" t="n">
-        <v>86848.66666666667</v>
+        <v>86848.67999999999</v>
       </c>
       <c r="Z293" t="n">
         <v>0</v>
@@ -34255,16 +34255,16 @@
         <v>0</v>
       </c>
       <c r="AC293" t="n">
-        <v>7895.333333333333</v>
+        <v>7895.33</v>
       </c>
       <c r="AD293" t="n">
-        <v>7895.333333333333</v>
+        <v>7895.33</v>
       </c>
       <c r="AE293" t="n">
-        <v>7895.333333333333</v>
+        <v>7895.33</v>
       </c>
       <c r="AF293" t="n">
-        <v>7895.333333333333</v>
+        <v>7895.33</v>
       </c>
     </row>
     <row r="294">
@@ -34291,7 +34291,7 @@
       </c>
       <c r="F294" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G294" t="inlineStr">
@@ -34311,7 +34311,7 @@
       </c>
       <c r="J294" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="K294" t="inlineStr">
@@ -34350,16 +34350,16 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="V294" t="n">
-        <v>2383.333333333333</v>
+        <v>2383.32</v>
       </c>
       <c r="W294" t="n">
         <v>0</v>
       </c>
       <c r="X294" t="n">
-        <v>2383.333333333333</v>
+        <v>2383.32</v>
       </c>
       <c r="Y294" t="n">
-        <v>6554.166666666666</v>
+        <v>6554.18</v>
       </c>
       <c r="Z294" t="n">
         <v>0</v>
@@ -34371,16 +34371,16 @@
         <v>0</v>
       </c>
       <c r="AC294" t="n">
-        <v>595.8333333333334</v>
+        <v>595.83</v>
       </c>
       <c r="AD294" t="n">
-        <v>595.8333333333334</v>
+        <v>595.83</v>
       </c>
       <c r="AE294" t="n">
-        <v>595.8333333333334</v>
+        <v>595.83</v>
       </c>
       <c r="AF294" t="n">
-        <v>595.8333333333334</v>
+        <v>595.83</v>
       </c>
     </row>
     <row r="295">
@@ -34407,7 +34407,7 @@
       </c>
       <c r="F295" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G295" t="inlineStr">
@@ -34427,7 +34427,7 @@
       </c>
       <c r="J295" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="K295" t="inlineStr">
@@ -34466,16 +34466,16 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="V295" t="n">
-        <v>53333.33333333334</v>
+        <v>53333.32</v>
       </c>
       <c r="W295" t="n">
         <v>0</v>
       </c>
       <c r="X295" t="n">
-        <v>53333.33333333334</v>
+        <v>53333.32</v>
       </c>
       <c r="Y295" t="n">
-        <v>146666.6666666667</v>
+        <v>146666.68</v>
       </c>
       <c r="Z295" t="n">
         <v>0</v>
@@ -34487,16 +34487,16 @@
         <v>0</v>
       </c>
       <c r="AC295" t="n">
-        <v>13333.33333333333</v>
+        <v>13333.33</v>
       </c>
       <c r="AD295" t="n">
-        <v>13333.33333333333</v>
+        <v>13333.33</v>
       </c>
       <c r="AE295" t="n">
-        <v>13333.33333333333</v>
+        <v>13333.33</v>
       </c>
       <c r="AF295" t="n">
-        <v>13333.33333333333</v>
+        <v>13333.33</v>
       </c>
     </row>
     <row r="296">
@@ -34523,7 +34523,7 @@
       </c>
       <c r="F296" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G296" t="inlineStr">
@@ -34538,12 +34538,12 @@
       </c>
       <c r="I296" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="J296" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="K296" t="inlineStr">
@@ -34639,7 +34639,7 @@
       </c>
       <c r="F297" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G297" t="inlineStr">
@@ -34654,12 +34654,12 @@
       </c>
       <c r="I297" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="J297" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="K297" t="inlineStr">
@@ -34755,7 +34755,7 @@
       </c>
       <c r="F298" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G298" t="inlineStr">
@@ -34770,12 +34770,12 @@
       </c>
       <c r="I298" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="J298" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="K298" t="inlineStr">
@@ -34814,16 +34814,16 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="V298" t="n">
-        <v>21013.33333333333</v>
+        <v>21013.32</v>
       </c>
       <c r="W298" t="n">
         <v>0</v>
       </c>
       <c r="X298" t="n">
-        <v>21013.33333333333</v>
+        <v>21013.32</v>
       </c>
       <c r="Y298" t="n">
-        <v>57786.66666666667</v>
+        <v>57786.68</v>
       </c>
       <c r="Z298" t="n">
         <v>0</v>
@@ -34835,16 +34835,16 @@
         <v>0</v>
       </c>
       <c r="AC298" t="n">
-        <v>5253.333333333333</v>
+        <v>5253.33</v>
       </c>
       <c r="AD298" t="n">
-        <v>5253.333333333333</v>
+        <v>5253.33</v>
       </c>
       <c r="AE298" t="n">
-        <v>5253.333333333333</v>
+        <v>5253.33</v>
       </c>
       <c r="AF298" t="n">
-        <v>5253.333333333333</v>
+        <v>5253.33</v>
       </c>
     </row>
     <row r="299">
@@ -34871,7 +34871,7 @@
       </c>
       <c r="F299" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G299" t="inlineStr">
@@ -34886,12 +34886,12 @@
       </c>
       <c r="I299" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="J299" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="K299" t="inlineStr">
@@ -34987,7 +34987,7 @@
       </c>
       <c r="F300" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G300" t="inlineStr">
@@ -35002,12 +35002,12 @@
       </c>
       <c r="I300" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="J300" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="K300" t="inlineStr">
@@ -35046,16 +35046,16 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="V300" t="n">
-        <v>50133.33333333334</v>
+        <v>50133.32</v>
       </c>
       <c r="W300" t="n">
         <v>0</v>
       </c>
       <c r="X300" t="n">
-        <v>50133.33333333334</v>
+        <v>50133.32</v>
       </c>
       <c r="Y300" t="n">
-        <v>137866.6666666667</v>
+        <v>137866.68</v>
       </c>
       <c r="Z300" t="n">
         <v>0</v>
@@ -35067,16 +35067,16 @@
         <v>0</v>
       </c>
       <c r="AC300" t="n">
-        <v>12533.33333333333</v>
+        <v>12533.33</v>
       </c>
       <c r="AD300" t="n">
-        <v>12533.33333333333</v>
+        <v>12533.33</v>
       </c>
       <c r="AE300" t="n">
-        <v>12533.33333333333</v>
+        <v>12533.33</v>
       </c>
       <c r="AF300" t="n">
-        <v>12533.33333333333</v>
+        <v>12533.33</v>
       </c>
     </row>
     <row r="301">
@@ -35103,7 +35103,7 @@
       </c>
       <c r="F301" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G301" t="inlineStr">
@@ -35118,12 +35118,12 @@
       </c>
       <c r="I301" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="J301" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="K301" t="inlineStr">
@@ -35162,16 +35162,16 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="V301" t="n">
-        <v>12133.33333333333</v>
+        <v>12133.32</v>
       </c>
       <c r="W301" t="n">
         <v>0</v>
       </c>
       <c r="X301" t="n">
-        <v>12133.33333333333</v>
+        <v>12133.32</v>
       </c>
       <c r="Y301" t="n">
-        <v>33366.66666666666</v>
+        <v>33366.68</v>
       </c>
       <c r="Z301" t="n">
         <v>0</v>
@@ -35183,16 +35183,16 @@
         <v>0</v>
       </c>
       <c r="AC301" t="n">
-        <v>3033.333333333333</v>
+        <v>3033.33</v>
       </c>
       <c r="AD301" t="n">
-        <v>3033.333333333333</v>
+        <v>3033.33</v>
       </c>
       <c r="AE301" t="n">
-        <v>3033.333333333333</v>
+        <v>3033.33</v>
       </c>
       <c r="AF301" t="n">
-        <v>3033.333333333333</v>
+        <v>3033.33</v>
       </c>
     </row>
     <row r="302">
@@ -35232,12 +35232,12 @@
       </c>
       <c r="I302" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="J302" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="K302" t="inlineStr">
@@ -35284,10 +35284,10 @@
         <v>0</v>
       </c>
       <c r="X302" t="n">
-        <v>0</v>
+        <v>426.4</v>
       </c>
       <c r="Y302" t="n">
-        <v>0</v>
+        <v>1705.6</v>
       </c>
       <c r="Z302" t="n">
         <v>0</v>
@@ -35348,12 +35348,12 @@
       </c>
       <c r="I303" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="J303" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="K303" t="inlineStr">
@@ -35400,10 +35400,10 @@
         <v>0</v>
       </c>
       <c r="X303" t="n">
-        <v>0</v>
+        <v>426.4</v>
       </c>
       <c r="Y303" t="n">
-        <v>0</v>
+        <v>1705.6</v>
       </c>
       <c r="Z303" t="n">
         <v>0</v>
@@ -35464,12 +35464,12 @@
       </c>
       <c r="I304" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="J304" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="K304" t="inlineStr">
@@ -35516,10 +35516,10 @@
         <v>0</v>
       </c>
       <c r="X304" t="n">
-        <v>0</v>
+        <v>422.4</v>
       </c>
       <c r="Y304" t="n">
-        <v>0</v>
+        <v>1689.6</v>
       </c>
       <c r="Z304" t="n">
         <v>0</v>
@@ -35580,12 +35580,12 @@
       </c>
       <c r="I305" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="J305" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="K305" t="inlineStr">
@@ -35632,10 +35632,10 @@
         <v>0</v>
       </c>
       <c r="X305" t="n">
-        <v>0</v>
+        <v>422.4</v>
       </c>
       <c r="Y305" t="n">
-        <v>0</v>
+        <v>1689.6</v>
       </c>
       <c r="Z305" t="n">
         <v>0</v>
@@ -35696,12 +35696,12 @@
       </c>
       <c r="I306" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="J306" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="K306" t="inlineStr">
@@ -35748,10 +35748,10 @@
         <v>0</v>
       </c>
       <c r="X306" t="n">
-        <v>0</v>
+        <v>422.4</v>
       </c>
       <c r="Y306" t="n">
-        <v>0</v>
+        <v>1689.6</v>
       </c>
       <c r="Z306" t="n">
         <v>0</v>
@@ -35812,12 +35812,12 @@
       </c>
       <c r="I307" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="J307" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="K307" t="inlineStr">
@@ -35864,10 +35864,10 @@
         <v>0</v>
       </c>
       <c r="X307" t="n">
-        <v>0</v>
+        <v>422.4</v>
       </c>
       <c r="Y307" t="n">
-        <v>0</v>
+        <v>1689.6</v>
       </c>
       <c r="Z307" t="n">
         <v>0</v>
@@ -35928,12 +35928,12 @@
       </c>
       <c r="I308" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="J308" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="K308" t="inlineStr">
@@ -35980,10 +35980,10 @@
         <v>0</v>
       </c>
       <c r="X308" t="n">
-        <v>0</v>
+        <v>13.6</v>
       </c>
       <c r="Y308" t="n">
-        <v>0</v>
+        <v>20.4</v>
       </c>
       <c r="Z308" t="n">
         <v>0</v>
@@ -36044,12 +36044,12 @@
       </c>
       <c r="I309" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="J309" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="K309" t="inlineStr">
@@ -36096,10 +36096,10 @@
         <v>0</v>
       </c>
       <c r="X309" t="n">
-        <v>0</v>
+        <v>13.6</v>
       </c>
       <c r="Y309" t="n">
-        <v>0</v>
+        <v>20.4</v>
       </c>
       <c r="Z309" t="n">
         <v>0</v>
@@ -36160,12 +36160,12 @@
       </c>
       <c r="I310" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="J310" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="K310" t="inlineStr">
@@ -36206,37 +36206,37 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="V310" t="n">
-        <v>10.28571428571428</v>
+        <v>10.26</v>
       </c>
       <c r="W310" t="n">
         <v>0</v>
       </c>
       <c r="X310" t="n">
-        <v>0</v>
+        <v>10.26</v>
       </c>
       <c r="Y310" t="n">
-        <v>0</v>
+        <v>1.74</v>
       </c>
       <c r="Z310" t="n">
         <v>0</v>
       </c>
       <c r="AA310" t="n">
-        <v>1.714285714285714</v>
+        <v>1.71</v>
       </c>
       <c r="AB310" t="n">
-        <v>1.714285714285714</v>
+        <v>1.71</v>
       </c>
       <c r="AC310" t="n">
-        <v>1.714285714285714</v>
+        <v>1.71</v>
       </c>
       <c r="AD310" t="n">
-        <v>1.714285714285714</v>
+        <v>1.71</v>
       </c>
       <c r="AE310" t="n">
-        <v>1.714285714285714</v>
+        <v>1.71</v>
       </c>
       <c r="AF310" t="n">
-        <v>1.714285714285714</v>
+        <v>1.71</v>
       </c>
     </row>
     <row r="311">
@@ -36276,12 +36276,12 @@
       </c>
       <c r="I311" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="J311" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="K311" t="inlineStr">
@@ -36322,37 +36322,37 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="V311" t="n">
-        <v>10.28571428571428</v>
+        <v>10.26</v>
       </c>
       <c r="W311" t="n">
         <v>0</v>
       </c>
       <c r="X311" t="n">
-        <v>0</v>
+        <v>10.26</v>
       </c>
       <c r="Y311" t="n">
-        <v>0</v>
+        <v>1.74</v>
       </c>
       <c r="Z311" t="n">
         <v>0</v>
       </c>
       <c r="AA311" t="n">
-        <v>1.714285714285714</v>
+        <v>1.71</v>
       </c>
       <c r="AB311" t="n">
-        <v>1.714285714285714</v>
+        <v>1.71</v>
       </c>
       <c r="AC311" t="n">
-        <v>1.714285714285714</v>
+        <v>1.71</v>
       </c>
       <c r="AD311" t="n">
-        <v>1.714285714285714</v>
+        <v>1.71</v>
       </c>
       <c r="AE311" t="n">
-        <v>1.714285714285714</v>
+        <v>1.71</v>
       </c>
       <c r="AF311" t="n">
-        <v>1.714285714285714</v>
+        <v>1.71</v>
       </c>
     </row>
     <row r="312">
@@ -36392,12 +36392,12 @@
       </c>
       <c r="I312" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="J312" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="K312" t="inlineStr">
@@ -36438,16 +36438,16 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="V312" t="n">
-        <v>7.466666666666667</v>
+        <v>7.46</v>
       </c>
       <c r="W312" t="n">
         <v>0</v>
       </c>
       <c r="X312" t="n">
-        <v>0</v>
+        <v>7.46</v>
       </c>
       <c r="Y312" t="n">
-        <v>0</v>
+        <v>48.54</v>
       </c>
       <c r="Z312" t="n">
         <v>0</v>
@@ -36465,10 +36465,10 @@
         <v>0</v>
       </c>
       <c r="AE312" t="n">
-        <v>3.733333333333333</v>
+        <v>3.73</v>
       </c>
       <c r="AF312" t="n">
-        <v>3.733333333333333</v>
+        <v>3.73</v>
       </c>
     </row>
     <row r="313">
@@ -36508,12 +36508,12 @@
       </c>
       <c r="I313" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="J313" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="K313" t="inlineStr">
@@ -36554,16 +36554,16 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="V313" t="n">
-        <v>7.466666666666667</v>
+        <v>7.46</v>
       </c>
       <c r="W313" t="n">
         <v>0</v>
       </c>
       <c r="X313" t="n">
-        <v>0</v>
+        <v>7.46</v>
       </c>
       <c r="Y313" t="n">
-        <v>0</v>
+        <v>48.54</v>
       </c>
       <c r="Z313" t="n">
         <v>0</v>
@@ -36581,10 +36581,10 @@
         <v>0</v>
       </c>
       <c r="AE313" t="n">
-        <v>3.733333333333333</v>
+        <v>3.73</v>
       </c>
       <c r="AF313" t="n">
-        <v>3.733333333333333</v>
+        <v>3.73</v>
       </c>
     </row>
     <row r="314">
@@ -36624,12 +36624,12 @@
       </c>
       <c r="I314" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="J314" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="K314" t="inlineStr">
@@ -36676,10 +36676,10 @@
         <v>0</v>
       </c>
       <c r="X314" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="Y314" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="Z314" t="n">
         <v>0</v>
@@ -36740,12 +36740,12 @@
       </c>
       <c r="I315" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="J315" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="K315" t="inlineStr">
@@ -36792,10 +36792,10 @@
         <v>0</v>
       </c>
       <c r="X315" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="Y315" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="Z315" t="n">
         <v>0</v>
@@ -36856,12 +36856,12 @@
       </c>
       <c r="I316" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="J316" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="K316" t="inlineStr">
@@ -36908,10 +36908,10 @@
         <v>0</v>
       </c>
       <c r="X316" t="n">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="Y316" t="n">
-        <v>0</v>
+        <v>5.2</v>
       </c>
       <c r="Z316" t="n">
         <v>0</v>
@@ -36972,12 +36972,12 @@
       </c>
       <c r="I317" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="J317" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="K317" t="inlineStr">
@@ -37024,10 +37024,10 @@
         <v>0</v>
       </c>
       <c r="X317" t="n">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="Y317" t="n">
-        <v>0</v>
+        <v>5.2</v>
       </c>
       <c r="Z317" t="n">
         <v>0</v>
@@ -37088,12 +37088,12 @@
       </c>
       <c r="I318" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="J318" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="K318" t="inlineStr">
@@ -37140,10 +37140,10 @@
         <v>0</v>
       </c>
       <c r="X318" t="n">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="Y318" t="n">
-        <v>0</v>
+        <v>5.2</v>
       </c>
       <c r="Z318" t="n">
         <v>0</v>
@@ -37204,12 +37204,12 @@
       </c>
       <c r="I319" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="J319" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="K319" t="inlineStr">
@@ -37250,16 +37250,16 @@
         <v>0.2</v>
       </c>
       <c r="V319" t="n">
-        <v>3.600000000000001</v>
+        <v>3.6</v>
       </c>
       <c r="W319" t="n">
         <v>0</v>
       </c>
       <c r="X319" t="n">
-        <v>0</v>
+        <v>3.6</v>
       </c>
       <c r="Y319" t="n">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="Z319" t="n">
         <v>0</v>
@@ -37320,12 +37320,12 @@
       </c>
       <c r="I320" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="J320" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="K320" t="inlineStr">
@@ -37366,16 +37366,16 @@
         <v>0.2</v>
       </c>
       <c r="V320" t="n">
-        <v>3.600000000000001</v>
+        <v>3.6</v>
       </c>
       <c r="W320" t="n">
         <v>0</v>
       </c>
       <c r="X320" t="n">
-        <v>0</v>
+        <v>3.6</v>
       </c>
       <c r="Y320" t="n">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="Z320" t="n">
         <v>0</v>
@@ -37436,12 +37436,12 @@
       </c>
       <c r="I321" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="J321" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="K321" t="inlineStr">
@@ -37482,16 +37482,16 @@
         <v>0.2</v>
       </c>
       <c r="V321" t="n">
-        <v>4.800000000000001</v>
+        <v>4.8</v>
       </c>
       <c r="W321" t="n">
         <v>0</v>
       </c>
       <c r="X321" t="n">
-        <v>0</v>
+        <v>4.8</v>
       </c>
       <c r="Y321" t="n">
-        <v>0</v>
+        <v>7.2</v>
       </c>
       <c r="Z321" t="n">
         <v>0</v>
@@ -37552,12 +37552,12 @@
       </c>
       <c r="I322" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="J322" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="K322" t="inlineStr">
@@ -37598,16 +37598,16 @@
         <v>0.2</v>
       </c>
       <c r="V322" t="n">
-        <v>4.800000000000001</v>
+        <v>4.8</v>
       </c>
       <c r="W322" t="n">
         <v>0</v>
       </c>
       <c r="X322" t="n">
-        <v>0</v>
+        <v>4.8</v>
       </c>
       <c r="Y322" t="n">
-        <v>0</v>
+        <v>7.2</v>
       </c>
       <c r="Z322" t="n">
         <v>0</v>
@@ -37668,12 +37668,12 @@
       </c>
       <c r="I323" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="J323" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="K323" t="inlineStr">
@@ -37714,16 +37714,16 @@
         <v>0.2</v>
       </c>
       <c r="V323" t="n">
-        <v>4.800000000000001</v>
+        <v>4.8</v>
       </c>
       <c r="W323" t="n">
         <v>0</v>
       </c>
       <c r="X323" t="n">
-        <v>0</v>
+        <v>4.8</v>
       </c>
       <c r="Y323" t="n">
-        <v>0</v>
+        <v>7.2</v>
       </c>
       <c r="Z323" t="n">
         <v>0</v>
@@ -37784,12 +37784,12 @@
       </c>
       <c r="I324" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="J324" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="K324" t="inlineStr">
@@ -37830,16 +37830,16 @@
         <v>0.2</v>
       </c>
       <c r="V324" t="n">
-        <v>4.800000000000001</v>
+        <v>4.8</v>
       </c>
       <c r="W324" t="n">
         <v>0</v>
       </c>
       <c r="X324" t="n">
-        <v>0</v>
+        <v>4.8</v>
       </c>
       <c r="Y324" t="n">
-        <v>0</v>
+        <v>7.2</v>
       </c>
       <c r="Z324" t="n">
         <v>0</v>
@@ -37900,12 +37900,12 @@
       </c>
       <c r="I325" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="J325" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="K325" t="inlineStr">
@@ -37946,16 +37946,16 @@
         <v>0.2</v>
       </c>
       <c r="V325" t="n">
-        <v>4.800000000000001</v>
+        <v>4.8</v>
       </c>
       <c r="W325" t="n">
         <v>0</v>
       </c>
       <c r="X325" t="n">
-        <v>0</v>
+        <v>4.8</v>
       </c>
       <c r="Y325" t="n">
-        <v>0</v>
+        <v>7.2</v>
       </c>
       <c r="Z325" t="n">
         <v>0</v>
@@ -38016,12 +38016,12 @@
       </c>
       <c r="I326" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="J326" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="K326" t="inlineStr">
@@ -38062,16 +38062,16 @@
         <v>0.2</v>
       </c>
       <c r="V326" t="n">
-        <v>4.800000000000001</v>
+        <v>4.8</v>
       </c>
       <c r="W326" t="n">
         <v>0</v>
       </c>
       <c r="X326" t="n">
-        <v>0</v>
+        <v>4.8</v>
       </c>
       <c r="Y326" t="n">
-        <v>0</v>
+        <v>7.2</v>
       </c>
       <c r="Z326" t="n">
         <v>0</v>
@@ -38132,12 +38132,12 @@
       </c>
       <c r="I327" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="J327" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="K327" t="inlineStr">
@@ -38178,16 +38178,16 @@
         <v>0.2</v>
       </c>
       <c r="V327" t="n">
-        <v>4.800000000000001</v>
+        <v>4.8</v>
       </c>
       <c r="W327" t="n">
         <v>0</v>
       </c>
       <c r="X327" t="n">
-        <v>0</v>
+        <v>4.8</v>
       </c>
       <c r="Y327" t="n">
-        <v>0</v>
+        <v>7.2</v>
       </c>
       <c r="Z327" t="n">
         <v>0</v>
@@ -38248,12 +38248,12 @@
       </c>
       <c r="I328" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="J328" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="K328" t="inlineStr">
@@ -38294,16 +38294,16 @@
         <v>0.2</v>
       </c>
       <c r="V328" t="n">
-        <v>4.800000000000001</v>
+        <v>4.8</v>
       </c>
       <c r="W328" t="n">
         <v>0</v>
       </c>
       <c r="X328" t="n">
-        <v>0</v>
+        <v>4.8</v>
       </c>
       <c r="Y328" t="n">
-        <v>0</v>
+        <v>7.2</v>
       </c>
       <c r="Z328" t="n">
         <v>0</v>
@@ -38364,12 +38364,12 @@
       </c>
       <c r="I329" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="J329" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="K329" t="inlineStr">
@@ -38410,16 +38410,16 @@
         <v>0.2</v>
       </c>
       <c r="V329" t="n">
-        <v>4.800000000000001</v>
+        <v>4.8</v>
       </c>
       <c r="W329" t="n">
         <v>0</v>
       </c>
       <c r="X329" t="n">
-        <v>0</v>
+        <v>4.8</v>
       </c>
       <c r="Y329" t="n">
-        <v>0</v>
+        <v>7.2</v>
       </c>
       <c r="Z329" t="n">
         <v>0</v>
@@ -38480,12 +38480,12 @@
       </c>
       <c r="I330" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="J330" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="K330" t="inlineStr">
@@ -38526,16 +38526,16 @@
         <v>0.2</v>
       </c>
       <c r="V330" t="n">
-        <v>4.800000000000001</v>
+        <v>4.8</v>
       </c>
       <c r="W330" t="n">
         <v>0</v>
       </c>
       <c r="X330" t="n">
-        <v>0</v>
+        <v>4.8</v>
       </c>
       <c r="Y330" t="n">
-        <v>0</v>
+        <v>7.2</v>
       </c>
       <c r="Z330" t="n">
         <v>0</v>
@@ -38596,12 +38596,12 @@
       </c>
       <c r="I331" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="J331" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="K331" t="inlineStr">
@@ -38642,16 +38642,16 @@
         <v>0.2</v>
       </c>
       <c r="V331" t="n">
-        <v>4.800000000000001</v>
+        <v>4.8</v>
       </c>
       <c r="W331" t="n">
         <v>0</v>
       </c>
       <c r="X331" t="n">
-        <v>0</v>
+        <v>4.8</v>
       </c>
       <c r="Y331" t="n">
-        <v>0</v>
+        <v>7.2</v>
       </c>
       <c r="Z331" t="n">
         <v>0</v>
@@ -38712,12 +38712,12 @@
       </c>
       <c r="I332" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="J332" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="K332" t="inlineStr">
@@ -38758,16 +38758,16 @@
         <v>0.2</v>
       </c>
       <c r="V332" t="n">
-        <v>4.800000000000001</v>
+        <v>4.8</v>
       </c>
       <c r="W332" t="n">
         <v>0</v>
       </c>
       <c r="X332" t="n">
-        <v>0</v>
+        <v>4.8</v>
       </c>
       <c r="Y332" t="n">
-        <v>0</v>
+        <v>7.2</v>
       </c>
       <c r="Z332" t="n">
         <v>0</v>
@@ -38828,12 +38828,12 @@
       </c>
       <c r="I333" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="J333" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="K333" t="inlineStr">
@@ -38880,10 +38880,10 @@
         <v>0</v>
       </c>
       <c r="X333" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="Y333" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="Z333" t="n">
         <v>0</v>
@@ -38944,12 +38944,12 @@
       </c>
       <c r="I334" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="J334" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="K334" t="inlineStr">
@@ -38990,16 +38990,16 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="V334" t="n">
-        <v>11.42857142857143</v>
+        <v>11.44</v>
       </c>
       <c r="W334" t="n">
         <v>0</v>
       </c>
       <c r="X334" t="n">
-        <v>0</v>
+        <v>11.44</v>
       </c>
       <c r="Y334" t="n">
-        <v>0</v>
+        <v>8.56</v>
       </c>
       <c r="Z334" t="n">
         <v>0</v>
@@ -39011,16 +39011,16 @@
         <v>0</v>
       </c>
       <c r="AC334" t="n">
-        <v>2.857142857142857</v>
+        <v>2.86</v>
       </c>
       <c r="AD334" t="n">
-        <v>2.857142857142857</v>
+        <v>2.86</v>
       </c>
       <c r="AE334" t="n">
-        <v>2.857142857142857</v>
+        <v>2.86</v>
       </c>
       <c r="AF334" t="n">
-        <v>2.857142857142857</v>
+        <v>2.86</v>
       </c>
     </row>
   </sheetData>

--- a/afar_project/csv_path/excel_files/depreciation.xlsx
+++ b/afar_project/csv_path/excel_files/depreciation.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AF333"/>
+  <dimension ref="A1:AF332"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -35878,7 +35878,7 @@
       </c>
       <c r="C301" t="inlineStr">
         <is>
-          <t>04/04/2024</t>
+          <t>2024-04-04 00:00:00</t>
         </is>
       </c>
       <c r="D301" t="n">
@@ -35996,7 +35996,7 @@
       </c>
       <c r="C302" t="inlineStr">
         <is>
-          <t>04/04/2024</t>
+          <t>2024-04-04 00:00:00</t>
         </is>
       </c>
       <c r="D302" t="n">
@@ -36114,7 +36114,7 @@
       </c>
       <c r="C303" t="inlineStr">
         <is>
-          <t>04/03/2024</t>
+          <t>2024-04-03 00:00:00</t>
         </is>
       </c>
       <c r="D303" t="n">
@@ -36232,7 +36232,7 @@
       </c>
       <c r="C304" t="inlineStr">
         <is>
-          <t>04/03/2024</t>
+          <t>2024-04-03 00:00:00</t>
         </is>
       </c>
       <c r="D304" t="n">
@@ -36350,7 +36350,7 @@
       </c>
       <c r="C305" t="inlineStr">
         <is>
-          <t>04/03/2024</t>
+          <t>2024-04-03 00:00:00</t>
         </is>
       </c>
       <c r="D305" t="n">
@@ -36468,7 +36468,7 @@
       </c>
       <c r="C306" t="inlineStr">
         <is>
-          <t>04/03/2024</t>
+          <t>2024-04-03 00:00:00</t>
         </is>
       </c>
       <c r="D306" t="n">
@@ -36586,7 +36586,7 @@
       </c>
       <c r="C307" t="inlineStr">
         <is>
-          <t>06/03/2022</t>
+          <t>2022-06-03 00:00:00</t>
         </is>
       </c>
       <c r="D307" t="n">
@@ -36704,7 +36704,7 @@
       </c>
       <c r="C308" t="inlineStr">
         <is>
-          <t>06/03/2022</t>
+          <t>2022-06-03 00:00:00</t>
         </is>
       </c>
       <c r="D308" t="n">
@@ -36822,7 +36822,7 @@
       </c>
       <c r="C309" t="inlineStr">
         <is>
-          <t>02/05/2020</t>
+          <t>2020-02-05 00:00:00</t>
         </is>
       </c>
       <c r="D309" t="n">
@@ -36940,7 +36940,7 @@
       </c>
       <c r="C310" t="inlineStr">
         <is>
-          <t>02/05/2020</t>
+          <t>2020-02-05 00:00:00</t>
         </is>
       </c>
       <c r="D310" t="n">
@@ -37058,7 +37058,7 @@
       </c>
       <c r="C311" t="inlineStr">
         <is>
-          <t>04/12/2024</t>
+          <t>2024-04-12 00:00:00</t>
         </is>
       </c>
       <c r="D311" t="n">
@@ -37176,7 +37176,7 @@
       </c>
       <c r="C312" t="inlineStr">
         <is>
-          <t>04/12/2024</t>
+          <t>2024-04-12 00:00:00</t>
         </is>
       </c>
       <c r="D312" t="n">
@@ -37294,7 +37294,7 @@
       </c>
       <c r="C313" t="inlineStr">
         <is>
-          <t>04/09/2024</t>
+          <t>2024-04-09 00:00:00</t>
         </is>
       </c>
       <c r="D313" t="n">
@@ -37412,7 +37412,7 @@
       </c>
       <c r="C314" t="inlineStr">
         <is>
-          <t>04/09/2024</t>
+          <t>2024-04-09 00:00:00</t>
         </is>
       </c>
       <c r="D314" t="n">
@@ -37530,7 +37530,7 @@
       </c>
       <c r="C315" t="inlineStr">
         <is>
-          <t>04/02/2024</t>
+          <t>2024-04-02 00:00:00</t>
         </is>
       </c>
       <c r="D315" t="n">
@@ -37648,7 +37648,7 @@
       </c>
       <c r="C316" t="inlineStr">
         <is>
-          <t>04/02/2024</t>
+          <t>2024-04-02 00:00:00</t>
         </is>
       </c>
       <c r="D316" t="n">
@@ -37766,7 +37766,7 @@
       </c>
       <c r="C317" t="inlineStr">
         <is>
-          <t>04/02/2024</t>
+          <t>2024-04-02 00:00:00</t>
         </is>
       </c>
       <c r="D317" t="n">
@@ -37884,7 +37884,7 @@
       </c>
       <c r="C318" t="inlineStr">
         <is>
-          <t>06/02/2023</t>
+          <t>2023-06-02 00:00:00</t>
         </is>
       </c>
       <c r="D318" t="n">
@@ -38002,7 +38002,7 @@
       </c>
       <c r="C319" t="inlineStr">
         <is>
-          <t>06/02/2023</t>
+          <t>2023-06-02 00:00:00</t>
         </is>
       </c>
       <c r="D319" t="n">
@@ -38120,7 +38120,7 @@
       </c>
       <c r="C320" t="inlineStr">
         <is>
-          <t>04/15/2024</t>
+          <t>2024-04-15 00:00:00</t>
         </is>
       </c>
       <c r="D320" t="n">
@@ -38238,7 +38238,7 @@
       </c>
       <c r="C321" t="inlineStr">
         <is>
-          <t>04/15/2024</t>
+          <t>2024-04-15 00:00:00</t>
         </is>
       </c>
       <c r="D321" t="n">
@@ -38356,7 +38356,7 @@
       </c>
       <c r="C322" t="inlineStr">
         <is>
-          <t>04/15/2024</t>
+          <t>2024-04-15 00:00:00</t>
         </is>
       </c>
       <c r="D322" t="n">
@@ -38474,7 +38474,7 @@
       </c>
       <c r="C323" t="inlineStr">
         <is>
-          <t>04/15/2024</t>
+          <t>2024-04-15 00:00:00</t>
         </is>
       </c>
       <c r="D323" t="n">
@@ -38592,7 +38592,7 @@
       </c>
       <c r="C324" t="inlineStr">
         <is>
-          <t>04/15/2024</t>
+          <t>2024-04-15 00:00:00</t>
         </is>
       </c>
       <c r="D324" t="n">
@@ -38710,7 +38710,7 @@
       </c>
       <c r="C325" t="inlineStr">
         <is>
-          <t>04/15/2024</t>
+          <t>2024-04-15 00:00:00</t>
         </is>
       </c>
       <c r="D325" t="n">
@@ -38828,7 +38828,7 @@
       </c>
       <c r="C326" t="inlineStr">
         <is>
-          <t>04/15/2024</t>
+          <t>2024-04-15 00:00:00</t>
         </is>
       </c>
       <c r="D326" t="n">
@@ -38946,7 +38946,7 @@
       </c>
       <c r="C327" t="inlineStr">
         <is>
-          <t>04/15/2024</t>
+          <t>2024-04-15 00:00:00</t>
         </is>
       </c>
       <c r="D327" t="n">
@@ -39064,7 +39064,7 @@
       </c>
       <c r="C328" t="inlineStr">
         <is>
-          <t>04/15/2024</t>
+          <t>2024-04-15 00:00:00</t>
         </is>
       </c>
       <c r="D328" t="n">
@@ -39182,7 +39182,7 @@
       </c>
       <c r="C329" t="inlineStr">
         <is>
-          <t>04/15/2024</t>
+          <t>2024-04-15 00:00:00</t>
         </is>
       </c>
       <c r="D329" t="n">
@@ -39300,7 +39300,7 @@
       </c>
       <c r="C330" t="inlineStr">
         <is>
-          <t>04/15/2024</t>
+          <t>2024-04-15 00:00:00</t>
         </is>
       </c>
       <c r="D330" t="n">
@@ -39418,7 +39418,7 @@
       </c>
       <c r="C331" t="inlineStr">
         <is>
-          <t>04/15/2024</t>
+          <t>2024-04-15 00:00:00</t>
         </is>
       </c>
       <c r="D331" t="n">
@@ -39536,7 +39536,7 @@
       </c>
       <c r="C332" t="inlineStr">
         <is>
-          <t>03/05/2021</t>
+          <t>2021-03-05 00:00:00</t>
         </is>
       </c>
       <c r="D332" t="n">
@@ -39639,124 +39639,6 @@
       </c>
       <c r="AF332" t="n">
         <v>8</v>
-      </c>
-    </row>
-    <row r="333">
-      <c r="A333" t="inlineStr">
-        <is>
-          <t>2021-2022</t>
-        </is>
-      </c>
-      <c r="B333" t="inlineStr">
-        <is>
-          <t>FRC-HQ-SLM-O-21-0001</t>
-        </is>
-      </c>
-      <c r="C333" t="inlineStr">
-        <is>
-          <t>02/03/2022</t>
-        </is>
-      </c>
-      <c r="D333" t="n">
-        <v>1</v>
-      </c>
-      <c r="E333" t="n">
-        <v>1</v>
-      </c>
-      <c r="F333" t="n">
-        <v>4112310</v>
-      </c>
-      <c r="G333" t="inlineStr">
-        <is>
-          <t>Office equipment</t>
-        </is>
-      </c>
-      <c r="H333" t="inlineStr">
-        <is>
-          <t>Chair</t>
-        </is>
-      </c>
-      <c r="I333" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J333" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="K333" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="L333" t="n">
-        <v>0</v>
-      </c>
-      <c r="M333" t="n">
-        <v>20</v>
-      </c>
-      <c r="N333" t="n">
-        <v>0</v>
-      </c>
-      <c r="O333" t="n">
-        <v>7</v>
-      </c>
-      <c r="P333" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q333" t="n">
-        <v>0</v>
-      </c>
-      <c r="R333" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S333" t="n">
-        <v>0</v>
-      </c>
-      <c r="T333" t="n">
-        <v>20</v>
-      </c>
-      <c r="U333" t="n">
-        <v>0.1428571428571428</v>
-      </c>
-      <c r="V333" t="n">
-        <v>11.44</v>
-      </c>
-      <c r="W333" t="n">
-        <v>0</v>
-      </c>
-      <c r="X333" t="n">
-        <v>11.44</v>
-      </c>
-      <c r="Y333" t="n">
-        <v>8.56</v>
-      </c>
-      <c r="Z333" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA333" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB333" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC333" t="n">
-        <v>2.86</v>
-      </c>
-      <c r="AD333" t="n">
-        <v>2.86</v>
-      </c>
-      <c r="AE333" t="n">
-        <v>2.86</v>
-      </c>
-      <c r="AF333" t="n">
-        <v>2.86</v>
       </c>
     </row>
   </sheetData>
